--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="840" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="14200" yWindow="2320" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="template" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Key</t>
   </si>
@@ -31,47 +32,47 @@
     <t>sv</t>
   </si>
   <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>Foo</t>
-  </si>
-  <si>
-    <t>Føø</t>
-  </si>
-  <si>
     <t>bar</t>
   </si>
   <si>
     <t>Bar</t>
   </si>
   <si>
-    <t>Bår</t>
-  </si>
-  <si>
-    <t>Katso</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>Titta</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>Aja</t>
-  </si>
-  <si>
-    <t>Gör</t>
+    <t>bozo</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Bor</t>
+  </si>
+  <si>
+    <t>applications.applications</t>
+  </si>
+  <si>
+    <t>Hakemukset</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>applications.inforequests</t>
+  </si>
+  <si>
+    <t>Neuvontapyynnöt</t>
+  </si>
+  <si>
+    <t>Informashoon shit what</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +87,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,20 +149,142 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -466,75 +611,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="64" style="3" customWidth="1"/>
     <col min="2" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -545,19 +693,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="64" style="3" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="64" style="3" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="2320" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12840" yWindow="2320" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Bo</t>
   </si>
   <si>
-    <t>Ba</t>
-  </si>
-  <si>
     <t>Bor</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Informashoon shit what</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -636,13 +636,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -723,18 +723,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1939">
   <si>
     <t>fi</t>
   </si>
@@ -5832,6 +5832,12 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>personSelector.invite</t>
+  </si>
+  <si>
+    <t>kutsu</t>
   </si>
 </sst>
 </file>
@@ -6012,81 +6018,81 @@
     </xf>
   </cellXfs>
   <cellStyles count="75">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -6658,8 +6664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A28" sqref="A11:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9736,10 +9742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C987"/>
+  <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A971" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B988" sqref="B988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18008,6 +18014,14 @@
         <v>179</v>
       </c>
       <c r="C987" s="5"/>
+    </row>
+    <row r="988" spans="1:3">
+      <c r="A988" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>1938</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1940">
   <si>
     <t>fi</t>
   </si>
@@ -5838,6 +5838,9 @@
   </si>
   <si>
     <t>kutsu</t>
+  </si>
+  <si>
+    <t>userinfo.role</t>
   </si>
 </sst>
 </file>
@@ -5998,7 +6001,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -6016,6 +6019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
@@ -6094,7 +6098,17 @@
     <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6662,16 +6676,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C371"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A28" sqref="A11:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="100.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="50.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -6681,7 +6696,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6708,7 +6723,7 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -6727,7 +6742,7 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>1919</v>
       </c>
     </row>
@@ -7114,7 +7129,7 @@
       <c r="B54" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7125,7 +7140,7 @@
       <c r="B55" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7160,7 +7175,7 @@
       <c r="B59" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" t="s">
         <v>1920</v>
       </c>
     </row>
@@ -7187,7 +7202,7 @@
       <c r="B62" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -7198,7 +7213,7 @@
       <c r="B63" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" t="s">
         <v>1928</v>
       </c>
     </row>
@@ -7241,7 +7256,7 @@
       <c r="B68" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" t="s">
         <v>1929</v>
       </c>
     </row>
@@ -7252,7 +7267,7 @@
       <c r="B69" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" t="s">
         <v>1930</v>
       </c>
     </row>
@@ -7263,7 +7278,7 @@
       <c r="B70" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" t="s">
         <v>1931</v>
       </c>
     </row>
@@ -7458,7 +7473,7 @@
       <c r="B94" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7469,7 +7484,7 @@
       <c r="B95" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" t="s">
         <v>1921</v>
       </c>
     </row>
@@ -8080,7 +8095,7 @@
       <c r="B171" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8243,7 +8258,7 @@
       <c r="B191" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8558,7 +8573,7 @@
       <c r="B230" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" t="s">
         <v>597</v>
       </c>
     </row>
@@ -8585,7 +8600,7 @@
       <c r="B233" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" t="s">
         <v>602</v>
       </c>
     </row>
@@ -8612,7 +8627,7 @@
       <c r="B236" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" t="s">
         <v>650</v>
       </c>
     </row>
@@ -8775,7 +8790,7 @@
       <c r="B256" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C256" t="s">
         <v>680</v>
       </c>
     </row>
@@ -8794,7 +8809,7 @@
       <c r="B258" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C258" t="s">
         <v>1922</v>
       </c>
     </row>
@@ -8936,798 +8951,806 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>1432</v>
+        <v>1939</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>1923</v>
+        <v>177</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1434</v>
+        <v>658</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>1917</v>
+        <v>1437</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>419</v>
+        <v>1469</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>1505</v>
+        <v>1470</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1506</v>
+        <v>419</v>
+      </c>
+      <c r="C297" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1436</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>1924</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>1781</v>
+        <v>1508</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>37</v>
+        <v>1509</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1783</v>
+        <v>37</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>562</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1814</v>
+        <v>562</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>45</v>
+        <v>1904</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1904</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1702</v>
+        <v>45</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>1928</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1909</v>
+        <v>205</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B369" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C369" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="1" t="s">
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B370" s="5" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="1" t="s">
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B371" s="5" t="s">
         <v>1934</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="A1355:A1048576 A2:A368">
-    <cfRule type="expression" dxfId="23" priority="9">
+  <conditionalFormatting sqref="A2:A369 A1356:A1048576">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
-      <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
+    <cfRule type="containsBlanks" dxfId="22" priority="1">
+      <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9744,7 +9767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A971" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B988" sqref="B988"/>
     </sheetView>
   </sheetViews>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -5834,13 +5834,13 @@
     <t>application.pdf</t>
   </si>
   <si>
-    <t>fucking asuinrakennus</t>
-  </si>
-  <si>
     <t>uusiRakennus.lammitys.lammonlahde.kiviihiili koksi tms</t>
   </si>
   <si>
     <t>application.applicant</t>
+  </si>
+  <si>
+    <t>asuinrakennus</t>
   </si>
 </sst>
 </file>
@@ -6667,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A373" sqref="A373"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7913,7 +7913,7 @@
         <v>376</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -9734,7 +9734,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>37</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B988" s="2" t="s">
         <v>686</v>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="51260" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -6667,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6698,3050 +6698,3052 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>485</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1917</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1918</v>
+        <v>1506</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>510</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>502</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>1938</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>520</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>547</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>559</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>555</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>517</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>554</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>506</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>552</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1911</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>533</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>528</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>504</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>512</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>5</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>493</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>515</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>545</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>557</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>245</v>
+        <v>596</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>247</v>
+        <v>418</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>248</v>
+        <v>600</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>249</v>
+        <v>601</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>251</v>
+        <v>267</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>252</v>
+        <v>1890</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>253</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>254</v>
+        <v>1896</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>255</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>256</v>
+        <v>1900</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>257</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>1898</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>259</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>260</v>
+        <v>1894</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>261</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>262</v>
+        <v>1892</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>263</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>264</v>
+        <v>1780</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>266</v>
+        <v>1783</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>267</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>268</v>
+        <v>1781</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>1920</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>270</v>
+        <v>1785</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>271</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>272</v>
+        <v>1866</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>273</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>274</v>
+        <v>1862</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>275</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>276</v>
+        <v>1884</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>277</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>278</v>
+        <v>1846</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>279</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>280</v>
+        <v>1880</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>281</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>282</v>
+        <v>1874</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>283</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>284</v>
+        <v>1850</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>285</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>286</v>
+        <v>1838</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>287</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>288</v>
+        <v>1864</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>289</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>290</v>
+        <v>1848</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>291</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>292</v>
+        <v>1830</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>293</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>294</v>
+        <v>1872</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>295</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>296</v>
+        <v>1828</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>177</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>297</v>
+        <v>1854</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>298</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>299</v>
+        <v>1882</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>300</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>301</v>
+        <v>1826</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>302</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>303</v>
+        <v>1870</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>304</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>305</v>
+        <v>1886</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>306</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>307</v>
+        <v>1878</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>308</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>309</v>
+        <v>1858</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>117</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>310</v>
+        <v>1860</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>311</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>312</v>
+        <v>1840</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>313</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>314</v>
+        <v>1844</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>315</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>316</v>
+        <v>1868</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>317</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>318</v>
+        <v>1824</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>319</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>320</v>
+        <v>1834</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>321</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>322</v>
+        <v>1836</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>323</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>324</v>
+        <v>1876</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>325</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>326</v>
+        <v>1888</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>327</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>328</v>
+        <v>1832</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>329</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>330</v>
+        <v>1842</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>331</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>332</v>
+        <v>1852</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>333</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>334</v>
+        <v>1856</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>335</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>336</v>
+        <v>1787</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>337</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>338</v>
+        <v>1795</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>339</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>340</v>
+        <v>1789</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>341</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>342</v>
+        <v>1793</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>343</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>344</v>
+        <v>1791</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>345</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>346</v>
+        <v>1797</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>347</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>348</v>
+        <v>1807</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>349</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>350</v>
+        <v>1799</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>351</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>352</v>
+        <v>1809</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>353</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>354</v>
+        <v>1801</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>355</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>356</v>
+        <v>1803</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>357</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>358</v>
+        <v>1805</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>359</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>360</v>
+        <v>1811</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>361</v>
+        <v>561</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>362</v>
+        <v>1818</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>363</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>364</v>
+        <v>1822</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>365</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>366</v>
+        <v>1816</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>367</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>368</v>
+        <v>1820</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>369</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>370</v>
+        <v>1812</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>371</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>372</v>
+        <v>1814</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>373</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1939</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>391</v>
+        <v>309</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>395</v>
+        <v>284</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>396</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>402</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>404</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>405</v>
+        <v>274</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>408</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>410</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>412</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>413</v>
+        <v>180</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>418</v>
+        <v>205</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>418</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>454</v>
+        <v>597</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>455</v>
+        <v>598</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>456</v>
+        <v>34</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>457</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>458</v>
+        <v>1431</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>459</v>
+        <v>657</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>460</v>
+        <v>1407</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>461</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>462</v>
+        <v>1128</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>463</v>
+        <v>1129</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>1921</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>464</v>
+        <v>1909</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>465</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>466</v>
+        <v>1409</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>467</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>468</v>
+        <v>202</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>469</v>
+        <v>203</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>472</v>
+        <v>659</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>474</v>
+        <v>658</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>476</v>
+        <v>664</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>477</v>
+        <v>665</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>478</v>
+        <v>661</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>479</v>
+        <v>663</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>481</v>
+        <v>670</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>482</v>
+        <v>671</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>483</v>
+        <v>662</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>485</v>
+        <v>660</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>487</v>
+        <v>666</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>488</v>
+        <v>667</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>489</v>
+        <v>668</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>490</v>
+        <v>669</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>493</v>
+        <v>216</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>490</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>551</v>
+        <v>1467</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>484</v>
+        <v>1468</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>552</v>
+        <v>678</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>553</v>
+        <v>679</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>554</v>
+        <v>1924</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>61</v>
+        <v>1925</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>555</v>
+        <v>1902</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>556</v>
+        <v>1903</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>558</v>
+        <v>16</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>559</v>
+        <v>1434</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>90</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>595</v>
+        <v>8</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>596</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>597</v>
+        <v>95</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>598</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>599</v>
+        <v>220</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>601</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>644</v>
+        <v>30</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>645</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>646</v>
+        <v>22</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>647</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>648</v>
+        <v>26</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>649</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>650</v>
+        <v>18</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>651</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>652</v>
+        <v>28</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>653</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>654</v>
+        <v>24</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>651</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>655</v>
+        <v>599</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>656</v>
+        <v>190</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>657</v>
+        <v>191</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>658</v>
+        <v>192</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>469</v>
+        <v>193</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>659</v>
+        <v>268</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>480</v>
+        <v>269</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>660</v>
+        <v>1455</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>463</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>661</v>
+        <v>1457</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>662</v>
+        <v>1459</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>475</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>663</v>
+        <v>1461</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>477</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>664</v>
+        <v>1463</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>665</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>666</v>
+        <v>1465</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>667</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>668</v>
+        <v>1441</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>669</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>671</v>
+        <v>1438</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>672</v>
+        <v>1439</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>457</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>673</v>
+        <v>1443</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>674</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>675</v>
+        <v>1449</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>676</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>677</v>
+        <v>1453</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>495</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>678</v>
+        <v>1451</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>1126</v>
+        <v>1447</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>1128</v>
+        <v>1445</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>1403</v>
+        <v>1436</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>1405</v>
+        <v>673</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>1407</v>
+        <v>468</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>1409</v>
+        <v>476</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>1411</v>
+        <v>460</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>1412</v>
+        <v>458</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>1413</v>
+        <v>470</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>1415</v>
+        <v>456</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>1416</v>
+        <v>466</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>1417</v>
+        <v>474</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>1419</v>
+        <v>464</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>1420</v>
+        <v>454</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>1422</v>
+        <v>462</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>1424</v>
+        <v>472</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1425</v>
+        <v>473</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>1427</v>
+        <v>675</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1428</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>1429</v>
+        <v>1469</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1430</v>
+        <v>418</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>1431</v>
+        <v>272</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>1922</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>1432</v>
+        <v>389</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1433</v>
+        <v>390</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>1434</v>
+        <v>391</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1435</v>
+        <v>392</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>1436</v>
+        <v>364</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1437</v>
+        <v>365</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>1916</v>
+        <v>374</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>1439</v>
+        <v>376</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1440</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>1441</v>
+        <v>318</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1442</v>
+        <v>319</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>1443</v>
+        <v>332</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1444</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>1445</v>
+        <v>379</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1446</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>1447</v>
+        <v>411</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1448</v>
+        <v>412</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>1449</v>
+        <v>370</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1450</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>1451</v>
+        <v>377</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1452</v>
+        <v>378</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>1453</v>
+        <v>407</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>1455</v>
+        <v>330</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>1457</v>
+        <v>383</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>1459</v>
+        <v>328</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>1461</v>
+        <v>340</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>1463</v>
+        <v>366</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>1465</v>
+        <v>342</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>1467</v>
+        <v>358</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>1469</v>
+        <v>334</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>1504</v>
+        <v>350</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>1506</v>
+        <v>352</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>1507</v>
+        <v>356</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>1780</v>
+        <v>395</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>1781</v>
+        <v>362</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>1783</v>
+        <v>344</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>1785</v>
+        <v>326</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>1787</v>
+        <v>372</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1788</v>
+        <v>373</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>1789</v>
+        <v>405</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1790</v>
+        <v>406</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>1791</v>
+        <v>346</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1792</v>
+        <v>347</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>1793</v>
+        <v>387</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1794</v>
+        <v>388</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>1795</v>
+        <v>354</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1796</v>
+        <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>1797</v>
+        <v>316</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1798</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>1799</v>
+        <v>393</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1800</v>
+        <v>394</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>1801</v>
+        <v>401</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1802</v>
+        <v>402</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>1803</v>
+        <v>397</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1804</v>
+        <v>398</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>1805</v>
+        <v>338</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1806</v>
+        <v>339</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>1807</v>
+        <v>385</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1808</v>
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>1809</v>
+        <v>381</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1810</v>
+        <v>382</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>1811</v>
+        <v>399</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>1812</v>
+        <v>415</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1813</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>1814</v>
+        <v>348</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1815</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>1816</v>
+        <v>403</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1817</v>
+        <v>404</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>1818</v>
+        <v>360</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1819</v>
+        <v>361</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>1820</v>
+        <v>324</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1821</v>
+        <v>325</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>1822</v>
+        <v>409</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1823</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>1824</v>
+        <v>413</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1825</v>
+        <v>414</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>1826</v>
+        <v>368</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1827</v>
+        <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>1828</v>
+        <v>320</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1829</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>1830</v>
+        <v>322</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1831</v>
+        <v>323</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>1832</v>
+        <v>336</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1833</v>
+        <v>337</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>1834</v>
+        <v>646</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1835</v>
+        <v>647</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>1836</v>
+        <v>1126</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1837</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>1838</v>
+        <v>677</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1839</v>
+        <v>495</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>1840</v>
+        <v>1904</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1841</v>
+        <v>45</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>1842</v>
+        <v>38</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1843</v>
+        <v>39</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>1844</v>
+        <v>182</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1845</v>
+        <v>183</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>1846</v>
+        <v>656</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1847</v>
+        <v>657</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>1848</v>
+        <v>652</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1849</v>
+        <v>653</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>1850</v>
+        <v>654</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>1852</v>
+        <v>655</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>1854</v>
+        <v>650</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>1856</v>
+        <v>481</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>1858</v>
+        <v>483</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>1860</v>
+        <v>479</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>1862</v>
+        <v>478</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>1864</v>
+        <v>194</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>1866</v>
+        <v>1507</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+        <v>1508</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>1868</v>
+        <v>212</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>1870</v>
+        <v>218</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>1872</v>
+        <v>312</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>1874</v>
+        <v>1405</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>1876</v>
+        <v>1432</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>1878</v>
+        <v>264</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>1880</v>
+        <v>1906</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
+        <v>205</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>1882</v>
+        <v>1907</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1883</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>1884</v>
+        <v>188</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1885</v>
+        <v>189</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>1886</v>
+        <v>186</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1887</v>
+        <v>187</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>1888</v>
+        <v>1417</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1889</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>1890</v>
+        <v>1416</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1891</v>
+        <v>123</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>1892</v>
+        <v>1429</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1893</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>1894</v>
+        <v>1426</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1895</v>
+        <v>106</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>1896</v>
+        <v>1411</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1897</v>
+        <v>110</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>1898</v>
+        <v>1424</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1899</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>1900</v>
+        <v>1422</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1901</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>1902</v>
+        <v>1413</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>1903</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>1904</v>
+        <v>1427</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>45</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>1905</v>
+        <v>1419</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1701</v>
+        <v>133</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>1906</v>
+        <v>1415</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>1927</v>
+        <v>119</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>1907</v>
+        <v>1420</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1908</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>1909</v>
+        <v>1412</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1910</v>
+        <v>121</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>1924</v>
+        <v>1905</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>1925</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>1934</v>
+        <v>184</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1931</v>
+        <v>185</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>1932</v>
+        <v>196</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1933</v>
+        <v>197</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>1919</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>1936</v>
+        <v>644</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>1938</v>
+        <v>214</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>37</v>
+        <v>215</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>1928</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sortState ref="A2:C372">
+    <sortCondition ref="A2:A372"/>
+  </sortState>
   <conditionalFormatting sqref="A1355:A1048576 A2:A368">
     <cfRule type="expression" dxfId="23" priority="9">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1940">
   <si>
     <t>fi</t>
   </si>
@@ -5835,6 +5835,12 @@
   </si>
   <si>
     <t>areyousure</t>
+  </si>
+  <si>
+    <t>areyousure.message</t>
+  </si>
+  <si>
+    <t>Oletko varma, että halua poistaa kohteen?</t>
   </si>
 </sst>
 </file>
@@ -6664,10 +6670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9726,6 +9732,14 @@
       </c>
       <c r="B372" s="5" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>1939</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="51260" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1943">
   <si>
     <t>fi</t>
   </si>
@@ -5841,6 +5841,15 @@
   </si>
   <si>
     <t>asuinrakennus</t>
+  </si>
+  <si>
+    <t>userinfo.role</t>
+  </si>
+  <si>
+    <t>personSelector.invite</t>
+  </si>
+  <si>
+    <t>kutsu</t>
   </si>
 </sst>
 </file>
@@ -6021,81 +6030,81 @@
     </xf>
   </cellXfs>
   <cellStyles count="75">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -6665,10 +6674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A350" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9738,6 +9747,14 @@
       </c>
       <c r="B372" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -9764,10 +9781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C988"/>
+  <dimension ref="A1:C989"/>
   <sheetViews>
-    <sheetView topLeftCell="A948" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B988" sqref="B988"/>
+    <sheetView tabSelected="1" topLeftCell="A979" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A989" sqref="A989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18043,6 +18060,14 @@
       </c>
       <c r="B988" s="2" t="s">
         <v>686</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c r="A989" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>1942</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36120" windowHeight="18600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36120" windowHeight="18600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1947">
   <si>
     <t>fi</t>
   </si>
@@ -5856,13 +5856,19 @@
   </si>
   <si>
     <t>userinfo.role</t>
+  </si>
+  <si>
+    <t>rakennuksen-muuttaminen.rakennusnro._group_label</t>
+  </si>
+  <si>
+    <t>Rakennus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5898,6 +5904,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
   </fonts>
@@ -5939,7 +5951,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6015,8 +6027,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -6034,8 +6048,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="77">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
@@ -6073,6 +6090,7 @@
     <cellStyle name="Avattu hyperlinkki" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
@@ -6110,6 +6128,7 @@
     <cellStyle name="Hyperlinkki" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
@@ -6687,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B376" sqref="B376"/>
+    <sheetView topLeftCell="A362" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9816,10 +9835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C988"/>
+  <dimension ref="A1:C989"/>
   <sheetViews>
-    <sheetView topLeftCell="A948" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B988" sqref="B988"/>
+    <sheetView tabSelected="1" topLeftCell="A982" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B989" sqref="B989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18097,6 +18116,14 @@
         <v>686</v>
       </c>
     </row>
+    <row r="989" spans="1:3">
+      <c r="A989" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>1946</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B988:B1048576">
@@ -18104,7 +18131,7 @@
       <formula>AND($B988 = "", $C988 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A988:A1048576">
+  <conditionalFormatting sqref="A988 A990:A1048576">
     <cfRule type="expression" dxfId="20" priority="21">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="2712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="2714">
   <si>
     <t>fi</t>
   </si>
@@ -8181,6 +8181,12 @@
   </si>
   <si>
     <t>Tässä näkymässä voit käsitellä hakemuksen tietoja. Voit kysyä tarvittaessa neuvoa rakennusvalvonnasta keskusteluketjussa. Voit jättää valmiin hakemuksen käsittelyyn painamalla 'Jätä hakemus' - nappia. Tällöin rakennusviranomainen tarkistaa hakemuksesi ja ottaa sen käsittelyyn. Tehtyään päätöksen rakennusviranomainen siirtää hakemuksen tilaan hyväksytty tai evätty. Varsinaisen päätöspöytäkirjan löydät 'Päätös'-välilehdeltä.</t>
+  </si>
+  <si>
+    <t>newRequest.chosenLocation</t>
+  </si>
+  <si>
+    <t>Valittu sijainti:</t>
   </si>
 </sst>
 </file>
@@ -8462,7 +8468,47 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9053,10 +9099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B358" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10565,1566 +10611,1584 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>472</v>
+        <v>2712</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>473</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>3</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>33</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>493</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>69</v>
+        <v>509</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>512</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>2711</v>
+        <v>512</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>53</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>516</v>
+        <v>53</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>61</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>553</v>
+        <v>61</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>89</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>593</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>5</v>
+        <v>595</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>598</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>642</v>
+        <v>598</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>182</v>
+        <v>648</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>654</v>
+        <v>182</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>467</v>
+        <v>654</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>662</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>455</v>
+        <v>668</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>671</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>493</v>
+        <v>673</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>1123</v>
+        <v>674</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1124</v>
+        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>1916</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>1400</v>
+        <v>1125</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1401</v>
+        <v>1126</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>109</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1411</v>
+        <v>120</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>118</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1415</v>
+        <v>122</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>132</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1418</v>
+        <v>132</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>105</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1425</v>
+        <v>105</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>1917</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1430</v>
+        <v>654</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>1911</v>
+        <v>1433</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B292" s="5" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="8" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="8" t="s">
         <v>1944</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B293" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C292" s="5" t="s">
+      <c r="C293" s="5" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1432</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>1918</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>1775</v>
+        <v>1502</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>37</v>
+        <v>1503</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1777</v>
+        <v>37</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>558</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1808</v>
+        <v>558</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>45</v>
+        <v>1898</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1696</v>
+        <v>45</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>1922</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1903</v>
+        <v>204</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1926</v>
+        <v>1920</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>646</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>37</v>
+        <v>646</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>648</v>
+        <v>37</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1937</v>
+        <v>648</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>522</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B373" s="5" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A364 A1350:A1048576">
-    <cfRule type="expression" dxfId="24" priority="9">
+  <conditionalFormatting sqref="A2:A181 A1351:A1048576 A183:A365">
+    <cfRule type="expression" dxfId="28" priority="11">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="23" priority="1">
+  <conditionalFormatting sqref="C1:C181 C183:C1048576">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND( $A182 = "", OR( $B182 &lt;&gt; "", $C182 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($B182 &lt;&gt; "", $C182 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20431,97 +20495,97 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B988:B1048576">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>AND($B988 = "", $C988 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A988 A990:A1048576">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B53">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A53">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B93">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND($B54 = "", $C54 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A93">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>AND( $A54 = "", OR( $B54 &lt;&gt; "", $C54 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B363">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>AND($B94 = "", $C94 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A363">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>AND( $A94 = "", OR( $B94 &lt;&gt; "", $C94 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364:B634">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>AND($B364 = "", $C364 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A634">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND( $A364 = "", OR( $B364 &lt;&gt; "", $C364 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B635:B667">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>AND($B635 = "", $C635 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635:A667">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>AND( $A635 = "", OR( $B635 &lt;&gt; "", $C635 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B668:B937">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>AND($B668 = "", $C668 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A668:A937">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>AND( $A668 = "", OR( $B668 &lt;&gt; "", $C668 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B938:B987">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AND($B938 = "", $C938 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A938:A987">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND( $A938 = "", OR( $B938 &lt;&gt; "", $C938 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20572,17 +20636,17 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26743,7 +26807,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="2714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="2716">
   <si>
     <t>fi</t>
   </si>
@@ -8187,6 +8187,12 @@
   </si>
   <si>
     <t>application.tabInfo</t>
+  </si>
+  <si>
+    <t>Hakemuksen rooli</t>
+  </si>
+  <si>
+    <t>personSelector._group_label</t>
   </si>
 </sst>
 </file>
@@ -8285,8 +8291,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8389,7 +8401,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="83">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
@@ -8428,6 +8440,9 @@
     <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
@@ -8466,9 +8481,42 @@
     <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8750,11 +8798,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9081,7 +9129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+    <sheetView topLeftCell="A162" workbookViewId="0">
       <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
@@ -9091,7 +9139,7 @@
     <col min="2" max="3" width="50.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1929</v>
       </c>
@@ -12152,22 +12200,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A181 A1351:A1048576 A183:A365">
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C181 C183:C1048576">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND( $A182 = "", OR( $B182 &lt;&gt; "", $C182 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND($B182 &lt;&gt; "", $C182 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12183,9 +12231,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C989"/>
+  <dimension ref="A1:C990"/>
   <sheetViews>
-    <sheetView topLeftCell="A964" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A978" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A990" sqref="A990"/>
     </sheetView>
   </sheetViews>
@@ -12195,7 +12243,7 @@
     <col min="2" max="3" width="50.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1929</v>
       </c>
@@ -12958,7 +13006,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>679</v>
       </c>
@@ -12990,7 +13038,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>686</v>
       </c>
@@ -12998,7 +13046,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>688</v>
       </c>
@@ -13006,7 +13054,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>690</v>
       </c>
@@ -13030,7 +13078,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>696</v>
       </c>
@@ -13054,7 +13102,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>702</v>
       </c>
@@ -13070,7 +13118,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>706</v>
       </c>
@@ -13502,7 +13550,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>780</v>
       </c>
@@ -13582,7 +13630,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>800</v>
       </c>
@@ -13590,7 +13638,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15">
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>802</v>
       </c>
@@ -13614,7 +13662,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>808</v>
       </c>
@@ -13646,7 +13694,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15">
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>816</v>
       </c>
@@ -13798,7 +13846,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>854</v>
       </c>
@@ -13854,7 +13902,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>868</v>
       </c>
@@ -13894,7 +13942,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>878</v>
       </c>
@@ -13902,7 +13950,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>880</v>
       </c>
@@ -13982,7 +14030,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>900</v>
       </c>
@@ -14006,7 +14054,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>906</v>
       </c>
@@ -14030,7 +14078,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>912</v>
       </c>
@@ -14078,7 +14126,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>924</v>
       </c>
@@ -14102,7 +14150,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>930</v>
       </c>
@@ -14446,7 +14494,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15">
+    <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
         <v>998</v>
       </c>
@@ -14454,7 +14502,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15">
+    <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
         <v>1000</v>
       </c>
@@ -14462,7 +14510,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15">
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
         <v>1002</v>
       </c>
@@ -14798,7 +14846,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15">
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
         <v>1066</v>
       </c>
@@ -14830,7 +14878,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15">
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14838,7 +14886,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>1071</v>
       </c>
@@ -14846,7 +14894,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15">
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
         <v>1072</v>
       </c>
@@ -14870,7 +14918,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15">
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>1075</v>
       </c>
@@ -15120,7 +15168,7 @@
       </c>
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="1:3" ht="15">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>1128</v>
       </c>
@@ -15156,7 +15204,7 @@
       </c>
       <c r="C369" s="5"/>
     </row>
-    <row r="370" spans="1:3" ht="15">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>1132</v>
       </c>
@@ -15165,7 +15213,7 @@
       </c>
       <c r="C370" s="5"/>
     </row>
-    <row r="371" spans="1:3" ht="15">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>1133</v>
       </c>
@@ -15174,7 +15222,7 @@
       </c>
       <c r="C371" s="5"/>
     </row>
-    <row r="372" spans="1:3" ht="15">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>1134</v>
       </c>
@@ -15201,7 +15249,7 @@
       </c>
       <c r="C374" s="5"/>
     </row>
-    <row r="375" spans="1:3" ht="15">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>1137</v>
       </c>
@@ -15228,7 +15276,7 @@
       </c>
       <c r="C377" s="5"/>
     </row>
-    <row r="378" spans="1:3" ht="15">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>1140</v>
       </c>
@@ -15246,7 +15294,7 @@
       </c>
       <c r="C379" s="5"/>
     </row>
-    <row r="380" spans="1:3" ht="15">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>1142</v>
       </c>
@@ -15741,7 +15789,7 @@
       </c>
       <c r="C434" s="5"/>
     </row>
-    <row r="435" spans="1:3" ht="15">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>1198</v>
       </c>
@@ -15831,7 +15879,7 @@
       </c>
       <c r="C444" s="5"/>
     </row>
-    <row r="445" spans="1:3" ht="15">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>1208</v>
       </c>
@@ -15840,7 +15888,7 @@
       </c>
       <c r="C445" s="5"/>
     </row>
-    <row r="446" spans="1:3" ht="15">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>1209</v>
       </c>
@@ -15867,7 +15915,7 @@
       </c>
       <c r="C448" s="5"/>
     </row>
-    <row r="449" spans="1:3" ht="15">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>1212</v>
       </c>
@@ -15903,7 +15951,7 @@
       </c>
       <c r="C452" s="5"/>
     </row>
-    <row r="453" spans="1:3" ht="15">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>1216</v>
       </c>
@@ -16074,7 +16122,7 @@
       </c>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>1235</v>
       </c>
@@ -16137,7 +16185,7 @@
       </c>
       <c r="C478" s="5"/>
     </row>
-    <row r="479" spans="1:3" ht="15">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>1242</v>
       </c>
@@ -16182,7 +16230,7 @@
       </c>
       <c r="C483" s="5"/>
     </row>
-    <row r="484" spans="1:3" ht="15">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>1247</v>
       </c>
@@ -16191,7 +16239,7 @@
       </c>
       <c r="C484" s="5"/>
     </row>
-    <row r="485" spans="1:3" ht="15">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>1248</v>
       </c>
@@ -16281,7 +16329,7 @@
       </c>
       <c r="C494" s="5"/>
     </row>
-    <row r="495" spans="1:3" ht="15">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>1258</v>
       </c>
@@ -16308,7 +16356,7 @@
       </c>
       <c r="C497" s="5"/>
     </row>
-    <row r="498" spans="1:3" ht="15">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>1261</v>
       </c>
@@ -16335,7 +16383,7 @@
       </c>
       <c r="C500" s="5"/>
     </row>
-    <row r="501" spans="1:3" ht="15">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>1264</v>
       </c>
@@ -16389,7 +16437,7 @@
       </c>
       <c r="C506" s="5"/>
     </row>
-    <row r="507" spans="1:3" ht="15">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>1270</v>
       </c>
@@ -16416,7 +16464,7 @@
       </c>
       <c r="C509" s="5"/>
     </row>
-    <row r="510" spans="1:3" ht="15">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>1273</v>
       </c>
@@ -16803,7 +16851,7 @@
       </c>
       <c r="C552" s="5"/>
     </row>
-    <row r="553" spans="1:3" ht="15">
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
         <v>1316</v>
       </c>
@@ -16812,7 +16860,7 @@
       </c>
       <c r="C553" s="5"/>
     </row>
-    <row r="554" spans="1:3" ht="15">
+    <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
         <v>1317</v>
       </c>
@@ -16821,7 +16869,7 @@
       </c>
       <c r="C554" s="5"/>
     </row>
-    <row r="555" spans="1:3" ht="15">
+    <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
         <v>1318</v>
       </c>
@@ -17199,7 +17247,7 @@
       </c>
       <c r="C596" s="5"/>
     </row>
-    <row r="597" spans="1:3" ht="15">
+    <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
         <v>1361</v>
       </c>
@@ -17235,7 +17283,7 @@
       </c>
       <c r="C600" s="5"/>
     </row>
-    <row r="601" spans="1:3" ht="15">
+    <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17244,7 +17292,7 @@
       </c>
       <c r="C601" s="5"/>
     </row>
-    <row r="602" spans="1:3" ht="15">
+    <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
         <v>1366</v>
       </c>
@@ -17253,7 +17301,7 @@
       </c>
       <c r="C602" s="5"/>
     </row>
-    <row r="603" spans="1:3" ht="15">
+    <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
         <v>1367</v>
       </c>
@@ -17280,7 +17328,7 @@
       </c>
       <c r="C605" s="5"/>
     </row>
-    <row r="606" spans="1:3" ht="15">
+    <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
         <v>1370</v>
       </c>
@@ -17854,7 +17902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="15">
+    <row r="670" spans="1:3">
       <c r="A670" s="1" t="s">
         <v>1505</v>
       </c>
@@ -17886,7 +17934,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15">
+    <row r="674" spans="1:2">
       <c r="A674" s="1" t="s">
         <v>1509</v>
       </c>
@@ -17894,7 +17942,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15">
+    <row r="675" spans="1:2">
       <c r="A675" s="1" t="s">
         <v>1510</v>
       </c>
@@ -17902,7 +17950,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15">
+    <row r="676" spans="1:2">
       <c r="A676" s="1" t="s">
         <v>1511</v>
       </c>
@@ -17926,7 +17974,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15">
+    <row r="679" spans="1:2">
       <c r="A679" s="1" t="s">
         <v>1514</v>
       </c>
@@ -17950,7 +17998,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15">
+    <row r="682" spans="1:2">
       <c r="A682" s="1" t="s">
         <v>1517</v>
       </c>
@@ -17966,7 +18014,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15">
+    <row r="684" spans="1:2">
       <c r="A684" s="1" t="s">
         <v>1519</v>
       </c>
@@ -18398,7 +18446,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15">
+    <row r="738" spans="1:2">
       <c r="A738" s="1" t="s">
         <v>1573</v>
       </c>
@@ -18478,7 +18526,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="15">
+    <row r="748" spans="1:2">
       <c r="A748" s="1" t="s">
         <v>1583</v>
       </c>
@@ -18486,7 +18534,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="15">
+    <row r="749" spans="1:2">
       <c r="A749" s="1" t="s">
         <v>1584</v>
       </c>
@@ -18510,7 +18558,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15">
+    <row r="752" spans="1:2">
       <c r="A752" s="1" t="s">
         <v>1587</v>
       </c>
@@ -18542,7 +18590,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15">
+    <row r="756" spans="1:2">
       <c r="A756" s="1" t="s">
         <v>1591</v>
       </c>
@@ -18694,7 +18742,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15">
+    <row r="775" spans="1:2">
       <c r="A775" s="1" t="s">
         <v>1610</v>
       </c>
@@ -18750,7 +18798,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15">
+    <row r="782" spans="1:2">
       <c r="A782" s="1" t="s">
         <v>1617</v>
       </c>
@@ -18790,7 +18838,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="15">
+    <row r="787" spans="1:2">
       <c r="A787" s="1" t="s">
         <v>1622</v>
       </c>
@@ -18798,7 +18846,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="15">
+    <row r="788" spans="1:2">
       <c r="A788" s="1" t="s">
         <v>1623</v>
       </c>
@@ -18878,7 +18926,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="798" spans="1:2" ht="15">
+    <row r="798" spans="1:2">
       <c r="A798" s="1" t="s">
         <v>1633</v>
       </c>
@@ -18902,7 +18950,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="15">
+    <row r="801" spans="1:2">
       <c r="A801" s="1" t="s">
         <v>1636</v>
       </c>
@@ -18926,7 +18974,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="804" spans="1:2" ht="15">
+    <row r="804" spans="1:2">
       <c r="A804" s="1" t="s">
         <v>1639</v>
       </c>
@@ -18974,7 +19022,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="15">
+    <row r="810" spans="1:2">
       <c r="A810" s="1" t="s">
         <v>1645</v>
       </c>
@@ -18998,7 +19046,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="15">
+    <row r="813" spans="1:2">
       <c r="A813" s="1" t="s">
         <v>1648</v>
       </c>
@@ -19342,7 +19390,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="15">
+    <row r="856" spans="1:2">
       <c r="A856" s="1" t="s">
         <v>1691</v>
       </c>
@@ -19350,7 +19398,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="857" spans="1:2" ht="15">
+    <row r="857" spans="1:2">
       <c r="A857" s="1" t="s">
         <v>1692</v>
       </c>
@@ -19358,7 +19406,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="858" spans="1:2" ht="15">
+    <row r="858" spans="1:2">
       <c r="A858" s="1" t="s">
         <v>1693</v>
       </c>
@@ -19694,7 +19742,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="900" spans="1:2" ht="15">
+    <row r="900" spans="1:2">
       <c r="A900" s="1" t="s">
         <v>1736</v>
       </c>
@@ -19726,7 +19774,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="904" spans="1:2" ht="15">
+    <row r="904" spans="1:2">
       <c r="A904" s="1" t="s">
         <v>1740</v>
       </c>
@@ -19734,7 +19782,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="905" spans="1:2" ht="15">
+    <row r="905" spans="1:2">
       <c r="A905" s="1" t="s">
         <v>1741</v>
       </c>
@@ -19742,7 +19790,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="906" spans="1:2" ht="15">
+    <row r="906" spans="1:2">
       <c r="A906" s="1" t="s">
         <v>1742</v>
       </c>
@@ -19766,7 +19814,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="909" spans="1:2" ht="15">
+    <row r="909" spans="1:2">
       <c r="A909" s="1" t="s">
         <v>1745</v>
       </c>
@@ -20420,7 +20468,7 @@
       </c>
       <c r="C983" s="5"/>
     </row>
-    <row r="984" spans="1:3" ht="15">
+    <row r="984" spans="1:3">
       <c r="A984" s="1" t="s">
         <v>171</v>
       </c>
@@ -20472,101 +20520,113 @@
         <v>1940</v>
       </c>
     </row>
+    <row r="990" spans="1:3">
+      <c r="A990" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>2714</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B988:B1048576">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>AND($B988 = "", $C988 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A988 A990:A1048576">
-    <cfRule type="expression" dxfId="21" priority="21">
+  <conditionalFormatting sqref="A988 A991:A1048576">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B53">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A53">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B93">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND($B54 = "", $C54 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A93">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>AND( $A54 = "", OR( $B54 &lt;&gt; "", $C54 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B363">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>AND($B94 = "", $C94 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A363">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>AND( $A94 = "", OR( $B94 &lt;&gt; "", $C94 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364:B634">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>AND($B364 = "", $C364 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A634">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>AND( $A364 = "", OR( $B364 &lt;&gt; "", $C364 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B635:B667">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>AND($B635 = "", $C635 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635:A667">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AND( $A635 = "", OR( $B635 &lt;&gt; "", $C635 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B668:B937">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>AND($B668 = "", $C668 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A668:A937">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND( $A668 = "", OR( $B668 &lt;&gt; "", $C668 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B938:B987">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>AND($B938 = "", $C938 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A938:A987">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND( $A938 = "", OR( $B938 &lt;&gt; "", $C938 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A990">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND( $A990 = "", OR( $B990 &lt;&gt; "", $C990 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20593,7 +20653,7 @@
     <col min="2" max="3" width="50.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1929</v>
       </c>
@@ -20616,17 +20676,17 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26787,7 +26847,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -5864,9 +5864,6 @@
     <t>userinfo.role</t>
   </si>
   <si>
-    <t>rakennuksen-muuttaminen.rakennusnro._group_label</t>
-  </si>
-  <si>
     <t>Rakennus</t>
   </si>
   <si>
@@ -8193,13 +8190,16 @@
   </si>
   <si>
     <t>personSelector._group_label</t>
+  </si>
+  <si>
+    <t>buildingSelector._group_label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8235,13 +8235,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -8376,7 +8369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -8395,9 +8388,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -8486,7 +8476,27 @@
     <cellStyle name="Hyperlinkki" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9262,10 +9272,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>2707</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9465,7 +9475,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -10639,10 +10649,10 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>2711</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>2712</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -10727,7 +10737,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>492</v>
@@ -10818,7 +10828,7 @@
         <v>512</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -11533,8 +11543,8 @@
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="8" t="s">
-        <v>1943</v>
+      <c r="A293" s="7" t="s">
+        <v>1942</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>416</v>
@@ -12200,22 +12210,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A181 A1351:A1048576 A183:A365">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C181 C183:C1048576">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND( $A182 = "", OR( $B182 &lt;&gt; "", $C182 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>AND($B182 &lt;&gt; "", $C182 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12234,7 +12244,7 @@
   <dimension ref="A1:C990"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A978" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A990" sqref="A990"/>
+      <selection activeCell="B989" sqref="B989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -20513,120 +20523,125 @@
       </c>
     </row>
     <row r="989" spans="1:3">
-      <c r="A989" s="7" t="s">
+      <c r="A989" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B989" s="2" t="s">
         <v>1939</v>
-      </c>
-      <c r="B989" s="2" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="990" spans="1:3">
       <c r="A990" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B988:B1048576">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>AND($B988 = "", $C988 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A988 A991:A1048576">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B53">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A53">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="22" priority="19">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B93">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>AND($B54 = "", $C54 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A93">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>AND( $A54 = "", OR( $B54 &lt;&gt; "", $C54 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B363">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>AND($B94 = "", $C94 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A363">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>AND( $A94 = "", OR( $B94 &lt;&gt; "", $C94 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364:B634">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>AND($B364 = "", $C364 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A634">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>AND( $A364 = "", OR( $B364 &lt;&gt; "", $C364 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B635:B667">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>AND($B635 = "", $C635 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635:A667">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>AND( $A635 = "", OR( $B635 &lt;&gt; "", $C635 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B668:B937">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AND($B668 = "", $C668 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A668:A937">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>AND( $A668 = "", OR( $B668 &lt;&gt; "", $C668 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B938:B987">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AND($B938 = "", $C938 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A938:A987">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AND( $A938 = "", OR( $B938 &lt;&gt; "", $C938 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A990">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND( $A990 = "", OR( $B990 &lt;&gt; "", $C990 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A989">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND( $A989 = "", OR( $B989 &lt;&gt; "", $C989 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20676,17 +20691,17 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20727,474 +20742,474 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B7" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B8" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B9" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B11" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B12" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B13" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B14" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B15" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B17" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B18" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B19" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B20" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B22" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B23" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B24" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B25" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B26" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B27" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B28" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B29" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B30" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B31" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B32" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B33" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B34" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B35" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B36" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B37" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B38" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B39" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B40" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B42" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B43" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B44" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B45" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B46" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B47" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B48" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B49" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B50" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B51" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B52" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B54" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B55" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B56" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B57" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B58" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B59" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B60" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -21202,4559 +21217,4559 @@
         <v>644</v>
       </c>
       <c r="B61" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B62" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B63" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B64" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B65" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B66" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B67" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B68" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B69" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B70" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B71" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B72" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B73" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B74" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B75" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B76" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B77" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B78" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B79" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B80" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B81" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B82" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B83" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B84" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B85" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B86" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B87" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B88" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B89" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B90" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B91" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B92" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B93" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B94" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B95" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B96" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B97" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B98" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B99" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B100" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B101" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B102" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B103" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B104" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B105" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B106" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B107" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B108" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B109" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B110" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B111" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B112" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B113" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B114" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B115" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B116" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B117" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B118" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B119" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B120" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B121" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B122" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B123" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B124" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B125" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B126" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B127" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B128" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B129" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B130" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B131" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B132" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B133" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B134" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B135" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B136" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B137" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B138" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B139" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B140" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B141" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B142" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B143" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B144" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B145" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B146" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B147" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B148" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B149" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B150" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B151" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B152" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B153" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B154" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B155" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B156" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B157" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B158" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B159" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B160" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B161" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B162" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B163" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B164" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B165" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B166" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B167" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B168" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B169" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B170" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B171" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B172" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B173" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B174" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B175" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B176" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B177" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B178" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B179" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B180" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B181" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B182" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B183" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B184" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B185" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B186" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B187" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B188" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B189" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B190" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B191" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B192" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B193" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B194" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B195" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B196" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B197" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B198" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B199" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B200" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B201" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B202" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B203" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B204" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B205" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B206" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B207" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B208" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B209" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B210" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B211" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B212" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B213" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B214" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B215" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B216" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B217" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B218" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B219" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B220" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B221" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B222" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B223" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B224" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B225" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B226" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B227" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B228" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B229" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B230" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B231" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B232" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B233" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B234" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B235" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B236" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B237" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B238" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B239" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B240" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B241" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B242" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B243" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B244" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B245" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B246" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B247" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B248" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B249" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B250" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B251" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B252" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B253" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B254" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B255" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B256" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B257" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B258" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B259" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B260" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B261" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B262" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B263" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B264" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B265" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B266" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B267" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B268" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B269" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B270" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B271" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B272" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B273" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B274" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B275" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B276" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B277" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B278" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B279" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B280" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B281" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B282" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B283" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B284" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B285" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B286" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B287" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B288" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B289" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B290" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B291" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B292" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B293" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B294" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B295" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B296" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B297" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B298" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B299" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B300" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B301" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B302" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B303" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B304" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B305" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B306" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B307" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B308" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B309" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B310" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B311" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B312" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B313" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B314" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B315" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B316" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B317" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B318" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B319" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B320" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B321" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B322" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B323" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B324" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B325" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B326" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B327" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B328" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B329" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B330" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B331" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B332" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B333" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B334" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B335" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B336" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B337" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B338" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B339" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B340" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B341" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B342" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B343" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B344" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B345" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B346" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B347" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B348" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B349" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B350" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B351" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B352" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B353" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B354" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B355" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B356" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B357" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B358" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B359" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B360" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B361" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B362" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B363" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B364" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B365" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B366" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B367" t="s">
         <v>1941</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B368" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B369" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B370" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B371" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B372" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B373" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B374" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B375" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B376" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B377" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B378" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B379" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B380" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B381" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B382" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B383" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B384" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B385" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B386" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B387" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B388" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B389" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B390" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B391" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B392" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B393" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B394" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B395" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B396" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B397" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B398" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B399" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B400" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B401" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B402" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B403" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B404" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B405" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B406" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B407" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B408" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B409" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B410" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B411" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B412" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B413" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B414" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B415" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B416" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B417" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B418" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B419" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B420" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B421" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B422" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B423" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B424" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B425" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B426" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B427" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B428" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B429" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B430" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B431" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B432" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B433" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B434" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B435" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B436" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B437" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B438" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B439" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B440" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B441" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B442" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B443" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B444" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B445" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B446" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B447" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B448" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B449" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B450" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B451" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B452" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B453" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B454" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B455" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B456" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B457" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B458" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B459" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B460" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B461" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B462" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B463" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B464" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B465" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B466" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B467" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B468" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B469" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B470" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B471" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B472" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B473" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B474" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B475" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B476" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B477" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B478" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B479" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B480" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B481" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B482" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B483" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B484" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B485" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B486" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B487" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B488" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B489" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B490" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B491" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B492" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B493" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B494" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B495" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B496" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B497" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B498" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B499" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B500" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B501" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B502" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B503" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B504" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B505" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B506" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B507" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B508" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B509" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B510" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B511" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B512" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B513" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B514" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B515" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B516" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B517" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B518" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B519" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B520" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B521" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B522" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B523" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B524" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B525" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B526" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B527" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B528" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B529" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B530" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B531" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B532" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B533" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B534" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B535" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B536" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B537" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B538" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B539" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B540" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B541" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B542" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B543" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B544" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B545" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B546" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B547" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B548" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B549" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B550" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B551" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B552" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B553" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B554" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B555" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B556" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B557" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B558" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B559" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B560" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B561" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B562" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B563" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B564" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B565" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B566" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B567" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B568" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B569" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B570" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B571" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B572" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B573" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B574" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B575" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B576" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B577" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B578" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B579" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B580" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B581" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B582" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B583" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B584" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B585" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B586" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B587" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B588" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B589" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B590" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B591" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B592" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B593" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B594" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B595" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B596" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B597" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B598" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B599" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B600" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B601" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B602" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B603" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B604" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B605" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B606" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B607" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B608" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B609" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B610" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B611" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B612" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B613" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B614" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B615" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B616" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B617" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B618" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B619" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B620" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B621" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B622" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B623" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B624" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B625" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B626" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B627" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B628" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B629" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B630" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -25767,10 +25782,10 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B632" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -25778,15 +25793,15 @@
         <v>1463</v>
       </c>
       <c r="B633" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B634" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -25799,458 +25814,458 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B636" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B637" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B638" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B639" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B640" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B641" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B642" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B643" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B644" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B645" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B646" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B647" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B648" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B649" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B650" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B651" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B652" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B653" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B654" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B655" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B656" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B657" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B658" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B659" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B660" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B661" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B662" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B663" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B664" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B665" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B666" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B667" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B668" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B669" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B670" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B671" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B672" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B673" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B674" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B675" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B676" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B677" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B678" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B679" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B680" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B681" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B682" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B683" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B684" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B685" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B686" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B687" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B688" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B689" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B690" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B691" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B692" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -26258,596 +26273,596 @@
         <v>263</v>
       </c>
       <c r="B693" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B694" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B695" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B696" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B697" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B698" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B699" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B700" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B701" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B702" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B703" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B704" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B705" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B706" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B707" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B708" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B709" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B710" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B711" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B712" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B713" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B714" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B715" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B716" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B717" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B718" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B719" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B720" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B721" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B722" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B723" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B724" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B725" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B726" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B727" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B728" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B729" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B730" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B731" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B732" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B733" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B734" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B735" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B736" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B737" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B738" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B739" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B740" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B741" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B742" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B743" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B744" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B745" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B746" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B747" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B748" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B749" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B750" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B751" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B752" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B753" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B754" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B755" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B756" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B757" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B758" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B759" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B760" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B761" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B762" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B763" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B764" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B765" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B766" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8186,13 +8186,13 @@
     <t>application.tabInfo</t>
   </si>
   <si>
-    <t>Hakemuksen rooli</t>
-  </si>
-  <si>
     <t>personSelector._group_label</t>
   </si>
   <si>
     <t>buildingSelector._group_label</t>
+  </si>
+  <si>
+    <t>Valitse</t>
   </si>
 </sst>
 </file>
@@ -12244,7 +12244,7 @@
   <dimension ref="A1:C990"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A978" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B989" sqref="B989"/>
+      <selection activeCell="B990" sqref="B990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="989" spans="1:3">
       <c r="A989" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B989" s="2" t="s">
         <v>1939</v>
@@ -20532,10 +20532,10 @@
     </row>
     <row r="990" spans="1:3">
       <c r="A990" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36120" windowHeight="18600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36120" windowHeight="22640" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="2755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="2784">
   <si>
     <t>fi</t>
   </si>
@@ -8214,9 +8214,6 @@
     <t>ke6666.toimenpiteet</t>
   </si>
   <si>
-    <t>ke6666.</t>
-  </si>
-  <si>
     <t>ke6666.rakennussuunnittelutehtavan-vaativuus</t>
   </si>
   <si>
@@ -8277,40 +8274,130 @@
     <t>ke6666.address.maara-ala</t>
   </si>
   <si>
-    <t>ke6666.address.osoite</t>
-  </si>
-  <si>
     <t>Postiosoite</t>
   </si>
   <si>
     <t>Toimenpiteet</t>
   </si>
   <si>
-    <t>ke6666.applicant.</t>
-  </si>
-  <si>
     <t>ke6666.applicant.title</t>
   </si>
   <si>
     <t>2. Hakija</t>
   </si>
   <si>
-    <t>ke6666.applicant.nimi</t>
-  </si>
-  <si>
-    <t>ke6666.applicant.puhelin</t>
-  </si>
-  <si>
     <t>Puhelinnumero</t>
   </si>
   <si>
-    <t>ke6666.applicant.osoite</t>
-  </si>
-  <si>
-    <t>ke6666.applicant.email</t>
-  </si>
-  <si>
     <t>ke6666.paivays</t>
+  </si>
+  <si>
+    <t>ke6666.architect.title</t>
+  </si>
+  <si>
+    <t>3. Pää- ja rakennus- suunnittelija</t>
+  </si>
+  <si>
+    <t>ke6666.nimi</t>
+  </si>
+  <si>
+    <t>ke6666.puhelin</t>
+  </si>
+  <si>
+    <t>ke6666.osoite</t>
+  </si>
+  <si>
+    <t>ke6666.email</t>
+  </si>
+  <si>
+    <t>ke6666.architect.koulutus</t>
+  </si>
+  <si>
+    <t>ke6666.architect.kokemus</t>
+  </si>
+  <si>
+    <t>ke6666.maksaja.tittle</t>
+  </si>
+  <si>
+    <t>4. Maksun veloitus</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.title</t>
+  </si>
+  <si>
+    <t>5. Rakennushanke tai toimenpide</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.toimenpide</t>
+  </si>
+  <si>
+    <t>Toimenpide</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.selostus</t>
+  </si>
+  <si>
+    <t>Selostus</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.rakennusoikeus</t>
+  </si>
+  <si>
+    <t>Rakennusoikeus</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.uusitilavuus</t>
+  </si>
+  <si>
+    <t>Uusi tilavuus</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.kerrosala</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.uusia</t>
+  </si>
+  <si>
+    <t>Uusia asuntoja</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.purettava</t>
+  </si>
+  <si>
+    <t>Purettava ala</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.kerrosluku</t>
+  </si>
+  <si>
+    <t>Kerros luku</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.uusi-kerrosala</t>
+  </si>
+  <si>
+    <t>Uusi kerrosala</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.muutosala</t>
+  </si>
+  <si>
+    <t>Muutosala</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.kokonaisala</t>
+  </si>
+  <si>
+    <t>Kokonaisala</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.paloluokka</t>
+  </si>
+  <si>
+    <t>ke6666.hanke.poikkeamat</t>
+  </si>
+  <si>
+    <t>Poikkeamat</t>
   </si>
 </sst>
 </file>
@@ -8409,8 +8496,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8527,7 +8622,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8573,6 +8668,10 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8618,9 +8717,83 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8952,11 +9125,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12355,22 +12528,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A2:A181 A1351:A1048576 A183:A365">
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C181 C183:C1048576">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND( $A182 = "", OR( $B182 &lt;&gt; "", $C182 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>AND($B182 &lt;&gt; "", $C182 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20686,107 +20859,107 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B988:B1048576">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>AND($B988 = "", $C988 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A988 A991:A1048576">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B53">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A53">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B93">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>AND($B54 = "", $C54 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A93">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>AND( $A54 = "", OR( $B54 &lt;&gt; "", $C54 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B363">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>AND($B94 = "", $C94 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A363">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>AND( $A94 = "", OR( $B94 &lt;&gt; "", $C94 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364:B634">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND($B364 = "", $C364 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A634">
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>AND( $A364 = "", OR( $B364 &lt;&gt; "", $C364 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B635:B667">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>AND($B635 = "", $C635 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635:A667">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND( $A635 = "", OR( $B635 &lt;&gt; "", $C635 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B668:B937">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>AND($B668 = "", $C668 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A668:A937">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>AND( $A668 = "", OR( $B668 &lt;&gt; "", $C668 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B938:B987">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND($B938 = "", $C938 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A938:A987">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND( $A938 = "", OR( $B938 &lt;&gt; "", $C938 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A990">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND( $A990 = "", OR( $B990 &lt;&gt; "", $C990 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A989">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND( $A989 = "", OR( $B989 &lt;&gt; "", $C989 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26948,7 +27121,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26963,10 +27136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -26996,269 +27169,329 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2718</v>
+        <v>2750</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>570</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>961</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2720</v>
+        <v>2752</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2742</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2745</v>
+        <v>2753</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2724</v>
+        <v>2718</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2725</v>
+        <v>2747</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2727</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2728</v>
+        <v>2719</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2720</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2729</v>
+        <v>2721</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2743</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2730</v>
+        <v>2722</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2723</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>2733</v>
+        <v>2724</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2734</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>2736</v>
+        <v>2725</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2735</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>2738</v>
+        <v>2730</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2737</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>2739</v>
+        <v>2731</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2729</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>2742</v>
+        <v>2732</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2741</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>2743</v>
+        <v>2735</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2744</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2748</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>2739</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2738</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>2750</v>
+        <v>2741</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2751</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>2753</v>
+        <v>2748</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1426</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>2746</v>
+        <v>2754</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>2746</v>
+        <v>2755</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2746</v>
+        <v>2756</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2757</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>2746</v>
+        <v>2758</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2759</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>2746</v>
+        <v>2760</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>2761</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>2746</v>
+        <v>2762</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>2763</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>2746</v>
+        <v>2764</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2765</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>2746</v>
+        <v>2766</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2767</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2746</v>
+        <v>2768</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>2769</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>2771</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>2773</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>2775</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>2777</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>2779</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>2781</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>2722</v>
+        <v>2782</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2783</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="B2:B14 B16:B1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="B2 B7:B18 B20:B1048576">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C2 C7:C1048576">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2 A7:A1048576">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($B3 = "", $C3 &lt;&gt; "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND( $C3 = "", $B3 &lt;&gt; "" )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A6">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND( $A3 = "", OR( $B3 &lt;&gt; "", $C3 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27308,17 +27541,17 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="2784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="2786">
   <si>
     <t>fi</t>
   </si>
@@ -8316,9 +8316,6 @@
     <t>ke6666.architect.kokemus</t>
   </si>
   <si>
-    <t>ke6666.maksaja.tittle</t>
-  </si>
-  <si>
     <t>4. Maksun veloitus</t>
   </si>
   <si>
@@ -8394,10 +8391,19 @@
     <t>ke6666.hanke.paloluokka</t>
   </si>
   <si>
-    <t>ke6666.hanke.poikkeamat</t>
-  </si>
-  <si>
-    <t>Poikkeamat</t>
+    <t>ke6666.maksaja.title</t>
+  </si>
+  <si>
+    <t>ke6666.kaava.title</t>
+  </si>
+  <si>
+    <t>6. Rakennuspaikan kaava</t>
+  </si>
+  <si>
+    <t>Rakennuspaikan kaava</t>
+  </si>
+  <si>
+    <t>ke6666.kaava.kaava</t>
   </si>
 </sst>
 </file>
@@ -8723,37 +8729,7 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12561,8 +12537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C990"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B990" sqref="B990"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27136,10 +27112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27345,55 +27321,55 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>2756</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>2758</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>2760</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>2762</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>2764</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2765</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>2766</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>741</v>
@@ -27401,55 +27377,55 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>2769</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>2771</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>2773</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>2775</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>2776</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>2777</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>2778</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>2779</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>959</v>
@@ -27461,6 +27437,14 @@
       </c>
       <c r="B39" s="2" t="s">
         <v>2783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2784</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="2786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="2792">
   <si>
     <t>fi</t>
   </si>
@@ -8391,6 +8391,9 @@
     <t>ke6666.hanke.paloluokka</t>
   </si>
   <si>
+    <t>Poikkeamat</t>
+  </si>
+  <si>
     <t>ke6666.maksaja.title</t>
   </si>
   <si>
@@ -8404,6 +8407,21 @@
   </si>
   <si>
     <t>ke6666.kaava.kaava</t>
+  </si>
+  <si>
+    <t>ke6666.poikkeamat.title</t>
+  </si>
+  <si>
+    <t>7. Poikkeamat</t>
+  </si>
+  <si>
+    <t>ke6666.poikkeamat.poikkeamat</t>
+  </si>
+  <si>
+    <t>ke6666.poikkeamat.ei-poikkeamia</t>
+  </si>
+  <si>
+    <t>Ei poikkeamia</t>
   </si>
 </sst>
 </file>
@@ -8729,17 +8747,7 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -27112,10 +27120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27321,7 +27329,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>2756</v>
@@ -27433,18 +27441,42 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>2785</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>2784</v>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>2791</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="2792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="2793">
   <si>
     <t>fi</t>
   </si>
@@ -8272,6 +8272,9 @@
   </si>
   <si>
     <t>ke6666.address.maara-ala</t>
+  </si>
+  <si>
+    <t>ke6666.address.osoite</t>
   </si>
   <si>
     <t>Postiosoite</t>
@@ -8520,8 +8523,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8646,7 +8651,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8696,6 +8701,7 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8745,6 +8751,7 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
@@ -27120,10 +27127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27153,7 +27160,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>112</v>
@@ -27161,23 +27168,23 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1426</v>
@@ -27193,7 +27200,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>961</v>
@@ -27212,7 +27219,7 @@
         <v>2721</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -27297,26 +27304,26 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2745</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>2754</v>
+        <v>2749</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>148</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -27324,63 +27331,63 @@
         <v>2755</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>632</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2782</v>
+        <v>2756</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2756</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>2757</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>2759</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>2761</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>2763</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>2765</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>2767</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -27388,68 +27395,68 @@
         <v>2768</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2769</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>2770</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>2772</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2773</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>2774</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>2776</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>2777</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>2778</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2779</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>2780</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2783</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2784</v>
+        <v>2781</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2785</v>
@@ -27459,16 +27466,16 @@
       <c r="A41" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>2788</v>
+      <c r="B41" s="2" t="s">
+        <v>2786</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>2789</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -27476,7 +27483,15 @@
         <v>2790</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>2791</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>2792</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8286,9 +8286,6 @@
     <t>ke6666.applicant.title</t>
   </si>
   <si>
-    <t>2. Hakija</t>
-  </si>
-  <si>
     <t>Puhelinnumero</t>
   </si>
   <si>
@@ -8425,6 +8422,9 @@
   </si>
   <si>
     <t>Ei poikkeamia</t>
+  </si>
+  <si>
+    <t>2. Hakija(t)</t>
   </si>
 </sst>
 </file>
@@ -8523,8 +8523,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8651,7 +8659,7 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8702,6 +8710,10 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8752,9 +8764,43 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -27130,7 +27176,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27160,7 +27206,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>112</v>
@@ -27168,15 +27214,15 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2743</v>
@@ -27184,7 +27230,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1426</v>
@@ -27200,7 +27246,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>961</v>
@@ -27315,20 +27361,20 @@
         <v>2745</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2746</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>2749</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>2750</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>148</v>
@@ -27336,7 +27382,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>632</v>
@@ -27344,55 +27390,55 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>2758</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>2760</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>2762</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>2764</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2765</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>2766</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>741</v>
@@ -27400,55 +27446,55 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>2769</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>2771</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>2773</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>2775</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>2776</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>2777</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2778</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>2779</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>959</v>
@@ -27456,72 +27502,72 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>2784</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>2788</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>2789</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>2791</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>2792</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 B7:B18 B20:B1048576">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C7:C1048576">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A7:A1048576">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND($B3 = "", $C3 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND( $C3 = "", $B3 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A6">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND( $A3 = "", OR( $B3 &lt;&gt; "", $C3 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8211,9 +8211,6 @@
     <t>Lupatunnus</t>
   </si>
   <si>
-    <t>ke6666.toimenpiteet</t>
-  </si>
-  <si>
     <t>ke6666.rakennussuunnittelutehtavan-vaativuus</t>
   </si>
   <si>
@@ -8280,9 +8277,6 @@
     <t>Postiosoite</t>
   </si>
   <si>
-    <t>Toimenpiteet</t>
-  </si>
-  <si>
     <t>ke6666.applicant.title</t>
   </si>
   <si>
@@ -8425,6 +8419,12 @@
   </si>
   <si>
     <t>2. Hakija(t)</t>
+  </si>
+  <si>
+    <t>ke6666.lupatyyppi</t>
+  </si>
+  <si>
+    <t>Lupatyyppi</t>
   </si>
 </sst>
 </file>
@@ -8770,37 +8770,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9162,11 +9132,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27176,7 +27146,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27206,7 +27176,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>112</v>
@@ -27214,23 +27184,23 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1426</v>
@@ -27246,7 +27216,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>961</v>
@@ -27262,95 +27232,95 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>2721</v>
+        <v>2791</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2744</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>2722</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2723</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>2732</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2733</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>116</v>
@@ -27358,23 +27328,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>148</v>
@@ -27382,7 +27352,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>632</v>
@@ -27390,55 +27360,55 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>741</v>
@@ -27446,55 +27416,55 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>959</v>
@@ -27502,42 +27472,42 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11544" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17688" windowHeight="6996" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -9634,7 +9634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="2840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4435" uniqueCount="2842">
   <si>
     <t>fi</t>
   </si>
@@ -8566,6 +8566,12 @@
   </si>
   <si>
     <t>&lt;div style='padding: 50px'&gt;Tervetuloa! Voit aloittaa selvittämällä hankkeesi luvan tarpeen painamalla &lt;i&gt;Uusi hanke&lt;/i&gt; painiketta. Selvitettyäsi luvan tarpeen voit ottaa yhteyttä viraomaisiin . &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>auth-admin.user-active</t>
+  </si>
+  <si>
+    <t>Aktiivinen</t>
   </si>
 </sst>
 </file>
@@ -9632,10 +9638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C399"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -10477,2419 +10483,2419 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>276</v>
+        <v>2840</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>277</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>309</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1930</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>376</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>2838</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>457</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>2707</v>
+        <v>470</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>2708</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>472</v>
+        <v>2707</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>473</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>3</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>2791</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>481</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>2790</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>33</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>2709</v>
+        <v>489</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>490</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>491</v>
+        <v>2709</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>69</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>509</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>2706</v>
+        <v>509</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>53</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>513</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>61</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>550</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>590</v>
+        <v>89</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>5</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>595</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>639</v>
+        <v>595</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>182</v>
+        <v>645</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B241" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B242" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B243" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B244" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B245" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B246" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B247" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B248" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B249" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B250" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B251" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B252" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B253" s="5" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B254" s="5" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B255" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B256" s="5" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B257" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C257" s="5" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B258" s="5" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="1" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B259" s="5" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B260" s="5" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B261" s="5" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B262" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B263" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B264" s="5" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B265" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B266" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B267" s="5" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B268" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B269" s="5" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B270" s="5" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B271" s="5" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B272" s="5" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>1913</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1427</v>
+        <v>651</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>1907</v>
+        <v>1430</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B293" s="5" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A293" s="7" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="7" t="s">
         <v>1939</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B294" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C293" s="5" t="s">
+      <c r="C294" s="5" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1429</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>1914</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>1772</v>
+        <v>1499</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>37</v>
+        <v>1500</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1774</v>
+        <v>37</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>555</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1805</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>45</v>
+        <v>1895</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1693</v>
+        <v>45</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>1918</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1900</v>
+        <v>204</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>1915</v>
+        <v>1901</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>1916</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1922</v>
+        <v>1916</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B369" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C369" s="5" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" s="1" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B370" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" s="1" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B371" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" s="1" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="B372" s="5" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" s="1" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
         <v>1934</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B373" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="1" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="B374" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="9" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="9" t="s">
         <v>2794</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="B375" s="5" t="s">
         <v>2792</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="9" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="9" t="s">
         <v>2795</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="B376" s="5" t="s">
         <v>2793</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="9" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="9" t="s">
         <v>2797</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B377" s="5" t="s">
         <v>2796</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="9" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="9" t="s">
         <v>2799</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="B378" s="5" t="s">
         <v>2798</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="9" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="9" t="s">
         <v>2800</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B379" s="5" t="s">
         <v>2801</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="9" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="9" t="s">
         <v>2802</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B380" s="5" t="s">
         <v>2803</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="9" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="9" t="s">
         <v>2804</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="B381" s="5" t="s">
         <v>2825</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="9" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="9" t="s">
         <v>2805</v>
       </c>
-      <c r="B381" s="5" t="s">
+      <c r="B382" s="5" t="s">
         <v>2826</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="9" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="9" t="s">
         <v>2806</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B383" s="5" t="s">
         <v>2827</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="9" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="9" t="s">
         <v>2807</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="B384" s="5" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="9" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>2828</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>2810</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>2830</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>333</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>2832</v>
+        <v>333</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>380</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>2833</v>
+        <v>380</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>337</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>2834</v>
+        <v>337</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>2835</v>
@@ -12897,49 +12903,57 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="9" t="s">
         <v>2824</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="B400" s="5" t="s">
         <v>402</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A181 A183:A365 A1350:A1048576">
+  <conditionalFormatting sqref="A2:A182 A184:A366 A1351:A1048576">
     <cfRule type="expression" dxfId="36" priority="11">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C181 C183:C387 C392:C1048576">
+  <conditionalFormatting sqref="C1:C182 C184:C388 C393:C1048576">
     <cfRule type="expression" dxfId="35" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182">
+  <conditionalFormatting sqref="A183">
     <cfRule type="expression" dxfId="34" priority="2">
-      <formula>AND( $A182 = "", OR( $B182 &lt;&gt; "", $C182 &lt;&gt; "" ) )</formula>
+      <formula>AND( $A183 = "", OR( $B183 &lt;&gt; "", $C183 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
+  <conditionalFormatting sqref="C183">
     <cfRule type="expression" dxfId="33" priority="1">
-      <formula>AND($B182 &lt;&gt; "", $C182 = "")</formula>
+      <formula>AND($B183 &lt;&gt; "", $C183 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C388:C390">
-    <cfRule type="expression" dxfId="1" priority="28">
-      <formula>AND($B389 &lt;&gt; "", $C388 = "")</formula>
+  <conditionalFormatting sqref="C389:C391">
+    <cfRule type="expression" dxfId="32" priority="28">
+      <formula>AND($B390 &lt;&gt; "", $C389 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C391">
-    <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND(#REF! &lt;&gt; "", $C391 = "")</formula>
+  <conditionalFormatting sqref="C392">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>AND(#REF! &lt;&gt; "", $C392 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21253,107 +21267,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B988:B1048576">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>AND($B988 = "", $C988 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A988 A991:A1048576">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B53">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A53">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B93">
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>AND($B54 = "", $C54 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A93">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>AND( $A54 = "", OR( $B54 &lt;&gt; "", $C54 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B363">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>AND($B94 = "", $C94 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A363">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>AND( $A94 = "", OR( $B94 &lt;&gt; "", $C94 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364:B634">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND($B364 = "", $C364 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364:A634">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>AND( $A364 = "", OR( $B364 &lt;&gt; "", $C364 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B635:B667">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>AND($B635 = "", $C635 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635:A667">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND( $A635 = "", OR( $B635 &lt;&gt; "", $C635 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B668:B937">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>AND($B668 = "", $C668 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A668:A937">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>AND( $A668 = "", OR( $B668 &lt;&gt; "", $C668 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B938:B987">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND($B938 = "", $C938 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A938:A987">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND( $A938 = "", OR( $B938 &lt;&gt; "", $C938 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A990">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND( $A990 = "", OR( $B990 &lt;&gt; "", $C990 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A989">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND( $A989 = "", OR( $B989 &lt;&gt; "", $C989 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27514,7 +27528,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27898,32 +27912,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 B7:B18 B20:B1048576">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C7:C1048576">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A7:A1048576">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND($B3 = "", $C3 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND( $C3 = "", $B3 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A6">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND( $A3 = "", OR( $B3 &lt;&gt; "", $C3 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27973,17 +27987,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -9641,7 +9641,7 @@
   <dimension ref="A1:C400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="6756" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="6756" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -8406,9 +8406,6 @@
     <t>Lupatyyppi</t>
   </si>
   <si>
-    <t xml:space="preserve">Tänne voit lisätä hakemukseen kuuluvia liitteitä. Viranomainen voi myös pyytää sinulta tarpeellisia liitteitä. Nämä pyynnöt merkitään taulukossa punaisella lipulla. Viranomainen voi myös merkitä liitteen alustavasti hyväksytyksi tai korjattavaksi. Tämä ei ole vielä virallinen hyväksyntä, sillä sitä varten hakemus pitää käsitellä kunnan päätöksenteko prosessin mukaisesti. </t>
-  </si>
-  <si>
     <t>Uusi hanke</t>
   </si>
   <si>
@@ -8602,6 +8599,9 @@
   </si>
   <si>
     <t>Käyttotarkoituksen  muutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tänne voit lisätä hakemukseen kuuluvia liitteitä. Viranomainen voi myös pyytää sinulta tarpeellisia liitteitä. Nämä pyynnöt merkitään taulukossa punaisella lipulla. Viranomainen voi myös merkitä liitteen alustavasti hyväksytyksi tai korjattavaksi. Tämä ei ole vielä virallinen hyväksyntä, sillä sitä varten hakemus pitää käsitellä kunnan päätöksentekoprosessin mukaisesti. </t>
   </si>
 </sst>
 </file>
@@ -9670,8 +9670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -9870,7 +9870,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -10513,10 +10513,10 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>2835</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -10780,7 +10780,7 @@
         <v>337</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -11119,7 +11119,7 @@
         <v>452</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -11231,7 +11231,7 @@
         <v>477</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -11263,7 +11263,7 @@
         <v>486</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>2786</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -12749,127 +12749,127 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B379" s="5" t="s">
         <v>2796</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>2797</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>2798</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>332</v>
@@ -12877,15 +12877,15 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>378</v>
@@ -12893,15 +12893,15 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>336</v>
@@ -12909,47 +12909,47 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="9" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>400</v>
@@ -13000,7 +13000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -13314,7 +13314,7 @@
         <v>558</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -13322,7 +13322,7 @@
         <v>559</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -13338,7 +13338,7 @@
         <v>562</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -13842,7 +13842,7 @@
         <v>688</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -13866,7 +13866,7 @@
         <v>694</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -13994,7 +13994,7 @@
         <v>724</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -18762,7 +18762,7 @@
         <v>1510</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.35">
@@ -18842,7 +18842,7 @@
         <v>1520</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.35">
@@ -20170,7 +20170,7 @@
         <v>1686</v>
       </c>
       <c r="B857" s="5" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.35">
@@ -20642,7 +20642,7 @@
         <v>1746</v>
       </c>
       <c r="B916" s="5" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.35">
@@ -20818,7 +20818,7 @@
         <v>95</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C938" s="5"/>
     </row>
@@ -21079,7 +21079,7 @@
         <v>141</v>
       </c>
       <c r="B967" s="5" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C967" s="5"/>
     </row>
@@ -21258,7 +21258,7 @@
         <v>174</v>
       </c>
       <c r="B986" s="5" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C986" s="5"/>
     </row>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="2799">
   <si>
     <t>fi</t>
   </si>
@@ -8428,6 +8428,21 @@
   </si>
   <si>
     <t>Inför</t>
+  </si>
+  <si>
+    <t>new-comment-email-title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Lupapiste] </t>
+  </si>
+  <si>
+    <t>Uusi kommentti</t>
+  </si>
+  <si>
+    <t>Ett nytt kommentt</t>
+  </si>
+  <si>
+    <t>email-title-prefix</t>
   </si>
 </sst>
 </file>
@@ -9464,10 +9479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C373"/>
+  <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12498,7 +12513,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1932</v>
       </c>
@@ -12506,7 +12521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>1934</v>
       </c>
@@ -12514,7 +12529,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>1935</v>
       </c>
@@ -12522,7 +12537,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>1937</v>
       </c>
@@ -12530,12 +12545,34 @@
         <v>521</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>1938</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>2795</v>
       </c>
     </row>
   </sheetData>
@@ -20990,7 +21027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C766"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A883" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="2799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="2802">
   <si>
     <t>fi</t>
   </si>
@@ -8443,6 +8443,15 @@
   </si>
   <si>
     <t>email-title-prefix</t>
+  </si>
+  <si>
+    <t>state-change-email-title</t>
+  </si>
+  <si>
+    <t>Tillståndet förändrats</t>
+  </si>
+  <si>
+    <t>Tila muuttunut</t>
   </si>
 </sst>
 </file>
@@ -9479,10 +9488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C376"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="B374" sqref="B374"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12573,6 +12582,17 @@
       </c>
       <c r="C376" s="5" t="s">
         <v>2795</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>2800</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="2802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="2804">
   <si>
     <t>fi</t>
   </si>
@@ -8452,6 +8452,12 @@
   </si>
   <si>
     <t>Tila muuttunut</t>
+  </si>
+  <si>
+    <t>email-title-delimiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
   </si>
 </sst>
 </file>
@@ -9488,10 +9494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C377"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378"/>
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12593,6 +12599,17 @@
       </c>
       <c r="C377" s="5" t="s">
         <v>2800</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>2803</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="2804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4395" uniqueCount="2805">
   <si>
     <t>fi</t>
   </si>
@@ -8458,6 +8458,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Pågår</t>
   </si>
 </sst>
 </file>
@@ -9496,8 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11761,6 +11764,9 @@
       </c>
       <c r="B275" s="5" t="s">
         <v>1429</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>2804</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -21064,8 +21070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C766"/>
   <sheetViews>
-    <sheetView topLeftCell="A883" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="2768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="2770">
   <si>
     <t>fi</t>
   </si>
@@ -8350,6 +8350,12 @@
   </si>
   <si>
     <t>Inför</t>
+  </si>
+  <si>
+    <t>verdict-email-title</t>
+  </si>
+  <si>
+    <t>Beslut</t>
   </si>
 </sst>
 </file>
@@ -9416,10 +9422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C353"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B83" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12343,6 +12349,17 @@
       </c>
       <c r="C353" s="5" t="s">
         <v>2766</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>2769</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8331,9 +8331,6 @@
     <t>email-title-prefix</t>
   </si>
   <si>
-    <t>[Lupapiste]</t>
-  </si>
-  <si>
     <t>email-title-delimiter</t>
   </si>
   <si>
@@ -8356,6 +8353,9 @@
   </si>
   <si>
     <t>Beslut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Lupapiste] </t>
   </si>
 </sst>
 </file>
@@ -9424,8 +9424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A355" sqref="A355"/>
+    <sheetView tabSelected="1" topLeftCell="B338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10249,7 +10249,7 @@
         <v>270</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -12323,43 +12323,43 @@
         <v>2760</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>2761</v>
+        <v>2769</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>2761</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>2762</v>
       </c>
-      <c r="B352" s="5" t="s">
-        <v>2763</v>
-      </c>
       <c r="C352" s="5" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>2764</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="C353" s="5" t="s">
         <v>2765</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -9383,7 +9383,7 @@
   <dimension ref="A1:C349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="2770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="2772">
   <si>
     <t>fi</t>
   </si>
@@ -8356,6 +8356,12 @@
   </si>
   <si>
     <t xml:space="preserve">[Lupapiste] </t>
+  </si>
+  <si>
+    <t>Pyydä täydennyksiä</t>
+  </si>
+  <si>
+    <t>application.requestForComplement</t>
   </si>
 </sst>
 </file>
@@ -9422,10 +9428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C355"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A356" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12360,6 +12366,14 @@
       </c>
       <c r="C355" s="5" t="s">
         <v>2768</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>2770</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="2772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="2774">
   <si>
     <t>fi</t>
   </si>
@@ -8362,6 +8362,12 @@
   </si>
   <si>
     <t>application.requestForComplement</t>
+  </si>
+  <si>
+    <t>complemenent-needed</t>
+  </si>
+  <si>
+    <t>Täydennettävä</t>
   </si>
 </sst>
 </file>
@@ -9428,10 +9434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A356" sqref="A356"/>
+      <selection activeCell="A358" sqref="A358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12374,6 +12380,14 @@
       </c>
       <c r="B356" s="5" t="s">
         <v>2770</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>2773</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8364,10 +8364,10 @@
     <t>application.requestForComplement</t>
   </si>
   <si>
-    <t>complemenent-needed</t>
-  </si>
-  <si>
     <t>Täydennettävä</t>
+  </si>
+  <si>
+    <t>complement-needed</t>
   </si>
 </sst>
 </file>
@@ -9437,7 +9437,7 @@
   <dimension ref="A1:C357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A338" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358"/>
+      <selection activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12384,10 +12384,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>2772</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>2773</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8118,9 +8118,6 @@
     <t>varasto-tms._group_label</t>
   </si>
   <si>
-    <t>Uusi varasto tai muu sellainen</t>
-  </si>
-  <si>
     <t>laajentaminen._group_label</t>
   </si>
   <si>
@@ -8434,6 +8431,9 @@
   </si>
   <si>
     <t>Lupahakemus</t>
+  </si>
+  <si>
+    <t>Varasto, sauna, autotalli tai muu talousrakennus</t>
   </si>
 </sst>
 </file>
@@ -9502,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -9574,7 +9574,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -9582,7 +9582,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -9702,7 +9702,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -9734,7 +9734,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -10345,10 +10345,10 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>2726</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -10543,7 +10543,7 @@
         <v>355</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -10615,7 +10615,7 @@
         <v>2600</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -10631,7 +10631,7 @@
         <v>375</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -10679,7 +10679,7 @@
         <v>385</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -11475,170 +11475,170 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>2756</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>2758</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>2754</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>2764</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>2765</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>2760</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>2770</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>2762</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>2766</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>2774</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>2772</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>2773</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>2776</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>2777</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>2780</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>2778</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>2779</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>2784</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>2782</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>2783</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>2786</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>2792</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>2793</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>2790</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -12277,7 +12277,7 @@
         <v>1819</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -12293,7 +12293,7 @@
         <v>1821</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>540</v>
@@ -12304,7 +12304,7 @@
         <v>1823</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -12376,92 +12376,92 @@
         <v>2689</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>2690</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B350" s="5" t="s">
         <v>2691</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>310</v>
@@ -12469,15 +12469,15 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>313</v>
@@ -12485,15 +12485,15 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>311</v>
@@ -12501,47 +12501,47 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>314</v>
@@ -12906,7 +12906,7 @@
         <v>460</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -12914,7 +12914,7 @@
         <v>461</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -12922,7 +12922,7 @@
         <v>462</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -12930,7 +12930,7 @@
         <v>463</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -13258,7 +13258,7 @@
         <v>522</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -13434,7 +13434,7 @@
         <v>589</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -13458,7 +13458,7 @@
         <v>594</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -13586,7 +13586,7 @@
         <v>624</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -14866,7 +14866,7 @@
         <v>894</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -15274,7 +15274,7 @@
         <v>967</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -15604,7 +15604,7 @@
         <v>1029</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C374" s="5"/>
     </row>
@@ -17224,7 +17224,7 @@
         <v>1210</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="C554" s="5"/>
     </row>
@@ -17683,7 +17683,7 @@
         <v>1262</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C605" s="5"/>
     </row>
@@ -18330,7 +18330,7 @@
         <v>1406</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.35">
@@ -18354,7 +18354,7 @@
         <v>1409</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.35">
@@ -18434,7 +18434,7 @@
         <v>1419</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.35">
@@ -19762,7 +19762,7 @@
         <v>1585</v>
       </c>
       <c r="B857" s="5" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.35">
@@ -20170,7 +20170,7 @@
         <v>1637</v>
       </c>
       <c r="B908" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.35">
@@ -20234,7 +20234,7 @@
         <v>1645</v>
       </c>
       <c r="B916" s="5" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.35">
@@ -20410,7 +20410,7 @@
         <v>92</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C938" s="5"/>
     </row>
@@ -20671,7 +20671,7 @@
         <v>138</v>
       </c>
       <c r="B967" s="5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="C967" s="5"/>
     </row>
@@ -20850,7 +20850,7 @@
         <v>171</v>
       </c>
       <c r="B986" s="5" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="C986" s="5"/>
     </row>
@@ -27273,7 +27273,7 @@
         <v>2612</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -27289,7 +27289,7 @@
         <v>2616</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8178,9 +8178,6 @@
     <t>Uusi muu rakennelma</t>
   </si>
   <si>
-    <t>Kuvaus</t>
-  </si>
-  <si>
     <t>Kaivuu</t>
   </si>
   <si>
@@ -8455,6 +8452,9 @@
   </si>
   <si>
     <t>Naapureiden kuuleminen</t>
+  </si>
+  <si>
+    <t>Toimenpiteen kuvaus</t>
   </si>
 </sst>
 </file>
@@ -8560,8 +8560,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8699,7 +8701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8754,6 +8756,7 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8808,6 +8811,7 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
@@ -9202,11 +9206,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9533,8 +9537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9543,7 +9547,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1809</v>
       </c>
@@ -9602,24 +9606,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2785</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9627,7 +9631,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9635,7 +9639,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9755,7 +9759,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9787,7 +9791,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9848,10 +9852,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>2789</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2790</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10406,10 +10410,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>2713</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>2714</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10604,7 +10608,7 @@
         <v>354</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10676,7 +10680,7 @@
         <v>2589</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -10692,7 +10696,7 @@
         <v>374</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -10740,7 +10744,7 @@
         <v>384</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -11536,170 +11540,170 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>2743</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>2745</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>2741</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>2742</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B245" s="5" t="s">
         <v>2751</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>2752</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>2747</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>2748</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>2757</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>2749</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>2750</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>2753</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>2761</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>2759</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>2763</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>2767</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>2768</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>2765</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>2771</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>2769</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>2773</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>2779</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>2777</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>2778</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -12265,7 +12269,7 @@
         <v>1778</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -12338,7 +12342,7 @@
         <v>1808</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -12346,7 +12350,7 @@
         <v>1807</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -12354,7 +12358,7 @@
         <v>1810</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>539</v>
@@ -12365,7 +12369,7 @@
         <v>1812</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -12437,7 +12441,7 @@
         <v>2678</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15">
@@ -12477,7 +12481,7 @@
         <v>2684</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15">
@@ -12493,7 +12497,7 @@
         <v>2686</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15">
@@ -12525,7 +12529,7 @@
         <v>2690</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15">
@@ -12565,7 +12569,7 @@
         <v>2696</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15">
@@ -12573,7 +12577,7 @@
         <v>2697</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15">
@@ -12581,7 +12585,7 @@
         <v>2698</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>2710</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15">
@@ -12589,7 +12593,7 @@
         <v>2699</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>2710</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15">
@@ -12597,7 +12601,7 @@
         <v>2700</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15">
@@ -12668,7 +12672,7 @@
     <col min="2" max="3" width="50.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1809</v>
       </c>
@@ -12972,7 +12976,7 @@
         <v>459</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -12980,7 +12984,7 @@
         <v>460</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -12988,7 +12992,7 @@
         <v>461</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -12996,7 +13000,7 @@
         <v>462</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -13324,7 +13328,7 @@
         <v>521</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -13431,7 +13435,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>573</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>580</v>
       </c>
@@ -13471,7 +13475,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>582</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>584</v>
       </c>
@@ -13500,10 +13504,10 @@
         <v>588</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>589</v>
       </c>
@@ -13524,10 +13528,10 @@
         <v>593</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>595</v>
       </c>
@@ -13543,7 +13547,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>599</v>
       </c>
@@ -13604,7 +13608,7 @@
         <v>612</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -13652,7 +13656,7 @@
         <v>622</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -13975,12 +13979,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -14055,15 +14059,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="15">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>692</v>
       </c>
@@ -14087,7 +14091,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>698</v>
       </c>
@@ -14116,10 +14120,10 @@
         <v>704</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="15">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>705</v>
       </c>
@@ -14164,7 +14168,7 @@
         <v>715</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -14271,7 +14275,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>742</v>
       </c>
@@ -14327,7 +14331,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>756</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>760</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -14367,7 +14371,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>765</v>
       </c>
@@ -14375,7 +14379,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>767</v>
       </c>
@@ -14444,7 +14448,7 @@
         <v>783</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -14455,7 +14459,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>786</v>
       </c>
@@ -14479,7 +14483,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>792</v>
       </c>
@@ -14503,7 +14507,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>798</v>
       </c>
@@ -14551,7 +14555,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>810</v>
       </c>
@@ -14575,7 +14579,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>816</v>
       </c>
@@ -14596,7 +14600,7 @@
         <v>820</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -14919,7 +14923,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15">
+    <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
         <v>883</v>
       </c>
@@ -14927,15 +14931,15 @@
         <v>884</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15">
+    <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
         <v>885</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="15">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
         <v>886</v>
       </c>
@@ -15271,7 +15275,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15">
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
         <v>950</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15">
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
         <v>954</v>
       </c>
@@ -15311,7 +15315,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>955</v>
       </c>
@@ -15319,7 +15323,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15">
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
         <v>956</v>
       </c>
@@ -15340,10 +15344,10 @@
         <v>958</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="15">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>959</v>
       </c>
@@ -15593,7 +15597,7 @@
       </c>
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="1:3" ht="15">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>1012</v>
       </c>
@@ -15629,7 +15633,7 @@
       </c>
       <c r="C369" s="5"/>
     </row>
-    <row r="370" spans="1:3" ht="15">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>1016</v>
       </c>
@@ -15638,7 +15642,7 @@
       </c>
       <c r="C370" s="5"/>
     </row>
-    <row r="371" spans="1:3" ht="15">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>1017</v>
       </c>
@@ -15647,7 +15651,7 @@
       </c>
       <c r="C371" s="5"/>
     </row>
-    <row r="372" spans="1:3" ht="15">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>1018</v>
       </c>
@@ -15670,11 +15674,11 @@
         <v>1020</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="C374" s="5"/>
     </row>
-    <row r="375" spans="1:3" ht="15">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>1021</v>
       </c>
@@ -15701,7 +15705,7 @@
       </c>
       <c r="C377" s="5"/>
     </row>
-    <row r="378" spans="1:3" ht="15">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>1024</v>
       </c>
@@ -15719,7 +15723,7 @@
       </c>
       <c r="C379" s="5"/>
     </row>
-    <row r="380" spans="1:3" ht="15">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>1026</v>
       </c>
@@ -15796,7 +15800,7 @@
         <v>1035</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="C388" s="5"/>
     </row>
@@ -16214,12 +16218,12 @@
       </c>
       <c r="C434" s="5"/>
     </row>
-    <row r="435" spans="1:3" ht="15">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C435" s="5"/>
     </row>
@@ -16304,16 +16308,16 @@
       </c>
       <c r="C444" s="5"/>
     </row>
-    <row r="445" spans="1:3" ht="15">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="C445" s="5"/>
     </row>
-    <row r="446" spans="1:3" ht="15">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>1093</v>
       </c>
@@ -16340,7 +16344,7 @@
       </c>
       <c r="C448" s="5"/>
     </row>
-    <row r="449" spans="1:3" ht="15">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>1096</v>
       </c>
@@ -16372,11 +16376,11 @@
         <v>1099</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="C452" s="5"/>
     </row>
-    <row r="453" spans="1:3" ht="15">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>1100</v>
       </c>
@@ -16426,7 +16430,7 @@
         <v>1105</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="C458" s="5"/>
     </row>
@@ -16547,7 +16551,7 @@
       </c>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="15">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>1119</v>
       </c>
@@ -16610,7 +16614,7 @@
       </c>
       <c r="C478" s="5"/>
     </row>
-    <row r="479" spans="1:3" ht="15">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>1126</v>
       </c>
@@ -16633,7 +16637,7 @@
         <v>1128</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="C481" s="5"/>
     </row>
@@ -16655,7 +16659,7 @@
       </c>
       <c r="C483" s="5"/>
     </row>
-    <row r="484" spans="1:3" ht="15">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>1131</v>
       </c>
@@ -16664,7 +16668,7 @@
       </c>
       <c r="C484" s="5"/>
     </row>
-    <row r="485" spans="1:3" ht="15">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>1132</v>
       </c>
@@ -16741,7 +16745,7 @@
         <v>1140</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="C493" s="5"/>
     </row>
@@ -16754,7 +16758,7 @@
       </c>
       <c r="C494" s="5"/>
     </row>
-    <row r="495" spans="1:3" ht="15">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>1142</v>
       </c>
@@ -16781,7 +16785,7 @@
       </c>
       <c r="C497" s="5"/>
     </row>
-    <row r="498" spans="1:3" ht="15">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>1145</v>
       </c>
@@ -16808,7 +16812,7 @@
       </c>
       <c r="C500" s="5"/>
     </row>
-    <row r="501" spans="1:3" ht="15">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>1148</v>
       </c>
@@ -16862,7 +16866,7 @@
       </c>
       <c r="C506" s="5"/>
     </row>
-    <row r="507" spans="1:3" ht="15">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>1154</v>
       </c>
@@ -16889,7 +16893,7 @@
       </c>
       <c r="C509" s="5"/>
     </row>
-    <row r="510" spans="1:3" ht="15">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>1157</v>
       </c>
@@ -16912,7 +16916,7 @@
         <v>1159</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C512" s="5"/>
     </row>
@@ -17276,7 +17280,7 @@
       </c>
       <c r="C552" s="5"/>
     </row>
-    <row r="553" spans="1:3" ht="15">
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
         <v>1200</v>
       </c>
@@ -17285,16 +17289,16 @@
       </c>
       <c r="C553" s="5"/>
     </row>
-    <row r="554" spans="1:3" ht="15">
+    <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C554" s="5"/>
     </row>
-    <row r="555" spans="1:3" ht="15">
+    <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
         <v>1202</v>
       </c>
@@ -17672,7 +17676,7 @@
       </c>
       <c r="C596" s="5"/>
     </row>
-    <row r="597" spans="1:3" ht="15">
+    <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
         <v>1245</v>
       </c>
@@ -17708,7 +17712,7 @@
       </c>
       <c r="C600" s="5"/>
     </row>
-    <row r="601" spans="1:3" ht="15">
+    <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
         <v>1249</v>
       </c>
@@ -17717,7 +17721,7 @@
       </c>
       <c r="C601" s="5"/>
     </row>
-    <row r="602" spans="1:3" ht="15">
+    <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
         <v>1250</v>
       </c>
@@ -17726,7 +17730,7 @@
       </c>
       <c r="C602" s="5"/>
     </row>
-    <row r="603" spans="1:3" ht="15">
+    <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
         <v>1251</v>
       </c>
@@ -17749,11 +17753,11 @@
         <v>1253</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="C605" s="5"/>
     </row>
-    <row r="606" spans="1:3" ht="15">
+    <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
         <v>1254</v>
       </c>
@@ -18327,7 +18331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="15">
+    <row r="670" spans="1:3">
       <c r="A670" s="1" t="s">
         <v>1389</v>
       </c>
@@ -18359,7 +18363,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15">
+    <row r="674" spans="1:2">
       <c r="A674" s="1" t="s">
         <v>1393</v>
       </c>
@@ -18367,7 +18371,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15">
+    <row r="675" spans="1:2">
       <c r="A675" s="1" t="s">
         <v>1394</v>
       </c>
@@ -18375,7 +18379,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15">
+    <row r="676" spans="1:2">
       <c r="A676" s="1" t="s">
         <v>1395</v>
       </c>
@@ -18396,10 +18400,10 @@
         <v>1397</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="15">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
       <c r="A679" s="1" t="s">
         <v>1398</v>
       </c>
@@ -18420,10 +18424,10 @@
         <v>1400</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" ht="15">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
       <c r="A682" s="1" t="s">
         <v>1401</v>
       </c>
@@ -18439,7 +18443,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15">
+    <row r="684" spans="1:2">
       <c r="A684" s="1" t="s">
         <v>1403</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>1410</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -18871,12 +18875,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15">
+    <row r="738" spans="1:2">
       <c r="A738" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -18951,15 +18955,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="15">
+    <row r="748" spans="1:2">
       <c r="A748" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" ht="15">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
       <c r="A749" s="1" t="s">
         <v>1468</v>
       </c>
@@ -18983,7 +18987,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15">
+    <row r="752" spans="1:2">
       <c r="A752" s="1" t="s">
         <v>1471</v>
       </c>
@@ -19012,10 +19016,10 @@
         <v>1474</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" ht="15">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
       <c r="A756" s="1" t="s">
         <v>1475</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>1480</v>
       </c>
       <c r="B761" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -19167,7 +19171,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15">
+    <row r="775" spans="1:2">
       <c r="A775" s="1" t="s">
         <v>1494</v>
       </c>
@@ -19223,7 +19227,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15">
+    <row r="782" spans="1:2">
       <c r="A782" s="1" t="s">
         <v>1501</v>
       </c>
@@ -19244,7 +19248,7 @@
         <v>1503</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -19263,7 +19267,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="15">
+    <row r="787" spans="1:2">
       <c r="A787" s="1" t="s">
         <v>1506</v>
       </c>
@@ -19271,7 +19275,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="15">
+    <row r="788" spans="1:2">
       <c r="A788" s="1" t="s">
         <v>1507</v>
       </c>
@@ -19340,7 +19344,7 @@
         <v>1515</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -19351,7 +19355,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="798" spans="1:2" ht="15">
+    <row r="798" spans="1:2">
       <c r="A798" s="1" t="s">
         <v>1517</v>
       </c>
@@ -19375,7 +19379,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="15">
+    <row r="801" spans="1:2">
       <c r="A801" s="1" t="s">
         <v>1520</v>
       </c>
@@ -19399,7 +19403,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="804" spans="1:2" ht="15">
+    <row r="804" spans="1:2">
       <c r="A804" s="1" t="s">
         <v>1523</v>
       </c>
@@ -19447,7 +19451,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="15">
+    <row r="810" spans="1:2">
       <c r="A810" s="1" t="s">
         <v>1529</v>
       </c>
@@ -19471,7 +19475,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="15">
+    <row r="813" spans="1:2">
       <c r="A813" s="1" t="s">
         <v>1532</v>
       </c>
@@ -19492,7 +19496,7 @@
         <v>1534</v>
       </c>
       <c r="B815" s="5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -19815,7 +19819,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="15">
+    <row r="856" spans="1:2">
       <c r="A856" s="1" t="s">
         <v>1575</v>
       </c>
@@ -19823,15 +19827,15 @@
         <v>884</v>
       </c>
     </row>
-    <row r="857" spans="1:2" ht="15">
+    <row r="857" spans="1:2">
       <c r="A857" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="B857" s="5" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" ht="15">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
       <c r="A858" s="1" t="s">
         <v>1577</v>
       </c>
@@ -20167,7 +20171,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="900" spans="1:2" ht="15">
+    <row r="900" spans="1:2">
       <c r="A900" s="1" t="s">
         <v>1620</v>
       </c>
@@ -20199,7 +20203,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="904" spans="1:2" ht="15">
+    <row r="904" spans="1:2">
       <c r="A904" s="1" t="s">
         <v>1624</v>
       </c>
@@ -20207,7 +20211,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="905" spans="1:2" ht="15">
+    <row r="905" spans="1:2">
       <c r="A905" s="1" t="s">
         <v>1625</v>
       </c>
@@ -20215,7 +20219,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="906" spans="1:2" ht="15">
+    <row r="906" spans="1:2">
       <c r="A906" s="1" t="s">
         <v>1626</v>
       </c>
@@ -20236,10 +20240,10 @@
         <v>1628</v>
       </c>
       <c r="B908" s="5" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2" ht="15">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
       <c r="A909" s="1" t="s">
         <v>1629</v>
       </c>
@@ -20300,7 +20304,7 @@
         <v>1636</v>
       </c>
       <c r="B916" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -20476,7 +20480,7 @@
         <v>92</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="C938" s="5"/>
     </row>
@@ -20737,7 +20741,7 @@
         <v>138</v>
       </c>
       <c r="B967" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C967" s="5"/>
     </row>
@@ -20893,7 +20897,7 @@
       </c>
       <c r="C983" s="5"/>
     </row>
-    <row r="984" spans="1:3" ht="15">
+    <row r="984" spans="1:3">
       <c r="A984" s="1" t="s">
         <v>167</v>
       </c>
@@ -20916,7 +20920,7 @@
         <v>171</v>
       </c>
       <c r="B986" s="5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C986" s="5"/>
     </row>
@@ -27243,7 +27247,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1809</v>
       </c>
@@ -27339,7 +27343,7 @@
         <v>2601</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27355,7 +27359,7 @@
         <v>2605</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -27653,7 +27657,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1809</v>
       </c>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -8219,9 +8219,6 @@
     <t>Suunnittelurooli</t>
   </si>
   <si>
-    <t>Väestönsuojia</t>
-  </si>
-  <si>
     <t>Faksinumero</t>
   </si>
   <si>
@@ -9705,6 +9702,9 @@
   </si>
   <si>
     <t>kpl</t>
+  </si>
+  <si>
+    <t>Väestönsuoja x hengelle</t>
   </si>
 </sst>
 </file>
@@ -10795,7 +10795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -10864,24 +10864,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2779</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2780</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10889,7 +10889,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10897,7 +10897,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11017,7 +11017,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11049,7 +11049,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11110,10 +11110,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>2784</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -11300,10 +11300,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>3215</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -11874,7 +11874,7 @@
         <v>353</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -11946,7 +11946,7 @@
         <v>2585</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -11962,7 +11962,7 @@
         <v>373</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -12010,7 +12010,7 @@
         <v>383</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -12122,7 +12122,7 @@
         <v>408</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -12311,15 +12311,15 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>2825</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>2826</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>7</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>546</v>
@@ -12830,170 +12830,170 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>2738</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>2740</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>2741</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>2736</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>2737</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>2746</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>2742</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>2743</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>2752</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>2753</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>2744</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>2748</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>2756</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>2754</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>2755</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>2758</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>2762</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>2760</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>2766</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>2764</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>2765</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>2768</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>2769</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>2774</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>2772</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>2773</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -13543,7 +13543,7 @@
         <v>1772</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1775</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -13632,7 +13632,7 @@
         <v>1805</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -13640,7 +13640,7 @@
         <v>1804</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -13648,7 +13648,7 @@
         <v>1807</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>538</v>
@@ -13659,7 +13659,7 @@
         <v>1809</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -13731,7 +13731,7 @@
         <v>2674</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15">
@@ -13787,7 +13787,7 @@
         <v>2682</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15">
@@ -13819,7 +13819,7 @@
         <v>2686</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15">
@@ -13859,7 +13859,7 @@
         <v>2692</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15">
@@ -13875,7 +13875,7 @@
         <v>2694</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15">
@@ -13883,7 +13883,7 @@
         <v>2695</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15">
@@ -13904,127 +13904,127 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>2799</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>2803</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B381" s="5" t="s">
         <v>2805</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>2806</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B382" s="5" t="s">
         <v>2807</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B383" s="5" t="s">
         <v>2809</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>2810</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B390" s="5" t="s">
         <v>2823</v>
-      </c>
-      <c r="B390" s="5" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>2829</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>2830</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>122</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>2665</v>
@@ -14040,10 +14040,10 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -14051,12 +14051,12 @@
         <v>1316</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>2630</v>
@@ -14064,23 +14064,23 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B398" s="5" t="s">
         <v>3155</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>3156</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>3157</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>3158</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>43</v>
@@ -14088,23 +14088,23 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B401" s="5" t="s">
         <v>3160</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B402" s="5" t="s">
         <v>3162</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>5</v>
@@ -14112,39 +14112,39 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B404" s="5" t="s">
         <v>3165</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>3166</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B405" s="5" t="s">
         <v>3167</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>3168</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B406" s="5" t="s">
         <v>3169</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>3170</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B407" s="5" t="s">
         <v>3171</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>3172</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>304</v>
@@ -14152,39 +14152,39 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B409" s="5" t="s">
         <v>3174</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B410" s="5" t="s">
         <v>3176</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>3177</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B411" s="5" t="s">
         <v>3178</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>3179</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B412" s="5" t="s">
         <v>3180</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>7</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>177</v>
@@ -14200,15 +14200,15 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B415" s="5" t="s">
         <v>3184</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>546</v>
@@ -14216,31 +14216,31 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B417" s="5" t="s">
         <v>3187</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B418" s="5" t="s">
         <v>3189</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B419" s="5" t="s">
         <v>3191</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>430</v>
@@ -14248,74 +14248,74 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B421" s="5" t="s">
         <v>3194</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>3195</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B422" s="5" t="s">
         <v>3196</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B423" s="5" t="s">
         <v>3198</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B424" s="5" t="s">
         <v>3200</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>3201</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B425" s="5" t="s">
         <v>3202</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>3203</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B426" s="5" t="s">
         <v>3204</v>
-      </c>
-      <c r="B426" s="5" t="s">
-        <v>3205</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B427" s="5" t="s">
         <v>3206</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B428" s="5" t="s">
         <v>3208</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>3209</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
   </sheetData>
@@ -14368,8 +14368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1217"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="64" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -14498,7 +14498,7 @@
         <v>331</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14570,7 +14570,7 @@
         <v>340</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -14698,7 +14698,7 @@
         <v>460</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -14938,7 +14938,7 @@
         <v>508</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -15034,7 +15034,7 @@
         <v>520</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -15314,7 +15314,7 @@
         <v>611</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>2721</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -15354,7 +15354,7 @@
         <v>619</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -15522,7 +15522,7 @@
         <v>648</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -15594,7 +15594,7 @@
         <v>657</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -15690,7 +15690,7 @@
         <v>670</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -15770,7 +15770,7 @@
         <v>689</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15">
@@ -15826,7 +15826,7 @@
         <v>702</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15">
@@ -15874,7 +15874,7 @@
         <v>713</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -16058,7 +16058,7 @@
         <v>758</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -16154,7 +16154,7 @@
         <v>781</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -16306,7 +16306,7 @@
         <v>818</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -17506,7 +17506,7 @@
         <v>1033</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>2721</v>
+        <v>3216</v>
       </c>
       <c r="C388" s="5"/>
     </row>
@@ -17551,7 +17551,7 @@
         <v>1038</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C393" s="5"/>
     </row>
@@ -17740,7 +17740,7 @@
         <v>1059</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C414" s="5"/>
     </row>
@@ -17821,7 +17821,7 @@
         <v>1068</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C423" s="5"/>
     </row>
@@ -17929,7 +17929,7 @@
         <v>1080</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C435" s="5"/>
     </row>
@@ -18019,7 +18019,7 @@
         <v>1090</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C445" s="5"/>
     </row>
@@ -18082,7 +18082,7 @@
         <v>1097</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="C452" s="5"/>
     </row>
@@ -18136,7 +18136,7 @@
         <v>1103</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C458" s="5"/>
     </row>
@@ -18343,7 +18343,7 @@
         <v>1126</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C481" s="5"/>
     </row>
@@ -18451,7 +18451,7 @@
         <v>1138</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C493" s="5"/>
     </row>
@@ -18622,7 +18622,7 @@
         <v>1157</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="C512" s="5"/>
     </row>
@@ -19783,7 +19783,7 @@
         <v>1353</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C641" s="5"/>
     </row>
@@ -19963,7 +19963,7 @@
         <v>1373</v>
       </c>
       <c r="B661" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C661" s="5"/>
     </row>
@@ -20210,7 +20210,7 @@
         <v>1408</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>2721</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -20250,7 +20250,7 @@
         <v>1413</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -20418,7 +20418,7 @@
         <v>1434</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -20490,7 +20490,7 @@
         <v>1443</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -20586,7 +20586,7 @@
         <v>1455</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -20666,7 +20666,7 @@
         <v>1465</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="15">
@@ -20722,7 +20722,7 @@
         <v>1472</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="15">
@@ -20770,7 +20770,7 @@
         <v>1478</v>
       </c>
       <c r="B761" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -20954,7 +20954,7 @@
         <v>1501</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -21050,7 +21050,7 @@
         <v>1513</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -21202,7 +21202,7 @@
         <v>1532</v>
       </c>
       <c r="B815" s="5" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -22339,7 +22339,7 @@
         <v>123</v>
       </c>
       <c r="B955" s="5" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C955" s="5"/>
     </row>
@@ -22447,7 +22447,7 @@
         <v>137</v>
       </c>
       <c r="B967" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="C967" s="5"/>
     </row>
@@ -22665,119 +22665,119 @@
     </row>
     <row r="991" spans="1:3">
       <c r="A991" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B991" s="2" t="s">
         <v>2838</v>
-      </c>
-      <c r="B991" s="2" t="s">
-        <v>2839</v>
       </c>
     </row>
     <row r="992" spans="1:3" ht="15">
       <c r="A992" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="993" spans="1:2" ht="15">
       <c r="A993" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B993" s="2" t="s">
         <v>2842</v>
-      </c>
-      <c r="B993" s="2" t="s">
-        <v>2843</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="995" spans="1:2" ht="15">
       <c r="A995" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="996" spans="1:2" ht="15">
       <c r="A996" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B996" s="2" t="s">
         <v>2848</v>
-      </c>
-      <c r="B996" s="2" t="s">
-        <v>2849</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="15">
       <c r="A997" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B997" s="2" t="s">
         <v>2850</v>
-      </c>
-      <c r="B997" s="2" t="s">
-        <v>2851</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B998" s="2" t="s">
         <v>2852</v>
-      </c>
-      <c r="B998" s="2" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B999" s="2" t="s">
         <v>2854</v>
-      </c>
-      <c r="B999" s="2" t="s">
-        <v>2855</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1001" s="2" t="s">
         <v>2858</v>
-      </c>
-      <c r="B1001" s="2" t="s">
-        <v>2859</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1002" s="2" t="s">
         <v>2860</v>
-      </c>
-      <c r="B1002" s="2" t="s">
-        <v>2861</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1003" s="2" t="s">
         <v>2862</v>
-      </c>
-      <c r="B1003" s="2" t="s">
-        <v>2863</v>
       </c>
     </row>
     <row r="1004" spans="1:2" ht="15">
       <c r="A1004" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1004" s="2" t="s">
         <v>2864</v>
-      </c>
-      <c r="B1004" s="2" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1005" s="2" t="s">
         <v>682</v>
@@ -22785,23 +22785,23 @@
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1006" s="2" t="s">
         <v>2867</v>
-      </c>
-      <c r="B1006" s="2" t="s">
-        <v>2868</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1007" s="2" t="s">
         <v>2869</v>
-      </c>
-      <c r="B1007" s="2" t="s">
-        <v>2870</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1008" s="2" t="s">
         <v>149</v>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1009" s="2" t="s">
         <v>151</v>
@@ -22817,7 +22817,7 @@
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1010" s="2" t="s">
         <v>153</v>
@@ -22825,39 +22825,39 @@
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1012" s="2" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1013" s="2" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1014" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1015" s="2" t="s">
         <v>840</v>
@@ -22865,143 +22865,143 @@
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1016" s="2" t="s">
         <v>2883</v>
-      </c>
-      <c r="B1016" s="2" t="s">
-        <v>2884</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1017" s="2" t="s">
         <v>2885</v>
-      </c>
-      <c r="B1017" s="2" t="s">
-        <v>2886</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1018" s="2" t="s">
         <v>2887</v>
-      </c>
-      <c r="B1018" s="2" t="s">
-        <v>2888</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1019" s="2" t="s">
         <v>2889</v>
-      </c>
-      <c r="B1019" s="2" t="s">
-        <v>2890</v>
       </c>
     </row>
     <row r="1020" spans="1:2" ht="15">
       <c r="A1020" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1020" s="2" t="s">
         <v>2891</v>
-      </c>
-      <c r="B1020" s="2" t="s">
-        <v>2892</v>
       </c>
     </row>
     <row r="1021" spans="1:2" ht="15">
       <c r="A1021" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B1022" s="2" t="s">
         <v>2895</v>
-      </c>
-      <c r="B1022" s="2" t="s">
-        <v>2896</v>
       </c>
     </row>
     <row r="1023" spans="1:2" ht="15">
       <c r="A1023" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1023" s="2" t="s">
         <v>2897</v>
-      </c>
-      <c r="B1023" s="2" t="s">
-        <v>2898</v>
       </c>
     </row>
     <row r="1024" spans="1:2" ht="15">
       <c r="A1024" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1025" spans="1:2" ht="15">
       <c r="A1025" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1026" s="2" t="s">
         <v>2901</v>
-      </c>
-      <c r="B1026" s="2" t="s">
-        <v>2902</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1027" s="2" t="s">
         <v>2903</v>
-      </c>
-      <c r="B1027" s="2" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1028" s="2" t="s">
         <v>2905</v>
-      </c>
-      <c r="B1028" s="2" t="s">
-        <v>2906</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1029" s="2" t="s">
         <v>2907</v>
-      </c>
-      <c r="B1029" s="2" t="s">
-        <v>2908</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1031" s="2" t="s">
         <v>2911</v>
-      </c>
-      <c r="B1031" s="2" t="s">
-        <v>2912</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1032" s="2" t="s">
         <v>2913</v>
-      </c>
-      <c r="B1032" s="2" t="s">
-        <v>2914</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1033" s="2" t="s">
         <v>842</v>
@@ -23009,191 +23009,191 @@
     </row>
     <row r="1034" spans="1:2" ht="15">
       <c r="A1034" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1034" s="2" t="s">
         <v>2916</v>
-      </c>
-      <c r="B1034" s="2" t="s">
-        <v>2917</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B1035" s="2" t="s">
         <v>2918</v>
-      </c>
-      <c r="B1035" s="2" t="s">
-        <v>2919</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1036" s="2" t="s">
         <v>2920</v>
-      </c>
-      <c r="B1036" s="2" t="s">
-        <v>2921</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1037" s="2" t="s">
         <v>2922</v>
-      </c>
-      <c r="B1037" s="2" t="s">
-        <v>2923</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1040" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="15">
       <c r="A1044" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1044" s="2" t="s">
         <v>2931</v>
-      </c>
-      <c r="B1044" s="2" t="s">
-        <v>2932</v>
       </c>
     </row>
     <row r="1045" spans="1:2" ht="15">
       <c r="A1045" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1045" s="2" t="s">
         <v>2933</v>
-      </c>
-      <c r="B1045" s="2" t="s">
-        <v>2934</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1046" s="2" t="s">
         <v>2935</v>
-      </c>
-      <c r="B1046" s="2" t="s">
-        <v>2936</v>
       </c>
     </row>
     <row r="1047" spans="1:2" ht="15">
       <c r="A1047" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1047" s="2" t="s">
         <v>2937</v>
-      </c>
-      <c r="B1047" s="2" t="s">
-        <v>2938</v>
       </c>
     </row>
     <row r="1048" spans="1:2" ht="15">
       <c r="A1048" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1048" s="2" t="s">
         <v>2939</v>
-      </c>
-      <c r="B1048" s="2" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="1049" spans="1:2" ht="15">
       <c r="A1049" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1049" s="2" t="s">
         <v>2941</v>
-      </c>
-      <c r="B1049" s="2" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1050" s="2" t="s">
         <v>2943</v>
-      </c>
-      <c r="B1050" s="2" t="s">
-        <v>2944</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1051" s="2" t="s">
         <v>2945</v>
-      </c>
-      <c r="B1051" s="2" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1052" s="2" t="s">
         <v>2947</v>
-      </c>
-      <c r="B1052" s="2" t="s">
-        <v>2948</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1053" s="2" t="s">
         <v>2949</v>
-      </c>
-      <c r="B1053" s="2" t="s">
-        <v>2950</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1054" s="2" t="s">
         <v>2951</v>
-      </c>
-      <c r="B1054" s="2" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1055" s="2" t="s">
         <v>2953</v>
-      </c>
-      <c r="B1055" s="2" t="s">
-        <v>2954</v>
       </c>
     </row>
     <row r="1056" spans="1:2" ht="15">
       <c r="A1056" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1056" s="2" t="s">
         <v>2955</v>
-      </c>
-      <c r="B1056" s="2" t="s">
-        <v>2956</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B1057" s="2" t="s">
         <v>155</v>
@@ -23201,23 +23201,23 @@
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B1059" s="2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B1060" s="2" t="s">
         <v>149</v>
@@ -23225,7 +23225,7 @@
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B1061" s="2" t="s">
         <v>151</v>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B1062" s="2" t="s">
         <v>153</v>
@@ -23241,39 +23241,39 @@
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B1063" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B1064" s="2" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B1065" s="2" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="1" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="B1066" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="1" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B1067" s="2" t="s">
         <v>840</v>
@@ -23281,143 +23281,143 @@
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B1068" s="2" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B1069" s="2" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B1070" s="2" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B1071" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1072" spans="1:2" ht="15">
       <c r="A1072" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B1072" s="2" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1073" spans="1:2" ht="15">
       <c r="A1073" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B1073" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1074" s="2" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1075" spans="1:2" ht="15">
       <c r="A1075" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1075" s="2" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="15">
       <c r="A1076" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1076" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1077" spans="1:2" ht="15">
       <c r="A1077" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1077" s="2" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="1" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="1" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B1079" s="2" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="1" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1080" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="1" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1081" s="2" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1082" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="1" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1083" s="2" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="1" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1084" s="2" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1085" s="2" t="s">
         <v>842</v>
@@ -23425,119 +23425,119 @@
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1087" spans="1:2" ht="15">
       <c r="A1087" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1088" spans="1:2" ht="15">
       <c r="A1088" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1088" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1089" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1090" spans="1:2" ht="15">
       <c r="A1090" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1090" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1091" spans="1:2" ht="15">
       <c r="A1091" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1091" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1092" spans="1:2" ht="15">
       <c r="A1092" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1092" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1094" s="2" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B1095" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1096" s="2" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B1097" s="2" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1098" s="2" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1099" spans="1:2" ht="15">
       <c r="A1099" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B1099" s="2" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1100" s="2" t="s">
         <v>682</v>
@@ -23545,23 +23545,23 @@
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B1101" s="2" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1102" s="2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B1103" s="2" t="s">
         <v>149</v>
@@ -23569,7 +23569,7 @@
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B1104" s="2" t="s">
         <v>151</v>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" s="1" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B1105" s="2" t="s">
         <v>153</v>
@@ -23585,39 +23585,39 @@
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B1106" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="1" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B1107" s="2" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" s="1" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B1108" s="2" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B1109" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B1110" s="2" t="s">
         <v>840</v>
@@ -23625,143 +23625,143 @@
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B1111" s="2" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B1112" s="2" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B1113" s="2" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B1114" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1115" spans="1:2" ht="15">
       <c r="A1115" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B1115" s="2" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1116" spans="1:2" ht="15">
       <c r="A1116" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B1116" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B1117" s="2" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1118" spans="1:2" ht="15">
       <c r="A1118" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B1118" s="2" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1119" spans="1:2" ht="15">
       <c r="A1119" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B1119" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1120" spans="1:2" ht="15">
       <c r="A1120" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B1120" s="2" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B1121" s="2" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B1122" s="2" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B1123" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B1124" s="2" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B1125" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="B1126" s="2" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B1127" s="2" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B1128" s="2" t="s">
         <v>842</v>
@@ -23769,95 +23769,95 @@
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1129" s="2" t="s">
         <v>3029</v>
-      </c>
-      <c r="B1129" s="2" t="s">
-        <v>3030</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1130" s="2" t="s">
         <v>3031</v>
-      </c>
-      <c r="B1130" s="2" t="s">
-        <v>3032</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1131" s="2" t="s">
         <v>3033</v>
-      </c>
-      <c r="B1131" s="2" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1132" s="2" t="s">
         <v>3035</v>
-      </c>
-      <c r="B1132" s="2" t="s">
-        <v>3036</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1133" s="2" t="s">
         <v>3037</v>
-      </c>
-      <c r="B1133" s="2" t="s">
-        <v>3038</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1134" s="2" t="s">
         <v>3039</v>
-      </c>
-      <c r="B1134" s="2" t="s">
-        <v>3040</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1135" s="2" t="s">
         <v>3041</v>
-      </c>
-      <c r="B1135" s="2" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B1136" s="2" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1137" s="2" t="s">
         <v>3045</v>
-      </c>
-      <c r="B1137" s="2" t="s">
-        <v>3046</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1138" s="2" t="s">
         <v>3047</v>
-      </c>
-      <c r="B1138" s="2" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1139" s="2" t="s">
         <v>3049</v>
-      </c>
-      <c r="B1139" s="2" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B1140" s="2" t="s">
         <v>312</v>
@@ -23865,95 +23865,95 @@
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1141" s="2" t="s">
         <v>3052</v>
-      </c>
-      <c r="B1141" s="2" t="s">
-        <v>3053</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1142" s="2" t="s">
         <v>3054</v>
-      </c>
-      <c r="B1142" s="2" t="s">
-        <v>3055</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B1143" s="2" t="s">
         <v>3056</v>
-      </c>
-      <c r="B1143" s="2" t="s">
-        <v>3057</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1144" s="2" t="s">
         <v>3058</v>
-      </c>
-      <c r="B1144" s="2" t="s">
-        <v>3059</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1145" s="2" t="s">
         <v>3060</v>
-      </c>
-      <c r="B1145" s="2" t="s">
-        <v>3061</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B1146" s="2" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1147" s="2" t="s">
         <v>3063</v>
-      </c>
-      <c r="B1147" s="2" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="1" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B1148" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1149" s="2" t="s">
         <v>3066</v>
-      </c>
-      <c r="B1149" s="2" t="s">
-        <v>3067</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1150" s="2" t="s">
         <v>3068</v>
-      </c>
-      <c r="B1150" s="2" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1151" s="2" t="s">
         <v>3070</v>
-      </c>
-      <c r="B1151" s="2" t="s">
-        <v>3071</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B1152" s="2" t="s">
         <v>2710</v>
@@ -23961,55 +23961,55 @@
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1153" s="2" t="s">
         <v>3073</v>
-      </c>
-      <c r="B1153" s="2" t="s">
-        <v>3074</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B1154" s="2" t="s">
         <v>3075</v>
-      </c>
-      <c r="B1154" s="2" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B1155" s="2" t="s">
         <v>3077</v>
-      </c>
-      <c r="B1155" s="2" t="s">
-        <v>3078</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1156" s="2" t="s">
         <v>3079</v>
-      </c>
-      <c r="B1156" s="2" t="s">
-        <v>3080</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1157" s="2" t="s">
         <v>3081</v>
-      </c>
-      <c r="B1157" s="2" t="s">
-        <v>3082</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B1158" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B1159" s="2" t="s">
         <v>2703</v>
@@ -24017,55 +24017,55 @@
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="B1160" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B1161" s="2" t="s">
         <v>3086</v>
-      </c>
-      <c r="B1161" s="2" t="s">
-        <v>3087</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1162" s="2" t="s">
         <v>3088</v>
-      </c>
-      <c r="B1162" s="2" t="s">
-        <v>3089</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B1163" s="2" t="s">
         <v>3090</v>
-      </c>
-      <c r="B1163" s="2" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1164" s="2" t="s">
         <v>3092</v>
-      </c>
-      <c r="B1164" s="2" t="s">
-        <v>3093</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1165" s="2" t="s">
         <v>3094</v>
-      </c>
-      <c r="B1165" s="2" t="s">
-        <v>3095</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="B1166" s="2" t="s">
         <v>309</v>
@@ -24073,135 +24073,135 @@
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1167" s="2" t="s">
         <v>3097</v>
-      </c>
-      <c r="B1167" s="2" t="s">
-        <v>3098</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="B1168" s="2" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="B1170" s="2" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B1171" s="2" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B1172" s="2" t="s">
         <v>3103</v>
-      </c>
-      <c r="B1172" s="2" t="s">
-        <v>3104</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="1" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B1173" s="2" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" s="1" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B1174" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B1175" s="2" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="1" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B1176" s="2" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" s="1" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B1177" s="2" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" s="1" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="B1178" s="2" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="1" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="1" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B1180" s="2" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" s="1" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B1181" s="2" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="1" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B1182" s="2" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" s="1" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B1183" s="2" t="s">
         <v>2710</v>
@@ -24209,63 +24209,63 @@
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" s="1" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B1184" s="2" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="1" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B1185" s="2" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" s="1" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B1186" s="2" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="1" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B1187" s="2" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="1" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B1188" s="2" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="1" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B1189" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1190" s="2" t="s">
         <v>3122</v>
-      </c>
-      <c r="B1190" s="2" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="1" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B1191" s="2" t="s">
         <v>2703</v>
@@ -24273,7 +24273,7 @@
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="1" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B1192" s="2" t="s">
         <v>312</v>
@@ -24281,15 +24281,15 @@
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="1" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B1193" s="2" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="1" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B1194" s="2" t="s">
         <v>309</v>
@@ -24297,71 +24297,71 @@
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="1" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B1195" s="2" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" s="1" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B1196" s="2" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="1" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="B1197" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" s="1" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="B1198" s="2" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" s="1" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B1199" s="2" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="1" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B1200" s="2" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="1" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="1" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B1202" s="2" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1203" spans="1:2" ht="15">
       <c r="A1203" s="1" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="B1203" s="2" t="s">
         <v>980</v>
@@ -24369,7 +24369,7 @@
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="1" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="B1204" s="2" t="s">
         <v>1000</v>
@@ -24377,23 +24377,23 @@
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B1205" s="2" t="s">
         <v>3138</v>
-      </c>
-      <c r="B1205" s="2" t="s">
-        <v>3139</v>
       </c>
     </row>
     <row r="1206" spans="1:2" ht="15">
       <c r="A1206" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B1206" s="2" t="s">
         <v>3140</v>
-      </c>
-      <c r="B1206" s="2" t="s">
-        <v>3141</v>
       </c>
     </row>
     <row r="1207" spans="1:2" ht="15">
       <c r="A1207" s="1" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B1207" s="2" t="s">
         <v>980</v>
@@ -24401,7 +24401,7 @@
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="1" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B1208" s="2" t="s">
         <v>1000</v>
@@ -24409,23 +24409,23 @@
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="1" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="B1209" s="2" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1210" spans="1:2" ht="15">
       <c r="A1210" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B1210" s="2" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1211" spans="1:2" ht="15">
       <c r="A1211" s="1" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B1211" s="2" t="s">
         <v>980</v>
@@ -24433,7 +24433,7 @@
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="1" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="B1212" s="2" t="s">
         <v>1000</v>
@@ -24441,31 +24441,31 @@
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="1" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B1213" s="2" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1214" spans="1:2" ht="15">
       <c r="A1214" s="1" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B1214" s="2" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B1215" s="2" t="s">
         <v>3150</v>
-      </c>
-      <c r="B1215" s="2" t="s">
-        <v>3151</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="1" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B1216" s="2" t="s">
         <v>575</v>
@@ -24473,7 +24473,7 @@
     </row>
     <row r="1217" spans="1:2">
       <c r="A1217" s="1" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B1217" s="2" t="s">
         <v>575</v>
@@ -33161,7 +33161,7 @@
         <v>2597</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -33177,7 +33177,7 @@
         <v>2601</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="15" spans="1:3">

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6390" uniqueCount="3572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6390" uniqueCount="3571">
   <si>
     <t>fi</t>
   </si>
@@ -10661,15 +10661,9 @@
     <t>Tilavuus</t>
   </si>
   <si>
-    <t>Kokonaisla</t>
-  </si>
-  <si>
     <t>Pinta-ala</t>
   </si>
   <si>
-    <t>Asuntotilaa(ei vapaa-ajan asunto)</t>
-  </si>
-  <si>
     <t>Myymälä, majoitus- ja ravitsemustilaa</t>
   </si>
   <si>
@@ -10685,9 +10679,6 @@
     <t>Opetustilaa</t>
   </si>
   <si>
-    <t>Tuotantotilaa(teollisuus)</t>
-  </si>
-  <si>
     <t>Varastotilaa</t>
   </si>
   <si>
@@ -10770,6 +10761,12 @@
   </si>
   <si>
     <t>Laajennuksen tiedot</t>
+  </si>
+  <si>
+    <t>Asuntotilaa (ei vapaa-ajan asunto)</t>
+  </si>
+  <si>
+    <t>Tuotantotilaa (teollisuus)</t>
   </si>
 </sst>
 </file>
@@ -15626,7 +15623,7 @@
   <dimension ref="A1:C1555"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1512" workbookViewId="0">
-      <selection activeCell="B1558" sqref="B1558"/>
+      <selection activeCell="B1544" sqref="B1544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -28543,15 +28540,15 @@
     </row>
     <row r="1535" spans="1:3">
       <c r="A1535" s="1" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="B1535" s="2" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
       <c r="A1536" s="1" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="B1536" s="2" t="s">
         <v>3534</v>
@@ -28559,7 +28556,7 @@
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="B1537" s="2" t="s">
         <v>630</v>
@@ -28567,95 +28564,95 @@
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="B1538" s="2" t="s">
-        <v>3535</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="B1539" s="2" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="B1540" s="2" t="s">
-        <v>3537</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="B1541" s="2" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="B1542" s="2" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="B1543" s="2" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="B1544" s="2" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="B1545" s="2" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>3543</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="B1547" s="2" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="B1548" s="2" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="B1549" s="2" t="s">
         <v>155</v>
@@ -28663,15 +28660,15 @@
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="B1550" s="2" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="B1551" s="2" t="s">
         <v>899</v>
@@ -28679,10 +28676,10 @@
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="B1552" s="2" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
@@ -28690,24 +28687,24 @@
         <v>3533</v>
       </c>
       <c r="B1553" s="2" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="1" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="B1554" s="5" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="C1554" s="5"/>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="1" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="B1555" s="2" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -10715,9 +10715,6 @@
     <t>rakennuksen-laajentaminen.laajennuksen-tiedot.mitat.huoneistoala.kayttotarkoitusKoodi.asuntotilaa(ei vapaa-ajan asunnoista)</t>
   </si>
   <si>
-    <t>rakennuksen-laajentaminen.laajennuksen-tiedot.mitat.huoneistoala.kayttotarkoitusKoodi.myymälä, majoitus- ja ravitsemustilaa</t>
-  </si>
-  <si>
     <t>rakennuksen-laajentaminen.laajennuksen-tiedot.mitat.huoneistoala.kayttotarkoitusKoodi.hoitotilaa</t>
   </si>
   <si>
@@ -10767,6 +10764,9 @@
   </si>
   <si>
     <t>Tuotantotilaa (teollisuus)</t>
+  </si>
+  <si>
+    <t>rakennuksen-laajentaminen.laajennuksen-tiedot.mitat.huoneistoala.kayttotarkoitusKoodi.myym\u00e4l\u00e4</t>
   </si>
 </sst>
 </file>
@@ -15622,8 +15622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1512" workbookViewId="0">
-      <selection activeCell="B1544" sqref="B1544"/>
+    <sheetView tabSelected="1" topLeftCell="A1521" workbookViewId="0">
+      <selection activeCell="A1541" sqref="A1541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -28583,12 +28583,12 @@
         <v>3552</v>
       </c>
       <c r="B1540" s="2" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>3553</v>
+        <v>3570</v>
       </c>
       <c r="B1541" s="2" t="s">
         <v>3536</v>
@@ -28596,7 +28596,7 @@
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B1542" s="2" t="s">
         <v>3537</v>
@@ -28604,7 +28604,7 @@
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B1543" s="2" t="s">
         <v>3538</v>
@@ -28612,7 +28612,7 @@
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B1544" s="2" t="s">
         <v>3539</v>
@@ -28620,7 +28620,7 @@
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B1545" s="2" t="s">
         <v>3540</v>
@@ -28628,15 +28628,15 @@
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B1547" s="2" t="s">
         <v>3541</v>
@@ -28644,7 +28644,7 @@
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B1548" s="2" t="s">
         <v>3542</v>
@@ -28652,7 +28652,7 @@
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B1549" s="2" t="s">
         <v>155</v>
@@ -28660,7 +28660,7 @@
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B1550" s="2" t="s">
         <v>3543</v>
@@ -28668,7 +28668,7 @@
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B1551" s="2" t="s">
         <v>899</v>
@@ -28676,7 +28676,7 @@
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="B1552" s="2" t="s">
         <v>3545</v>
@@ -28692,19 +28692,19 @@
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B1554" s="5" t="s">
         <v>3565</v>
-      </c>
-      <c r="B1554" s="5" t="s">
-        <v>3566</v>
       </c>
       <c r="C1554" s="5"/>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1555" s="2" t="s">
         <v>3567</v>
-      </c>
-      <c r="B1555" s="2" t="s">
-        <v>3568</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -8204,9 +8204,6 @@
     <t>Kylän tai kaupunginosan nimi</t>
   </si>
   <si>
-    <t>Kortteli / Tilan nimi / Rakennuspaikka</t>
-  </si>
-  <si>
     <t>Rakennuksen pääasiallinen käyttötarkoitusmuutos</t>
   </si>
   <si>
@@ -10767,6 +10764,9 @@
   </si>
   <si>
     <t>rakennuksen-laajentaminen.laajennuksen-tiedot.mitat.huoneistoala.kayttotarkoitusKoodi.myym\u00e4l\u00e4</t>
+  </si>
+  <si>
+    <t>Tilan nimi</t>
   </si>
 </sst>
 </file>
@@ -12118,24 +12118,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2776</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2777</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12143,7 +12143,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12151,7 +12151,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -12271,7 +12271,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12364,10 +12364,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>2781</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -12554,10 +12554,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>3212</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -13128,7 +13128,7 @@
         <v>353</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -13200,7 +13200,7 @@
         <v>2584</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -13216,7 +13216,7 @@
         <v>373</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -13264,7 +13264,7 @@
         <v>383</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -13376,7 +13376,7 @@
         <v>408</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -13565,15 +13565,15 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>2822</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>2823</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>7</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>545</v>
@@ -14084,170 +14084,170 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>2735</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>2737</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>2738</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>2733</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>2734</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>2743</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>2739</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>2749</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>2750</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>2741</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>2742</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>2745</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>2753</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>2751</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>2752</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>2755</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>2756</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>2759</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>2757</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>2763</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>2761</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>2765</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>2771</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>2769</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -14797,7 +14797,7 @@
         <v>1771</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -14813,7 +14813,7 @@
         <v>1774</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -14886,7 +14886,7 @@
         <v>1804</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -14894,7 +14894,7 @@
         <v>1803</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -14902,7 +14902,7 @@
         <v>1806</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>537</v>
@@ -14913,7 +14913,7 @@
         <v>1808</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -14985,7 +14985,7 @@
         <v>2673</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="15">
@@ -15041,7 +15041,7 @@
         <v>2681</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15">
@@ -15073,7 +15073,7 @@
         <v>2685</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15">
@@ -15113,7 +15113,7 @@
         <v>2691</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15">
@@ -15129,7 +15129,7 @@
         <v>2693</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15">
@@ -15137,7 +15137,7 @@
         <v>2694</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15">
@@ -15158,127 +15158,127 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>2796</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>2797</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>2800</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>2801</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B381" s="5" t="s">
         <v>2802</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>2803</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B382" s="5" t="s">
         <v>2804</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>2805</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B383" s="5" t="s">
         <v>2806</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>2807</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B390" s="5" t="s">
         <v>2820</v>
-      </c>
-      <c r="B390" s="5" t="s">
-        <v>2821</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>2826</v>
-      </c>
-      <c r="B391" s="5" t="s">
-        <v>2827</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>122</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>2664</v>
@@ -15294,10 +15294,10 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -15305,12 +15305,12 @@
         <v>1315</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>2629</v>
@@ -15318,23 +15318,23 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B398" s="5" t="s">
         <v>3152</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>3153</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>3154</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>3155</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>43</v>
@@ -15342,23 +15342,23 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B401" s="5" t="s">
         <v>3157</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>3158</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B402" s="5" t="s">
         <v>3159</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>3160</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>5</v>
@@ -15366,39 +15366,39 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B404" s="5" t="s">
         <v>3162</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B405" s="5" t="s">
         <v>3164</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B406" s="5" t="s">
         <v>3166</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B407" s="5" t="s">
         <v>3168</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>3169</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>304</v>
@@ -15406,39 +15406,39 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B409" s="5" t="s">
         <v>3171</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>3172</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B410" s="5" t="s">
         <v>3173</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B411" s="5" t="s">
         <v>3175</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>3176</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B412" s="5" t="s">
         <v>3177</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>3178</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>7</v>
@@ -15446,7 +15446,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>177</v>
@@ -15454,15 +15454,15 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B415" s="5" t="s">
         <v>3181</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>545</v>
@@ -15470,31 +15470,31 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B417" s="5" t="s">
         <v>3184</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B418" s="5" t="s">
         <v>3186</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B419" s="5" t="s">
         <v>3188</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>3189</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>430</v>
@@ -15502,74 +15502,74 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B421" s="5" t="s">
         <v>3191</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B422" s="5" t="s">
         <v>3193</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>3194</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B423" s="5" t="s">
         <v>3195</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>3196</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B424" s="5" t="s">
         <v>3197</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>3198</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B425" s="5" t="s">
         <v>3199</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>3200</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B426" s="5" t="s">
         <v>3201</v>
-      </c>
-      <c r="B426" s="5" t="s">
-        <v>3202</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B427" s="5" t="s">
         <v>3203</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B428" s="5" t="s">
         <v>3205</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>3206</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
     </row>
   </sheetData>
@@ -15622,8 +15622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1521" workbookViewId="0">
-      <selection activeCell="A1541" sqref="A1541"/>
+    <sheetView tabSelected="1" topLeftCell="A821" workbookViewId="0">
+      <selection activeCell="B845" sqref="B845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -15757,10 +15757,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -15784,7 +15784,7 @@
         <v>340</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -15904,7 +15904,7 @@
         <v>331</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15925,50 +15925,50 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>3036</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3037</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>2919</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2920</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>2915</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>2917</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2918</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>2913</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2914</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>3030</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>3031</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -16090,10 +16090,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -16119,7 +16119,7 @@
         <v>1352</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C59" s="5"/>
     </row>
@@ -16254,7 +16254,7 @@
         <v>1372</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C74" s="5"/>
     </row>
@@ -16278,23 +16278,23 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>3038</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3039</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>3028</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>3029</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>2702</v>
@@ -16302,7 +16302,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2702</v>
@@ -16310,199 +16310,199 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>3067</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>3051</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>3076</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>3100</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>3101</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>3042</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>3043</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>3057</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>3091</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3092</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15">
       <c r="A95" s="1" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>3063</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15">
       <c r="A99" s="1" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15">
       <c r="A100" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>3119</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>3120</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15">
       <c r="A101" s="1" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15">
       <c r="A104" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>3087</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>2709</v>
@@ -16510,7 +16510,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>2709</v>
@@ -16518,151 +16518,151 @@
     </row>
     <row r="107" spans="1:2" ht="15">
       <c r="A107" s="1" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>3078</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>3079</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15">
       <c r="A109" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>3094</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>3095</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>3074</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>3085</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>3086</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>3072</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>3073</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>312</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>309</v>
@@ -16678,7 +16678,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>309</v>
@@ -16686,47 +16686,47 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>3046</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>3047</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>3083</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3084</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>3065</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>3044</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>3045</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>3060</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>3061</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>312</v>
@@ -16734,90 +16734,90 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>3070</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>3071</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>3089</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>3090</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>3049</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>3053</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>3055</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -16982,10 +16982,10 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -17009,7 +17009,7 @@
         <v>519</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -17129,7 +17129,7 @@
         <v>507</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -17150,10 +17150,10 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>3034</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>3035</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -17166,10 +17166,10 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>3026</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -17593,7 +17593,7 @@
         <v>757</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -17625,7 +17625,7 @@
         <v>701</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -17641,7 +17641,7 @@
         <v>712</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -17833,7 +17833,7 @@
         <v>780</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -17945,7 +17945,7 @@
         <v>669</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -18049,7 +18049,7 @@
         <v>817</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -18057,7 +18057,7 @@
         <v>688</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -18206,10 +18206,10 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -18270,7 +18270,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>574</v>
@@ -18334,10 +18334,10 @@
     </row>
     <row r="334" spans="1:2" ht="15">
       <c r="A334" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>3147</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>3148</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -18454,7 +18454,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>839</v>
@@ -18462,7 +18462,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>149</v>
@@ -18470,7 +18470,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>151</v>
@@ -18478,7 +18478,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>153</v>
@@ -18486,66 +18486,66 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -18558,7 +18558,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>841</v>
@@ -18566,106 +18566,106 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15">
       <c r="A365" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="15">
       <c r="A369" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15">
       <c r="A370" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15">
       <c r="A371" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15">
       <c r="A374" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -18745,7 +18745,7 @@
         <v>882</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -19030,7 +19030,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>979</v>
@@ -19046,15 +19046,15 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>999</v>
@@ -19198,10 +19198,10 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -19225,7 +19225,7 @@
         <v>656</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -19238,31 +19238,31 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15">
       <c r="A448" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>681</v>
@@ -19270,98 +19270,98 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="15">
       <c r="A452" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -19473,7 +19473,7 @@
         <v>647</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -19649,7 +19649,7 @@
         <v>618</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -19657,7 +19657,7 @@
         <v>610</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="15">
@@ -20197,7 +20197,7 @@
         <v>1125</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C560" s="5"/>
     </row>
@@ -20233,7 +20233,7 @@
         <v>1096</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C564" s="5"/>
     </row>
@@ -20251,7 +20251,7 @@
         <v>1102</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C566" s="5"/>
     </row>
@@ -20467,7 +20467,7 @@
         <v>1137</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="C590" s="5"/>
     </row>
@@ -20593,7 +20593,7 @@
         <v>1079</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C604" s="5"/>
     </row>
@@ -20710,7 +20710,7 @@
         <v>1156</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C617" s="5"/>
     </row>
@@ -20719,7 +20719,7 @@
         <v>1089</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C618" s="5"/>
     </row>
@@ -20887,10 +20887,10 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="1" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -20958,7 +20958,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="1" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B645" s="2" t="s">
         <v>574</v>
@@ -21029,10 +21029,10 @@
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="1" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -21163,7 +21163,7 @@
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B668" s="2" t="s">
         <v>839</v>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="669" spans="1:3" ht="15">
       <c r="A669" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B669" s="2" t="s">
         <v>149</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B670" s="2" t="s">
         <v>151</v>
@@ -21187,7 +21187,7 @@
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B671" s="2" t="s">
         <v>153</v>
@@ -21195,66 +21195,66 @@
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="15">
       <c r="A673" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="15">
       <c r="A674" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="15">
       <c r="A675" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="15">
       <c r="A678" s="1" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -21268,7 +21268,7 @@
     </row>
     <row r="681" spans="1:3" ht="15">
       <c r="A681" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B681" s="2" t="s">
         <v>841</v>
@@ -21276,106 +21276,106 @@
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="15">
       <c r="A683" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="1" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="1" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="1" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -21464,7 +21464,7 @@
         <v>1198</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C704" s="5"/>
     </row>
@@ -21785,7 +21785,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="1" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B740" s="2" t="s">
         <v>979</v>
@@ -21802,15 +21802,15 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="1" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="1" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="B743" s="2" t="s">
         <v>999</v>
@@ -21971,10 +21971,10 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -22000,7 +22000,7 @@
         <v>1067</v>
       </c>
       <c r="B764" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C764" s="5"/>
     </row>
@@ -22015,31 +22015,31 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B768" s="2" t="s">
         <v>2932</v>
-      </c>
-      <c r="B768" s="2" t="s">
-        <v>2933</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="1" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B769" s="2" t="s">
         <v>155</v>
@@ -22047,98 +22047,98 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B770" s="2" t="s">
         <v>2934</v>
-      </c>
-      <c r="B770" s="2" t="s">
-        <v>2935</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="A771" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B771" s="2" t="s">
         <v>2940</v>
-      </c>
-      <c r="B771" s="2" t="s">
-        <v>2941</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B772" s="2" t="s">
         <v>2946</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>2947</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B773" s="2" t="s">
         <v>2930</v>
-      </c>
-      <c r="B773" s="2" t="s">
-        <v>2931</v>
       </c>
     </row>
     <row r="774" spans="1:3" ht="15">
       <c r="A774" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B774" s="2" t="s">
         <v>2944</v>
-      </c>
-      <c r="B774" s="2" t="s">
-        <v>2945</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B775" s="2" t="s">
         <v>2950</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>2951</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B776" s="2" t="s">
         <v>2952</v>
-      </c>
-      <c r="B776" s="2" t="s">
-        <v>2953</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="A777" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B777" s="2" t="s">
         <v>2948</v>
-      </c>
-      <c r="B777" s="2" t="s">
-        <v>2949</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="A778" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B778" s="2" t="s">
         <v>2938</v>
-      </c>
-      <c r="B778" s="2" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="A779" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B779" s="2" t="s">
         <v>2942</v>
-      </c>
-      <c r="B779" s="2" t="s">
-        <v>2943</v>
       </c>
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B780" s="2" t="s">
         <v>2928</v>
-      </c>
-      <c r="B780" s="2" t="s">
-        <v>2929</v>
       </c>
     </row>
     <row r="781" spans="1:3" ht="15">
       <c r="A781" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B781" s="2" t="s">
         <v>2936</v>
-      </c>
-      <c r="B781" s="2" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -22263,7 +22263,7 @@
         <v>1058</v>
       </c>
       <c r="B795" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C795" s="5"/>
     </row>
@@ -22470,7 +22470,7 @@
         <v>1037</v>
       </c>
       <c r="B818" s="5" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C818" s="5"/>
     </row>
@@ -22479,7 +22479,7 @@
         <v>1032</v>
       </c>
       <c r="B819" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C819" s="5"/>
     </row>
@@ -22696,7 +22696,7 @@
         <v>458</v>
       </c>
       <c r="B845" s="5" t="s">
-        <v>2716</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -22830,7 +22830,7 @@
         <v>170</v>
       </c>
       <c r="B860" s="5" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="C860" s="5"/>
     </row>
@@ -22979,10 +22979,10 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" s="1" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -23008,7 +23008,7 @@
         <v>137</v>
       </c>
       <c r="B879" s="5" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="C879" s="5"/>
     </row>
@@ -23143,7 +23143,7 @@
         <v>123</v>
       </c>
       <c r="B894" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C894" s="5"/>
     </row>
@@ -23167,10 +23167,10 @@
     </row>
     <row r="897" spans="1:2">
       <c r="A897" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B897" s="2" t="s">
         <v>3032</v>
-      </c>
-      <c r="B897" s="2" t="s">
-        <v>3033</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -23594,7 +23594,7 @@
         <v>1500</v>
       </c>
       <c r="B950" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -23626,7 +23626,7 @@
         <v>1471</v>
       </c>
       <c r="B954" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -23642,7 +23642,7 @@
         <v>1477</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -23834,7 +23834,7 @@
         <v>1512</v>
       </c>
       <c r="B980" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -23946,7 +23946,7 @@
         <v>1454</v>
       </c>
       <c r="B994" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="995" spans="1:2" ht="15">
@@ -24050,7 +24050,7 @@
         <v>1531</v>
       </c>
       <c r="B1007" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -24058,7 +24058,7 @@
         <v>1464</v>
       </c>
       <c r="B1008" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -24207,10 +24207,10 @@
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B1027" s="2" t="s">
         <v>3137</v>
-      </c>
-      <c r="B1027" s="2" t="s">
-        <v>3138</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -24218,7 +24218,7 @@
         <v>1633</v>
       </c>
       <c r="B1028" s="5" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -24335,10 +24335,10 @@
     </row>
     <row r="1043" spans="1:2" ht="15">
       <c r="A1043" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="15">
@@ -24455,7 +24455,7 @@
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1058" s="2" t="s">
         <v>839</v>
@@ -24463,7 +24463,7 @@
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1059" s="2" t="s">
         <v>149</v>
@@ -24471,7 +24471,7 @@
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1060" s="2" t="s">
         <v>151</v>
@@ -24479,7 +24479,7 @@
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1061" s="2" t="s">
         <v>153</v>
@@ -24487,66 +24487,66 @@
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1062" s="2" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1063" s="2" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1064" s="2" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1065" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1066" s="2" t="s">
         <v>2880</v>
-      </c>
-      <c r="B1066" s="2" t="s">
-        <v>2881</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B1067" s="2" t="s">
         <v>2886</v>
-      </c>
-      <c r="B1067" s="2" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1068" s="2" t="s">
         <v>2884</v>
-      </c>
-      <c r="B1068" s="2" t="s">
-        <v>2885</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1069" s="2" t="s">
         <v>2882</v>
-      </c>
-      <c r="B1069" s="2" t="s">
-        <v>2883</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -24559,7 +24559,7 @@
     </row>
     <row r="1071" spans="1:2" ht="15">
       <c r="A1071" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B1071" s="2" t="s">
         <v>841</v>
@@ -24567,106 +24567,106 @@
     </row>
     <row r="1072" spans="1:2" ht="15">
       <c r="A1072" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B1072" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1073" s="2" t="s">
         <v>2894</v>
-      </c>
-      <c r="B1073" s="2" t="s">
-        <v>2895</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="15">
       <c r="A1074" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B1074" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1075" spans="1:2" ht="15">
       <c r="A1075" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B1075" s="2" t="s">
         <v>2898</v>
-      </c>
-      <c r="B1075" s="2" t="s">
-        <v>2899</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="15">
       <c r="A1076" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B1076" s="2" t="s">
         <v>2904</v>
-      </c>
-      <c r="B1076" s="2" t="s">
-        <v>2905</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1077" s="2" t="s">
         <v>2910</v>
-      </c>
-      <c r="B1077" s="2" t="s">
-        <v>2911</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1079" s="2" t="s">
         <v>2900</v>
-      </c>
-      <c r="B1079" s="2" t="s">
-        <v>2901</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1080" s="2" t="s">
         <v>2908</v>
-      </c>
-      <c r="B1080" s="2" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B1081" s="2" t="s">
         <v>2902</v>
-      </c>
-      <c r="B1081" s="2" t="s">
-        <v>2903</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B1082" s="2" t="s">
         <v>2892</v>
-      </c>
-      <c r="B1082" s="2" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1083" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B1084" s="2" t="s">
         <v>2888</v>
-      </c>
-      <c r="B1084" s="2" t="s">
-        <v>2889</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -24746,7 +24746,7 @@
         <v>1573</v>
       </c>
       <c r="B1094" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -25031,7 +25031,7 @@
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="1" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B1130" s="2" t="s">
         <v>979</v>
@@ -25047,15 +25047,15 @@
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B1132" s="2" t="s">
         <v>3135</v>
-      </c>
-      <c r="B1132" s="2" t="s">
-        <v>3136</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="1" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B1133" s="2" t="s">
         <v>999</v>
@@ -25199,10 +25199,10 @@
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1151" s="2" t="s">
         <v>2835</v>
-      </c>
-      <c r="B1151" s="2" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -25226,7 +25226,7 @@
         <v>1442</v>
       </c>
       <c r="B1154" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -25239,31 +25239,31 @@
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1156" s="2" t="s">
         <v>2866</v>
-      </c>
-      <c r="B1156" s="2" t="s">
-        <v>2867</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1157" s="2" t="s">
         <v>2864</v>
-      </c>
-      <c r="B1157" s="2" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B1158" s="2" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1159" s="2" t="s">
         <v>681</v>
@@ -25271,98 +25271,98 @@
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B1160" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1161" s="2" t="s">
         <v>2849</v>
-      </c>
-      <c r="B1161" s="2" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1162" s="2" t="s">
         <v>2855</v>
-      </c>
-      <c r="B1162" s="2" t="s">
-        <v>2856</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1163" s="2" t="s">
         <v>2839</v>
-      </c>
-      <c r="B1163" s="2" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1164" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1165" s="2" t="s">
         <v>2859</v>
-      </c>
-      <c r="B1165" s="2" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1166" s="2" t="s">
         <v>2861</v>
-      </c>
-      <c r="B1166" s="2" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1167" s="2" t="s">
         <v>2857</v>
-      </c>
-      <c r="B1167" s="2" t="s">
-        <v>2858</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1168" s="2" t="s">
         <v>2847</v>
-      </c>
-      <c r="B1168" s="2" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1169" s="2" t="s">
         <v>2851</v>
-      </c>
-      <c r="B1169" s="2" t="s">
-        <v>2852</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B1170" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1171" s="2" t="s">
         <v>2845</v>
-      </c>
-      <c r="B1171" s="2" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -25474,7 +25474,7 @@
         <v>1433</v>
       </c>
       <c r="B1185" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -25650,7 +25650,7 @@
         <v>1412</v>
       </c>
       <c r="B1207" s="5" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -25658,7 +25658,7 @@
         <v>1407</v>
       </c>
       <c r="B1208" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1209" spans="1:2" ht="15">
@@ -25727,7 +25727,7 @@
     </row>
     <row r="1217" spans="1:3">
       <c r="A1217" s="1" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>890</v>
@@ -25736,7 +25736,7 @@
     </row>
     <row r="1218" spans="1:3">
       <c r="A1218" s="1" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="B1218" s="5" t="s">
         <v>888</v>
@@ -25745,7 +25745,7 @@
     </row>
     <row r="1219" spans="1:3">
       <c r="A1219" s="1" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>457</v>
@@ -25754,7 +25754,7 @@
     </row>
     <row r="1220" spans="1:3">
       <c r="A1220" s="1" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>899</v>
@@ -25763,7 +25763,7 @@
     </row>
     <row r="1221" spans="1:3">
       <c r="A1221" s="1" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>457</v>
@@ -25772,7 +25772,7 @@
     </row>
     <row r="1222" spans="1:3">
       <c r="A1222" s="1" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>905</v>
@@ -25781,7 +25781,7 @@
     </row>
     <row r="1223" spans="1:3">
       <c r="A1223" s="1" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>155</v>
@@ -25790,7 +25790,7 @@
     </row>
     <row r="1224" spans="1:3">
       <c r="A1224" s="1" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>903</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="1225" spans="1:3">
       <c r="A1225" s="1" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>907</v>
@@ -25808,7 +25808,7 @@
     </row>
     <row r="1226" spans="1:3">
       <c r="A1226" s="1" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>892</v>
@@ -25817,7 +25817,7 @@
     </row>
     <row r="1227" spans="1:3">
       <c r="A1227" s="1" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>895</v>
@@ -25826,7 +25826,7 @@
     </row>
     <row r="1228" spans="1:3">
       <c r="A1228" s="1" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>858</v>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="1229" spans="1:3">
       <c r="A1229" s="1" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>854</v>
@@ -25844,7 +25844,7 @@
     </row>
     <row r="1230" spans="1:3">
       <c r="A1230" s="1" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>909</v>
@@ -25853,7 +25853,7 @@
     </row>
     <row r="1231" spans="1:3">
       <c r="A1231" s="1" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>155</v>
@@ -25862,7 +25862,7 @@
     </row>
     <row r="1232" spans="1:3">
       <c r="A1232" s="1" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>918</v>
@@ -25871,7 +25871,7 @@
     </row>
     <row r="1233" spans="1:3">
       <c r="A1233" s="1" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>916</v>
@@ -25880,7 +25880,7 @@
     </row>
     <row r="1234" spans="1:3">
       <c r="A1234" s="1" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>911</v>
@@ -25889,7 +25889,7 @@
     </row>
     <row r="1235" spans="1:3">
       <c r="A1235" s="1" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>913</v>
@@ -25898,7 +25898,7 @@
     </row>
     <row r="1236" spans="1:3">
       <c r="A1236" s="1" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>112</v>
@@ -25907,7 +25907,7 @@
     </row>
     <row r="1237" spans="1:3">
       <c r="A1237" s="1" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>864</v>
@@ -25916,7 +25916,7 @@
     </row>
     <row r="1238" spans="1:3">
       <c r="A1238" s="1" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>858</v>
@@ -25925,7 +25925,7 @@
     </row>
     <row r="1239" spans="1:3">
       <c r="A1239" s="1" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>862</v>
@@ -25934,7 +25934,7 @@
     </row>
     <row r="1240" spans="1:3">
       <c r="A1240" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>856</v>
@@ -25943,7 +25943,7 @@
     </row>
     <row r="1241" spans="1:3">
       <c r="A1241" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="B1241" s="5" t="s">
         <v>846</v>
@@ -25952,7 +25952,7 @@
     </row>
     <row r="1242" spans="1:3">
       <c r="A1242" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>852</v>
@@ -25961,7 +25961,7 @@
     </row>
     <row r="1243" spans="1:3">
       <c r="A1243" s="1" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>848</v>
@@ -25970,7 +25970,7 @@
     </row>
     <row r="1244" spans="1:3">
       <c r="A1244" s="1" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>850</v>
@@ -25979,7 +25979,7 @@
     </row>
     <row r="1245" spans="1:3">
       <c r="A1245" s="1" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>854</v>
@@ -25988,7 +25988,7 @@
     </row>
     <row r="1246" spans="1:3">
       <c r="A1246" s="1" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>116</v>
@@ -25997,7 +25997,7 @@
     </row>
     <row r="1247" spans="1:3">
       <c r="A1247" s="1" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>118</v>
@@ -26006,7 +26006,7 @@
     </row>
     <row r="1248" spans="1:3">
       <c r="A1248" s="1" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>920</v>
@@ -26015,7 +26015,7 @@
     </row>
     <row r="1249" spans="1:3">
       <c r="A1249" s="1" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>926</v>
@@ -26024,7 +26024,7 @@
     </row>
     <row r="1250" spans="1:3">
       <c r="A1250" s="1" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>924</v>
@@ -26033,7 +26033,7 @@
     </row>
     <row r="1251" spans="1:3">
       <c r="A1251" s="1" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>922</v>
@@ -26042,7 +26042,7 @@
     </row>
     <row r="1252" spans="1:3">
       <c r="A1252" s="1" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>930</v>
@@ -26051,7 +26051,7 @@
     </row>
     <row r="1253" spans="1:3">
       <c r="A1253" s="1" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>928</v>
@@ -26060,7 +26060,7 @@
     </row>
     <row r="1254" spans="1:3">
       <c r="A1254" s="1" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B1254" s="5" t="s">
         <v>668</v>
@@ -26069,7 +26069,7 @@
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="1" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B1255" s="5" t="s">
         <v>775</v>
@@ -26078,7 +26078,7 @@
     </row>
     <row r="1256" spans="1:3">
       <c r="A1256" s="1" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>769</v>
@@ -26087,7 +26087,7 @@
     </row>
     <row r="1257" spans="1:3">
       <c r="A1257" s="1" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B1257" s="5" t="s">
         <v>750</v>
@@ -26096,7 +26096,7 @@
     </row>
     <row r="1258" spans="1:3">
       <c r="A1258" s="1" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B1258" s="5" t="s">
         <v>738</v>
@@ -26105,7 +26105,7 @@
     </row>
     <row r="1259" spans="1:3">
       <c r="A1259" s="1" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B1259" s="5" t="s">
         <v>711</v>
@@ -26114,7 +26114,7 @@
     </row>
     <row r="1260" spans="1:3">
       <c r="A1260" s="1" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1260" s="5" t="s">
         <v>748</v>
@@ -26123,7 +26123,7 @@
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="1" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B1261" s="5" t="s">
         <v>675</v>
@@ -26132,7 +26132,7 @@
     </row>
     <row r="1262" spans="1:3">
       <c r="A1262" s="1" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B1262" s="5" t="s">
         <v>734</v>
@@ -26141,7 +26141,7 @@
     </row>
     <row r="1263" spans="1:3">
       <c r="A1263" s="1" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1263" s="5" t="s">
         <v>720</v>
@@ -26150,7 +26150,7 @@
     </row>
     <row r="1264" spans="1:3">
       <c r="A1264" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B1264" s="5" t="s">
         <v>754</v>
@@ -26159,7 +26159,7 @@
     </row>
     <row r="1265" spans="1:3">
       <c r="A1265" s="1" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>694</v>
@@ -26168,7 +26168,7 @@
     </row>
     <row r="1266" spans="1:3">
       <c r="A1266" s="1" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>790</v>
@@ -26177,16 +26177,16 @@
     </row>
     <row r="1267" spans="1:3">
       <c r="A1267" s="1" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C1267" s="5"/>
     </row>
     <row r="1268" spans="1:3">
       <c r="A1268" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>777</v>
@@ -26195,7 +26195,7 @@
     </row>
     <row r="1269" spans="1:3">
       <c r="A1269" s="1" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>696</v>
@@ -26204,7 +26204,7 @@
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="1" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>752</v>
@@ -26213,16 +26213,16 @@
     </row>
     <row r="1271" spans="1:3">
       <c r="A1271" s="1" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C1271" s="5"/>
     </row>
     <row r="1272" spans="1:3">
       <c r="A1272" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>788</v>
@@ -26231,16 +26231,16 @@
     </row>
     <row r="1273" spans="1:3">
       <c r="A1273" s="1" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B1273" s="5" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C1273" s="5"/>
     </row>
     <row r="1274" spans="1:3">
       <c r="A1274" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B1274" s="5" t="s">
         <v>730</v>
@@ -26249,7 +26249,7 @@
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275" s="1" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B1275" s="5" t="s">
         <v>786</v>
@@ -26258,7 +26258,7 @@
     </row>
     <row r="1276" spans="1:3">
       <c r="A1276" s="1" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="B1276" s="5" t="s">
         <v>677</v>
@@ -26267,7 +26267,7 @@
     </row>
     <row r="1277" spans="1:3">
       <c r="A1277" s="1" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B1277" s="5" t="s">
         <v>765</v>
@@ -26276,7 +26276,7 @@
     </row>
     <row r="1278" spans="1:3">
       <c r="A1278" s="1" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B1278" s="5" t="s">
         <v>819</v>
@@ -26285,7 +26285,7 @@
     </row>
     <row r="1279" spans="1:3">
       <c r="A1279" s="1" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B1279" s="5" t="s">
         <v>759</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="1280" spans="1:3">
       <c r="A1280" s="1" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B1280" s="5" t="s">
         <v>718</v>
@@ -26303,7 +26303,7 @@
     </row>
     <row r="1281" spans="1:3">
       <c r="A1281" s="1" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B1281" s="5" t="s">
         <v>802</v>
@@ -26312,7 +26312,7 @@
     </row>
     <row r="1282" spans="1:3">
       <c r="A1282" s="1" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="B1282" s="5" t="s">
         <v>800</v>
@@ -26321,7 +26321,7 @@
     </row>
     <row r="1283" spans="1:3">
       <c r="A1283" s="1" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B1283" s="5" t="s">
         <v>767</v>
@@ -26330,7 +26330,7 @@
     </row>
     <row r="1284" spans="1:3">
       <c r="A1284" s="1" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B1284" s="5" t="s">
         <v>736</v>
@@ -26339,7 +26339,7 @@
     </row>
     <row r="1285" spans="1:3">
       <c r="A1285" s="1" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1285" s="5" t="s">
         <v>792</v>
@@ -26348,7 +26348,7 @@
     </row>
     <row r="1286" spans="1:3">
       <c r="A1286" s="1" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B1286" s="5" t="s">
         <v>798</v>
@@ -26357,7 +26357,7 @@
     </row>
     <row r="1287" spans="1:3">
       <c r="A1287" s="1" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B1287" s="5" t="s">
         <v>698</v>
@@ -26366,7 +26366,7 @@
     </row>
     <row r="1288" spans="1:3">
       <c r="A1288" s="1" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B1288" s="5" t="s">
         <v>709</v>
@@ -26375,7 +26375,7 @@
     </row>
     <row r="1289" spans="1:3">
       <c r="A1289" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>796</v>
@@ -26384,7 +26384,7 @@
     </row>
     <row r="1290" spans="1:3">
       <c r="A1290" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>671</v>
@@ -26393,7 +26393,7 @@
     </row>
     <row r="1291" spans="1:3">
       <c r="A1291" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B1291" s="5" t="s">
         <v>742</v>
@@ -26402,7 +26402,7 @@
     </row>
     <row r="1292" spans="1:3">
       <c r="A1292" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>716</v>
@@ -26411,7 +26411,7 @@
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293" s="1" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B1293" s="5" t="s">
         <v>782</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="1294" spans="1:3">
       <c r="A1294" s="1" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B1294" s="5" t="s">
         <v>685</v>
@@ -26429,7 +26429,7 @@
     </row>
     <row r="1295" spans="1:3">
       <c r="A1295" s="1" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B1295" s="5" t="s">
         <v>728</v>
@@ -26438,7 +26438,7 @@
     </row>
     <row r="1296" spans="1:3">
       <c r="A1296" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B1296" s="5" t="s">
         <v>814</v>
@@ -26447,16 +26447,16 @@
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="1" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B1297" s="5" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="C1297" s="5"/>
     </row>
     <row r="1298" spans="1:3">
       <c r="A1298" s="1" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B1298" s="5" t="s">
         <v>761</v>
@@ -26465,7 +26465,7 @@
     </row>
     <row r="1299" spans="1:3">
       <c r="A1299" s="1" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B1299" s="5" t="s">
         <v>779</v>
@@ -26474,7 +26474,7 @@
     </row>
     <row r="1300" spans="1:3">
       <c r="A1300" s="1" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B1300" s="5" t="s">
         <v>763</v>
@@ -26483,7 +26483,7 @@
     </row>
     <row r="1301" spans="1:3">
       <c r="A1301" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B1301" s="5" t="s">
         <v>808</v>
@@ -26492,7 +26492,7 @@
     </row>
     <row r="1302" spans="1:3">
       <c r="A1302" s="1" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B1302" s="5" t="s">
         <v>804</v>
@@ -26501,7 +26501,7 @@
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="1" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B1303" s="5" t="s">
         <v>683</v>
@@ -26510,7 +26510,7 @@
     </row>
     <row r="1304" spans="1:3">
       <c r="A1304" s="1" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B1304" s="5" t="s">
         <v>746</v>
@@ -26519,7 +26519,7 @@
     </row>
     <row r="1305" spans="1:3">
       <c r="A1305" s="1" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B1305" s="5" t="s">
         <v>679</v>
@@ -26528,7 +26528,7 @@
     </row>
     <row r="1306" spans="1:3">
       <c r="A1306" s="1" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B1306" s="5" t="s">
         <v>687</v>
@@ -26537,7 +26537,7 @@
     </row>
     <row r="1307" spans="1:3">
       <c r="A1307" s="1" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B1307" s="5" t="s">
         <v>703</v>
@@ -26546,7 +26546,7 @@
     </row>
     <row r="1308" spans="1:3">
       <c r="A1308" s="1" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B1308" s="5" t="s">
         <v>773</v>
@@ -26555,7 +26555,7 @@
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="1" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B1309" s="5" t="s">
         <v>744</v>
@@ -26564,7 +26564,7 @@
     </row>
     <row r="1310" spans="1:3">
       <c r="A1310" s="1" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1310" s="5" t="s">
         <v>794</v>
@@ -26573,16 +26573,16 @@
     </row>
     <row r="1311" spans="1:3">
       <c r="A1311" s="1" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B1311" s="5" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C1311" s="5"/>
     </row>
     <row r="1312" spans="1:3">
       <c r="A1312" s="1" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B1312" s="5" t="s">
         <v>732</v>
@@ -26591,7 +26591,7 @@
     </row>
     <row r="1313" spans="1:3">
       <c r="A1313" s="1" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B1313" s="5" t="s">
         <v>692</v>
@@ -26600,7 +26600,7 @@
     </row>
     <row r="1314" spans="1:3">
       <c r="A1314" s="1" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B1314" s="5" t="s">
         <v>812</v>
@@ -26609,7 +26609,7 @@
     </row>
     <row r="1315" spans="1:3">
       <c r="A1315" s="1" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B1315" s="5" t="s">
         <v>673</v>
@@ -26618,7 +26618,7 @@
     </row>
     <row r="1316" spans="1:3">
       <c r="A1316" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B1316" s="5" t="s">
         <v>810</v>
@@ -26627,7 +26627,7 @@
     </row>
     <row r="1317" spans="1:3">
       <c r="A1317" s="1" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B1317" s="5" t="s">
         <v>714</v>
@@ -26636,7 +26636,7 @@
     </row>
     <row r="1318" spans="1:3">
       <c r="A1318" s="1" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B1318" s="5" t="s">
         <v>771</v>
@@ -26645,7 +26645,7 @@
     </row>
     <row r="1319" spans="1:3">
       <c r="A1319" s="1" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B1319" s="5" t="s">
         <v>722</v>
@@ -26654,7 +26654,7 @@
     </row>
     <row r="1320" spans="1:3">
       <c r="A1320" s="1" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B1320" s="5" t="s">
         <v>700</v>
@@ -26663,7 +26663,7 @@
     </row>
     <row r="1321" spans="1:3">
       <c r="A1321" s="1" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B1321" s="5" t="s">
         <v>726</v>
@@ -26672,7 +26672,7 @@
     </row>
     <row r="1322" spans="1:3">
       <c r="A1322" s="1" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B1322" s="5" t="s">
         <v>784</v>
@@ -26681,7 +26681,7 @@
     </row>
     <row r="1323" spans="1:3">
       <c r="A1323" s="1" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B1323" s="5" t="s">
         <v>816</v>
@@ -26690,25 +26690,25 @@
     </row>
     <row r="1324" spans="1:3">
       <c r="A1324" s="1" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C1324" s="5"/>
     </row>
     <row r="1325" spans="1:3">
       <c r="A1325" s="1" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B1325" s="5" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C1325" s="5"/>
     </row>
     <row r="1326" spans="1:3">
       <c r="A1326" s="1" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B1326" s="5" t="s">
         <v>740</v>
@@ -26717,7 +26717,7 @@
     </row>
     <row r="1327" spans="1:3">
       <c r="A1327" s="1" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B1327" s="5" t="s">
         <v>705</v>
@@ -26726,7 +26726,7 @@
     </row>
     <row r="1328" spans="1:3">
       <c r="A1328" s="1" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B1328" s="5" t="s">
         <v>707</v>
@@ -26735,7 +26735,7 @@
     </row>
     <row r="1329" spans="1:3">
       <c r="A1329" s="1" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B1329" s="5" t="s">
         <v>690</v>
@@ -26744,7 +26744,7 @@
     </row>
     <row r="1330" spans="1:3">
       <c r="A1330" s="1" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="B1330" s="5" t="s">
         <v>756</v>
@@ -26753,7 +26753,7 @@
     </row>
     <row r="1331" spans="1:3">
       <c r="A1331" s="1" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B1331" s="5" t="s">
         <v>724</v>
@@ -26762,7 +26762,7 @@
     </row>
     <row r="1332" spans="1:3">
       <c r="A1332" s="1" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B1332" s="5" t="s">
         <v>806</v>
@@ -26771,7 +26771,7 @@
     </row>
     <row r="1333" spans="1:3">
       <c r="A1333" s="1" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B1333" s="5" t="s">
         <v>681</v>
@@ -26780,7 +26780,7 @@
     </row>
     <row r="1334" spans="1:3">
       <c r="A1334" s="1" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B1334" s="5" t="s">
         <v>821</v>
@@ -26789,7 +26789,7 @@
     </row>
     <row r="1335" spans="1:3">
       <c r="A1335" s="1" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B1335" s="5" t="s">
         <v>155</v>
@@ -26798,7 +26798,7 @@
     </row>
     <row r="1336" spans="1:3">
       <c r="A1336" s="1" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B1336" s="5" t="s">
         <v>823</v>
@@ -26807,7 +26807,7 @@
     </row>
     <row r="1337" spans="1:3">
       <c r="A1337" s="1" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B1337" s="5" t="s">
         <v>313</v>
@@ -26816,7 +26816,7 @@
     </row>
     <row r="1338" spans="1:3">
       <c r="A1338" s="1" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B1338" s="5" t="s">
         <v>944</v>
@@ -26825,7 +26825,7 @@
     </row>
     <row r="1339" spans="1:3">
       <c r="A1339" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B1339" s="5" t="s">
         <v>958</v>
@@ -26834,7 +26834,7 @@
     </row>
     <row r="1340" spans="1:3">
       <c r="A1340" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1340" s="5" t="s">
         <v>155</v>
@@ -26843,7 +26843,7 @@
     </row>
     <row r="1341" spans="1:3">
       <c r="A1341" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B1341" s="5" t="s">
         <v>963</v>
@@ -26852,7 +26852,7 @@
     </row>
     <row r="1342" spans="1:3">
       <c r="A1342" s="1" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B1342" s="5" t="s">
         <v>965</v>
@@ -26861,7 +26861,7 @@
     </row>
     <row r="1343" spans="1:3">
       <c r="A1343" s="1" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B1343" s="5" t="s">
         <v>967</v>
@@ -26870,15 +26870,15 @@
     </row>
     <row r="1344" spans="1:3">
       <c r="A1344" s="1" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B1344" s="2" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
       <c r="A1345" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B1345" s="5" t="s">
         <v>969</v>
@@ -26887,7 +26887,7 @@
     </row>
     <row r="1346" spans="1:3">
       <c r="A1346" s="1" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B1346" s="5" t="s">
         <v>961</v>
@@ -26896,7 +26896,7 @@
     </row>
     <row r="1347" spans="1:3">
       <c r="A1347" s="1" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B1347" s="5" t="s">
         <v>2712</v>
@@ -26905,7 +26905,7 @@
     </row>
     <row r="1348" spans="1:3">
       <c r="A1348" s="1" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B1348" s="5" t="s">
         <v>155</v>
@@ -26914,7 +26914,7 @@
     </row>
     <row r="1349" spans="1:3">
       <c r="A1349" s="1" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="B1349" s="5" t="s">
         <v>576</v>
@@ -26923,7 +26923,7 @@
     </row>
     <row r="1350" spans="1:3">
       <c r="A1350" s="1" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B1350" s="5" t="s">
         <v>588</v>
@@ -26932,7 +26932,7 @@
     </row>
     <row r="1351" spans="1:3">
       <c r="A1351" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B1351" s="5" t="s">
         <v>583</v>
@@ -26941,7 +26941,7 @@
     </row>
     <row r="1352" spans="1:3">
       <c r="A1352" s="1" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B1352" s="2" t="s">
         <v>574</v>
@@ -26949,7 +26949,7 @@
     </row>
     <row r="1353" spans="1:3">
       <c r="A1353" s="1" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B1353" s="5" t="s">
         <v>574</v>
@@ -26958,7 +26958,7 @@
     </row>
     <row r="1354" spans="1:3">
       <c r="A1354" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B1354" s="5" t="s">
         <v>581</v>
@@ -26967,7 +26967,7 @@
     </row>
     <row r="1355" spans="1:3">
       <c r="A1355" s="1" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B1355" s="5" t="s">
         <v>310</v>
@@ -26976,7 +26976,7 @@
     </row>
     <row r="1356" spans="1:3">
       <c r="A1356" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B1356" s="5" t="s">
         <v>585</v>
@@ -26985,7 +26985,7 @@
     </row>
     <row r="1357" spans="1:3">
       <c r="A1357" s="1" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B1357" s="5" t="s">
         <v>579</v>
@@ -26994,7 +26994,7 @@
     </row>
     <row r="1358" spans="1:3">
       <c r="A1358" s="1" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B1358" s="5" t="s">
         <v>572</v>
@@ -27003,7 +27003,7 @@
     </row>
     <row r="1359" spans="1:3">
       <c r="A1359" s="1" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B1359" s="5" t="s">
         <v>569</v>
@@ -27012,15 +27012,15 @@
     </row>
     <row r="1360" spans="1:3">
       <c r="A1360" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B1360" s="2" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
       <c r="A1361" s="1" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B1361" s="5" t="s">
         <v>2712</v>
@@ -27029,7 +27029,7 @@
     </row>
     <row r="1362" spans="1:3">
       <c r="A1362" s="1" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B1362" s="5" t="s">
         <v>155</v>
@@ -27038,7 +27038,7 @@
     </row>
     <row r="1363" spans="1:3">
       <c r="A1363" s="1" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B1363" s="5" t="s">
         <v>576</v>
@@ -27047,7 +27047,7 @@
     </row>
     <row r="1364" spans="1:3">
       <c r="A1364" s="1" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B1364" s="5" t="s">
         <v>588</v>
@@ -27056,7 +27056,7 @@
     </row>
     <row r="1365" spans="1:3">
       <c r="A1365" s="1" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B1365" s="5" t="s">
         <v>583</v>
@@ -27065,7 +27065,7 @@
     </row>
     <row r="1366" spans="1:3">
       <c r="A1366" s="1" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B1366" s="5" t="s">
         <v>574</v>
@@ -27074,7 +27074,7 @@
     </row>
     <row r="1367" spans="1:3">
       <c r="A1367" s="1" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B1367" s="5" t="s">
         <v>581</v>
@@ -27083,7 +27083,7 @@
     </row>
     <row r="1368" spans="1:3">
       <c r="A1368" s="1" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="B1368" s="5" t="s">
         <v>310</v>
@@ -27092,7 +27092,7 @@
     </row>
     <row r="1369" spans="1:3">
       <c r="A1369" s="1" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B1369" s="5" t="s">
         <v>585</v>
@@ -27101,7 +27101,7 @@
     </row>
     <row r="1370" spans="1:3">
       <c r="A1370" s="1" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B1370" s="5" t="s">
         <v>579</v>
@@ -27110,7 +27110,7 @@
     </row>
     <row r="1371" spans="1:3">
       <c r="A1371" s="1" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B1371" s="5" t="s">
         <v>572</v>
@@ -27119,7 +27119,7 @@
     </row>
     <row r="1372" spans="1:3">
       <c r="A1372" s="1" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="B1372" s="5" t="s">
         <v>569</v>
@@ -27128,7 +27128,7 @@
     </row>
     <row r="1373" spans="1:3">
       <c r="A1373" s="1" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="B1373" s="5" t="s">
         <v>837</v>
@@ -27137,7 +27137,7 @@
     </row>
     <row r="1374" spans="1:3">
       <c r="A1374" s="1" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="B1374" s="5" t="s">
         <v>839</v>
@@ -27146,7 +27146,7 @@
     </row>
     <row r="1375" spans="1:3">
       <c r="A1375" s="1" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="B1375" s="2" t="s">
         <v>839</v>
@@ -27154,7 +27154,7 @@
     </row>
     <row r="1376" spans="1:3">
       <c r="A1376" s="1" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B1376" s="2" t="s">
         <v>149</v>
@@ -27162,7 +27162,7 @@
     </row>
     <row r="1377" spans="1:3">
       <c r="A1377" s="1" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B1377" s="2" t="s">
         <v>151</v>
@@ -27170,7 +27170,7 @@
     </row>
     <row r="1378" spans="1:3">
       <c r="A1378" s="1" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="B1378" s="2" t="s">
         <v>153</v>
@@ -27178,71 +27178,71 @@
     </row>
     <row r="1379" spans="1:3">
       <c r="A1379" s="1" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B1379" s="2" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
       <c r="A1380" s="1" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="B1380" s="2" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
       <c r="A1381" s="1" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="B1381" s="2" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
       <c r="A1382" s="1" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="B1382" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
       <c r="A1383" s="1" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="B1383" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
       <c r="A1384" s="1" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
       <c r="A1385" s="1" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="B1385" s="2" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
       <c r="A1386" s="1" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="B1386" s="2" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
       <c r="A1387" s="1" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B1387" s="5" t="s">
         <v>841</v>
@@ -27251,7 +27251,7 @@
     </row>
     <row r="1388" spans="1:3">
       <c r="A1388" s="1" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="B1388" s="2" t="s">
         <v>841</v>
@@ -27259,111 +27259,111 @@
     </row>
     <row r="1389" spans="1:3">
       <c r="A1389" s="1" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="B1389" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
       <c r="A1390" s="1" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B1390" s="2" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
       <c r="A1391" s="1" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B1391" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
       <c r="A1392" s="1" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="B1392" s="2" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
       <c r="A1393" s="1" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B1393" s="2" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
       <c r="A1394" s="1" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B1394" s="2" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
       <c r="A1395" s="1" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B1395" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
       <c r="A1396" s="1" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="B1396" s="2" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
       <c r="A1397" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B1397" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
       <c r="A1398" s="1" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="B1398" s="2" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
       <c r="A1399" s="1" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B1399" s="2" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
       <c r="A1400" s="1" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="B1400" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
       <c r="A1401" s="1" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B1401" s="2" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
       <c r="A1402" s="1" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B1402" s="5" t="s">
         <v>620</v>
@@ -27372,7 +27372,7 @@
     </row>
     <row r="1403" spans="1:3">
       <c r="A1403" s="1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B1403" s="5" t="s">
         <v>628</v>
@@ -27381,7 +27381,7 @@
     </row>
     <row r="1404" spans="1:3">
       <c r="A1404" s="1" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B1404" s="5" t="s">
         <v>630</v>
@@ -27390,7 +27390,7 @@
     </row>
     <row r="1405" spans="1:3">
       <c r="A1405" s="1" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B1405" s="5" t="s">
         <v>624</v>
@@ -27399,7 +27399,7 @@
     </row>
     <row r="1406" spans="1:3">
       <c r="A1406" s="1" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B1406" s="5" t="s">
         <v>626</v>
@@ -27408,7 +27408,7 @@
     </row>
     <row r="1407" spans="1:3">
       <c r="A1407" s="1" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B1407" s="5" t="s">
         <v>622</v>
@@ -27417,7 +27417,7 @@
     </row>
     <row r="1408" spans="1:3">
       <c r="A1408" s="1" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="B1408" s="5" t="s">
         <v>879</v>
@@ -27426,7 +27426,7 @@
     </row>
     <row r="1409" spans="1:3">
       <c r="A1409" s="1" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="B1409" s="5" t="s">
         <v>884</v>
@@ -27435,7 +27435,7 @@
     </row>
     <row r="1410" spans="1:3">
       <c r="A1410" s="1" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="B1410" s="5" t="s">
         <v>881</v>
@@ -27444,16 +27444,16 @@
     </row>
     <row r="1411" spans="1:3">
       <c r="A1411" s="1" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="B1411" s="5" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C1411" s="5"/>
     </row>
     <row r="1412" spans="1:3">
       <c r="A1412" s="1" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="B1412" s="5" t="s">
         <v>112</v>
@@ -27462,7 +27462,7 @@
     </row>
     <row r="1413" spans="1:3">
       <c r="A1413" s="1" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="B1413" s="5" t="s">
         <v>864</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="1414" spans="1:3">
       <c r="A1414" s="1" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B1414" s="5" t="s">
         <v>858</v>
@@ -27480,7 +27480,7 @@
     </row>
     <row r="1415" spans="1:3">
       <c r="A1415" s="1" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B1415" s="5" t="s">
         <v>862</v>
@@ -27489,7 +27489,7 @@
     </row>
     <row r="1416" spans="1:3">
       <c r="A1416" s="1" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="B1416" s="5" t="s">
         <v>856</v>
@@ -27498,7 +27498,7 @@
     </row>
     <row r="1417" spans="1:3">
       <c r="A1417" s="1" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="B1417" s="5" t="s">
         <v>846</v>
@@ -27507,7 +27507,7 @@
     </row>
     <row r="1418" spans="1:3">
       <c r="A1418" s="1" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="B1418" s="5" t="s">
         <v>852</v>
@@ -27516,7 +27516,7 @@
     </row>
     <row r="1419" spans="1:3">
       <c r="A1419" s="1" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="B1419" s="5" t="s">
         <v>848</v>
@@ -27525,7 +27525,7 @@
     </row>
     <row r="1420" spans="1:3">
       <c r="A1420" s="1" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B1420" s="5" t="s">
         <v>850</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="1421" spans="1:3">
       <c r="A1421" s="1" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B1421" s="5" t="s">
         <v>854</v>
@@ -27543,7 +27543,7 @@
     </row>
     <row r="1422" spans="1:3">
       <c r="A1422" s="1" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B1422" s="5" t="s">
         <v>116</v>
@@ -27552,7 +27552,7 @@
     </row>
     <row r="1423" spans="1:3">
       <c r="A1423" s="1" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="B1423" s="5" t="s">
         <v>118</v>
@@ -27561,7 +27561,7 @@
     </row>
     <row r="1424" spans="1:3">
       <c r="A1424" s="1" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="B1424" s="5" t="s">
         <v>632</v>
@@ -27570,7 +27570,7 @@
     </row>
     <row r="1425" spans="1:3">
       <c r="A1425" s="1" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B1425" s="5" t="s">
         <v>590</v>
@@ -27579,7 +27579,7 @@
     </row>
     <row r="1426" spans="1:3">
       <c r="A1426" s="1" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="B1426" s="5" t="s">
         <v>600</v>
@@ -27588,7 +27588,7 @@
     </row>
     <row r="1427" spans="1:3">
       <c r="A1427" s="1" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="B1427" s="5" t="s">
         <v>594</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="1428" spans="1:3">
       <c r="A1428" s="1" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="B1428" s="5" t="s">
         <v>592</v>
@@ -27606,7 +27606,7 @@
     </row>
     <row r="1429" spans="1:3">
       <c r="A1429" s="1" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="B1429" s="5" t="s">
         <v>598</v>
@@ -27615,7 +27615,7 @@
     </row>
     <row r="1430" spans="1:3">
       <c r="A1430" s="1" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="B1430" s="5" t="s">
         <v>596</v>
@@ -27624,7 +27624,7 @@
     </row>
     <row r="1431" spans="1:3">
       <c r="A1431" s="1" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B1431" s="5" t="s">
         <v>971</v>
@@ -27633,7 +27633,7 @@
     </row>
     <row r="1432" spans="1:3">
       <c r="A1432" s="1" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="B1432" s="5" t="s">
         <v>991</v>
@@ -27642,7 +27642,7 @@
     </row>
     <row r="1433" spans="1:3">
       <c r="A1433" s="1" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="B1433" s="5" t="s">
         <v>993</v>
@@ -27651,7 +27651,7 @@
     </row>
     <row r="1434" spans="1:3">
       <c r="A1434" s="1" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B1434" s="5" t="s">
         <v>155</v>
@@ -27660,7 +27660,7 @@
     </row>
     <row r="1435" spans="1:3">
       <c r="A1435" s="1" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B1435" s="5" t="s">
         <v>987</v>
@@ -27669,7 +27669,7 @@
     </row>
     <row r="1436" spans="1:3">
       <c r="A1436" s="1" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="B1436" s="5" t="s">
         <v>984</v>
@@ -27678,7 +27678,7 @@
     </row>
     <row r="1437" spans="1:3">
       <c r="A1437" s="1" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="B1437" s="5" t="s">
         <v>979</v>
@@ -27687,7 +27687,7 @@
     </row>
     <row r="1438" spans="1:3">
       <c r="A1438" s="1" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="B1438" s="5" t="s">
         <v>982</v>
@@ -27696,7 +27696,7 @@
     </row>
     <row r="1439" spans="1:3">
       <c r="A1439" s="1" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B1439" s="5" t="s">
         <v>585</v>
@@ -27705,7 +27705,7 @@
     </row>
     <row r="1440" spans="1:3">
       <c r="A1440" s="1" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="B1440" s="5" t="s">
         <v>989</v>
@@ -27714,7 +27714,7 @@
     </row>
     <row r="1441" spans="1:3">
       <c r="A1441" s="1" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="B1441" s="5" t="s">
         <v>995</v>
@@ -27723,7 +27723,7 @@
     </row>
     <row r="1442" spans="1:3">
       <c r="A1442" s="1" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="B1442" s="5" t="s">
         <v>993</v>
@@ -27732,7 +27732,7 @@
     </row>
     <row r="1443" spans="1:3">
       <c r="A1443" s="1" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="B1443" s="5" t="s">
         <v>155</v>
@@ -27741,7 +27741,7 @@
     </row>
     <row r="1444" spans="1:3">
       <c r="A1444" s="1" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="B1444" s="5" t="s">
         <v>999</v>
@@ -27750,7 +27750,7 @@
     </row>
     <row r="1445" spans="1:3">
       <c r="A1445" s="1" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="B1445" s="5" t="s">
         <v>585</v>
@@ -27759,7 +27759,7 @@
     </row>
     <row r="1446" spans="1:3">
       <c r="A1446" s="1" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="B1446" s="5" t="s">
         <v>979</v>
@@ -27768,7 +27768,7 @@
     </row>
     <row r="1447" spans="1:3">
       <c r="A1447" s="1" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="B1447" s="2" t="s">
         <v>979</v>
@@ -27776,7 +27776,7 @@
     </row>
     <row r="1448" spans="1:3">
       <c r="A1448" s="1" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="B1448" s="5" t="s">
         <v>989</v>
@@ -27785,15 +27785,15 @@
     </row>
     <row r="1449" spans="1:3">
       <c r="A1449" s="1" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="B1449" s="2" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
       <c r="A1450" s="1" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="B1450" s="2" t="s">
         <v>999</v>
@@ -27801,7 +27801,7 @@
     </row>
     <row r="1451" spans="1:3">
       <c r="A1451" s="1" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1451" s="5" t="s">
         <v>971</v>
@@ -27810,7 +27810,7 @@
     </row>
     <row r="1452" spans="1:3">
       <c r="A1452" s="1" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="B1452" s="5" t="s">
         <v>155</v>
@@ -27819,7 +27819,7 @@
     </row>
     <row r="1453" spans="1:3">
       <c r="A1453" s="1" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1453" s="5" t="s">
         <v>974</v>
@@ -27828,7 +27828,7 @@
     </row>
     <row r="1454" spans="1:3">
       <c r="A1454" s="1" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="B1454" s="5" t="s">
         <v>976</v>
@@ -27837,7 +27837,7 @@
     </row>
     <row r="1455" spans="1:3">
       <c r="A1455" s="1" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="B1455" s="6" t="s">
         <v>1786</v>
@@ -27846,7 +27846,7 @@
     </row>
     <row r="1456" spans="1:3">
       <c r="A1456" s="1" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="B1456" s="5" t="s">
         <v>634</v>
@@ -27855,7 +27855,7 @@
     </row>
     <row r="1457" spans="1:3">
       <c r="A1457" s="1" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B1457" s="5" t="s">
         <v>95</v>
@@ -27864,7 +27864,7 @@
     </row>
     <row r="1458" spans="1:3">
       <c r="A1458" s="1" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B1458" s="5" t="s">
         <v>97</v>
@@ -27873,7 +27873,7 @@
     </row>
     <row r="1459" spans="1:3">
       <c r="A1459" s="1" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B1459" s="5" t="s">
         <v>95</v>
@@ -27882,7 +27882,7 @@
     </row>
     <row r="1460" spans="1:3">
       <c r="A1460" s="1" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="B1460" s="5" t="s">
         <v>99</v>
@@ -27891,7 +27891,7 @@
     </row>
     <row r="1461" spans="1:3">
       <c r="A1461" s="1" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="B1461" s="5" t="s">
         <v>101</v>
@@ -27900,7 +27900,7 @@
     </row>
     <row r="1462" spans="1:3">
       <c r="A1462" s="1" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="B1462" s="5" t="s">
         <v>103</v>
@@ -27909,7 +27909,7 @@
     </row>
     <row r="1463" spans="1:3">
       <c r="A1463" s="1" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="B1463" s="5" t="s">
         <v>105</v>
@@ -27918,7 +27918,7 @@
     </row>
     <row r="1464" spans="1:3">
       <c r="A1464" s="1" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="B1464" s="5" t="s">
         <v>112</v>
@@ -27927,7 +27927,7 @@
     </row>
     <row r="1465" spans="1:3">
       <c r="A1465" s="1" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="B1465" s="5" t="s">
         <v>114</v>
@@ -27936,7 +27936,7 @@
     </row>
     <row r="1466" spans="1:3">
       <c r="A1466" s="1" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="B1466" s="5" t="s">
         <v>116</v>
@@ -27945,7 +27945,7 @@
     </row>
     <row r="1467" spans="1:3">
       <c r="A1467" s="1" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="B1467" s="5" t="s">
         <v>118</v>
@@ -27954,15 +27954,15 @@
     </row>
     <row r="1468" spans="1:3">
       <c r="A1468" s="1" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="B1468" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
       <c r="A1469" s="1" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="B1469" s="5" t="s">
         <v>122</v>
@@ -27971,7 +27971,7 @@
     </row>
     <row r="1470" spans="1:3">
       <c r="A1470" s="1" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="B1470" s="5" t="s">
         <v>125</v>
@@ -27980,16 +27980,16 @@
     </row>
     <row r="1471" spans="1:3">
       <c r="A1471" s="1" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="B1471" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C1471" s="5"/>
     </row>
     <row r="1472" spans="1:3">
       <c r="A1472" s="1" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="B1472" s="5" t="s">
         <v>127</v>
@@ -27998,31 +27998,31 @@
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="B1473" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="B1474" s="2" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="B1475" s="2" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="B1476" s="2" t="s">
         <v>155</v>
@@ -28030,103 +28030,103 @@
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B1477" s="2" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="B1478" s="2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B1479" s="2" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="1" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="B1480" s="2" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481" s="1" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="B1481" s="2" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482" s="1" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="B1482" s="2" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="B1483" s="2" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="B1484" s="2" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="B1485" s="2" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="B1486" s="2" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B1487" s="2" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="B1488" s="2" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
       <c r="A1489" s="1" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B1489" s="5" t="s">
         <v>97</v>
@@ -28135,7 +28135,7 @@
     </row>
     <row r="1490" spans="1:3">
       <c r="A1490" s="1" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="B1490" s="5" t="s">
         <v>110</v>
@@ -28144,7 +28144,7 @@
     </row>
     <row r="1491" spans="1:3">
       <c r="A1491" s="1" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="B1491" s="5" t="s">
         <v>112</v>
@@ -28153,7 +28153,7 @@
     </row>
     <row r="1492" spans="1:3">
       <c r="A1492" s="1" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="B1492" s="5" t="s">
         <v>114</v>
@@ -28162,7 +28162,7 @@
     </row>
     <row r="1493" spans="1:3">
       <c r="A1493" s="1" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="B1493" s="5" t="s">
         <v>116</v>
@@ -28171,7 +28171,7 @@
     </row>
     <row r="1494" spans="1:3">
       <c r="A1494" s="1" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="B1494" s="5" t="s">
         <v>118</v>
@@ -28180,7 +28180,7 @@
     </row>
     <row r="1495" spans="1:3">
       <c r="A1495" s="1" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B1495" s="5" t="s">
         <v>120</v>
@@ -28189,7 +28189,7 @@
     </row>
     <row r="1496" spans="1:3">
       <c r="A1496" s="1" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="B1496" s="5" t="s">
         <v>99</v>
@@ -28198,7 +28198,7 @@
     </row>
     <row r="1497" spans="1:3">
       <c r="A1497" s="1" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="B1497" s="5" t="s">
         <v>101</v>
@@ -28207,7 +28207,7 @@
     </row>
     <row r="1498" spans="1:3">
       <c r="A1498" s="1" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="B1498" s="5" t="s">
         <v>103</v>
@@ -28216,7 +28216,7 @@
     </row>
     <row r="1499" spans="1:3">
       <c r="A1499" s="1" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B1499" s="5" t="s">
         <v>105</v>
@@ -28225,7 +28225,7 @@
     </row>
     <row r="1500" spans="1:3">
       <c r="A1500" s="1" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="B1500" s="5" t="s">
         <v>122</v>
@@ -28234,7 +28234,7 @@
     </row>
     <row r="1501" spans="1:3">
       <c r="A1501" s="1" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="B1501" s="5" t="s">
         <v>125</v>
@@ -28243,16 +28243,16 @@
     </row>
     <row r="1502" spans="1:3">
       <c r="A1502" s="1" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="B1502" s="5" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C1502" s="5"/>
     </row>
     <row r="1503" spans="1:3">
       <c r="A1503" s="1" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B1503" s="5" t="s">
         <v>127</v>
@@ -28261,7 +28261,7 @@
     </row>
     <row r="1504" spans="1:3">
       <c r="A1504" s="1" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B1504" s="5" t="s">
         <v>108</v>
@@ -28270,7 +28270,7 @@
     </row>
     <row r="1505" spans="1:3">
       <c r="A1505" s="1" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B1505" s="5" t="s">
         <v>1026</v>
@@ -28279,7 +28279,7 @@
     </row>
     <row r="1506" spans="1:3">
       <c r="A1506" s="1" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B1506" s="5" t="s">
         <v>874</v>
@@ -28288,7 +28288,7 @@
     </row>
     <row r="1507" spans="1:3">
       <c r="A1507" s="1" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B1507" s="5" t="s">
         <v>864</v>
@@ -28297,7 +28297,7 @@
     </row>
     <row r="1508" spans="1:3">
       <c r="A1508" s="1" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B1508" s="5" t="s">
         <v>858</v>
@@ -28306,7 +28306,7 @@
     </row>
     <row r="1509" spans="1:3">
       <c r="A1509" s="1" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B1509" s="5" t="s">
         <v>862</v>
@@ -28315,7 +28315,7 @@
     </row>
     <row r="1510" spans="1:3">
       <c r="A1510" s="1" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B1510" s="5" t="s">
         <v>856</v>
@@ -28324,7 +28324,7 @@
     </row>
     <row r="1511" spans="1:3">
       <c r="A1511" s="1" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B1511" s="5" t="s">
         <v>846</v>
@@ -28333,7 +28333,7 @@
     </row>
     <row r="1512" spans="1:3">
       <c r="A1512" s="1" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B1512" s="5" t="s">
         <v>852</v>
@@ -28342,7 +28342,7 @@
     </row>
     <row r="1513" spans="1:3">
       <c r="A1513" s="1" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B1513" s="5" t="s">
         <v>848</v>
@@ -28351,7 +28351,7 @@
     </row>
     <row r="1514" spans="1:3">
       <c r="A1514" s="1" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B1514" s="5" t="s">
         <v>850</v>
@@ -28360,7 +28360,7 @@
     </row>
     <row r="1515" spans="1:3">
       <c r="A1515" s="1" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B1515" s="5" t="s">
         <v>854</v>
@@ -28369,7 +28369,7 @@
     </row>
     <row r="1516" spans="1:3">
       <c r="A1516" s="1" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B1516" s="5" t="s">
         <v>116</v>
@@ -28378,7 +28378,7 @@
     </row>
     <row r="1517" spans="1:3">
       <c r="A1517" s="1" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B1517" s="5" t="s">
         <v>118</v>
@@ -28387,7 +28387,7 @@
     </row>
     <row r="1518" spans="1:3">
       <c r="A1518" s="1" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B1518" s="5" t="s">
         <v>614</v>
@@ -28396,7 +28396,7 @@
     </row>
     <row r="1519" spans="1:3">
       <c r="A1519" s="1" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B1519" s="5" t="s">
         <v>617</v>
@@ -28405,7 +28405,7 @@
     </row>
     <row r="1520" spans="1:3">
       <c r="A1520" s="1" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="B1520" s="5" t="s">
         <v>612</v>
@@ -28414,7 +28414,7 @@
     </row>
     <row r="1521" spans="1:3">
       <c r="A1521" s="1" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="B1521" s="5" t="s">
         <v>576</v>
@@ -28423,7 +28423,7 @@
     </row>
     <row r="1522" spans="1:3">
       <c r="A1522" s="1" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="B1522" s="5" t="s">
         <v>604</v>
@@ -28432,7 +28432,7 @@
     </row>
     <row r="1523" spans="1:3">
       <c r="A1523" s="1" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B1523" s="5" t="s">
         <v>609</v>
@@ -28441,7 +28441,7 @@
     </row>
     <row r="1524" spans="1:3">
       <c r="A1524" s="1" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="B1524" s="5" t="s">
         <v>572</v>
@@ -28450,25 +28450,25 @@
     </row>
     <row r="1525" spans="1:3">
       <c r="A1525" s="1" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B1525" s="5" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="C1525" s="5"/>
     </row>
     <row r="1526" spans="1:3">
       <c r="A1526" s="1" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B1526" s="5" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C1526" s="5"/>
     </row>
     <row r="1527" spans="1:3">
       <c r="A1527" s="1" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="B1527" s="5" t="s">
         <v>602</v>
@@ -28477,7 +28477,7 @@
     </row>
     <row r="1528" spans="1:3">
       <c r="A1528" s="1" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="B1528" s="5" t="s">
         <v>606</v>
@@ -28486,7 +28486,7 @@
     </row>
     <row r="1529" spans="1:3">
       <c r="A1529" s="1" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="B1529" s="5" t="s">
         <v>827</v>
@@ -28495,7 +28495,7 @@
     </row>
     <row r="1530" spans="1:3">
       <c r="A1530" s="1" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="B1530" s="5" t="s">
         <v>832</v>
@@ -28504,7 +28504,7 @@
     </row>
     <row r="1531" spans="1:3">
       <c r="A1531" s="1" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="B1531" s="5" t="s">
         <v>829</v>
@@ -28513,7 +28513,7 @@
     </row>
     <row r="1532" spans="1:3">
       <c r="A1532" s="1" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="B1532" s="5" t="s">
         <v>572</v>
@@ -28522,7 +28522,7 @@
     </row>
     <row r="1533" spans="1:3">
       <c r="A1533" s="1" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B1533" s="5" t="s">
         <v>602</v>
@@ -28531,7 +28531,7 @@
     </row>
     <row r="1534" spans="1:3">
       <c r="A1534" s="1" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="B1534" s="5" t="s">
         <v>834</v>
@@ -28540,23 +28540,23 @@
     </row>
     <row r="1535" spans="1:3">
       <c r="A1535" s="1" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="B1535" s="2" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
       <c r="A1536" s="1" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="B1536" s="2" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B1537" s="2" t="s">
         <v>630</v>
@@ -28564,7 +28564,7 @@
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="1" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="B1538" s="2" t="s">
         <v>2647</v>
@@ -28572,87 +28572,87 @@
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B1539" s="2" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B1540" s="2" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B1541" s="2" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B1542" s="2" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B1543" s="2" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B1544" s="2" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B1545" s="2" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B1547" s="2" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B1548" s="2" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B1549" s="2" t="s">
         <v>155</v>
@@ -28660,15 +28660,15 @@
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B1550" s="2" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B1551" s="2" t="s">
         <v>899</v>
@@ -28676,35 +28676,35 @@
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B1552" s="2" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="1" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="B1553" s="2" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1554" s="5" t="s">
         <v>3564</v>
-      </c>
-      <c r="B1554" s="5" t="s">
-        <v>3565</v>
       </c>
       <c r="C1554" s="5"/>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1555" s="2" t="s">
         <v>3566</v>
-      </c>
-      <c r="B1555" s="2" t="s">
-        <v>3567</v>
       </c>
     </row>
   </sheetData>
@@ -37432,7 +37432,7 @@
         <v>2596</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -37448,7 +37448,7 @@
         <v>2600</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="15" spans="1:3">

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="38400" windowHeight="14616" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="156" yWindow="0" windowWidth="38400" windowHeight="14616" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6392" uniqueCount="3573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="3671">
   <si>
     <t>fi</t>
   </si>
@@ -10773,6 +10773,300 @@
   </si>
   <si>
     <t>hengelle</t>
+  </si>
+  <si>
+    <t>operations.asuinrakennus.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.perus-tai-kant-rak-muutos.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.varasto-tms.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.vapaa-ajan-asuinrakennus.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.julkinen-rakennus.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.muu-uusi-rakentaminen.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.laajentaminen.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.kayttotark-muutos.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.julkisivu-muutos.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.jakaminen-tai-yhdistaminen.desc: Hankkeesi vaatii luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.markatilan-laajentaminen.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.takka-tai-hormi.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.parveke-tai-terassi.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.muu-laajentaminen.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.auto-katos.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.masto-tms.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.mainoslaite.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.maalampo.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.aita.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.purkaminen.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.kaivuu.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.puun-kaataminen.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.muu-maisema-toimenpide.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.tontin-ajoliittyman-muutos.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.paikoutysjarjestus-muutos.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.kortteli-yht-alue-muutos.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.muu-tontti-tai-kort-muutos.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.jatevesi.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.muu-rakentaminen.desc: Hankkeesi vaatii todennäköisesti luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakentaminen ja purkaminen: Rakentaminen ja purkaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Elinympariston muuttaminen: Elinympäristön muuttaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakennuksen korjaaminen tai muuttaminen: Rakennuksen korjaaminen tai muuttaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakennelman rakentaminen: Rakennelman rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakennuksen purkaminen: Rakennuksen purkaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Uuden rakennuksen rakentaminen: Uuden rakennuksen rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Asuinrakennus: Asuinrakennuksen rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Vapaa-ajan asuinrakennus: Vapaa-ajan asuinrakennuksen rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Varasto, sauna, autotalli tai muu talousrakennus: Varaston, saunan, autotallin tai muun talousrakennuksen rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Julkinen rakennus: Julkisen rakennuksen rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Muun rakennuksen rakentaminen: Muun rakennuksen rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakennuksen laajentaminen tai korjaaminen: Rakennuksen laajentaminen tai korjaaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Perustusten tai kantavien rakenteiden muuttaminen tai korjaaminen: Perustusten tai kantavien rakenteiden muuttaminen tai korjaaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Kayttotarkoituksen muutos: Rakennuksen tai sen osan käyttötarkoituksen muuttaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakennuksen julkisivun tai katon muuttaminen: Rakennuksen julkisivun tai katon muuttaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Asuinhuoneiston jakaminen tai yhdistaminen: Asuinhuoneiston jakaminen tai yhdistäminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Markatilan laajentaminen: Märkätilan muuttaminen tai laajentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Takan ja savuhormin rakentaminen: Takan ja savuhormin rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Parvekkeen tai terassin lasittaminen: Parvekkeen tai terassin rakentaminen tai lasittaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Muu rakennuksen muutostyo: Muu rakennuksen muutostyö</t>
+  </si>
+  <si>
+    <t>operations.tree.Auto- tai grillikatos, vaja, kioski tai vastaava:Auto- tai grillikatoksen, vajan, kioskin tai vastaavan rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Masto, piippu, sailio, laituri tai vastaava: Maston, piipun, säiliön, laiturin tai vastaavan rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Mainoslaite: Mainos- tai muun laitteen asentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Aita: Aidan rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Maalampokaivon poraaminen tai lammonkeruuputkiston asentaminen: Maalämpökaivon poraaminen tai lämmönkeruuputkiston asentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Rakennuksen jatevesijarjestelman uusiminen: Rakennuksen jätevesijärjestelmän uusiminen tai rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Muun rakennelman rakentaminen: Muun rakennelman rakentaminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Maisemaa muutava toimenpide: Maisemaa muuttava toimenpide</t>
+  </si>
+  <si>
+    <t>operations.tree.Tontti tai korttelialueen jarjestelymuutos: Tontti- tai korttelialueen järjestelymuutos</t>
+  </si>
+  <si>
+    <t>operations.tree.Kaivaminen, louhiminen tai maan tayttaminen:Kaivaminen, louhiminen tai maan täyttäminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Puun kaataminen: Puun kaataminen</t>
+  </si>
+  <si>
+    <t>operations.tree.Muu maisemaa muuttava toimenpide: Muu maisemaa muuttava toimenpide</t>
+  </si>
+  <si>
+    <t>operations.tree.Tontin ajoliittyman muutos: Tontin ajoliittymän muutos</t>
+  </si>
+  <si>
+    <t>operations.tree.Paikoitusjarjestelyihin liittyvat muutokset: Paikoitusjärjestelyihin liittyvät muutokset</t>
+  </si>
+  <si>
+    <t>operations.tree.Korttelin yhteisiin alueisiin liittyva muutos: Korttelin yhteisiin alueisiin liittyvä muutos</t>
+  </si>
+  <si>
+    <t>operations.tree.Muu-tontti-tai-korttelialueen-jarjestelymuutos: Muu tontti- tai korttelialueen järjestelymuutos</t>
+  </si>
+  <si>
+    <t>operations.selected</t>
+  </si>
+  <si>
+    <t>Valittu toimenpide:</t>
+  </si>
+  <si>
+    <t>create.choose-op</t>
+  </si>
+  <si>
+    <t>Valitse toimenpide:</t>
+  </si>
+  <si>
+    <t>operations.add</t>
+  </si>
+  <si>
+    <t>integration.getAddressNotWorking</t>
+  </si>
+  <si>
+    <t>Kolmannenosapuolen osoitehakupalvelu ei ole käytettävissä, ole hyvä ja syötä osoite ja kunta:</t>
+  </si>
+  <si>
+    <t>municipalityNotSupported</t>
+  </si>
+  <si>
+    <t>Kunta ei mukana lupapiste.fi palvelussa.</t>
+  </si>
+  <si>
+    <t>municipality.564</t>
+  </si>
+  <si>
+    <t>Oulu</t>
+  </si>
+  <si>
+    <t>municipality.links</t>
+  </si>
+  <si>
+    <t>Kunnan rakennusvalvonnan suosittelemat linkit:</t>
+  </si>
+  <si>
+    <t>person-selector</t>
+  </si>
+  <si>
+    <t>Valitse henkilö</t>
+  </si>
+  <si>
+    <t>register.accept-terms.label</t>
+  </si>
+  <si>
+    <t>Hyväksyn palvelun</t>
+  </si>
+  <si>
+    <t>register.accept-terms.link</t>
+  </si>
+  <si>
+    <t>käyttöehdot</t>
+  </si>
+  <si>
+    <t>attachment.upload.instructions</t>
+  </si>
+  <si>
+    <t>Suurin sallittu tiedostokoko on 100 Mt. Sallitut tiedostomuodot ovat:</t>
+  </si>
+  <si>
+    <t>invite.error.missing-parameters</t>
+  </si>
+  <si>
+    <t>Täytä kaikki kentät.</t>
+  </si>
+  <si>
+    <t>invite.already-has-auth</t>
+  </si>
+  <si>
+    <t>email.title.new-comment</t>
+  </si>
+  <si>
+    <t>uusi kommentti</t>
+  </si>
+  <si>
+    <t>Kyseinen henkilö on jo kutsuttu.</t>
+  </si>
+  <si>
+    <t>email.title.state-change</t>
+  </si>
+  <si>
+    <t>hakemuksen tila muuttunut</t>
+  </si>
+  <si>
+    <t>email.title.verdict</t>
+  </si>
+  <si>
+    <t>päätös</t>
+  </si>
+  <si>
+    <t>email.title.invite</t>
+  </si>
+  <si>
+    <t>kutsu</t>
   </si>
 </sst>
 </file>
@@ -11953,10 +12247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C429"/>
+  <dimension ref="A1:C446"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -15476,6 +15770,142 @@
       </c>
       <c r="B429" s="5" t="s">
         <v>3206</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>3670</v>
       </c>
     </row>
   </sheetData>
@@ -15526,10 +15956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1556"/>
+  <dimension ref="A1:C1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1514" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="B1566" sqref="B1566"/>
+    <sheetView topLeftCell="A1580" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A1586" sqref="A1586:A1621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -28619,6 +29049,331 @@
       </c>
       <c r="B1556" s="2" t="s">
         <v>3572</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1557" s="1" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1558" s="1" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1559" s="1" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1560" s="1" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1561" s="1" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1562" s="1" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1563" s="1" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1564" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1565" s="1" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1566" s="1" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1567" s="1" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1568" s="1" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1569" s="1" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1570" s="1" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1571" s="1" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1572" s="1" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1573" s="1" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1574" s="1" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1575" s="1" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1576" s="1" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1577" s="1" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1578" s="1" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1579" s="1" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1580" s="1" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1581" s="1" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1582" s="1" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1583" s="1" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1584" s="1" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1585" s="1" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1586" s="1" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1587" s="1" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1588" s="1" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1589" s="1" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1590" s="1" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1591" s="1" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1592" s="1" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1593" s="1" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1594" s="1" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1595" s="1" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1596" s="1" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1597" s="1" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1598" s="1" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1599" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1600" s="1" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1601" s="1" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1602" s="1" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1603" s="1" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1604" s="1" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1605" s="1" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1606" s="1" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1607" s="1" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1608" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1609" s="1" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1610" s="1" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1611" s="1" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1612" s="1" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1613" s="1" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1614" s="1" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1615" s="1" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1616" s="1" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1617" s="1" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1618" s="1" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1619" s="1" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1620" s="1" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1621" s="1" t="s">
+        <v>3637</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -9615,9 +9615,6 @@
     <t>application.submit.areyousure.message</t>
   </si>
   <si>
-    <t>Oletko varma että haluat jättää hakemuksen käsiteltäväksi? Hakemuksen käsittely saattaa maksaa.</t>
-  </si>
-  <si>
     <t>application.next-tab</t>
   </si>
   <si>
@@ -13699,6 +13696,9 @@
   </si>
   <si>
     <t>Pyydä liite</t>
+  </si>
+  <si>
+    <t>Oletko varma, että haluat jättää hakemuksen käsiteltäväksi? Hakemuksen käsittelemisestä veloitetaan voimassaolevan taksan mukainen hinta.</t>
   </si>
 </sst>
 </file>
@@ -14912,7 +14912,7 @@
   <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15164,7 +15164,7 @@
         <v>408</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -15228,7 +15228,7 @@
         <v>2817</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -15249,10 +15249,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>3187</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -15276,10 +15276,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>3189</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -15292,18 +15292,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>3197</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>3198</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -15335,7 +15335,7 @@
         <v>3185</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>3186</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -15820,10 +15820,10 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>3586</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>3587</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -15844,26 +15844,26 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>3191</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>3193</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>3194</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>3195</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>3196</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -15923,7 +15923,7 @@
         <v>1771</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -16673,10 +16673,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>3199</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>3200</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -16700,10 +16700,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>3570</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>3571</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -16855,34 +16855,34 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>3598</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>3599</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>3591</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>3592</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>3594</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>3595</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>3596</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>3597</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -17237,26 +17237,26 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>3573</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>3574</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>3588</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>3589</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -17400,10 +17400,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B305" s="5" t="s">
         <v>3578</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -17424,10 +17424,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B308" s="5" t="s">
         <v>3575</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>3576</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -17713,7 +17713,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>396</v>
@@ -17721,10 +17721,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B344" s="5" t="s">
         <v>3568</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>3569</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -17769,10 +17769,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B350" s="5" t="s">
         <v>3580</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>3581</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -17828,18 +17828,18 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>3582</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>3583</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>3584</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>3585</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -18168,10 +18168,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B398" s="5" t="s">
         <v>3206</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -18447,112 +18447,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3666</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3667</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3668</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>3669</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3670</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>3671</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>3672</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3673</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3674</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3675</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3676</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>3677</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>3678</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3679</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>3680</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>3681</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3682</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>3683</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>3684</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>3685</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>3686</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>3687</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>3688</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>3689</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>3690</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3691</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -18563,18 +18563,18 @@
         <v>2733</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>3693</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>3694</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3695</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -18582,153 +18582,153 @@
         <v>2762</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>3697</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>3698</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3699</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>3700</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>3701</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3702</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>3703</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>3704</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>3705</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>3706</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3707</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>3708</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>3709</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>3710</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3711</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>3712</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>3713</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>3714</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>3715</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>3716</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3717</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>3718</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>3719</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>3720</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>3721</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>3722</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>3723</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>3724</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>3725</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>3726</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>3727</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>3728</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>3729</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>3730</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>3731</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -18739,7 +18739,7 @@
         <v>2735</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -18750,40 +18750,40 @@
         <v>2737</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>3734</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>3735</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>3736</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>3737</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>3738</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>3739</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>3740</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>3741</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>3742</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -18794,95 +18794,95 @@
         <v>2739</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>3744</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>3745</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3746</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>3747</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>3748</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>3749</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>3750</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>3751</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>3752</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>3753</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>3754</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>3755</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>3756</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>3757</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>3758</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>3759</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>3760</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>3761</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>3762</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>3763</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>3764</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>3765</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>3766</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -18893,18 +18893,18 @@
         <v>2741</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>3768</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>3769</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>3770</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -18912,153 +18912,153 @@
         <v>2742</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>3771</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>3772</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>3773</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>3774</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>3775</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>3776</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>3777</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>3778</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>3779</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>3780</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>3781</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>3782</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>3783</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>3784</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>3785</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>3786</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>3787</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>3788</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>3789</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>3790</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>3791</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>3792</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>3793</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>3794</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>3795</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>3796</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>3797</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>3798</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>3799</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>3800</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>3801</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>3802</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>3803</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>3804</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>3805</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>3806</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>3807</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>3808</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>3809</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>3810</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>3811</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -19069,139 +19069,139 @@
         <v>2744</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>3813</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>3814</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>3815</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>3816</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>3817</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>3818</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>3819</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>3820</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>3821</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>3822</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>3823</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>3824</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>3825</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>3826</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>3827</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>3828</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>3829</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>3830</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>3831</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>3832</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>3833</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>3834</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>3835</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>3836</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>3837</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>3838</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>3839</v>
-      </c>
       <c r="C68" s="5" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>3840</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>3841</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>3842</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>3843</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>3844</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>3845</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -19212,29 +19212,29 @@
         <v>1333</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>3847</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>3848</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>3849</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>3850</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>3851</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>3852</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -19245,205 +19245,205 @@
         <v>2745</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>3854</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>3855</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>3856</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>3857</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>3858</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>3859</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>3860</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>3861</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>3862</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>3863</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>3864</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>3865</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>3866</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>3867</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>3868</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>3869</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>3870</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>3871</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>3872</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>3873</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>3874</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>3875</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>3876</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>3877</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>3878</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>3879</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>3880</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>3881</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>3882</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>3883</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>3884</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>3885</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>3886</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>3887</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>3888</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>3889</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>3890</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>3891</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>3892</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>3893</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>3894</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>3895</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>3896</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>3897</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>3898</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>3899</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>3900</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>3901</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>3902</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>3903</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>3904</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>3905</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>3906</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -19454,51 +19454,51 @@
         <v>2748</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>3908</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>3909</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>3910</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>3911</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>3912</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>3913</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>3914</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>3915</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>3916</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>3917</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>3918</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>3919</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -19509,216 +19509,216 @@
         <v>2750</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>3921</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>3922</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>3923</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>3924</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>3925</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>3926</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>3927</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>3928</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>3929</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>3930</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>3931</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>3932</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>3933</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>3934</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>3935</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>3936</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>3937</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>3938</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>3939</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>3940</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>3941</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>3942</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>3943</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>3944</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>3945</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>3946</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>3947</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>3948</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>3949</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>3950</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>3951</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>3952</v>
-      </c>
       <c r="C109" s="5" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>3953</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>3954</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>3955</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>3956</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>3957</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>3958</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>3959</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>3960</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>3961</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>3962</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>3963</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>3964</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>3965</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>3966</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>3967</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>3968</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>3969</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>3970</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>3971</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>3972</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>3973</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>3974</v>
-      </c>
       <c r="C117" s="5" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -19729,106 +19729,106 @@
         <v>2752</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>3976</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>3977</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>3978</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>3979</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>3980</v>
-      </c>
       <c r="C120" s="5" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>3981</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>3982</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>3983</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>3984</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>3985</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>3986</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>3987</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>3988</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>3989</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>3990</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>3991</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>3992</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>3993</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>3994</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>3995</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>3996</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>3997</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>3998</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>3999</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>4000</v>
-      </c>
       <c r="C127" s="5" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -19836,450 +19836,450 @@
         <v>2763</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>4001</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>4002</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>4003</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>4004</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>4005</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>4006</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>4007</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>4008</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>4009</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>4011</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>4012</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>4013</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>4014</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>4015</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>4016</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>4017</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>4018</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>4019</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>4020</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>4021</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>4022</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>4023</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>4024</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>4025</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>4026</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>4027</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>4028</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>4029</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>4030</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>4031</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>4032</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>4033</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>4034</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>4035</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>4036</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>4037</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>4038</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>4039</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>4040</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>4041</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>4042</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>4043</v>
-      </c>
       <c r="C142" s="5" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>4044</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>4045</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>4046</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>4047</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>4048</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>4049</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>4050</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="C145" s="5" t="s">
         <v>4051</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>4052</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>4053</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>4054</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>4055</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>4056</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="C147" s="5" t="s">
         <v>4057</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>4058</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>4059</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>4060</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>4061</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>4062</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="C149" s="5" t="s">
         <v>4063</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>4064</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>4065</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>4066</v>
-      </c>
       <c r="C150" s="5" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>4067</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="C151" s="5" t="s">
         <v>4068</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>4069</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>4070</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>4071</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>4072</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>4073</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>4074</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>4075</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>4076</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="C154" s="5" t="s">
         <v>4077</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>4078</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>4079</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>4080</v>
-      </c>
       <c r="C155" s="5" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>4081</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>4082</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>4083</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>4084</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="C157" s="5" t="s">
         <v>4085</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>4086</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>4087</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>4088</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>4089</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>4090</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>4091</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>4092</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>4093</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>4094</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>4095</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>4096</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>4097</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>4098</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>4099</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>4100</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>4101</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>4102</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>4103</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>4104</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>4105</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>4106</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>4107</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>4108</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>4109</v>
-      </c>
       <c r="C165" s="5" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>4110</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>4111</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>4112</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>4113</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>4114</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>4115</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>4116</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>4117</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>4118</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -20290,40 +20290,40 @@
         <v>2754</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>4120</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>4121</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>4122</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>4123</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="C171" s="5" t="s">
         <v>4124</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>4125</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>4126</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="C172" s="5" t="s">
         <v>4127</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>4128</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -20334,73 +20334,73 @@
         <v>2756</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>4130</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>4131</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>4132</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>4133</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="C175" s="5" t="s">
         <v>4134</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>4135</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>4136</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>4137</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>4138</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>4139</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>4140</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>4141</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>4142</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>4143</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>4144</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>4145</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>4146</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>4147</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -20408,32 +20408,32 @@
         <v>2757</v>
       </c>
       <c r="B180" s="5" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>4148</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>4149</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B181" s="5" t="s">
         <v>4150</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>4151</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>4152</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>4153</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>4154</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>4155</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -20444,469 +20444,469 @@
         <v>2759</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>4157</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>4158</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>4159</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>4160</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="C185" s="5" t="s">
         <v>4161</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>4162</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>4163</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="C186" s="5" t="s">
         <v>4164</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>4165</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>4166</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="C187" s="5" t="s">
         <v>4167</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>4168</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>4169</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="C188" s="5" t="s">
         <v>4170</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>4171</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>4172</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="C189" s="5" t="s">
         <v>4173</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>4174</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>4175</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="C190" s="5" t="s">
         <v>4176</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>4177</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>4178</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="C191" s="5" t="s">
         <v>4179</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>4180</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>4181</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="C192" s="5" t="s">
         <v>4182</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>4183</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>4184</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>4185</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>4186</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="C194" s="5" t="s">
         <v>4187</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>4188</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>4189</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>4190</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>4191</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>4192</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="C196" s="5" t="s">
         <v>4193</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>4194</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B197" s="5" t="s">
         <v>4195</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="C197" s="5" t="s">
         <v>4196</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>4197</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>4198</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="C198" s="5" t="s">
         <v>4199</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>4200</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>4201</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="C199" s="5" t="s">
         <v>4202</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>4203</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>4204</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="C200" s="5" t="s">
         <v>4205</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>4206</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>4207</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="C201" s="5" t="s">
         <v>4208</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>4209</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>4210</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="C202" s="5" t="s">
         <v>4211</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>4212</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>4213</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="C203" s="5" t="s">
         <v>4214</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>4215</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>4216</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="C204" s="5" t="s">
         <v>4217</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>4218</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>4219</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="C205" s="5" t="s">
         <v>4220</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>4221</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>4222</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="C206" s="5" t="s">
         <v>4223</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>4224</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>4225</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="C207" s="5" t="s">
         <v>4226</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>4227</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>4228</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="C208" s="5" t="s">
         <v>4229</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>4230</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>4231</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="C209" s="5" t="s">
         <v>4232</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>4233</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>4234</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="C210" s="5" t="s">
         <v>4235</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>4236</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>4237</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="C211" s="5" t="s">
         <v>4238</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>4239</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>4240</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="C212" s="5" t="s">
         <v>4241</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>4242</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>4243</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="C213" s="5" t="s">
         <v>4244</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>4245</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>4246</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="C214" s="5" t="s">
         <v>4247</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>4249</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="C215" s="5" t="s">
         <v>4250</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>4251</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>4252</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="C216" s="5" t="s">
         <v>4253</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>4254</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>4255</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="C217" s="5" t="s">
         <v>4256</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>4257</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>4258</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="C218" s="5" t="s">
         <v>4259</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>4260</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>4261</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="C219" s="5" t="s">
         <v>4262</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>4263</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>4264</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="C220" s="5" t="s">
         <v>4265</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>4266</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>4267</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>4268</v>
-      </c>
       <c r="C221" s="5" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>4269</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="C222" s="5" t="s">
         <v>4270</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>4271</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>4272</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="C223" s="5" t="s">
         <v>4273</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>4274</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>4275</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="C224" s="5" t="s">
         <v>4276</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>4277</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>4278</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>4279</v>
-      </c>
       <c r="C225" s="5" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -20917,205 +20917,205 @@
         <v>2761</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>4281</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="C227" s="5" t="s">
         <v>4282</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>4283</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>4284</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="C228" s="5" t="s">
         <v>4285</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>4286</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>4287</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="C229" s="5" t="s">
         <v>4288</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>4289</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>4290</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="C230" s="5" t="s">
         <v>4291</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>4292</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>4293</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="C231" s="5" t="s">
         <v>4294</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>4295</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>4296</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>4297</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>4298</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>4299</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="C233" s="5" t="s">
         <v>4300</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>4301</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>4302</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="C234" s="5" t="s">
         <v>4303</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>4304</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>4305</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="C235" s="5" t="s">
         <v>4306</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>4307</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>4308</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="C236" s="5" t="s">
         <v>4309</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>4310</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>4311</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="C237" s="5" t="s">
         <v>4312</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>4313</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>4314</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="C238" s="5" t="s">
         <v>4315</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>4316</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>4317</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="C239" s="5" t="s">
         <v>4318</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>4319</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>4320</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="C240" s="5" t="s">
         <v>4321</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>4322</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>4323</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>4324</v>
-      </c>
       <c r="C241" s="5" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B242" s="5" t="s">
         <v>4325</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="C242" s="5" t="s">
         <v>4326</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>4327</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B243" s="5" t="s">
         <v>4328</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="C243" s="5" t="s">
         <v>4329</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>4330</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>4331</v>
       </c>
-      <c r="B244" s="5" t="s">
-        <v>4332</v>
-      </c>
       <c r="C244" s="5" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -21126,7 +21126,7 @@
         <v>2766</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -21134,131 +21134,131 @@
         <v>2767</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B247" s="5" t="s">
         <v>4335</v>
       </c>
-      <c r="B247" s="5" t="s">
-        <v>4336</v>
-      </c>
       <c r="C247" s="5" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>4337</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="C248" s="5" t="s">
         <v>4338</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>4339</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>4340</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="C249" s="5" t="s">
         <v>4341</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>4342</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>4343</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="C250" s="5" t="s">
         <v>4344</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>4345</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>4346</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="C251" s="5" t="s">
         <v>4347</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>4348</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>4349</v>
       </c>
-      <c r="B252" s="5" t="s">
-        <v>4350</v>
-      </c>
       <c r="C252" s="5" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>4351</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="C253" s="5" t="s">
         <v>4352</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>4353</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>4354</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="C254" s="5" t="s">
         <v>4355</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>4356</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>4357</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="C255" s="5" t="s">
         <v>4358</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>4359</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>4360</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="C256" s="5" t="s">
         <v>4361</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>4362</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>4363</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="C257" s="5" t="s">
         <v>4364</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>4365</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -21269,139 +21269,139 @@
         <v>1335</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>4367</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="C259" s="5" t="s">
         <v>4368</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>4369</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>4370</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="C260" s="5" t="s">
         <v>4371</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>4372</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>4373</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="C261" s="5" t="s">
         <v>4374</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>4375</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>4376</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="C262" s="5" t="s">
         <v>4377</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>4378</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>4379</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="C263" s="5" t="s">
         <v>4380</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>4381</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>4382</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="C264" s="5" t="s">
         <v>4383</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>4384</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>4385</v>
       </c>
-      <c r="B265" s="5" t="s">
-        <v>4386</v>
-      </c>
       <c r="C265" s="5" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>4387</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="C266" s="5" t="s">
         <v>4388</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>4389</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>4390</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>4391</v>
-      </c>
       <c r="C267" s="5" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>4392</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="C268" s="5" t="s">
         <v>4393</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>4394</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>4395</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="C269" s="5" t="s">
         <v>4396</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>4397</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>4398</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="C270" s="5" t="s">
         <v>4399</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>4400</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -21409,87 +21409,87 @@
         <v>2764</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>4401</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>4402</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>4403</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="C272" s="5" t="s">
         <v>4404</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>4405</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>4406</v>
       </c>
-      <c r="B273" s="5" t="s">
-        <v>4407</v>
-      </c>
       <c r="C273" s="5" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>4408</v>
       </c>
-      <c r="B274" s="5" t="s">
-        <v>4409</v>
-      </c>
       <c r="C274" s="5" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B275" s="5" t="s">
         <v>4410</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="C275" s="5" t="s">
         <v>4411</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>4412</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>4413</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="C276" s="5" t="s">
         <v>4414</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>4415</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>4416</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="C277" s="5" t="s">
         <v>4417</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>4418</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>4419</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="C278" s="5" t="s">
         <v>4420</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>4421</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -21500,469 +21500,469 @@
         <v>1337</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>4423</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="C280" s="5" t="s">
         <v>4424</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>4425</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>4426</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="C281" s="5" t="s">
         <v>4427</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>4428</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B282" s="5" t="s">
         <v>4429</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="C282" s="5" t="s">
         <v>4430</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>4431</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B283" s="5" t="s">
         <v>4432</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="C283" s="5" t="s">
         <v>4433</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>4434</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>4435</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="C284" s="5" t="s">
         <v>4436</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>4437</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>4438</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="C285" s="5" t="s">
         <v>4439</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>4440</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B286" s="5" t="s">
         <v>4441</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="C286" s="5" t="s">
         <v>4442</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>4443</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>4444</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="C287" s="5" t="s">
         <v>4445</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>4446</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B288" s="5" t="s">
         <v>4447</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="C288" s="5" t="s">
         <v>4448</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>4449</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>4450</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="C289" s="5" t="s">
         <v>4451</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>4452</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B290" s="5" t="s">
         <v>4453</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="C290" s="5" t="s">
         <v>4454</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>4455</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B291" s="5" t="s">
         <v>4456</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="C291" s="5" t="s">
         <v>4457</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>4458</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B292" s="5" t="s">
         <v>4459</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="C292" s="5" t="s">
         <v>4460</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>4461</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B293" s="5" t="s">
         <v>4462</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="C293" s="5" t="s">
         <v>4463</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>4464</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B294" s="5" t="s">
         <v>4465</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="C294" s="5" t="s">
         <v>4466</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>4467</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B295" s="5" t="s">
         <v>4468</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="C295" s="5" t="s">
         <v>4469</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>4470</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B296" s="5" t="s">
         <v>4471</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="C296" s="5" t="s">
         <v>4472</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>4473</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>4474</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="C297" s="5" t="s">
         <v>4475</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>4476</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>4477</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="C298" s="5" t="s">
         <v>4478</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>4479</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B299" s="5" t="s">
         <v>4480</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="C299" s="5" t="s">
         <v>4481</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>4482</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>4483</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="C300" s="5" t="s">
         <v>4484</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>4485</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B301" s="5" t="s">
         <v>4486</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="C301" s="5" t="s">
         <v>4487</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>4488</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B302" s="5" t="s">
         <v>4489</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="C302" s="5" t="s">
         <v>4490</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>4491</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B303" s="5" t="s">
         <v>4492</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="C303" s="5" t="s">
         <v>4493</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>4494</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B304" s="5" t="s">
         <v>4495</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="C304" s="5" t="s">
         <v>4496</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>4497</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B305" s="5" t="s">
         <v>4498</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="C305" s="5" t="s">
         <v>4499</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>4500</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B306" s="5" t="s">
         <v>4501</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="C306" s="5" t="s">
         <v>4502</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>4503</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>4504</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="C307" s="5" t="s">
         <v>4505</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>4506</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B308" s="5" t="s">
         <v>4507</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="C308" s="5" t="s">
         <v>4508</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>4509</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>4510</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="C309" s="5" t="s">
         <v>4511</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>4512</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>4513</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="C310" s="5" t="s">
         <v>4514</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>4515</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>4516</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="C311" s="5" t="s">
         <v>4517</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>4518</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B312" s="5" t="s">
         <v>4519</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="C312" s="5" t="s">
         <v>4520</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>4521</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B313" s="5" t="s">
         <v>4522</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="C313" s="5" t="s">
         <v>4523</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>4524</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B314" s="5" t="s">
         <v>4525</v>
       </c>
-      <c r="B314" s="5" t="s">
-        <v>4526</v>
-      </c>
       <c r="C314" s="5" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B315" s="5" t="s">
         <v>4527</v>
       </c>
-      <c r="B315" s="5" t="s">
+      <c r="C315" s="5" t="s">
         <v>4528</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>4529</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B316" s="5" t="s">
         <v>4530</v>
       </c>
-      <c r="B316" s="5" t="s">
+      <c r="C316" s="5" t="s">
         <v>4531</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>4532</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B317" s="5" t="s">
         <v>4533</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="C317" s="5" t="s">
         <v>4534</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B318" s="5" t="s">
         <v>4536</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>4537</v>
-      </c>
       <c r="C318" s="5" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B319" s="5" t="s">
         <v>4538</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="C319" s="5" t="s">
         <v>4539</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B320" s="5" t="s">
         <v>4541</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="C320" s="5" t="s">
         <v>4542</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>4543</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B321" s="5" t="s">
         <v>4544</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="C321" s="5" t="s">
         <v>4545</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>4546</v>
       </c>
     </row>
   </sheetData>
@@ -22487,7 +22487,7 @@
         <v>1352</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C59" s="5"/>
     </row>
@@ -22622,7 +22622,7 @@
         <v>1372</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C74" s="5"/>
     </row>
@@ -22678,7 +22678,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>3095</v>
@@ -22710,10 +22710,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>3600</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>3601</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -22734,7 +22734,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>3095</v>
@@ -22766,10 +22766,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -22782,7 +22782,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>3095</v>
@@ -22806,10 +22806,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -22822,7 +22822,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>3095</v>
@@ -22846,7 +22846,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>3095</v>
@@ -22862,10 +22862,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -22894,7 +22894,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>3095</v>
@@ -22910,10 +22910,10 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -22926,7 +22926,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3095</v>
@@ -22958,7 +22958,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>3095</v>
@@ -22990,7 +22990,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3095</v>
@@ -23014,7 +23014,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3095</v>
@@ -23046,7 +23046,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>3095</v>
@@ -23062,7 +23062,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>3095</v>
@@ -23094,7 +23094,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3095</v>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3095</v>
@@ -23134,10 +23134,10 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -23158,7 +23158,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>3095</v>
@@ -23174,7 +23174,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>3095</v>
@@ -23198,10 +23198,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -23222,7 +23222,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>3095</v>
@@ -23246,7 +23246,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>3095</v>
@@ -23326,7 +23326,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>3095</v>
@@ -23350,7 +23350,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>3095</v>
@@ -23366,7 +23366,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>2702</v>
@@ -23374,7 +23374,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>3062</v>
@@ -23382,7 +23382,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3046</v>
@@ -23390,7 +23390,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>3071</v>
@@ -23398,7 +23398,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>3037</v>
@@ -23406,7 +23406,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>3052</v>
@@ -23414,7 +23414,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>3086</v>
@@ -23422,7 +23422,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>3058</v>
@@ -23430,7 +23430,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>3031</v>
@@ -23438,7 +23438,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>2781</v>
@@ -23446,7 +23446,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>3025</v>
@@ -23454,7 +23454,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3082</v>
@@ -23462,7 +23462,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>2709</v>
@@ -23470,7 +23470,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3073</v>
@@ -23478,7 +23478,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3089</v>
@@ -23486,7 +23486,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>3069</v>
@@ -23494,7 +23494,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>3080</v>
@@ -23502,7 +23502,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>3023</v>
@@ -23510,7 +23510,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>3033</v>
@@ -23518,7 +23518,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3029</v>
@@ -23526,7 +23526,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>3067</v>
@@ -23534,7 +23534,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>3021</v>
@@ -23542,7 +23542,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>309</v>
@@ -23550,7 +23550,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>3041</v>
@@ -23558,7 +23558,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>3078</v>
@@ -23566,7 +23566,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>3060</v>
@@ -23574,7 +23574,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>3039</v>
@@ -23582,7 +23582,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>3055</v>
@@ -23590,7 +23590,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>312</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>3034</v>
@@ -23606,7 +23606,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>3065</v>
@@ -23614,7 +23614,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3027</v>
@@ -23622,7 +23622,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>3084</v>
@@ -23630,7 +23630,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>3044</v>
@@ -23638,7 +23638,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>3048</v>
@@ -23646,7 +23646,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>3050</v>
@@ -23678,10 +23678,10 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -23702,10 +23702,10 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -26113,7 +26113,7 @@
         <v>656</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -26537,7 +26537,7 @@
         <v>618</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
@@ -26545,7 +26545,7 @@
         <v>610</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
@@ -26614,15 +26614,15 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="B574" s="5" t="s">
         <v>890</v>
@@ -26631,7 +26631,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B575" s="5" t="s">
         <v>888</v>
@@ -26640,7 +26640,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="B576" s="5" t="s">
         <v>457</v>
@@ -26649,7 +26649,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B577" s="5" t="s">
         <v>899</v>
@@ -26658,7 +26658,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="B578" s="5" t="s">
         <v>457</v>
@@ -26667,7 +26667,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B579" s="5" t="s">
         <v>905</v>
@@ -26676,7 +26676,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="B580" s="5" t="s">
         <v>155</v>
@@ -26685,7 +26685,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B581" s="5" t="s">
         <v>903</v>
@@ -26694,7 +26694,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="B582" s="5" t="s">
         <v>907</v>
@@ -26703,7 +26703,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B583" s="5" t="s">
         <v>892</v>
@@ -26712,7 +26712,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="B584" s="5" t="s">
         <v>895</v>
@@ -26721,7 +26721,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B585" s="5" t="s">
         <v>858</v>
@@ -26730,7 +26730,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="B586" s="5" t="s">
         <v>854</v>
@@ -26739,7 +26739,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="B587" s="5" t="s">
         <v>909</v>
@@ -26748,7 +26748,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B588" s="5" t="s">
         <v>155</v>
@@ -26757,7 +26757,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B589" s="5" t="s">
         <v>918</v>
@@ -26766,7 +26766,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="B590" s="5" t="s">
         <v>916</v>
@@ -26775,7 +26775,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="B591" s="5" t="s">
         <v>911</v>
@@ -26784,7 +26784,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B592" s="5" t="s">
         <v>913</v>
@@ -26793,7 +26793,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B593" s="5" t="s">
         <v>112</v>
@@ -26802,7 +26802,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="B594" s="5" t="s">
         <v>864</v>
@@ -26811,7 +26811,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B595" s="5" t="s">
         <v>858</v>
@@ -26820,7 +26820,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="B596" s="5" t="s">
         <v>862</v>
@@ -26829,7 +26829,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B597" s="5" t="s">
         <v>856</v>
@@ -26838,7 +26838,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="B598" s="5" t="s">
         <v>846</v>
@@ -26847,7 +26847,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="B599" s="5" t="s">
         <v>852</v>
@@ -26856,7 +26856,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="B600" s="5" t="s">
         <v>848</v>
@@ -26865,7 +26865,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B601" s="5" t="s">
         <v>850</v>
@@ -26874,7 +26874,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B602" s="5" t="s">
         <v>854</v>
@@ -26883,7 +26883,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="B603" s="5" t="s">
         <v>116</v>
@@ -26892,7 +26892,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="B604" s="5" t="s">
         <v>118</v>
@@ -26901,7 +26901,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="B605" s="5" t="s">
         <v>920</v>
@@ -26910,7 +26910,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="B606" s="5" t="s">
         <v>926</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="B607" s="5" t="s">
         <v>924</v>
@@ -26928,7 +26928,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="B608" s="5" t="s">
         <v>922</v>
@@ -26937,7 +26937,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B609" s="5" t="s">
         <v>930</v>
@@ -26946,7 +26946,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B610" s="5" t="s">
         <v>928</v>
@@ -26955,7 +26955,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B611" s="5" t="s">
         <v>668</v>
@@ -26964,7 +26964,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="B612" s="5" t="s">
         <v>775</v>
@@ -26973,7 +26973,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B613" s="5" t="s">
         <v>769</v>
@@ -26982,7 +26982,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>750</v>
@@ -26991,7 +26991,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="B615" s="5" t="s">
         <v>738</v>
@@ -27000,7 +27000,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B616" s="5" t="s">
         <v>711</v>
@@ -27009,7 +27009,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B617" s="5" t="s">
         <v>748</v>
@@ -27018,7 +27018,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B618" s="5" t="s">
         <v>675</v>
@@ -27027,7 +27027,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B619" s="5" t="s">
         <v>734</v>
@@ -27036,7 +27036,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B620" s="5" t="s">
         <v>720</v>
@@ -27045,7 +27045,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B621" s="5" t="s">
         <v>754</v>
@@ -27054,7 +27054,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B622" s="5" t="s">
         <v>694</v>
@@ -27063,7 +27063,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B623" s="5" t="s">
         <v>790</v>
@@ -27072,7 +27072,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B624" s="5" t="s">
         <v>2786</v>
@@ -27081,7 +27081,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B625" s="5" t="s">
         <v>777</v>
@@ -27090,7 +27090,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B626" s="5" t="s">
         <v>696</v>
@@ -27099,7 +27099,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B627" s="5" t="s">
         <v>752</v>
@@ -27108,7 +27108,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B628" s="5" t="s">
         <v>2784</v>
@@ -27117,7 +27117,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B629" s="5" t="s">
         <v>788</v>
@@ -27126,7 +27126,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B630" s="5" t="s">
         <v>2785</v>
@@ -27135,7 +27135,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B631" s="5" t="s">
         <v>730</v>
@@ -27144,7 +27144,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B632" s="5" t="s">
         <v>786</v>
@@ -27153,7 +27153,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B633" s="5" t="s">
         <v>677</v>
@@ -27162,7 +27162,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B634" s="5" t="s">
         <v>765</v>
@@ -27171,7 +27171,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B635" s="5" t="s">
         <v>819</v>
@@ -27180,7 +27180,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B636" s="5" t="s">
         <v>759</v>
@@ -27189,7 +27189,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B637" s="5" t="s">
         <v>718</v>
@@ -27198,7 +27198,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B638" s="5" t="s">
         <v>802</v>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B639" s="5" t="s">
         <v>800</v>
@@ -27216,7 +27216,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="B640" s="5" t="s">
         <v>767</v>
@@ -27225,7 +27225,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B641" s="5" t="s">
         <v>736</v>
@@ -27234,7 +27234,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B642" s="5" t="s">
         <v>792</v>
@@ -27243,7 +27243,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B643" s="5" t="s">
         <v>798</v>
@@ -27252,7 +27252,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B644" s="5" t="s">
         <v>698</v>
@@ -27261,7 +27261,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B645" s="5" t="s">
         <v>709</v>
@@ -27270,7 +27270,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="B646" s="5" t="s">
         <v>796</v>
@@ -27279,7 +27279,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B647" s="5" t="s">
         <v>671</v>
@@ -27288,7 +27288,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B648" s="5" t="s">
         <v>742</v>
@@ -27297,7 +27297,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B649" s="5" t="s">
         <v>716</v>
@@ -27306,7 +27306,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B650" s="5" t="s">
         <v>782</v>
@@ -27315,7 +27315,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B651" s="5" t="s">
         <v>685</v>
@@ -27324,7 +27324,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B652" s="5" t="s">
         <v>728</v>
@@ -27333,7 +27333,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B653" s="5" t="s">
         <v>814</v>
@@ -27342,7 +27342,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B654" s="5" t="s">
         <v>2787</v>
@@ -27351,7 +27351,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B655" s="5" t="s">
         <v>761</v>
@@ -27360,7 +27360,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B656" s="5" t="s">
         <v>779</v>
@@ -27369,7 +27369,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B657" s="5" t="s">
         <v>763</v>
@@ -27378,7 +27378,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B658" s="5" t="s">
         <v>808</v>
@@ -27387,7 +27387,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B659" s="5" t="s">
         <v>804</v>
@@ -27396,7 +27396,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B660" s="5" t="s">
         <v>683</v>
@@ -27405,7 +27405,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B661" s="5" t="s">
         <v>746</v>
@@ -27414,7 +27414,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B662" s="5" t="s">
         <v>679</v>
@@ -27423,7 +27423,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B663" s="5" t="s">
         <v>687</v>
@@ -27432,7 +27432,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B664" s="5" t="s">
         <v>703</v>
@@ -27441,7 +27441,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B665" s="5" t="s">
         <v>773</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B666" s="5" t="s">
         <v>744</v>
@@ -27459,7 +27459,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B667" s="5" t="s">
         <v>794</v>
@@ -27468,7 +27468,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B668" s="5" t="s">
         <v>2782</v>
@@ -27477,7 +27477,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B669" s="5" t="s">
         <v>732</v>
@@ -27486,7 +27486,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B670" s="5" t="s">
         <v>692</v>
@@ -27495,7 +27495,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B671" s="5" t="s">
         <v>812</v>
@@ -27504,7 +27504,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B672" s="5" t="s">
         <v>673</v>
@@ -27513,7 +27513,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B673" s="5" t="s">
         <v>810</v>
@@ -27522,7 +27522,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B674" s="5" t="s">
         <v>714</v>
@@ -27531,7 +27531,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B675" s="5" t="s">
         <v>771</v>
@@ -27540,7 +27540,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B676" s="5" t="s">
         <v>722</v>
@@ -27549,7 +27549,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B677" s="5" t="s">
         <v>700</v>
@@ -27558,7 +27558,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B678" s="5" t="s">
         <v>726</v>
@@ -27567,7 +27567,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B679" s="5" t="s">
         <v>784</v>
@@ -27576,7 +27576,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B680" s="5" t="s">
         <v>816</v>
@@ -27585,7 +27585,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B681" s="5" t="s">
         <v>2788</v>
@@ -27594,7 +27594,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B682" s="5" t="s">
         <v>2783</v>
@@ -27603,7 +27603,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B683" s="5" t="s">
         <v>740</v>
@@ -27612,7 +27612,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B684" s="5" t="s">
         <v>705</v>
@@ -27621,7 +27621,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B685" s="5" t="s">
         <v>707</v>
@@ -27630,7 +27630,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B686" s="5" t="s">
         <v>690</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B687" s="5" t="s">
         <v>756</v>
@@ -27648,7 +27648,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B688" s="5" t="s">
         <v>724</v>
@@ -27657,7 +27657,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B689" s="5" t="s">
         <v>806</v>
@@ -27666,7 +27666,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B690" s="5" t="s">
         <v>681</v>
@@ -27675,7 +27675,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B691" s="5" t="s">
         <v>821</v>
@@ -27684,7 +27684,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B692" s="5" t="s">
         <v>155</v>
@@ -27693,7 +27693,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B693" s="5" t="s">
         <v>823</v>
@@ -27702,7 +27702,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="B694" s="5" t="s">
         <v>313</v>
@@ -27711,32 +27711,32 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B695" s="2" t="s">
         <v>3559</v>
-      </c>
-      <c r="B695" s="2" t="s">
-        <v>3560</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B696" s="5" t="s">
         <v>3557</v>
-      </c>
-      <c r="B696" s="5" t="s">
-        <v>3558</v>
       </c>
       <c r="C696" s="5"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B698" s="2" t="s">
         <v>899</v>
@@ -27744,23 +27744,23 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B701" s="2" t="s">
         <v>155</v>
@@ -27768,79 +27768,79 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="B711" s="2" t="s">
         <v>630</v>
@@ -27848,7 +27848,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B712" s="2" t="s">
         <v>2647</v>
@@ -27856,23 +27856,23 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B715" s="5" t="s">
         <v>944</v>
@@ -27881,7 +27881,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B716" s="5" t="s">
         <v>958</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B717" s="5" t="s">
         <v>155</v>
@@ -27899,7 +27899,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B718" s="5" t="s">
         <v>963</v>
@@ -27908,7 +27908,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B719" s="5" t="s">
         <v>965</v>
@@ -27917,7 +27917,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B720" s="5" t="s">
         <v>967</v>
@@ -27926,7 +27926,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B721" s="2" t="s">
         <v>3132</v>
@@ -27934,7 +27934,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B722" s="5" t="s">
         <v>969</v>
@@ -27943,7 +27943,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B723" s="5" t="s">
         <v>961</v>
@@ -27952,7 +27952,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B724" s="5" t="s">
         <v>2712</v>
@@ -27961,7 +27961,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B725" s="5" t="s">
         <v>155</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B726" s="5" t="s">
         <v>576</v>
@@ -27979,7 +27979,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B727" s="5" t="s">
         <v>588</v>
@@ -27988,7 +27988,7 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B728" s="5" t="s">
         <v>583</v>
@@ -27997,7 +27997,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B729" s="2" t="s">
         <v>574</v>
@@ -28005,7 +28005,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B730" s="5" t="s">
         <v>574</v>
@@ -28014,7 +28014,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B731" s="5" t="s">
         <v>581</v>
@@ -28023,7 +28023,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B732" s="5" t="s">
         <v>310</v>
@@ -28032,7 +28032,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="B733" s="5" t="s">
         <v>585</v>
@@ -28041,7 +28041,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B734" s="5" t="s">
         <v>579</v>
@@ -28050,7 +28050,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B735" s="5" t="s">
         <v>572</v>
@@ -28059,7 +28059,7 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B736" s="5" t="s">
         <v>569</v>
@@ -28068,7 +28068,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B737" s="2" t="s">
         <v>2919</v>
@@ -28076,7 +28076,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B738" s="5" t="s">
         <v>2712</v>
@@ -28085,7 +28085,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B739" s="5" t="s">
         <v>155</v>
@@ -28094,7 +28094,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B740" s="5" t="s">
         <v>576</v>
@@ -28103,7 +28103,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B741" s="5" t="s">
         <v>588</v>
@@ -28112,7 +28112,7 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B742" s="5" t="s">
         <v>583</v>
@@ -28121,7 +28121,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B743" s="5" t="s">
         <v>574</v>
@@ -28130,7 +28130,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B744" s="5" t="s">
         <v>581</v>
@@ -28139,7 +28139,7 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B745" s="5" t="s">
         <v>310</v>
@@ -28148,7 +28148,7 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B746" s="5" t="s">
         <v>585</v>
@@ -28157,7 +28157,7 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B747" s="5" t="s">
         <v>579</v>
@@ -28166,7 +28166,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B748" s="5" t="s">
         <v>572</v>
@@ -28175,7 +28175,7 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B749" s="5" t="s">
         <v>569</v>
@@ -28184,7 +28184,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B750" s="5" t="s">
         <v>837</v>
@@ -28193,7 +28193,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B751" s="5" t="s">
         <v>839</v>
@@ -28202,7 +28202,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="B752" s="2" t="s">
         <v>839</v>
@@ -28210,7 +28210,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B753" s="2" t="s">
         <v>149</v>
@@ -28218,7 +28218,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B754" s="2" t="s">
         <v>151</v>
@@ -28226,7 +28226,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B755" s="2" t="s">
         <v>153</v>
@@ -28234,7 +28234,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="B756" s="2" t="s">
         <v>2869</v>
@@ -28242,7 +28242,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="B757" s="2" t="s">
         <v>2870</v>
@@ -28250,7 +28250,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="B758" s="2" t="s">
         <v>2871</v>
@@ -28258,7 +28258,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="B759" s="2" t="s">
         <v>2872</v>
@@ -28266,7 +28266,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B760" s="2" t="s">
         <v>2875</v>
@@ -28274,7 +28274,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B761" s="2" t="s">
         <v>2881</v>
@@ -28282,7 +28282,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="B762" s="2" t="s">
         <v>2879</v>
@@ -28290,7 +28290,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B763" s="2" t="s">
         <v>2877</v>
@@ -28298,7 +28298,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="B764" s="5" t="s">
         <v>841</v>
@@ -28307,7 +28307,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="B765" s="2" t="s">
         <v>841</v>
@@ -28315,7 +28315,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="B766" s="2" t="s">
         <v>2887</v>
@@ -28323,7 +28323,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="B767" s="2" t="s">
         <v>2889</v>
@@ -28331,7 +28331,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B768" s="2" t="s">
         <v>2884</v>
@@ -28339,7 +28339,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="B769" s="2" t="s">
         <v>2893</v>
@@ -28347,7 +28347,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="B770" s="2" t="s">
         <v>2899</v>
@@ -28355,7 +28355,7 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B771" s="2" t="s">
         <v>2905</v>
@@ -28363,7 +28363,7 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="B772" s="2" t="s">
         <v>2900</v>
@@ -28371,7 +28371,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="B773" s="2" t="s">
         <v>2895</v>
@@ -28379,7 +28379,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B774" s="2" t="s">
         <v>2903</v>
@@ -28387,7 +28387,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B775" s="2" t="s">
         <v>2897</v>
@@ -28395,7 +28395,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="B776" s="2" t="s">
         <v>2887</v>
@@ -28403,7 +28403,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B777" s="2" t="s">
         <v>2884</v>
@@ -28411,7 +28411,7 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B778" s="2" t="s">
         <v>2883</v>
@@ -28419,7 +28419,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B779" s="5" t="s">
         <v>620</v>
@@ -28428,7 +28428,7 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="B780" s="5" t="s">
         <v>628</v>
@@ -28437,7 +28437,7 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B781" s="5" t="s">
         <v>630</v>
@@ -28446,7 +28446,7 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="B782" s="5" t="s">
         <v>624</v>
@@ -28455,7 +28455,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B783" s="5" t="s">
         <v>626</v>
@@ -28464,7 +28464,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="B784" s="5" t="s">
         <v>622</v>
@@ -28473,7 +28473,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B785" s="5" t="s">
         <v>879</v>
@@ -28482,7 +28482,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B786" s="5" t="s">
         <v>884</v>
@@ -28491,7 +28491,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B787" s="5" t="s">
         <v>881</v>
@@ -28500,7 +28500,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B788" s="5" t="s">
         <v>2716</v>
@@ -28509,7 +28509,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B789" s="5" t="s">
         <v>112</v>
@@ -28518,7 +28518,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B790" s="5" t="s">
         <v>864</v>
@@ -28527,7 +28527,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B791" s="5" t="s">
         <v>858</v>
@@ -28536,7 +28536,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="B792" s="5" t="s">
         <v>862</v>
@@ -28545,7 +28545,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="B793" s="5" t="s">
         <v>856</v>
@@ -28554,7 +28554,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="B794" s="5" t="s">
         <v>846</v>
@@ -28563,7 +28563,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="B795" s="5" t="s">
         <v>852</v>
@@ -28572,7 +28572,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="B796" s="5" t="s">
         <v>848</v>
@@ -28581,7 +28581,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="B797" s="5" t="s">
         <v>850</v>
@@ -28590,7 +28590,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B798" s="5" t="s">
         <v>854</v>
@@ -28599,7 +28599,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B799" s="5" t="s">
         <v>116</v>
@@ -28608,7 +28608,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="B800" s="5" t="s">
         <v>118</v>
@@ -28617,7 +28617,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="B801" s="5" t="s">
         <v>632</v>
@@ -28626,7 +28626,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="B802" s="5" t="s">
         <v>590</v>
@@ -28635,7 +28635,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="B803" s="5" t="s">
         <v>600</v>
@@ -28644,7 +28644,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B804" s="5" t="s">
         <v>594</v>
@@ -28653,7 +28653,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B805" s="5" t="s">
         <v>592</v>
@@ -28662,7 +28662,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B806" s="5" t="s">
         <v>598</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="B807" s="5" t="s">
         <v>596</v>
@@ -28680,7 +28680,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="B808" s="5" t="s">
         <v>971</v>
@@ -28689,7 +28689,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B809" s="5" t="s">
         <v>991</v>
@@ -28698,7 +28698,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="B810" s="5" t="s">
         <v>993</v>
@@ -28707,7 +28707,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="B811" s="5" t="s">
         <v>155</v>
@@ -28716,7 +28716,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="B812" s="5" t="s">
         <v>987</v>
@@ -28725,7 +28725,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="B813" s="5" t="s">
         <v>984</v>
@@ -28734,7 +28734,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="B814" s="5" t="s">
         <v>979</v>
@@ -28743,7 +28743,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B815" s="5" t="s">
         <v>982</v>
@@ -28752,7 +28752,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="B816" s="5" t="s">
         <v>585</v>
@@ -28761,7 +28761,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="B817" s="5" t="s">
         <v>989</v>
@@ -28770,7 +28770,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B818" s="5" t="s">
         <v>995</v>
@@ -28779,7 +28779,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B819" s="5" t="s">
         <v>993</v>
@@ -28788,7 +28788,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="B820" s="5" t="s">
         <v>155</v>
@@ -28797,7 +28797,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="B821" s="5" t="s">
         <v>999</v>
@@ -28806,7 +28806,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="B822" s="5" t="s">
         <v>585</v>
@@ -28815,7 +28815,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B823" s="5" t="s">
         <v>979</v>
@@ -28824,7 +28824,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="B824" s="2" t="s">
         <v>979</v>
@@ -28832,7 +28832,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="B825" s="5" t="s">
         <v>989</v>
@@ -28841,7 +28841,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="B826" s="2" t="s">
         <v>3130</v>
@@ -28849,7 +28849,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="B827" s="2" t="s">
         <v>999</v>
@@ -28857,7 +28857,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="B828" s="5" t="s">
         <v>971</v>
@@ -28866,7 +28866,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="B829" s="5" t="s">
         <v>155</v>
@@ -28875,7 +28875,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="B830" s="5" t="s">
         <v>974</v>
@@ -28884,7 +28884,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="B831" s="5" t="s">
         <v>976</v>
@@ -28893,7 +28893,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="B832" s="6" t="s">
         <v>1786</v>
@@ -28902,7 +28902,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="B833" s="5" t="s">
         <v>634</v>
@@ -28911,7 +28911,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="B834" s="5" t="s">
         <v>95</v>
@@ -28920,7 +28920,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B835" s="5" t="s">
         <v>97</v>
@@ -28929,7 +28929,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="B836" s="5" t="s">
         <v>95</v>
@@ -28938,7 +28938,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B837" s="5" t="s">
         <v>99</v>
@@ -28947,7 +28947,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="B838" s="5" t="s">
         <v>101</v>
@@ -28956,7 +28956,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="B839" s="5" t="s">
         <v>103</v>
@@ -28965,7 +28965,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="B840" s="5" t="s">
         <v>105</v>
@@ -28974,7 +28974,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B841" s="5" t="s">
         <v>112</v>
@@ -28983,7 +28983,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B842" s="5" t="s">
         <v>114</v>
@@ -28992,7 +28992,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B843" s="5" t="s">
         <v>116</v>
@@ -29001,7 +29001,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="B844" s="5" t="s">
         <v>118</v>
@@ -29010,7 +29010,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="B845" s="2" t="s">
         <v>2830</v>
@@ -29018,7 +29018,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="B846" s="5" t="s">
         <v>122</v>
@@ -29027,7 +29027,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="B847" s="5" t="s">
         <v>125</v>
@@ -29036,16 +29036,16 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="B848" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C848" s="5"/>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="B849" s="5" t="s">
         <v>127</v>
@@ -29054,7 +29054,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="B850" s="2" t="s">
         <v>2861</v>
@@ -29062,7 +29062,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="B851" s="2" t="s">
         <v>2859</v>
@@ -29070,7 +29070,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="B852" s="2" t="s">
         <v>2927</v>
@@ -29078,7 +29078,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="B853" s="2" t="s">
         <v>155</v>
@@ -29086,7 +29086,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="B854" s="2" t="s">
         <v>2929</v>
@@ -29094,7 +29094,7 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="B855" s="2" t="s">
         <v>2935</v>
@@ -29102,7 +29102,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="B856" s="2" t="s">
         <v>2941</v>
@@ -29110,7 +29110,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="B857" s="2" t="s">
         <v>2925</v>
@@ -29118,7 +29118,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="B858" s="2" t="s">
         <v>2939</v>
@@ -29126,7 +29126,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="B859" s="2" t="s">
         <v>2945</v>
@@ -29134,7 +29134,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="B860" s="2" t="s">
         <v>2947</v>
@@ -29142,7 +29142,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="B861" s="2" t="s">
         <v>2943</v>
@@ -29150,7 +29150,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="B862" s="2" t="s">
         <v>2933</v>
@@ -29158,7 +29158,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B863" s="2" t="s">
         <v>2937</v>
@@ -29166,7 +29166,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="B864" s="2" t="s">
         <v>2923</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="B865" s="2" t="s">
         <v>2931</v>
@@ -29182,7 +29182,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="B866" s="5" t="s">
         <v>97</v>
@@ -29191,7 +29191,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="B867" s="5" t="s">
         <v>110</v>
@@ -29200,7 +29200,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="B868" s="5" t="s">
         <v>112</v>
@@ -29209,7 +29209,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="B869" s="5" t="s">
         <v>114</v>
@@ -29218,7 +29218,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="B870" s="5" t="s">
         <v>116</v>
@@ -29227,7 +29227,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B871" s="5" t="s">
         <v>118</v>
@@ -29236,7 +29236,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="B872" s="5" t="s">
         <v>120</v>
@@ -29245,7 +29245,7 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="B873" s="5" t="s">
         <v>99</v>
@@ -29254,7 +29254,7 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="B874" s="5" t="s">
         <v>101</v>
@@ -29263,7 +29263,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="B875" s="5" t="s">
         <v>103</v>
@@ -29272,7 +29272,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="B876" s="5" t="s">
         <v>105</v>
@@ -29281,7 +29281,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="B877" s="5" t="s">
         <v>122</v>
@@ -29290,7 +29290,7 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="B878" s="5" t="s">
         <v>125</v>
@@ -29299,16 +29299,16 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B879" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C879" s="5"/>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="B880" s="5" t="s">
         <v>127</v>
@@ -29317,7 +29317,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="B881" s="5" t="s">
         <v>108</v>
@@ -29326,7 +29326,7 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="B882" s="5" t="s">
         <v>1026</v>
@@ -29335,7 +29335,7 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B883" s="5" t="s">
         <v>874</v>
@@ -29344,7 +29344,7 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="B884" s="5" t="s">
         <v>864</v>
@@ -29353,7 +29353,7 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="B885" s="5" t="s">
         <v>858</v>
@@ -29362,7 +29362,7 @@
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="B886" s="5" t="s">
         <v>862</v>
@@ -29371,7 +29371,7 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B887" s="5" t="s">
         <v>856</v>
@@ -29380,7 +29380,7 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B888" s="5" t="s">
         <v>846</v>
@@ -29389,7 +29389,7 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B889" s="5" t="s">
         <v>852</v>
@@ -29398,7 +29398,7 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B890" s="5" t="s">
         <v>848</v>
@@ -29407,7 +29407,7 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B891" s="5" t="s">
         <v>850</v>
@@ -29416,7 +29416,7 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B892" s="5" t="s">
         <v>854</v>
@@ -29425,7 +29425,7 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B893" s="5" t="s">
         <v>116</v>
@@ -29434,7 +29434,7 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B894" s="5" t="s">
         <v>118</v>
@@ -29443,7 +29443,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B895" s="5" t="s">
         <v>614</v>
@@ -29452,7 +29452,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B896" s="5" t="s">
         <v>617</v>
@@ -29461,7 +29461,7 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B897" s="5" t="s">
         <v>612</v>
@@ -29470,7 +29470,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B898" s="5" t="s">
         <v>576</v>
@@ -29479,7 +29479,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B899" s="5" t="s">
         <v>604</v>
@@ -29488,7 +29488,7 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B900" s="5" t="s">
         <v>609</v>
@@ -29497,7 +29497,7 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B901" s="5" t="s">
         <v>572</v>
@@ -29506,25 +29506,25 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B902" s="5" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="C902" s="5"/>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B903" s="5" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="C903" s="5"/>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="B904" s="5" t="s">
         <v>602</v>
@@ -29533,7 +29533,7 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="B905" s="5" t="s">
         <v>606</v>
@@ -29542,7 +29542,7 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="B906" s="5" t="s">
         <v>827</v>
@@ -29551,7 +29551,7 @@
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B907" s="5" t="s">
         <v>832</v>
@@ -29560,7 +29560,7 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="B908" s="5" t="s">
         <v>829</v>
@@ -29569,7 +29569,7 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B909" s="5" t="s">
         <v>572</v>
@@ -29578,7 +29578,7 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B910" s="5" t="s">
         <v>602</v>
@@ -29587,7 +29587,7 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="B911" s="5" t="s">
         <v>834</v>
@@ -31870,7 +31870,7 @@
         <v>1067</v>
       </c>
       <c r="B1168" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C1168" s="5"/>
     </row>
@@ -32133,7 +32133,7 @@
         <v>1058</v>
       </c>
       <c r="B1199" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C1199" s="5"/>
     </row>
@@ -32340,7 +32340,7 @@
         <v>1037</v>
       </c>
       <c r="B1222" s="5" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="C1222" s="5"/>
     </row>
@@ -32349,7 +32349,7 @@
         <v>1032</v>
       </c>
       <c r="B1223" s="5" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="C1223" s="5"/>
     </row>
@@ -32566,7 +32566,7 @@
         <v>458</v>
       </c>
       <c r="B1249" s="5" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
@@ -33013,7 +33013,7 @@
         <v>123</v>
       </c>
       <c r="B1298" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C1298" s="5"/>
     </row>
@@ -33045,10 +33045,10 @@
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1302" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1302" s="2" t="s">
         <v>3566</v>
-      </c>
-      <c r="B1302" s="2" t="s">
-        <v>3567</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
@@ -35104,7 +35104,7 @@
         <v>1442</v>
       </c>
       <c r="B1559" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.3">
@@ -35352,7 +35352,7 @@
         <v>1433</v>
       </c>
       <c r="B1590" s="5" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.3">
@@ -35528,7 +35528,7 @@
         <v>1412</v>
       </c>
       <c r="B1612" s="5" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.3">
@@ -35536,7 +35536,7 @@
         <v>1407</v>
       </c>
       <c r="B1613" s="5" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.3">

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7469" uniqueCount="4548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="4549">
   <si>
     <t>fi</t>
   </si>
@@ -13699,6 +13699,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tänne voit lisätä hakemukseen kuuluvia liitteitä. Viranomainen voi myös pyytää sinulta tarpeellisia liitteitä. Nämä pyynnöt merkitään taulukossa punaisella lipulla. Viranomainen voi myös merkitä liitteen alustavasti hyväksytyksi tai korjattavaksi. Tämä ei ole vielä virallinen hyväksyntä, sillä sitä varten hakemus pitää käsitellä kunnan päätöksentekoprosessin mukaisesti. </t>
+  </si>
+  <si>
+    <t>inforequest_submitted</t>
   </si>
 </sst>
 </file>
@@ -14074,7 +14077,47 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14909,10 +14952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C421"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17205,1168 +17248,1176 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>8</v>
+        <v>4548</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>9</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>486</v>
+        <v>214</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>3570</v>
+        <v>486</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>3571</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>3587</v>
+        <v>3570</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>3590</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
         <v>3585</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B288" s="5" t="s">
         <v>3586</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
-        <v>2665</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>2663</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>2676</v>
+        <v>2665</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>2697</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>2685</v>
+        <v>2676</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>310</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>2693</v>
+        <v>2685</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>2704</v>
+        <v>310</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>2675</v>
+        <v>2693</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>2696</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>2690</v>
+        <v>2675</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>2703</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>2788</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>2674</v>
+        <v>2692</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>2695</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
         <v>2672</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B297" s="5" t="s">
         <v>2673</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B300" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C299" s="5" t="s">
+      <c r="C300" s="5" t="s">
         <v>1791</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>2779</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>2691</v>
+        <v>2683</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>2788</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>2677</v>
+        <v>2691</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>2707</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="s">
         <v>2682</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B304" s="5" t="s">
         <v>2699</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>3575</v>
+        <v>1337</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>3576</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>1339</v>
+        <v>3575</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1340</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
         <v>3572</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B309" s="5" t="s">
         <v>3573</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>2701</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>2689</v>
+        <v>2684</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>2722</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="s">
         <v>2686</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="B312" s="5" t="s">
         <v>2702</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>1787</v>
+        <v>1317</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B314" s="5" t="s">
-        <v>2826</v>
+      <c r="B314" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1316</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>1312</v>
+        <v>1321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1313</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>3180</v>
+        <v>1312</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>3181</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>560</v>
+        <v>3180</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>561</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>364</v>
+        <v>560</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>365</v>
+        <v>561</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>2583</v>
+        <v>364</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>2718</v>
+        <v>365</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>372</v>
+        <v>2583</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>2766</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>357</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>2721</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>363</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>2823</v>
+        <v>368</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>2662</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>2770</v>
-      </c>
-      <c r="C339" s="5" t="s">
-        <v>2772</v>
+        <v>2823</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>2662</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>14</v>
+        <v>2769</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>15</v>
+        <v>2770</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1789</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>563</v>
+        <v>14</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>264</v>
+        <v>562</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>265</v>
+        <v>563</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>3569</v>
+        <v>264</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>395</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>3566</v>
+        <v>395</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="B346" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="9" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="9" t="s">
         <v>2679</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="B347" s="5" t="s">
         <v>2723</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>564</v>
+        <v>1002</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>387</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>1776</v>
+        <v>564</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>43</v>
+        <v>387</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>3577</v>
+        <v>1776</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>3578</v>
+        <v>43</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>1811</v>
+        <v>3577</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>416</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B353" s="4" t="s">
         <v>2771</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C353" s="5" t="s">
         <v>2773</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="9" t="s">
         <v>2694</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="B354" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="9" t="s">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="9" t="s">
         <v>2688</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B355" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="9" t="s">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="9" t="s">
         <v>2666</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B356" s="5" t="s">
         <v>2664</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="B357" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
         <v>3579</v>
       </c>
-      <c r="B357" s="5" t="s">
+      <c r="B358" s="5" t="s">
         <v>3580</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
         <v>3581</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="B359" s="5" t="s">
         <v>3582</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="B359" s="5" t="s">
+      <c r="B360" s="5" t="s">
         <v>2798</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="B361" s="5" t="s">
         <v>2811</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="B362" s="5" t="s">
         <v>2814</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="B363" s="5" t="s">
         <v>2801</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="B364" s="5" t="s">
         <v>2802</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B365" s="5" t="s">
         <v>2803</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="B366" s="5" t="s">
         <v>2794</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="B367" s="5" t="s">
         <v>2796</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B368" s="5" t="s">
         <v>2790</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="B368" s="5" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>2808</v>
+        <v>2792</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>2807</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>176</v>
+        <v>2810</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>177</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>543</v>
+        <v>176</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>544</v>
+        <v>177</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>177</v>
+        <v>538</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>538</v>
+        <v>177</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>377</v>
+        <v>537</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>2662</v>
+        <v>538</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>379</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>3</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>1381</v>
+        <v>188</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>1794</v>
+        <v>189</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>206</v>
+        <v>1381</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>207</v>
+        <v>1382</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>1801</v>
+        <v>207</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>3171</v>
+        <v>212</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>544</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>3168</v>
+        <v>544</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>3173</v>
+        <v>3167</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>3174</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>177</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>3170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>304</v>
+        <v>3169</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>305</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>1281</v>
+        <v>304</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B394" s="5" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="9" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="9" t="s">
         <v>2678</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B395" s="5" t="s">
         <v>2698</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="7" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="7" t="s">
         <v>1816</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B396" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C396" s="5" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B396" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1780</v>
+        <v>199</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>3203</v>
+        <v>1779</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>3204</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>182</v>
+        <v>3203</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>183</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="B401" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="C401" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B402" s="5" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="B403" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B404" s="5" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B404" s="5" t="s">
+      <c r="B405" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="B405" s="5" t="s">
+      <c r="B406" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B406" s="5" t="s">
+      <c r="B407" s="5" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B407" s="5" t="s">
+      <c r="B408" s="5" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="B408" s="5" t="s">
+      <c r="B409" s="5" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B410" s="5" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B411" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B412" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="B413" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="B414" s="5" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B414" s="5" t="s">
+      <c r="B415" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="B416" s="5" t="s">
         <v>1575</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="9" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="9" t="s">
         <v>2671</v>
       </c>
-      <c r="B417" s="5" t="s">
+      <c r="B418" s="5" t="s">
         <v>2768</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C419" s="5" t="s">
-        <v>1790</v>
+        <v>179</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>531</v>
+        <v>190</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>532</v>
+        <v>191</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B421" s="5" t="s">
+      <c r="B422" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C421" s="5" t="s">
+      <c r="C422" s="5" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -18374,39 +18425,49 @@
   <sortState ref="A2:C446">
     <sortCondition ref="A2:A446"/>
   </sortState>
-  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A318 A1303:A1048576">
-    <cfRule type="expression" dxfId="48" priority="12">
+  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A279 A1304:A1048576 A281:A319">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C7 C61:C135 C9:C59 C137:C340 C345:C1048576">
-    <cfRule type="expression" dxfId="47" priority="4">
+  <conditionalFormatting sqref="C1:C7 C61:C135 C9:C59 C137:C279 C346:C1048576 C281:C341">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>AND( $A136 = "", OR( $B136 &lt;&gt; "", $C136 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>AND($B136 &lt;&gt; "", $C136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C341:C343">
-    <cfRule type="expression" dxfId="44" priority="29">
-      <formula>AND($B342 &lt;&gt; "", $C341 = "")</formula>
+  <conditionalFormatting sqref="C342:C344">
+    <cfRule type="expression" dxfId="48" priority="31">
+      <formula>AND($B343 &lt;&gt; "", $C342 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C344">
-    <cfRule type="expression" dxfId="43" priority="30">
-      <formula>AND(#REF! &lt;&gt; "", $C344 = "")</formula>
+  <conditionalFormatting sqref="C345">
+    <cfRule type="expression" dxfId="47" priority="32">
+      <formula>AND(#REF! &lt;&gt; "", $C345 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>AND($B8 &lt;&gt; "", $C8 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A280">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND( $A280 = "", OR( $B280 &lt;&gt; "", $C280 &lt;&gt; "" ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($B280 &lt;&gt; "", $C280 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21967,17 +22028,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35608,147 +35669,147 @@
     <sortCondition ref="A2:A1621"/>
   </sortState>
   <conditionalFormatting sqref="B35:B52 B987:B1216 B1535:B1553 B1555:B1048576">
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A987 A35:A52 A990:A1216 A1535:A1553 A1555:A1048576">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B92">
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>AND($B53 = "", $C53 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A92">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>AND( $A53 = "", OR( $B53 &lt;&gt; "", $C53 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:B362">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>AND($B93 = "", $C93 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A362">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>AND( $A93 = "", OR( $B93 &lt;&gt; "", $C93 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363:B633">
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>AND($B363 = "", $C363 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A633">
-    <cfRule type="expression" dxfId="29" priority="22">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>AND( $A363 = "", OR( $B363 &lt;&gt; "", $C363 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B634:B666">
-    <cfRule type="expression" dxfId="28" priority="21">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>AND($B634 = "", $C634 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A634:A666">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="31" priority="19">
       <formula>AND( $A634 = "", OR( $B634 &lt;&gt; "", $C634 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B667:B936">
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>AND($B667 = "", $C667 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A667:A936">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>AND( $A667 = "", OR( $B667 &lt;&gt; "", $C667 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B937:B986">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>AND($B937 = "", $C937 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A937:A986">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="27" priority="14">
       <formula>AND( $A937 = "", OR( $B937 &lt;&gt; "", $C937 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1216 C1535:C1553 C1555:C1048576">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A989">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>AND( $A989 = "", OR( $B989 &lt;&gt; "", $C989 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A988">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1217:B1340">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>AND($B1217 = "", $C1217 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1217:A1340">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>AND( $A1217 = "", OR( $B1217 &lt;&gt; "", $C1217 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1341:B1373">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>AND($B1341 = "", $C1341 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1341:A1373">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>AND( $A1341 = "", OR( $B1341 &lt;&gt; "", $C1341 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1374:B1534">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>AND($B1374 = "", $C1374 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1374:A1534">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>AND( $A1374 = "", OR( $B1374 &lt;&gt; "", $C1374 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1217:C1534">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>AND($B1217 &lt;&gt; "", $C1217 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1554">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND($B1554 = "", $C1554 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1554">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND( $A1554 = "", OR( $B1554 &lt;&gt; "", $C1554 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1554">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND($B1554 &lt;&gt; "", $C1554 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44205,7 +44266,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44589,32 +44650,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 B7:B18 B20:B1048576">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C7:C1048576">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 A7:A1048576">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>AND($B3 = "", $C3 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND( $C3 = "", $B3 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A6">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND( $A3 = "", OR( $B3 &lt;&gt; "", $C3 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44664,17 +44725,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND($B2 = "", $C2 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND( $C2 = "", $B2 &lt;&gt; "" )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7473" uniqueCount="4551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="4561">
   <si>
     <t>fi</t>
   </si>
@@ -13708,6 +13708,36 @@
   </si>
   <si>
     <t>Tarkista tietosi ja täytä puuttuvat kentät. Voit myöhemmin muuttaa yhteystietojasi "omat tiedot" valikosta.</t>
+  </si>
+  <si>
+    <t>create.placeholder</t>
+  </si>
+  <si>
+    <t>Kasarmikatu 25, Helsinki</t>
+  </si>
+  <si>
+    <t>error.duplicate-person-id</t>
+  </si>
+  <si>
+    <t>error.duplicate-email</t>
+  </si>
+  <si>
+    <t>Sähköpostiosoitteella on jo rekisteröity. Voit tarvittaessa tilata uuden salasanan etusivun "Oletko unohtanut salasanasi"-linkistä</t>
+  </si>
+  <si>
+    <t>Henkilötunnuksella on jo rekisteröity. Voit tarvittaessa tilata uuden salasanan etusivun "Oletko unohtanut salasanasi"-linkistä</t>
+  </si>
+  <si>
+    <t>Käyttäjätunnuksen luominen epäonnistui. Ole hyvä ja yritä tunnistautumista uudelleen.</t>
+  </si>
+  <si>
+    <t>error.create-user</t>
+  </si>
+  <si>
+    <t>register.confirm-cancel</t>
+  </si>
+  <si>
+    <t>Haluatko varmasti keskeyttää rekisteröitymisen?</t>
   </si>
 </sst>
 </file>
@@ -14938,10 +14968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C423"/>
+  <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B358" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16729,1689 +16759,1729 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>3565</v>
+        <v>4551</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>3566</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>3176</v>
+        <v>3565</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>3177</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>559</v>
+        <v>3174</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>353</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>552</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>357</v>
+        <v>552</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>558</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>371</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>554</v>
+        <v>359</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>315</v>
+        <v>555</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>316</v>
+        <v>556</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>1800</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>1378</v>
+        <v>210</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1379</v>
+        <v>211</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>13</v>
+        <v>1378</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>263</v>
+        <v>12</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>3593</v>
+        <v>262</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>3594</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>3587</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>3590</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>230</v>
+        <v>3591</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>231</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B257" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B258" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B259" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B260" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B261" s="5" t="s">
         <v>4544</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B262" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B263" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B267" s="5" t="s">
         <v>2799</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B268" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B269" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B270" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B271" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B272" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B273" s="5" t="s">
         <v>1796</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C273" s="5" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B274" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C274" s="5" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B275" s="4" t="s">
         <v>2725</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B276" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B277" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B278" s="5" t="s">
         <v>2581</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B279" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B280" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B281" s="5" t="s">
         <v>2723</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B282" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B283" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B284" s="5" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
         <v>4546</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B285" s="5" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B286" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B287" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B288" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B289" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
         <v>3568</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B290" s="5" t="s">
         <v>3569</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
         <v>3585</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B291" s="5" t="s">
         <v>3588</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
         <v>3583</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B292" s="5" t="s">
         <v>3584</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
-        <v>2665</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="9" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="9" t="s">
-        <v>2693</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>2696</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>2690</v>
+        <v>2676</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>2703</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>2692</v>
+        <v>2685</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>2787</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>2674</v>
+        <v>2693</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>2695</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>184</v>
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
+        <v>2690</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>186</v>
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="s">
+        <v>2692</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>260</v>
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="9" t="s">
+        <v>2674</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>1791</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
         <v>2683</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B305" s="5" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
         <v>2691</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="B306" s="5" t="s">
         <v>2787</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="9" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
         <v>2677</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B307" s="5" t="s">
         <v>2707</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="9" t="s">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
         <v>2682</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B308" s="5" t="s">
         <v>2699</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>3570</v>
+        <v>1337</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="9" t="s">
-        <v>2684</v>
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>3573</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="9" t="s">
-        <v>2689</v>
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>1339</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
-        <v>2686</v>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>1341</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>2702</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>1317</v>
+        <v>3570</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
-        <v>1314</v>
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="9" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="s">
+        <v>2689</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>1315</v>
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="9" t="s">
+        <v>2686</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1316</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>1326</v>
+        <v>1314</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1330</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>3178</v>
+        <v>1327</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>3179</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>560</v>
+        <v>1323</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>561</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>364</v>
+        <v>1321</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>365</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>2583</v>
+        <v>1312</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>2717</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>372</v>
+        <v>3178</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>2765</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>356</v>
+        <v>560</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>357</v>
+        <v>561</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>366</v>
+        <v>2583</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>367</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>2720</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>351</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>2821</v>
+        <v>360</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>2662</v>
+        <v>361</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>2769</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>2771</v>
+        <v>350</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>1789</v>
+        <v>358</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>563</v>
+        <v>369</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>264</v>
+        <v>2821</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>265</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>3567</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>395</v>
+        <v>2768</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>2771</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>3563</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>3564</v>
+        <v>14</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="9" t="s">
-        <v>2679</v>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>2722</v>
+        <v>265</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>1002</v>
+        <v>3567</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1003</v>
+        <v>395</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>564</v>
+        <v>3563</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>387</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>1776</v>
+        <v>533</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>3575</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
+        <v>2679</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>3576</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>1811</v>
+        <v>1002</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>416</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>2770</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="9" t="s">
-        <v>2694</v>
+        <v>564</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>1776</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="9" t="s">
-        <v>2688</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>3575</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="9" t="s">
-        <v>2666</v>
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>1811</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>2664</v>
+        <v>416</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
-        <v>3577</v>
+        <v>2775</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="9" t="s">
+        <v>2694</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
-        <v>3579</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="9" t="s">
+        <v>2688</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
-        <v>2796</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="9" t="s">
+        <v>2666</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>2797</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>2810</v>
+        <v>37</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>2809</v>
+        <v>38</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>2811</v>
+        <v>3577</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>2812</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>2803</v>
+        <v>3579</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>2800</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>2805</v>
+        <v>2810</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>2802</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>2792</v>
+        <v>2811</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>2793</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>2794</v>
+        <v>2803</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2795</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B372" s="5" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B373" s="5" t="s">
         <v>2790</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B374" s="5" t="s">
         <v>4550</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="B375" s="5" t="s">
         <v>2807</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B377" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="B378" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="B379" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="B380" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B381" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="B382" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B383" s="5" t="s">
         <v>2662</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B384" s="5" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>1801</v>
+        <v>376</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>3169</v>
+        <v>374</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>3173</v>
+        <v>188</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>544</v>
+        <v>189</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>3165</v>
+        <v>1381</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>3166</v>
+        <v>1382</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>3171</v>
+        <v>206</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>3172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>3170</v>
+        <v>212</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>177</v>
+        <v>213</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>3168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>304</v>
+        <v>3173</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>305</v>
+        <v>544</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>1281</v>
+        <v>3165</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1282</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>1308</v>
+        <v>3171</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="9" t="s">
-        <v>2678</v>
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>3170</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>2698</v>
+        <v>177</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="7" t="s">
-        <v>1816</v>
+      <c r="A396" s="1" t="s">
+        <v>3167</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>314</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>1778</v>
+        <v>304</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C397" s="5" t="s">
-        <v>1798</v>
+        <v>305</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>1779</v>
+        <v>1281</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1780</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>3201</v>
+        <v>1308</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
-        <v>182</v>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="9" t="s">
+        <v>2678</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C400" s="5" t="s">
-        <v>183</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
-        <v>180</v>
+      <c r="A401" s="7" t="s">
+        <v>1816</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>1293</v>
+        <v>1778</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1294</v>
+        <v>199</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>1292</v>
+        <v>1779</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>118</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>1305</v>
+        <v>3201</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>4549</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>4547</v>
+        <v>182</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>103</v>
+        <v>183</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>1302</v>
+        <v>180</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>101</v>
+        <v>181</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>105</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1301</v>
+        <v>118</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1299</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>1289</v>
+        <v>4547</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1290</v>
+        <v>103</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1304</v>
+        <v>101</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>1812</v>
+        <v>1300</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>171</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>114</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>116</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>1777</v>
+        <v>1295</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="9" t="s">
-        <v>2670</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>1812</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="9" t="s">
-        <v>2671</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>1291</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>2767</v>
+        <v>114</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>178</v>
+        <v>1296</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>179</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>190</v>
+        <v>1288</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>1790</v>
+        <v>116</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="9" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="9" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B422" s="5" t="s">
+      <c r="B427" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="B428" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C423" s="5" t="s">
+      <c r="C428" s="5" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -18419,12 +18489,12 @@
   <sortState ref="A2:C446">
     <sortCondition ref="A2:A446"/>
   </sortState>
-  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A279 A281:A319 A1305:A1048576">
+  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A283 A285:A323 A1310:A1048576">
     <cfRule type="expression" dxfId="50" priority="14">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C7 C61:C135 C9:C59 C137:C279 C281:C341 C346:C1048576">
+  <conditionalFormatting sqref="C1:C7 C61:C135 C9:C59 C137:C283 C285:C345 C350:C1048576">
     <cfRule type="expression" dxfId="49" priority="6">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
@@ -18439,14 +18509,14 @@
       <formula>AND($B136 &lt;&gt; "", $C136 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C342:C344">
+  <conditionalFormatting sqref="C346:C348">
     <cfRule type="expression" dxfId="46" priority="31">
-      <formula>AND($B343 &lt;&gt; "", $C342 = "")</formula>
+      <formula>AND($B347 &lt;&gt; "", $C346 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C345">
+  <conditionalFormatting sqref="C349">
     <cfRule type="expression" dxfId="45" priority="32">
-      <formula>AND(#REF! &lt;&gt; "", $C345 = "")</formula>
+      <formula>AND(#REF! &lt;&gt; "", $C349 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
@@ -18454,14 +18524,14 @@
       <formula>AND($B8 &lt;&gt; "", $C8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A280">
+  <conditionalFormatting sqref="A284">
     <cfRule type="expression" dxfId="43" priority="2">
-      <formula>AND( $A280 = "", OR( $B280 &lt;&gt; "", $C280 &lt;&gt; "" ) )</formula>
+      <formula>AND( $A284 = "", OR( $B284 &lt;&gt; "", $C284 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
+  <conditionalFormatting sqref="C284">
     <cfRule type="expression" dxfId="42" priority="1">
-      <formula>AND($B280 &lt;&gt; "", $C280 = "")</formula>
+      <formula>AND($B284 &lt;&gt; "", $C284 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="4561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7485" uniqueCount="4562">
   <si>
     <t>fi</t>
   </si>
@@ -13738,6 +13738,9 @@
   </si>
   <si>
     <t>Haluatko varmasti keskeyttää rekisteröitymisen?</t>
+  </si>
+  <si>
+    <t>register.email</t>
   </si>
 </sst>
 </file>
@@ -14968,10 +14971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B376" sqref="B376"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18047,441 +18050,449 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>176</v>
+        <v>4561</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>177</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>543</v>
+        <v>176</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>544</v>
+        <v>177</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>177</v>
+        <v>538</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>538</v>
+        <v>177</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>377</v>
+        <v>537</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>2662</v>
+        <v>538</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>379</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>3</v>
+        <v>376</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>1381</v>
+        <v>188</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>1794</v>
+        <v>189</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>206</v>
+        <v>1381</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>207</v>
+        <v>1382</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>1801</v>
+        <v>207</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>3169</v>
+        <v>212</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>544</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>3166</v>
+        <v>544</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>3171</v>
+        <v>3165</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>3172</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>177</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>3168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>304</v>
+        <v>3167</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>305</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>1281</v>
+        <v>304</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="B400" s="5" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="9" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="9" t="s">
         <v>2678</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="B401" s="5" t="s">
         <v>2698</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="7" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="7" t="s">
         <v>1816</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B402" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="C402" s="5" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1780</v>
+        <v>199</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>3201</v>
+        <v>1779</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>3202</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>182</v>
+        <v>3201</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>183</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>1293</v>
+        <v>180</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1294</v>
+        <v>181</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>118</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>4549</v>
+        <v>118</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>4547</v>
+        <v>1305</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>103</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>1302</v>
+        <v>4547</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1301</v>
+        <v>105</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>127</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>1812</v>
+        <v>1295</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>1291</v>
+        <v>1812</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1297</v>
+        <v>114</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>116</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="B422" s="5" t="s">
+      <c r="B423" s="5" t="s">
         <v>1575</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="9" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="9" t="s">
         <v>2671</v>
       </c>
-      <c r="B424" s="5" t="s">
+      <c r="B425" s="5" t="s">
         <v>2767</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C426" s="5" t="s">
-        <v>1790</v>
+        <v>179</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>531</v>
+        <v>190</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>532</v>
+        <v>191</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B428" s="5" t="s">
+      <c r="B429" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C428" s="5" t="s">
+      <c r="C429" s="5" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -18489,7 +18500,7 @@
   <sortState ref="A2:C446">
     <sortCondition ref="A2:A446"/>
   </sortState>
-  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A283 A285:A323 A1310:A1048576">
+  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A283 A285:A323 A1311:A1048576">
     <cfRule type="expression" dxfId="50" priority="14">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7491" uniqueCount="4568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7497" uniqueCount="4574">
   <si>
     <t>fi</t>
   </si>
@@ -13759,6 +13759,24 @@
   </si>
   <si>
     <t xml:space="preserve">Ole hyvä, tarkista tietosi ja täytä puuttuvat kentät. </t>
+  </si>
+  <si>
+    <t>form.err</t>
+  </si>
+  <si>
+    <t>form.warn</t>
+  </si>
+  <si>
+    <t>form.saved</t>
+  </si>
+  <si>
+    <t>Tallennettu</t>
+  </si>
+  <si>
+    <t>Virhe tallennuksessa</t>
+  </si>
+  <si>
+    <t>Virheellinen arvo</t>
   </si>
 </sst>
 </file>
@@ -14989,10 +15007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C432"/>
+  <dimension ref="A1:C435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B374" sqref="B374"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -18536,6 +18554,30 @@
       </c>
       <c r="B432" s="5" t="s">
         <v>4559</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>4571</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -13671,9 +13671,6 @@
     <t>Määräalan tunnus (jos kyseessä määräala)</t>
   </si>
   <si>
-    <t>Sähköpostiosoite (samalla käyttäjätunnus)</t>
-  </si>
-  <si>
     <t>create.placeholder</t>
   </si>
   <si>
@@ -13777,6 +13774,9 @@
   </si>
   <si>
     <t>Virheellinen arvo</t>
+  </si>
+  <si>
+    <t>Sähköposti (käyttäjätunnus)</t>
   </si>
 </sst>
 </file>
@@ -15009,8 +15009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B440" sqref="B440"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -15158,7 +15158,7 @@
         <v>384</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4560</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -15262,7 +15262,7 @@
         <v>405</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -15489,7 +15489,7 @@
         <v>389</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -16798,10 +16798,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>4539</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -17161,26 +17161,26 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>4542</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>4543</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -17314,7 +17314,7 @@
         <v>27</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -17752,7 +17752,7 @@
         <v>351</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -18006,26 +18006,26 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
@@ -18065,7 +18065,7 @@
         <v>2797</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
@@ -18078,18 +18078,18 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B376" s="5" t="s">
         <v>4547</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>4548</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>4538</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
@@ -18534,50 +18534,50 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B430" s="5" t="s">
         <v>4554</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>4555</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B431" s="5" t="s">
         <v>4556</v>
-      </c>
-      <c r="B431" s="5" t="s">
-        <v>4557</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B432" s="5" t="s">
         <v>4558</v>
-      </c>
-      <c r="B432" s="5" t="s">
-        <v>4559</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B435" s="5" t="s">
         <v>4570</v>
-      </c>
-      <c r="B435" s="5" t="s">
-        <v>4571</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7554" uniqueCount="4623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7556" uniqueCount="4624">
   <si>
     <t>fi</t>
   </si>
@@ -13924,6 +13924,9 @@
   </si>
   <si>
     <t>Kutsu uusi henkilö</t>
+  </si>
+  <si>
+    <t>reset.fail.error.unauthorized</t>
   </si>
 </sst>
 </file>
@@ -15154,10 +15157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B358" sqref="B358"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -18954,6 +18957,14 @@
       </c>
       <c r="B464" s="5" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>4620</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="29664" windowHeight="14616" tabRatio="500"/>
+    <workbookView xWindow="156" yWindow="0" windowWidth="29664" windowHeight="14616" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7584" uniqueCount="4643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7584" uniqueCount="4644">
   <si>
     <t>fi</t>
   </si>
@@ -13985,6 +13985,9 @@
   <si>
     <t xml:space="preserve">Esimerkkejä hyvistä kuvauksista: Omakotitalo - Rakennetaan kaksikerroksinen, puuverhoiltu omakotitalo ja talousrakennus sekä maalämpökaivo; Rivitalo - Rakennetaan rivitaloa sekä väestönsuoja/varastorakennus. Asuntoja on 20 kpl; Kerrostalo - Rakennetaan neljäkerroksinen kerrostalo, josta osa on kellaritilaa ja tukimuuri. Asuntoja on 12 kpl. Anomus aloittaa rakennustyöt valitusaikana; Puunkaato - Kaadetaan n. 50 kuusta. Kiinteistöltä kaadetaan puita ja pintamaat poistetaan. Täyttöä on n. 10 000 m3.
 </t>
+  </si>
+  <si>
+    <t>Kuvaamasi toimenpide vaatii yleensä luvan. Voit hakea lupaa Lupapisteen kautta. Sinun kannattaa myös tutustua alla listattuihin sivustoihin, joilta löydät lisää tietoa rakennusvalvonnasta. Voit myös kysyä lisää aiheesta kunnan rakennusvalvonnasta Lupapisteen kautta tekemällä neuvontapyynnön.</t>
   </si>
 </sst>
 </file>
@@ -15241,8 +15244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C479"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456"/>
+    <sheetView topLeftCell="A463" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -22796,8 +22799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1621"/>
   <sheetViews>
-    <sheetView topLeftCell="A1583" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
-      <selection activeCell="A1622" sqref="A1622"/>
+    <sheetView tabSelected="1" topLeftCell="B188" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="54" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -23487,7 +23490,7 @@
         <v>3597</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -23543,7 +23546,7 @@
         <v>3593</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -23551,7 +23554,7 @@
         <v>3075</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -23591,7 +23594,7 @@
         <v>3606</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -23631,7 +23634,7 @@
         <v>3583</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -23655,7 +23658,7 @@
         <v>3599</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -23703,7 +23706,7 @@
         <v>3604</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -23735,7 +23738,7 @@
         <v>3596</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -23767,7 +23770,7 @@
         <v>3595</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -23799,7 +23802,7 @@
         <v>3589</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -23823,7 +23826,7 @@
         <v>3594</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -23855,7 +23858,7 @@
         <v>3592</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -23871,7 +23874,7 @@
         <v>3601</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -23919,7 +23922,7 @@
         <v>3605</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -23967,7 +23970,7 @@
         <v>3603</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -23983,7 +23986,7 @@
         <v>3591</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -24031,7 +24034,7 @@
         <v>3598</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -24055,7 +24058,7 @@
         <v>3600</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -24135,7 +24138,7 @@
         <v>3590</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -24159,7 +24162,7 @@
         <v>3602</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3076</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="29040" windowHeight="14616" tabRatio="500"/>
+    <workbookView xWindow="156" yWindow="0" windowWidth="22884" windowHeight="11544" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="template" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$1:$A$581</definedName>
     <definedName name="mime_types" localSheetId="3">'mime-types'!$A$2:$A$766</definedName>
     <definedName name="mime_types_1" localSheetId="3">'mime-types'!$B$2:$B$766</definedName>
     <definedName name="mime_types_2" localSheetId="3">'mime-types'!$C$2:$C$766</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7594" uniqueCount="4652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7793" uniqueCount="4836">
   <si>
     <t>fi</t>
   </si>
@@ -14012,6 +14013,558 @@
   </si>
   <si>
     <t>Jätä hakemus</t>
+  </si>
+  <si>
+    <t>Lausunnon antajat</t>
+  </si>
+  <si>
+    <t>Lausunnon antaja</t>
+  </si>
+  <si>
+    <t>Lisää henkilö</t>
+  </si>
+  <si>
+    <t>Lisää lausunnon antaja</t>
+  </si>
+  <si>
+    <t>Päivitä lausunnon antajaa</t>
+  </si>
+  <si>
+    <t>Lausunnon tyyppi</t>
+  </si>
+  <si>
+    <t>Käyttäjä ei ole viranomainen</t>
+  </si>
+  <si>
+    <t>Lausunnot</t>
+  </si>
+  <si>
+    <t>Pyydä lausunto</t>
+  </si>
+  <si>
+    <t>Kuvaus</t>
+  </si>
+  <si>
+    <t>Pyydetty</t>
+  </si>
+  <si>
+    <t>Annettu</t>
+  </si>
+  <si>
+    <t>Lausunto</t>
+  </si>
+  <si>
+    <t>Hakemukseen ei liity lausuntapyyntöjä</t>
+  </si>
+  <si>
+    <t>Lausuntopyyntö</t>
+  </si>
+  <si>
+    <t>Poista lausunto</t>
+  </si>
+  <si>
+    <t>Lausunnon poisto</t>
+  </si>
+  <si>
+    <t>Oletko varma että haluat poistaa lausunnon?</t>
+  </si>
+  <si>
+    <t>Lähetä lausunto</t>
+  </si>
+  <si>
+    <t>Puoltotieto</t>
+  </si>
+  <si>
+    <t>Puoltaa</t>
+  </si>
+  <si>
+    <t>Ei puolla</t>
+  </si>
+  <si>
+    <t>Puoltaa ehdoilla</t>
+  </si>
+  <si>
+    <t>Keskustele lausunnosta</t>
+  </si>
+  <si>
+    <t>Halutessasi voit liittää lausuntoon tiedostoja, kuten kuvia, piirroksia ja dokumentteja</t>
+  </si>
+  <si>
+    <t>Lausuntoteksti</t>
+  </si>
+  <si>
+    <t>Leimaa liitteet</t>
+  </si>
+  <si>
+    <t>Oletko varma että haluat leimata liitteet?</t>
+  </si>
+  <si>
+    <t>Aloita leimaus</t>
+  </si>
+  <si>
+    <t>Odota, leimaus käynnistyy...</t>
+  </si>
+  <si>
+    <t>Hakemuksella ei ole leimattavia liitteitä</t>
+  </si>
+  <si>
+    <t>Leimaus käynnissä, ole hyvä ja odota...</t>
+  </si>
+  <si>
+    <t>Leimaus valmis</t>
+  </si>
+  <si>
+    <t>Koko</t>
+  </si>
+  <si>
+    <t>Odottaa</t>
+  </si>
+  <si>
+    <t>Käsitellään</t>
+  </si>
+  <si>
+    <t>Valmis</t>
+  </si>
+  <si>
+    <t>Epäonnistui</t>
+  </si>
+  <si>
+    <t>Suurin sallittu tiedostokoko on 100 Mt.</t>
+  </si>
+  <si>
+    <t>Sallittuja tiedostomuotoja ovat PDF-, kuva-, Microsoft Office-, OpenOffice- ja zip-tiedostot.</t>
+  </si>
+  <si>
+    <t>Anna päätös</t>
+  </si>
+  <si>
+    <t>Kuntalupatunnus</t>
+  </si>
+  <si>
+    <t>Taustajärjestelmän tunniste</t>
+  </si>
+  <si>
+    <t>Päätös</t>
+  </si>
+  <si>
+    <t>Päätöksen antaja</t>
+  </si>
+  <si>
+    <t>Lainvoimainen</t>
+  </si>
+  <si>
+    <t>Liiteet</t>
+  </si>
+  <si>
+    <t>Myönnetty aloitusoikeudella</t>
+  </si>
+  <si>
+    <t>Hallintopakko/uhkasakkoasian käsittely lopetettu.</t>
+  </si>
+  <si>
+    <t>Ltk palauttanut asian uudelleen valmisteltavaksi.</t>
+  </si>
+  <si>
+    <t>Ltk poistanut asian esityslistalta.</t>
+  </si>
+  <si>
+    <t>Ltk:n kokouksessa pöydälle pantu asia.</t>
+  </si>
+  <si>
+    <t>verdict.status.42</t>
+  </si>
+  <si>
+    <t>verdict.status.41</t>
+  </si>
+  <si>
+    <t>verdict.status.40</t>
+  </si>
+  <si>
+    <t>verdict.status.39</t>
+  </si>
+  <si>
+    <t>verdict.status.38</t>
+  </si>
+  <si>
+    <t>verdict.status.37</t>
+  </si>
+  <si>
+    <t>verdict.status.36</t>
+  </si>
+  <si>
+    <t>verdict.status.35</t>
+  </si>
+  <si>
+    <t>verdict.status.34</t>
+  </si>
+  <si>
+    <t>verdict.status.33</t>
+  </si>
+  <si>
+    <t>verdict.status.32</t>
+  </si>
+  <si>
+    <t>verdict.status.31</t>
+  </si>
+  <si>
+    <t>verdict.status.30</t>
+  </si>
+  <si>
+    <t>verdict.status.29</t>
+  </si>
+  <si>
+    <t>verdict.status.28</t>
+  </si>
+  <si>
+    <t>verdict.status.27</t>
+  </si>
+  <si>
+    <t>verdict.status.26</t>
+  </si>
+  <si>
+    <t>verdict.status.25</t>
+  </si>
+  <si>
+    <t>verdict.status.24</t>
+  </si>
+  <si>
+    <t>verdict.status.23</t>
+  </si>
+  <si>
+    <t>verdict.status.22</t>
+  </si>
+  <si>
+    <t>verdict.status.21</t>
+  </si>
+  <si>
+    <t>verdict.status.20</t>
+  </si>
+  <si>
+    <t>verdict.status.19</t>
+  </si>
+  <si>
+    <t>verdict.status.18</t>
+  </si>
+  <si>
+    <t>verdict.status.17</t>
+  </si>
+  <si>
+    <t>verdict.status.16</t>
+  </si>
+  <si>
+    <t>verdict.status.15</t>
+  </si>
+  <si>
+    <t>verdict.status.13</t>
+  </si>
+  <si>
+    <t>verdict.status.14</t>
+  </si>
+  <si>
+    <t>verdict.status.12</t>
+  </si>
+  <si>
+    <t>verdict.status.11</t>
+  </si>
+  <si>
+    <t>verdict.status.10</t>
+  </si>
+  <si>
+    <t>verdict.status.9</t>
+  </si>
+  <si>
+    <t>verdict.status.8</t>
+  </si>
+  <si>
+    <t>verdict.status.7</t>
+  </si>
+  <si>
+    <t>verdict.status.6</t>
+  </si>
+  <si>
+    <t>verdict.status.5</t>
+  </si>
+  <si>
+    <t>verdict.status.4</t>
+  </si>
+  <si>
+    <t>verdict.status.3</t>
+  </si>
+  <si>
+    <t>verdict.status.2</t>
+  </si>
+  <si>
+    <t>verdict.status.1</t>
+  </si>
+  <si>
+    <t>verdict.attachments</t>
+  </si>
+  <si>
+    <t>verdict.submit</t>
+  </si>
+  <si>
+    <t>verdict.official</t>
+  </si>
+  <si>
+    <t>verdict.given</t>
+  </si>
+  <si>
+    <t>verdict.name</t>
+  </si>
+  <si>
+    <t>verdict.status</t>
+  </si>
+  <si>
+    <t>verdict.id.hint</t>
+  </si>
+  <si>
+    <t>verdict.id</t>
+  </si>
+  <si>
+    <t>application.verdict.title</t>
+  </si>
+  <si>
+    <t>application.verdict.add</t>
+  </si>
+  <si>
+    <t>error.select-file</t>
+  </si>
+  <si>
+    <t>attachment.upload.instructions.extensions</t>
+  </si>
+  <si>
+    <t>attachment.upload.instructions.size</t>
+  </si>
+  <si>
+    <t>stamp.verdict</t>
+  </si>
+  <si>
+    <t>stamp.file.status.error</t>
+  </si>
+  <si>
+    <t>stamp.file.status.done</t>
+  </si>
+  <si>
+    <t>stamp.file.status.working</t>
+  </si>
+  <si>
+    <t>stamp.file.status.waiting</t>
+  </si>
+  <si>
+    <t>stamp.ok</t>
+  </si>
+  <si>
+    <t>stamp.status</t>
+  </si>
+  <si>
+    <t>stamp.size</t>
+  </si>
+  <si>
+    <t>stamp.filename</t>
+  </si>
+  <si>
+    <t>stamp.status.done</t>
+  </si>
+  <si>
+    <t>stamp.status.running</t>
+  </si>
+  <si>
+    <t>stamp.status.no-files</t>
+  </si>
+  <si>
+    <t>stamp.status.starting</t>
+  </si>
+  <si>
+    <t>stamp.cancel</t>
+  </si>
+  <si>
+    <t>stamp.start</t>
+  </si>
+  <si>
+    <t>stamp.sure</t>
+  </si>
+  <si>
+    <t>stamp.title</t>
+  </si>
+  <si>
+    <t>application.stampAttachments</t>
+  </si>
+  <si>
+    <t>statement.attachments</t>
+  </si>
+  <si>
+    <t>statement.text</t>
+  </si>
+  <si>
+    <t>statement.conversation</t>
+  </si>
+  <si>
+    <t>statement.condition</t>
+  </si>
+  <si>
+    <t>statement.no</t>
+  </si>
+  <si>
+    <t>statement.yes</t>
+  </si>
+  <si>
+    <t>statement.title</t>
+  </si>
+  <si>
+    <t>statement.submit</t>
+  </si>
+  <si>
+    <t>statement.delete.message</t>
+  </si>
+  <si>
+    <t>statement.delete.header</t>
+  </si>
+  <si>
+    <t>statement.delete</t>
+  </si>
+  <si>
+    <t>email.title.statement-request</t>
+  </si>
+  <si>
+    <t>application.statement.missing</t>
+  </si>
+  <si>
+    <t>application.statement.status</t>
+  </si>
+  <si>
+    <t>application.statement.given</t>
+  </si>
+  <si>
+    <t>application.statement.requested</t>
+  </si>
+  <si>
+    <t>application.statement.desc</t>
+  </si>
+  <si>
+    <t>application.statement.send</t>
+  </si>
+  <si>
+    <t>application.statement.add</t>
+  </si>
+  <si>
+    <t>application.tabStatement</t>
+  </si>
+  <si>
+    <t>error.not-authority</t>
+  </si>
+  <si>
+    <t>userinfo.statement-type</t>
+  </si>
+  <si>
+    <t>auth-admin.update-statement-person</t>
+  </si>
+  <si>
+    <t>auth-admin.create-statement-person</t>
+  </si>
+  <si>
+    <t>auth-admin.statement-person.add</t>
+  </si>
+  <si>
+    <t>auth-admin.statement-person.name</t>
+  </si>
+  <si>
+    <t>auth-admin.statement-persons</t>
+  </si>
+  <si>
+    <t>Myönnetty</t>
+  </si>
+  <si>
+    <t>Osittain myönnetty</t>
+  </si>
+  <si>
+    <t>Pysytti osittain myönnettynä (luvat)</t>
+  </si>
+  <si>
+    <t>Ehdollinen</t>
+  </si>
+  <si>
+    <t>Ei tutkittu (oik.vaatimus/lupa pysyy puollettuna)</t>
+  </si>
+  <si>
+    <t>Työhön liittyy ehto</t>
+  </si>
+  <si>
+    <t>Ilmoitus merkitty tiedoksi</t>
+  </si>
+  <si>
+    <t>Asiakirjat palautettu korjauskehotuksin</t>
+  </si>
+  <si>
+    <t>Lausunto/päätös (muu kuin rlk)</t>
+  </si>
+  <si>
+    <t>Ei tutkittu</t>
+  </si>
+  <si>
+    <t>Ei lausuntoa</t>
+  </si>
+  <si>
+    <t>Muutettu toimenpideluvaksi (konverssio)</t>
+  </si>
+  <si>
+    <t>Ei puollettu</t>
+  </si>
+  <si>
+    <t>Pysytti evättynä (luvat/vak/rak.v/rasite/mak/ym)</t>
+  </si>
+  <si>
+    <t>Muutti määräystä/päätöstä (määr/kats.p/loppuk)</t>
+  </si>
+  <si>
+    <t>Muutti evätyksi (luvat/vak/rak.v/rasite/mak/ym)</t>
+  </si>
+  <si>
+    <t>Valituks.luovuttu (oik.vaatimus/lupa pysyy evätt.)</t>
+  </si>
+  <si>
+    <t>Määräys peruutettu (määräys/kats.p/loppukats.p.)</t>
+  </si>
+  <si>
+    <t>Tehty hallintopakkopäätös (ei velvoitetta)</t>
+  </si>
+  <si>
+    <t>Ei tutkittu (oik.vaatimus/lupa pysyy evättynä)</t>
+  </si>
+  <si>
+    <t>Suunnitelmat tarkastettu</t>
+  </si>
+  <si>
+    <t>Tehty uhkasakkopäätös</t>
+  </si>
+  <si>
+    <t>Siirretty maaoikeudelle</t>
+  </si>
+  <si>
+    <t>Annettu lausunto (ent. selitys)</t>
+  </si>
+  <si>
+    <t>Puollettu</t>
+  </si>
+  <si>
+    <t>Pysytti myönnettynä (luvat/vak/rak.v/rasite/mak/ym)</t>
+  </si>
+  <si>
+    <t>Pysytti määräyksen/päätöksen (määr/kats.p/loppuk)</t>
+  </si>
+  <si>
+    <t>Muutti myönnetyksi (luvat/vak/rak.v/rasite/mak/ym)</t>
+  </si>
+  <si>
+    <t>Valituks.luovuttu (oik.vaatimus/lupa pysyy puoll.)</t>
+  </si>
+  <si>
+    <t>Annettu lausunto (rlk)</t>
+  </si>
+  <si>
+    <t>Pysytti määräyksen</t>
+  </si>
+  <si>
+    <t>Tehty hallintopakkopäätös (asetettu velvoite)</t>
   </si>
 </sst>
 </file>
@@ -15266,10 +15819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A547" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A593" sqref="A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -15279,9 +15832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1801</v>
-      </c>
+      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15307,3908 +15858,4709 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>2684</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>2697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>1377</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1308</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>1377</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>399</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>400</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>1804</v>
+        <v>392</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2720</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>4518</v>
+        <v>4644</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4519</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>1804</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>388</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>408</v>
+        <v>4518</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>409</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4520</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>420</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>397</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>4513</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>434</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>446</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4584</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>438</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>2804</v>
+        <v>412</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2803</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>2805</v>
+        <v>437</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>2798</v>
+        <v>2804</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4493</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>541</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>3167</v>
+        <v>2799</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>402</v>
+        <v>2800</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="172.2" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>4641</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>4642</v>
+        <v>3167</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>4516</v>
+        <v>402</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4517</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="172.2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>533</v>
+        <v>4641</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>4642</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>3169</v>
+        <v>4516</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3170</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>418</v>
+        <v>1802</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>358</v>
+        <v>2724</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>3177</v>
+        <v>3169</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>3178</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>3177</v>
+        <v>418</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3181</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>390</v>
+        <v>3177</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>391</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>410</v>
+        <v>3177</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>411</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>427</v>
+        <v>4776</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>428</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>3166</v>
+        <v>390</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>4494</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>3165</v>
+        <v>410</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>425</v>
+        <v>4795</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4651</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>431</v>
+        <v>4793</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>432</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>423</v>
+        <v>4791</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>424</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>2581</v>
+        <v>4789</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>386</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>406</v>
+        <v>4792</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>407</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>389</v>
+        <v>4794</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>4512</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>429</v>
+        <v>4790</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>430</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>4514</v>
+        <v>427</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>4515</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>3166</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>35</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>3165</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>2757</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>2</v>
+        <v>425</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>42</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>431</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>53</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>39</v>
+        <v>2581</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>3132</v>
+        <v>406</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>3133</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>3131</v>
+        <v>4796</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>42</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>3129</v>
+        <v>389</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>3130</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>3137</v>
+        <v>429</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>3138</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>3136</v>
+        <v>4755</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>5</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>3134</v>
+        <v>4754</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>3135</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>3148</v>
+        <v>4514</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>3149</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>3127</v>
+        <v>40</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>3128</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>17</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>1799</v>
+        <v>52</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>2767</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>3126</v>
+        <v>39</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>2625</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>1800</v>
+        <v>3132</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>2723</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>2764</v>
+        <v>3131</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>2765</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>3129</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>55</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>3137</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>49</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>2801</v>
+        <v>3136</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>2802</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>45</v>
+        <v>3134</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>46</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>56</v>
+        <v>3148</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>57</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>58</v>
+        <v>3127</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>59</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>2768</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1276</v>
+        <v>4</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1277</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>535</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>1806</v>
+        <v>50</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>2665</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>3126</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>2664</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>3145</v>
+        <v>1800</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>302</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>76</v>
+        <v>2764</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>77</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>74</v>
+        <v>2801</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>75</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>3139</v>
+        <v>41</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>3140</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>3141</v>
+        <v>1276</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>3142</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>3143</v>
+        <v>1805</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>3144</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>3146</v>
+        <v>1806</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>80</v>
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>2665</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>81</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>70</v>
+        <v>3145</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>2579</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B126" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B127" s="5" t="s">
         <v>2807</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B128" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>3564</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B129" s="5" t="s">
         <v>3565</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B132" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B133" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>3171</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B134" s="5" t="s">
         <v>3172</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>3173</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>3174</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B136" s="5" t="s">
         <v>3176</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B137" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B138" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B139" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B140" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>4537</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B142" s="5" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B143" s="5" t="s">
         <v>3182</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B144" s="5" t="s">
         <v>2777</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>1735</v>
+        <v>1768</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1736</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>1719</v>
+        <v>1765</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1720</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>1701</v>
+        <v>1763</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1702</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>1743</v>
+        <v>1651</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1744</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>1699</v>
+        <v>1654</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1700</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>1725</v>
+        <v>1652</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1726</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>1753</v>
+        <v>1656</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1754</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>1697</v>
+        <v>1737</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1698</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>1749</v>
+        <v>1717</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1750</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>1729</v>
+        <v>1751</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1730</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1732</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>1695</v>
+        <v>1719</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1696</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>1707</v>
+        <v>1743</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1708</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>1747</v>
+        <v>1699</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1748</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>1759</v>
+        <v>1725</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1760</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>1703</v>
+        <v>1753</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1704</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>1723</v>
+        <v>1741</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1724</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>1727</v>
+        <v>1757</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1728</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>1658</v>
+        <v>1749</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1659</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>1666</v>
+        <v>1729</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1667</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>1660</v>
+        <v>1731</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1661</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>1664</v>
+        <v>1711</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1665</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>1662</v>
+        <v>1715</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1663</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>1668</v>
+        <v>1739</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1669</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>1678</v>
+        <v>1695</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1679</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>1670</v>
+        <v>1705</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1671</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>1680</v>
+        <v>1707</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1681</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>1672</v>
+        <v>1747</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1673</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>1674</v>
+        <v>1759</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1675</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>1676</v>
+        <v>1703</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1677</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>1682</v>
+        <v>1713</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>449</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>1689</v>
+        <v>1723</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1690</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1694</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>1687</v>
+        <v>1658</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1688</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>1691</v>
+        <v>1666</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1692</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1684</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>301</v>
+        <v>1662</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>302</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>269</v>
+        <v>1668</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>270</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>279</v>
+        <v>1678</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>280</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>285</v>
+        <v>1670</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>286</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>288</v>
+        <v>1680</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>289</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>267</v>
+        <v>1672</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>268</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>294</v>
+        <v>1674</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>295</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>296</v>
+        <v>1676</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>297</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>298</v>
+        <v>1682</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>300</v>
+        <v>1689</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>111</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>290</v>
+        <v>1693</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>291</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>275</v>
+        <v>1687</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>276</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>281</v>
+        <v>1691</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>282</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>4632</v>
+        <v>1683</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>4625</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>4635</v>
+        <v>1685</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>4626</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>4634</v>
+        <v>301</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>4633</v>
+        <v>269</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>2625</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>273</v>
+        <v>4800</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>274</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B224" s="5" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>3179</v>
+        <v>265</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>3180</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>1282</v>
+        <v>4801</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1283</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>195</v>
+        <v>4802</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>1794</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>3549</v>
+        <v>4803</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>3550</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>4499</v>
+        <v>4799</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>4500</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>3161</v>
+        <v>277</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>3162</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>3159</v>
+        <v>2702</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>3160</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>556</v>
+        <v>271</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>543</v>
+        <v>283</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>375</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>542</v>
+        <v>173</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>548</v>
+        <v>305</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
-        <v>545</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
+        <v>2678</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>356</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>547</v>
+        <v>197</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>372</v>
+        <v>198</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>554</v>
+        <v>381</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>555</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>546</v>
+        <v>481</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>370</v>
+        <v>482</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>550</v>
+        <v>1304</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>551</v>
+        <v>541</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>552</v>
+        <v>1280</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>553</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>314</v>
+        <v>1001</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>315</v>
+        <v>1002</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>209</v>
+        <v>1778</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>1797</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>1375</v>
+        <v>3179</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1376</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>13</v>
+        <v>1282</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>262</v>
+        <v>196</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>3576</v>
+        <v>3549</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>3577</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>3569</v>
+        <v>4499</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>3570</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>3572</v>
+        <v>3161</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>3573</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>3574</v>
+        <v>3159</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>3575</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>229</v>
+        <v>556</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>223</v>
+        <v>543</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>224</v>
+        <v>375</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>248</v>
+        <v>542</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>4506</v>
+        <v>548</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>4505</v>
+        <v>549</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B277" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
         <v>4502</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B278" s="5" t="s">
         <v>4503</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
         <v>4501</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B279" s="5" t="s">
         <v>4504</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B280" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B281" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B282" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B283" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B284" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B285" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B286" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B287" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B288" s="5" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>4535</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="1" t="s">
-        <v>4528</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>4532</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="1" t="s">
-        <v>4530</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>4531</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
-        <v>4529</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>4533</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>2721</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>2577</v>
+        <v>235</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>2578</v>
+        <v>236</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>21</v>
+        <v>4797</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>22</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>18</v>
+        <v>4535</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>2719</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>4511</v>
+        <v>255</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>23</v>
+        <v>4756</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>1307</v>
+        <v>239</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1308</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>213</v>
+        <v>4528</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>214</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>4496</v>
+        <v>4530</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1306</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>483</v>
+        <v>4529</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>5</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>3552</v>
+        <v>2789</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>4582</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>3568</v>
+        <v>193</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>3571</v>
+        <v>194</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>3566</v>
+        <v>199</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="9" t="s">
-        <v>2662</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="9" t="s">
-        <v>2673</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="9" t="s">
-        <v>2682</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="9" t="s">
-        <v>2690</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>1792</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="9" t="s">
-        <v>2672</v>
+        <v>1793</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>1771</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="9" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="9" t="s">
-        <v>2689</v>
+        <v>1772</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="9" t="s">
-        <v>2671</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="9" t="s">
-        <v>2669</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" s="1" t="s">
+        <v>2577</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>2670</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>4538</v>
+        <v>18</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>4539</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="9" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="9" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="9" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="9" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="9" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="9" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="9" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="9" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="9" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="B341" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C318" s="5" t="s">
+      <c r="C341" s="5" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="9" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="9" t="s">
         <v>2680</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="B342" s="5" t="s">
         <v>2769</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="9" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="9" t="s">
         <v>2688</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B343" s="5" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="9" t="s">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="9" t="s">
         <v>2674</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B344" s="5" t="s">
         <v>2704</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="9" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="9" t="s">
         <v>2679</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="B345" s="5" t="s">
         <v>2696</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
         <v>4623</v>
       </c>
-      <c r="B323" s="5" t="s">
+      <c r="B346" s="5" t="s">
         <v>4624</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" s="1" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="B347" s="5" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" s="1" t="s">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="1" t="s">
         <v>3556</v>
       </c>
-      <c r="B325" s="5" t="s">
+      <c r="B348" s="5" t="s">
         <v>3557</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" s="1" t="s">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="B349" s="5" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="B350" s="5" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" s="1" t="s">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
         <v>3553</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="B351" s="5" t="s">
         <v>3554</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="9" t="s">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="9" t="s">
         <v>2681</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="B352" s="5" t="s">
         <v>2698</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="9" t="s">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="9" t="s">
         <v>2686</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="B353" s="5" t="s">
         <v>2717</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="9" t="s">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="9" t="s">
         <v>2683</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="B354" s="5" t="s">
         <v>2699</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="1" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="1" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>349</v>
+        <v>1314</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>350</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>358</v>
+        <v>1311</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>367</v>
+        <v>1311</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>368</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>2806</v>
+        <v>1312</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>2659</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>2759</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>2760</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>2762</v>
+        <v>1316</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>1786</v>
+        <v>1322</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
-        <v>559</v>
+        <v>1326</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>560</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>263</v>
+        <v>1324</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>264</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>3551</v>
+        <v>1320</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>393</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>3547</v>
+        <v>1318</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>3548</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>530</v>
+        <v>1309</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="9" t="s">
-        <v>2676</v>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" s="1" t="s">
+        <v>3163</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>2718</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>999</v>
+        <v>557</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1000</v>
+        <v>558</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>561</v>
+        <v>363</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>1773</v>
+        <v>2580</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>42</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
-        <v>3558</v>
+        <v>371</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>3559</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
-        <v>1808</v>
+        <v>355</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>4585</v>
+        <v>356</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>2766</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>2761</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>2763</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="9" t="s">
-        <v>2691</v>
+        <v>353</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="9" t="s">
-        <v>2685</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="9" t="s">
-        <v>2663</v>
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>2661</v>
+        <v>362</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
-        <v>36</v>
+        <v>369</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>37</v>
+        <v>370</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
-        <v>3560</v>
+        <v>359</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>3561</v>
+        <v>360</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
-        <v>3562</v>
+        <v>349</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>3563</v>
+        <v>350</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
-        <v>2787</v>
+        <v>357</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>2788</v>
+        <v>358</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
-        <v>2795</v>
+        <v>367</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>2794</v>
+        <v>368</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
-        <v>2796</v>
+        <v>2806</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>2797</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
-        <v>2783</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>2784</v>
+        <v>2759</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>2762</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
-        <v>4507</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>4508</v>
+        <v>14</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="9" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="9" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="9" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="9" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="1" t="s">
         <v>4509</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="B407" s="5" t="s">
         <v>4534</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A385" s="1" t="s">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="B408" s="5" t="s">
         <v>2786</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A386" s="1" t="s">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="B409" s="5" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A387" s="1" t="s">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="1" t="s">
         <v>4524</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="B410" s="5" t="s">
         <v>4521</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A388" s="1" t="s">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="1" t="s">
         <v>4525</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="B411" s="5" t="s">
         <v>4522</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A389" s="1" t="s">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="1" t="s">
         <v>4526</v>
       </c>
-      <c r="B389" s="5" t="s">
+      <c r="B412" s="5" t="s">
         <v>4523</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" s="1" t="s">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="B413" s="5" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A391" s="1" t="s">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="B414" s="5" t="s">
         <v>4527</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A392" s="1" t="s">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="B415" s="5" t="s">
         <v>2792</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A393" s="1" t="s">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B416" s="5" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A394" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A395" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A396" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B396" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A398" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B398" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A399" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B399" s="5" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A400" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A404" s="1" t="s">
-        <v>4542</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A405" s="1" t="s">
-        <v>4549</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>4573</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A406" s="1" t="s">
-        <v>4543</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>4568</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A407" s="1" t="s">
-        <v>4547</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>4583</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A408" s="1" t="s">
-        <v>4548</v>
-      </c>
-      <c r="B408" s="5" t="s">
-        <v>4572</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A409" s="1" t="s">
-        <v>4541</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>4567</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A410" s="1" t="s">
-        <v>4544</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A411" s="1" t="s">
-        <v>4545</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A412" s="1" t="s">
-        <v>4546</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>4571</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A413" s="1" t="s">
-        <v>4540</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>4566</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A414" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A415" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A416" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>3154</v>
+        <v>540</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>7</v>
+        <v>541</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>3154</v>
+        <v>536</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>7</v>
+        <v>537</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>3158</v>
+        <v>538</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>3158</v>
+        <v>539</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>541</v>
+        <v>176</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>3150</v>
+        <v>534</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>3151</v>
+        <v>535</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>4637</v>
+        <v>376</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>4628</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>4636</v>
+        <v>377</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>4627</v>
+        <v>378</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>3156</v>
+        <v>374</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>3157</v>
+        <v>375</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>3156</v>
+        <v>373</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>3157</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>3155</v>
+        <v>187</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
-        <v>3155</v>
+        <v>4542</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>4638</v>
+        <v>4549</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>4629</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>3152</v>
+        <v>4543</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>3153</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>4639</v>
+        <v>4547</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>4630</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>303</v>
+        <v>4548</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>304</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A436" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A438" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A439" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A440" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A444" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A445" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A446" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A447" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A448" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="1" t="s">
         <v>4640</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="B455" s="5" t="s">
         <v>4631</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A433" s="1" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="B456" s="5" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A434" s="1" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="1" t="s">
         <v>4556</v>
       </c>
-      <c r="B434" s="5" t="s">
+      <c r="B457" s="5" t="s">
         <v>4577</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A435" s="1" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="1" t="s">
         <v>4551</v>
       </c>
-      <c r="B435" s="5" t="s">
+      <c r="B458" s="5" t="s">
         <v>4574</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A436" s="1" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="1" t="s">
         <v>4565</v>
       </c>
-      <c r="B436" s="5" t="s">
+      <c r="B459" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A437" s="1" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="1" t="s">
         <v>4552</v>
       </c>
-      <c r="B437" s="5" t="s">
+      <c r="B460" s="5" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A438" s="1" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="1" t="s">
         <v>4553</v>
       </c>
-      <c r="B438" s="5" t="s">
+      <c r="B461" s="5" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A439" s="1" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="1" t="s">
         <v>4557</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="B462" s="5" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A440" s="1" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="1" t="s">
         <v>4558</v>
       </c>
-      <c r="B440" s="5" t="s">
+      <c r="B463" s="5" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A441" s="1" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="1" t="s">
         <v>4559</v>
       </c>
-      <c r="B441" s="5" t="s">
+      <c r="B464" s="5" t="s">
         <v>4578</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A442" s="1" t="s">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="1" t="s">
         <v>4564</v>
       </c>
-      <c r="B442" s="5" t="s">
+      <c r="B465" s="5" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A443" s="1" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="1" t="s">
         <v>4563</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B466" s="5" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A444" s="1" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="1" t="s">
         <v>4561</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="B467" s="5" t="s">
         <v>4580</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A445" s="1" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="1" t="s">
         <v>4562</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="B468" s="5" t="s">
         <v>4581</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A446" s="1" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="1" t="s">
         <v>4560</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="B469" s="5" t="s">
         <v>4579</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A447" s="1" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="1" t="s">
         <v>4554</v>
       </c>
-      <c r="B447" s="5" t="s">
+      <c r="B470" s="5" t="s">
         <v>4575</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A448" s="1" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="1" t="s">
         <v>4555</v>
       </c>
-      <c r="B448" s="5" t="s">
+      <c r="B471" s="5" t="s">
         <v>4576</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A449" s="1" t="s">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="1" t="s">
         <v>4550</v>
       </c>
-      <c r="B449" s="5" t="s">
+      <c r="B472" s="5" t="s">
         <v>4566</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A450" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B450" s="5" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="9" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B451" s="5" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A452" s="7" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B452" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C452" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A453" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B453" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C453" s="5" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A454" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B454" s="5" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A455" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B455" s="5" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A456" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B456" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A457" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B457" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A458" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B458" s="5" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A459" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B459" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A460" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B460" s="5" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A461" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B461" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A462" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B462" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A463" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B463" s="5" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A464" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B464" s="5" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A465" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B465" s="5" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A466" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B466" s="5" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A467" s="1" t="s">
-        <v>4497</v>
-      </c>
-      <c r="B467" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A468" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B468" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A469" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B469" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A470" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B470" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A471" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B471" s="5" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A472" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B472" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
-        <v>1774</v>
+        <v>4772</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="9" t="s">
-        <v>2667</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="1" t="s">
+        <v>4761</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="9" t="s">
-        <v>2668</v>
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="1" t="s">
+        <v>4760</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
-        <v>177</v>
+        <v>4763</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>189</v>
+        <v>4762</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
-        <v>528</v>
+        <v>4767</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
-        <v>207</v>
+        <v>4764</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
-        <v>4644</v>
+        <v>4766</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>4645</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
-        <v>4650</v>
+        <v>4773</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>4645</v>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="1" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="1" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="1" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="1" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="1" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="1" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="1" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="1" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="1" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="1" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="1" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="1" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A497" s="1" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A498" s="1" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A499" s="1" t="s">
+        <v>4783</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A500" s="1" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A501" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="9" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A503" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A504" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A505" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A506" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A507" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A508" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A509" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A510" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A511" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A512" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="1" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="9" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="9" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="1" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="1" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="1" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="1" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="1" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="1" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="1" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="1" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="1" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="1" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="1" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>4829</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="1" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="1" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="1" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="1" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="1" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="1" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="1" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="1" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="1" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B561" s="5" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="1" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="1" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="1" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="1" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="1" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="1" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="1" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="1" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="1" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="1" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="1" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="1" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A577" s="1" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A578" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A579" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A580" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A581" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C479">
-    <sortCondition ref="A2:A479"/>
+  <autoFilter ref="A1:A581"/>
+  <sortState ref="A2:C581">
+    <sortCondition ref="A2:A581"/>
   </sortState>
-  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A285 A287:A326 A1309:A1048576">
+  <conditionalFormatting sqref="A61:A135 A2:A59 A137:A285 A287:A326 A1305:A1048576">
     <cfRule type="expression" dxfId="50" priority="14">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", $C2 &lt;&gt; "" ) )</formula>
     </cfRule>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="40960" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="40960" windowHeight="16200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7819" uniqueCount="4858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7821" uniqueCount="4860">
   <si>
     <t>fi</t>
   </si>
@@ -14631,6 +14631,12 @@
   </si>
   <si>
     <t>Halutessasi voit liittää päätökseen tiedostoja, kuten kuvia, piirroksia ja dokumentteja</t>
+  </si>
+  <si>
+    <t>rakennuspaikka.kiinteisto.rekisterointipvm</t>
+  </si>
+  <si>
+    <t>Rekisteröintipäivä</t>
   </si>
 </sst>
 </file>
@@ -14902,137 +14908,137 @@
     </xf>
   </cellXfs>
   <cellStyles count="131">
-    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlinkki" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
     <dxf>
@@ -15556,7 +15562,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15564,7 +15570,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15891,7 +15897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
@@ -15901,7 +15907,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -16265,7 +16271,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="174">
+    <row r="46" spans="1:3" ht="151">
       <c r="A46" s="1" t="s">
         <v>4641</v>
       </c>
@@ -20780,7 +20786,7 @@
     <col min="3" max="3" width="30.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1801</v>
       </c>
@@ -24339,10 +24345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1627"/>
+  <dimension ref="A1:C1628"/>
   <sheetViews>
-    <sheetView topLeftCell="A1278" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1305" sqref="B1305"/>
+    <sheetView tabSelected="1" topLeftCell="A1225" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B1251" sqref="B1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -24351,7 +24357,7 @@
     <col min="2" max="3" width="50.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1801</v>
       </c>
@@ -24674,7 +24680,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>2888</v>
       </c>
@@ -26803,7 +26809,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15">
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
         <v>749</v>
       </c>
@@ -26819,7 +26825,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>785</v>
       </c>
@@ -26843,7 +26849,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>691</v>
       </c>
@@ -26907,7 +26913,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15">
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
         <v>760</v>
       </c>
@@ -27003,7 +27009,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15">
+    <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
         <v>791</v>
       </c>
@@ -27059,7 +27065,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15">
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>809</v>
       </c>
@@ -27091,7 +27097,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15">
+    <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
         <v>758</v>
       </c>
@@ -27099,7 +27105,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15">
+    <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
         <v>803</v>
       </c>
@@ -27147,7 +27153,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15">
+    <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
         <v>698</v>
       </c>
@@ -27179,7 +27185,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15">
+    <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
         <v>665</v>
       </c>
@@ -27267,7 +27273,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15">
+    <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
         <v>779</v>
       </c>
@@ -27291,7 +27297,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15">
+    <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
         <v>684</v>
       </c>
@@ -27299,7 +27305,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15">
+    <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
         <v>735</v>
       </c>
@@ -27323,7 +27329,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15">
+    <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
         <v>685</v>
       </c>
@@ -27443,7 +27449,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="15">
+    <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
         <v>3121</v>
       </c>
@@ -27491,7 +27497,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15">
+    <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
         <v>952</v>
       </c>
@@ -27499,7 +27505,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="15">
+    <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
         <v>949</v>
       </c>
@@ -27523,7 +27529,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15">
+    <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
         <v>948</v>
       </c>
@@ -27547,7 +27553,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15">
+    <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
         <v>947</v>
       </c>
@@ -27555,7 +27561,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15">
+    <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
         <v>943</v>
       </c>
@@ -27603,7 +27609,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15">
+    <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
         <v>583</v>
       </c>
@@ -27611,7 +27617,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15">
+    <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
         <v>578</v>
       </c>
@@ -27627,7 +27633,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15">
+    <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
         <v>576</v>
       </c>
@@ -27651,7 +27657,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="15">
+    <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
         <v>574</v>
       </c>
@@ -27659,7 +27665,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15">
+    <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
         <v>567</v>
       </c>
@@ -27803,7 +27809,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15">
+    <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
         <v>2992</v>
       </c>
@@ -27811,7 +27817,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15">
+    <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
         <v>2990</v>
       </c>
@@ -27819,7 +27825,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15">
+    <row r="430" spans="1:2">
       <c r="A430" s="1" t="s">
         <v>2991</v>
       </c>
@@ -27891,7 +27897,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15">
+    <row r="439" spans="1:2">
       <c r="A439" s="1" t="s">
         <v>2988</v>
       </c>
@@ -27899,7 +27905,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="15">
+    <row r="440" spans="1:2">
       <c r="A440" s="1" t="s">
         <v>2987</v>
       </c>
@@ -27963,7 +27969,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15">
+    <row r="448" spans="1:2">
       <c r="A448" s="1" t="s">
         <v>879</v>
       </c>
@@ -27971,7 +27977,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15">
+    <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
         <v>876</v>
       </c>
@@ -27979,7 +27985,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15">
+    <row r="450" spans="1:2">
       <c r="A450" s="1" t="s">
         <v>878</v>
       </c>
@@ -28107,7 +28113,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15">
+    <row r="466" spans="1:2">
       <c r="A466" s="1" t="s">
         <v>589</v>
       </c>
@@ -28123,7 +28129,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15">
+    <row r="468" spans="1:2">
       <c r="A468" s="1" t="s">
         <v>593</v>
       </c>
@@ -28267,7 +28273,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15">
+    <row r="486" spans="1:2">
       <c r="A486" s="1" t="s">
         <v>3118</v>
       </c>
@@ -28507,7 +28513,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="15">
+    <row r="516" spans="1:2">
       <c r="A516" s="1" t="s">
         <v>2962</v>
       </c>
@@ -28531,7 +28537,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="15">
+    <row r="519" spans="1:2">
       <c r="A519" s="1" t="s">
         <v>2960</v>
       </c>
@@ -28555,7 +28561,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15">
+    <row r="522" spans="1:2">
       <c r="A522" s="1" t="s">
         <v>2971</v>
       </c>
@@ -28571,7 +28577,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15">
+    <row r="524" spans="1:2">
       <c r="A524" s="1" t="s">
         <v>2964</v>
       </c>
@@ -28587,7 +28593,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15">
+    <row r="526" spans="1:2">
       <c r="A526" s="1" t="s">
         <v>2959</v>
       </c>
@@ -28595,7 +28601,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15">
+    <row r="527" spans="1:2">
       <c r="A527" s="1" t="s">
         <v>2963</v>
       </c>
@@ -29394,7 +29400,7 @@
       </c>
       <c r="C620" s="5"/>
     </row>
-    <row r="621" spans="1:3" ht="15">
+    <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
         <v>3234</v>
       </c>
@@ -29412,7 +29418,7 @@
       </c>
       <c r="C622" s="5"/>
     </row>
-    <row r="623" spans="1:3" ht="15">
+    <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
         <v>3236</v>
       </c>
@@ -29439,7 +29445,7 @@
       </c>
       <c r="C625" s="5"/>
     </row>
-    <row r="626" spans="1:3" ht="15">
+    <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
         <v>3239</v>
       </c>
@@ -29511,7 +29517,7 @@
       </c>
       <c r="C633" s="5"/>
     </row>
-    <row r="634" spans="1:3" ht="15">
+    <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
         <v>3247</v>
       </c>
@@ -29619,7 +29625,7 @@
       </c>
       <c r="C645" s="5"/>
     </row>
-    <row r="646" spans="1:3" ht="15">
+    <row r="646" spans="1:3">
       <c r="A646" s="1" t="s">
         <v>3259</v>
       </c>
@@ -29682,7 +29688,7 @@
       </c>
       <c r="C652" s="5"/>
     </row>
-    <row r="653" spans="1:3" ht="15">
+    <row r="653" spans="1:3">
       <c r="A653" s="1" t="s">
         <v>3266</v>
       </c>
@@ -29718,7 +29724,7 @@
       </c>
       <c r="C656" s="5"/>
     </row>
-    <row r="657" spans="1:3" ht="15">
+    <row r="657" spans="1:3">
       <c r="A657" s="1" t="s">
         <v>3270</v>
       </c>
@@ -29727,7 +29733,7 @@
       </c>
       <c r="C657" s="5"/>
     </row>
-    <row r="658" spans="1:3" ht="15">
+    <row r="658" spans="1:3">
       <c r="A658" s="1" t="s">
         <v>3271</v>
       </c>
@@ -29781,7 +29787,7 @@
       </c>
       <c r="C663" s="5"/>
     </row>
-    <row r="664" spans="1:3" ht="15">
+    <row r="664" spans="1:3">
       <c r="A664" s="1" t="s">
         <v>3277</v>
       </c>
@@ -29817,7 +29823,7 @@
       </c>
       <c r="C667" s="5"/>
     </row>
-    <row r="668" spans="1:3" ht="15">
+    <row r="668" spans="1:3">
       <c r="A668" s="1" t="s">
         <v>3281</v>
       </c>
@@ -29916,7 +29922,7 @@
       </c>
       <c r="C678" s="5"/>
     </row>
-    <row r="679" spans="1:3" ht="15">
+    <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
         <v>3292</v>
       </c>
@@ -29943,7 +29949,7 @@
       </c>
       <c r="C681" s="5"/>
     </row>
-    <row r="682" spans="1:3" ht="15">
+    <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
         <v>3295</v>
       </c>
@@ -29952,7 +29958,7 @@
       </c>
       <c r="C682" s="5"/>
     </row>
-    <row r="683" spans="1:3" ht="15">
+    <row r="683" spans="1:3">
       <c r="A683" s="1" t="s">
         <v>3296</v>
       </c>
@@ -29979,7 +29985,7 @@
       </c>
       <c r="C685" s="5"/>
     </row>
-    <row r="686" spans="1:3" ht="15">
+    <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
         <v>3299</v>
       </c>
@@ -30275,7 +30281,7 @@
       </c>
       <c r="C720" s="5"/>
     </row>
-    <row r="721" spans="1:3" ht="15">
+    <row r="721" spans="1:3">
       <c r="A721" s="1" t="s">
         <v>3314</v>
       </c>
@@ -30328,7 +30334,7 @@
       </c>
       <c r="C726" s="5"/>
     </row>
-    <row r="727" spans="1:3" ht="15">
+    <row r="727" spans="1:3">
       <c r="A727" s="1" t="s">
         <v>3320</v>
       </c>
@@ -30337,7 +30343,7 @@
       </c>
       <c r="C727" s="5"/>
     </row>
-    <row r="728" spans="1:3" ht="15">
+    <row r="728" spans="1:3">
       <c r="A728" s="1" t="s">
         <v>3321</v>
       </c>
@@ -30363,7 +30369,7 @@
       </c>
       <c r="C730" s="5"/>
     </row>
-    <row r="731" spans="1:3" ht="15">
+    <row r="731" spans="1:3">
       <c r="A731" s="1" t="s">
         <v>3324</v>
       </c>
@@ -30390,7 +30396,7 @@
       </c>
       <c r="C733" s="5"/>
     </row>
-    <row r="734" spans="1:3" ht="15">
+    <row r="734" spans="1:3">
       <c r="A734" s="1" t="s">
         <v>3327</v>
       </c>
@@ -30399,7 +30405,7 @@
       </c>
       <c r="C734" s="5"/>
     </row>
-    <row r="735" spans="1:3" ht="15">
+    <row r="735" spans="1:3">
       <c r="A735" s="1" t="s">
         <v>3328</v>
       </c>
@@ -30452,7 +30458,7 @@
       </c>
       <c r="C740" s="5"/>
     </row>
-    <row r="741" spans="1:3" ht="15">
+    <row r="741" spans="1:3">
       <c r="A741" s="1" t="s">
         <v>3334</v>
       </c>
@@ -30461,7 +30467,7 @@
       </c>
       <c r="C741" s="5"/>
     </row>
-    <row r="742" spans="1:3" ht="15">
+    <row r="742" spans="1:3">
       <c r="A742" s="1" t="s">
         <v>3335</v>
       </c>
@@ -30479,7 +30485,7 @@
       </c>
       <c r="C743" s="5"/>
     </row>
-    <row r="744" spans="1:3" ht="15">
+    <row r="744" spans="1:3">
       <c r="A744" s="1" t="s">
         <v>3337</v>
       </c>
@@ -30506,7 +30512,7 @@
       </c>
       <c r="C746" s="5"/>
     </row>
-    <row r="747" spans="1:3" ht="15">
+    <row r="747" spans="1:3">
       <c r="A747" s="1" t="s">
         <v>3340</v>
       </c>
@@ -30515,7 +30521,7 @@
       </c>
       <c r="C747" s="5"/>
     </row>
-    <row r="748" spans="1:3" ht="15">
+    <row r="748" spans="1:3">
       <c r="A748" s="1" t="s">
         <v>3341</v>
       </c>
@@ -30664,7 +30670,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="15">
+    <row r="766" spans="1:3">
       <c r="A766" s="1" t="s">
         <v>3359</v>
       </c>
@@ -30672,7 +30678,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="15">
+    <row r="767" spans="1:3">
       <c r="A767" s="1" t="s">
         <v>3360</v>
       </c>
@@ -30680,7 +30686,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="15">
+    <row r="768" spans="1:3">
       <c r="A768" s="1" t="s">
         <v>3361</v>
       </c>
@@ -30752,7 +30758,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="15">
+    <row r="777" spans="1:3">
       <c r="A777" s="1" t="s">
         <v>3370</v>
       </c>
@@ -30760,7 +30766,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="15">
+    <row r="778" spans="1:3">
       <c r="A778" s="1" t="s">
         <v>3371</v>
       </c>
@@ -30831,7 +30837,7 @@
       </c>
       <c r="C785" s="5"/>
     </row>
-    <row r="786" spans="1:3" ht="15">
+    <row r="786" spans="1:3">
       <c r="A786" s="1" t="s">
         <v>3379</v>
       </c>
@@ -30840,7 +30846,7 @@
       </c>
       <c r="C786" s="5"/>
     </row>
-    <row r="787" spans="1:3" ht="15">
+    <row r="787" spans="1:3">
       <c r="A787" s="1" t="s">
         <v>3380</v>
       </c>
@@ -30849,7 +30855,7 @@
       </c>
       <c r="C787" s="5"/>
     </row>
-    <row r="788" spans="1:3" ht="15">
+    <row r="788" spans="1:3">
       <c r="A788" s="1" t="s">
         <v>3381</v>
       </c>
@@ -30993,7 +30999,7 @@
       </c>
       <c r="C803" s="5"/>
     </row>
-    <row r="804" spans="1:3" ht="15">
+    <row r="804" spans="1:3">
       <c r="A804" s="1" t="s">
         <v>3397</v>
       </c>
@@ -31011,7 +31017,7 @@
       </c>
       <c r="C805" s="5"/>
     </row>
-    <row r="806" spans="1:3" ht="15">
+    <row r="806" spans="1:3">
       <c r="A806" s="1" t="s">
         <v>3399</v>
       </c>
@@ -31173,7 +31179,7 @@
       </c>
       <c r="C823" s="5"/>
     </row>
-    <row r="824" spans="1:3" ht="15">
+    <row r="824" spans="1:3">
       <c r="A824" s="1" t="s">
         <v>3417</v>
       </c>
@@ -31435,7 +31441,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="15">
+    <row r="854" spans="1:3">
       <c r="A854" s="1" t="s">
         <v>3447</v>
       </c>
@@ -31459,7 +31465,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="15">
+    <row r="857" spans="1:3">
       <c r="A857" s="1" t="s">
         <v>3450</v>
       </c>
@@ -31483,7 +31489,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="15">
+    <row r="860" spans="1:3">
       <c r="A860" s="1" t="s">
         <v>3453</v>
       </c>
@@ -31499,7 +31505,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="15">
+    <row r="862" spans="1:3">
       <c r="A862" s="1" t="s">
         <v>3455</v>
       </c>
@@ -31515,7 +31521,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="15">
+    <row r="864" spans="1:3">
       <c r="A864" s="1" t="s">
         <v>3457</v>
       </c>
@@ -31523,7 +31529,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="15">
+    <row r="865" spans="1:3">
       <c r="A865" s="1" t="s">
         <v>3458</v>
       </c>
@@ -32386,7 +32392,7 @@
       </c>
       <c r="C960" s="5"/>
     </row>
-    <row r="961" spans="1:3" ht="15">
+    <row r="961" spans="1:3">
       <c r="A961" s="1" t="s">
         <v>1119</v>
       </c>
@@ -32404,7 +32410,7 @@
       </c>
       <c r="C962" s="5"/>
     </row>
-    <row r="963" spans="1:3" ht="15">
+    <row r="963" spans="1:3">
       <c r="A963" s="1" t="s">
         <v>1138</v>
       </c>
@@ -32431,7 +32437,7 @@
       </c>
       <c r="C965" s="5"/>
     </row>
-    <row r="966" spans="1:3" ht="15">
+    <row r="966" spans="1:3">
       <c r="A966" s="1" t="s">
         <v>1089</v>
       </c>
@@ -32503,7 +32509,7 @@
       </c>
       <c r="C973" s="5"/>
     </row>
-    <row r="974" spans="1:3" ht="15">
+    <row r="974" spans="1:3">
       <c r="A974" s="1" t="s">
         <v>1125</v>
       </c>
@@ -32611,7 +32617,7 @@
       </c>
       <c r="C985" s="5"/>
     </row>
-    <row r="986" spans="1:3" ht="15">
+    <row r="986" spans="1:3">
       <c r="A986" s="1" t="s">
         <v>1141</v>
       </c>
@@ -32674,7 +32680,7 @@
       </c>
       <c r="C992" s="5"/>
     </row>
-    <row r="993" spans="1:3" ht="15">
+    <row r="993" spans="1:3">
       <c r="A993" s="1" t="s">
         <v>1150</v>
       </c>
@@ -32710,7 +32716,7 @@
       </c>
       <c r="C996" s="5"/>
     </row>
-    <row r="997" spans="1:3" ht="15">
+    <row r="997" spans="1:3">
       <c r="A997" s="1" t="s">
         <v>1124</v>
       </c>
@@ -32719,7 +32725,7 @@
       </c>
       <c r="C997" s="5"/>
     </row>
-    <row r="998" spans="1:3" ht="15">
+    <row r="998" spans="1:3">
       <c r="A998" s="1" t="s">
         <v>1147</v>
       </c>
@@ -32773,7 +32779,7 @@
       </c>
       <c r="C1003" s="5"/>
     </row>
-    <row r="1004" spans="1:3" ht="15">
+    <row r="1004" spans="1:3">
       <c r="A1004" s="1" t="s">
         <v>1093</v>
       </c>
@@ -32809,7 +32815,7 @@
       </c>
       <c r="C1007" s="5"/>
     </row>
-    <row r="1008" spans="1:3" ht="15">
+    <row r="1008" spans="1:3">
       <c r="A1008" s="1" t="s">
         <v>1075</v>
       </c>
@@ -32908,7 +32914,7 @@
       </c>
       <c r="C1018" s="5"/>
     </row>
-    <row r="1019" spans="1:3" ht="15">
+    <row r="1019" spans="1:3">
       <c r="A1019" s="1" t="s">
         <v>1135</v>
       </c>
@@ -32935,7 +32941,7 @@
       </c>
       <c r="C1021" s="5"/>
     </row>
-    <row r="1022" spans="1:3" ht="15">
+    <row r="1022" spans="1:3">
       <c r="A1022" s="1" t="s">
         <v>1085</v>
       </c>
@@ -32944,7 +32950,7 @@
       </c>
       <c r="C1022" s="5"/>
     </row>
-    <row r="1023" spans="1:3" ht="15">
+    <row r="1023" spans="1:3">
       <c r="A1023" s="1" t="s">
         <v>1112</v>
       </c>
@@ -32971,7 +32977,7 @@
       </c>
       <c r="C1025" s="5"/>
     </row>
-    <row r="1026" spans="1:3" ht="15">
+    <row r="1026" spans="1:3">
       <c r="A1026" s="1" t="s">
         <v>1086</v>
       </c>
@@ -33106,7 +33112,7 @@
       </c>
       <c r="C1040" s="5"/>
     </row>
-    <row r="1041" spans="1:3" ht="15">
+    <row r="1041" spans="1:3">
       <c r="A1041" s="1" t="s">
         <v>3117</v>
       </c>
@@ -33159,7 +33165,7 @@
       </c>
       <c r="C1046" s="5"/>
     </row>
-    <row r="1047" spans="1:3" ht="15">
+    <row r="1047" spans="1:3">
       <c r="A1047" s="1" t="s">
         <v>1247</v>
       </c>
@@ -33168,7 +33174,7 @@
       </c>
       <c r="C1047" s="5"/>
     </row>
-    <row r="1048" spans="1:3" ht="15">
+    <row r="1048" spans="1:3">
       <c r="A1048" s="1" t="s">
         <v>1244</v>
       </c>
@@ -33194,7 +33200,7 @@
       </c>
       <c r="C1050" s="5"/>
     </row>
-    <row r="1051" spans="1:3" ht="15">
+    <row r="1051" spans="1:3">
       <c r="A1051" s="1" t="s">
         <v>1243</v>
       </c>
@@ -33221,7 +33227,7 @@
       </c>
       <c r="C1053" s="5"/>
     </row>
-    <row r="1054" spans="1:3" ht="15">
+    <row r="1054" spans="1:3">
       <c r="A1054" s="1" t="s">
         <v>1242</v>
       </c>
@@ -33230,7 +33236,7 @@
       </c>
       <c r="C1054" s="5"/>
     </row>
-    <row r="1055" spans="1:3" ht="15">
+    <row r="1055" spans="1:3">
       <c r="A1055" s="1" t="s">
         <v>1238</v>
       </c>
@@ -33283,7 +33289,7 @@
       </c>
       <c r="C1060" s="5"/>
     </row>
-    <row r="1061" spans="1:3" ht="15">
+    <row r="1061" spans="1:3">
       <c r="A1061" s="1" t="s">
         <v>1014</v>
       </c>
@@ -33292,7 +33298,7 @@
       </c>
       <c r="C1061" s="5"/>
     </row>
-    <row r="1062" spans="1:3" ht="15">
+    <row r="1062" spans="1:3">
       <c r="A1062" s="1" t="s">
         <v>1011</v>
       </c>
@@ -33310,7 +33316,7 @@
       </c>
       <c r="C1063" s="5"/>
     </row>
-    <row r="1064" spans="1:3" ht="15">
+    <row r="1064" spans="1:3">
       <c r="A1064" s="1" t="s">
         <v>1010</v>
       </c>
@@ -33337,7 +33343,7 @@
       </c>
       <c r="C1066" s="5"/>
     </row>
-    <row r="1067" spans="1:3" ht="15">
+    <row r="1067" spans="1:3">
       <c r="A1067" s="1" t="s">
         <v>1009</v>
       </c>
@@ -33346,7 +33352,7 @@
       </c>
       <c r="C1067" s="5"/>
     </row>
-    <row r="1068" spans="1:3" ht="15">
+    <row r="1068" spans="1:3">
       <c r="A1068" s="1" t="s">
         <v>1005</v>
       </c>
@@ -33495,7 +33501,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="1086" spans="1:3" ht="15">
+    <row r="1086" spans="1:3">
       <c r="A1086" s="1" t="s">
         <v>2949</v>
       </c>
@@ -33503,7 +33509,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="1087" spans="1:3" ht="15">
+    <row r="1087" spans="1:3">
       <c r="A1087" s="1" t="s">
         <v>2947</v>
       </c>
@@ -33511,7 +33517,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="1088" spans="1:3" ht="15">
+    <row r="1088" spans="1:3">
       <c r="A1088" s="1" t="s">
         <v>2948</v>
       </c>
@@ -33583,7 +33589,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="1097" spans="1:3" ht="15">
+    <row r="1097" spans="1:3">
       <c r="A1097" s="1" t="s">
         <v>2945</v>
       </c>
@@ -33591,7 +33597,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="1098" spans="1:3" ht="15">
+    <row r="1098" spans="1:3">
       <c r="A1098" s="1" t="s">
         <v>2944</v>
       </c>
@@ -33662,7 +33668,7 @@
       </c>
       <c r="C1105" s="5"/>
     </row>
-    <row r="1106" spans="1:3" ht="15">
+    <row r="1106" spans="1:3">
       <c r="A1106" s="1" t="s">
         <v>1195</v>
       </c>
@@ -33671,7 +33677,7 @@
       </c>
       <c r="C1106" s="5"/>
     </row>
-    <row r="1107" spans="1:3" ht="15">
+    <row r="1107" spans="1:3">
       <c r="A1107" s="1" t="s">
         <v>1193</v>
       </c>
@@ -33680,7 +33686,7 @@
       </c>
       <c r="C1107" s="5"/>
     </row>
-    <row r="1108" spans="1:3" ht="15">
+    <row r="1108" spans="1:3">
       <c r="A1108" s="1" t="s">
         <v>1194</v>
       </c>
@@ -33824,7 +33830,7 @@
       </c>
       <c r="C1123" s="5"/>
     </row>
-    <row r="1124" spans="1:3" ht="15">
+    <row r="1124" spans="1:3">
       <c r="A1124" s="1" t="s">
         <v>1017</v>
       </c>
@@ -33842,7 +33848,7 @@
       </c>
       <c r="C1125" s="5"/>
     </row>
-    <row r="1126" spans="1:3" ht="15">
+    <row r="1126" spans="1:3">
       <c r="A1126" s="1" t="s">
         <v>1019</v>
       </c>
@@ -34004,7 +34010,7 @@
       </c>
       <c r="C1143" s="5"/>
     </row>
-    <row r="1144" spans="1:3" ht="15">
+    <row r="1144" spans="1:3">
       <c r="A1144" s="1" t="s">
         <v>3114</v>
       </c>
@@ -34266,7 +34272,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1174" spans="1:3" ht="15">
+    <row r="1174" spans="1:3">
       <c r="A1174" s="1" t="s">
         <v>2909</v>
       </c>
@@ -34290,7 +34296,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="1177" spans="1:3" ht="15">
+    <row r="1177" spans="1:3">
       <c r="A1177" s="1" t="s">
         <v>2905</v>
       </c>
@@ -34314,7 +34320,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="1180" spans="1:3" ht="15">
+    <row r="1180" spans="1:3">
       <c r="A1180" s="1" t="s">
         <v>2927</v>
       </c>
@@ -34330,7 +34336,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="1182" spans="1:3" ht="15">
+    <row r="1182" spans="1:3">
       <c r="A1182" s="1" t="s">
         <v>2913</v>
       </c>
@@ -34346,7 +34352,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1184" spans="1:3" ht="15">
+    <row r="1184" spans="1:3">
       <c r="A1184" s="1" t="s">
         <v>2903</v>
       </c>
@@ -34354,7 +34360,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="1185" spans="1:3" ht="15">
+    <row r="1185" spans="1:3">
       <c r="A1185" s="1" t="s">
         <v>2911</v>
       </c>
@@ -34930,3075 +34936,3083 @@
     </row>
     <row r="1251" spans="1:3">
       <c r="A1251" s="1" t="s">
-        <v>4852</v>
+        <v>4858</v>
       </c>
       <c r="B1251" s="5" t="s">
-        <v>4853</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
       <c r="A1252" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1252" s="6" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C1252" s="5"/>
+        <v>4852</v>
+      </c>
+      <c r="B1252" s="5" t="s">
+        <v>4853</v>
+      </c>
     </row>
     <row r="1253" spans="1:3">
       <c r="A1253" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1253" s="5" t="s">
-        <v>2705</v>
+        <v>92</v>
+      </c>
+      <c r="B1253" s="6" t="s">
+        <v>1780</v>
       </c>
       <c r="C1253" s="5"/>
     </row>
     <row r="1254" spans="1:3">
       <c r="A1254" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1254" s="5" t="s">
-        <v>94</v>
+        <v>2705</v>
       </c>
       <c r="C1254" s="5"/>
     </row>
     <row r="1255" spans="1:3">
       <c r="A1255" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1255" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1255" s="5"/>
     </row>
     <row r="1256" spans="1:3">
       <c r="A1256" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1256" s="5"/>
     </row>
     <row r="1257" spans="1:3">
       <c r="A1257" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1257" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1257" s="5"/>
     </row>
     <row r="1258" spans="1:3">
       <c r="A1258" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1258" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1258" s="5"/>
     </row>
     <row r="1259" spans="1:3">
       <c r="A1259" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1259" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1259" s="5"/>
     </row>
     <row r="1260" spans="1:3">
       <c r="A1260" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B1260" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C1260" s="5"/>
     </row>
     <row r="1261" spans="1:3">
       <c r="A1261" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1261" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1261" s="5"/>
     </row>
     <row r="1262" spans="1:3">
       <c r="A1262" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1262" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1262" s="5"/>
     </row>
     <row r="1263" spans="1:3">
       <c r="A1263" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1263" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1263" s="5"/>
     </row>
     <row r="1264" spans="1:3">
       <c r="A1264" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B1264" s="5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C1264" s="5"/>
     </row>
     <row r="1265" spans="1:3">
       <c r="A1265" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1265" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1265" s="5"/>
     </row>
     <row r="1266" spans="1:3">
       <c r="A1266" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B1266" s="5" t="s">
-        <v>2712</v>
+        <v>142</v>
       </c>
       <c r="C1266" s="5"/>
     </row>
     <row r="1267" spans="1:3">
       <c r="A1267" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B1267" s="5" t="s">
-        <v>164</v>
+        <v>2712</v>
       </c>
       <c r="C1267" s="5"/>
     </row>
     <row r="1268" spans="1:3">
       <c r="A1268" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B1268" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C1268" s="5"/>
     </row>
     <row r="1269" spans="1:3">
       <c r="A1269" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1269" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C1269" s="5"/>
     </row>
     <row r="1270" spans="1:3">
       <c r="A1270" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1270" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1270" s="5"/>
     </row>
     <row r="1271" spans="1:3">
       <c r="A1271" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1271" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1271" s="5"/>
     </row>
     <row r="1272" spans="1:3">
       <c r="A1272" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B1272" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C1272" s="5"/>
     </row>
     <row r="1273" spans="1:3">
       <c r="A1273" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1273" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1273" s="5"/>
+    </row>
+    <row r="1274" spans="1:3">
+      <c r="A1274" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B1273" s="5" t="s">
+      <c r="B1274" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C1273" s="5"/>
-    </row>
-    <row r="1274" spans="1:3" ht="15">
-      <c r="A1274" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1274" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C1274" s="5"/>
     </row>
     <row r="1275" spans="1:3">
       <c r="A1275" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B1275" s="5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C1275" s="5"/>
     </row>
     <row r="1276" spans="1:3">
       <c r="A1276" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B1276" s="5" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="C1276" s="5"/>
     </row>
     <row r="1277" spans="1:3">
       <c r="A1277" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1277" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1277" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C1277" s="5"/>
     </row>
     <row r="1278" spans="1:3">
       <c r="A1278" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1278" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
       <c r="A1279" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1279" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
       <c r="A1280" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1280" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
       <c r="A1281" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1281" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1281" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="C1281" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="1282" spans="1:3">
       <c r="A1282" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B1282" s="2" t="s">
-        <v>2811</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B1282" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1282" s="5"/>
     </row>
     <row r="1283" spans="1:3">
       <c r="A1283" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1283" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1283" s="5"/>
+        <v>2898</v>
+      </c>
+      <c r="B1283" s="2" t="s">
+        <v>2811</v>
+      </c>
     </row>
     <row r="1284" spans="1:3">
       <c r="A1284" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1284" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1284" s="5"/>
     </row>
     <row r="1285" spans="1:3">
       <c r="A1285" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1285" s="5" t="s">
-        <v>2713</v>
+        <v>124</v>
       </c>
       <c r="C1285" s="5"/>
     </row>
     <row r="1286" spans="1:3">
       <c r="A1286" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1286" s="5" t="s">
-        <v>126</v>
+        <v>2713</v>
       </c>
       <c r="C1286" s="5"/>
     </row>
     <row r="1287" spans="1:3">
       <c r="A1287" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B1287" s="5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C1287" s="5"/>
     </row>
     <row r="1288" spans="1:3">
       <c r="A1288" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1288" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C1288" s="5"/>
     </row>
     <row r="1289" spans="1:3">
       <c r="A1289" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1289" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1289" s="5"/>
     </row>
     <row r="1290" spans="1:3">
       <c r="A1290" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1290" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1290" s="5"/>
     </row>
     <row r="1291" spans="1:3">
       <c r="A1291" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1291" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1291" s="5"/>
     </row>
     <row r="1292" spans="1:3">
       <c r="A1292" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1292" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1292" s="5"/>
     </row>
     <row r="1293" spans="1:3">
       <c r="A1293" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1293" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1293" s="5"/>
     </row>
     <row r="1294" spans="1:3">
       <c r="A1294" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B1294" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C1294" s="5"/>
     </row>
     <row r="1295" spans="1:3">
       <c r="A1295" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1295" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1295" s="5"/>
     </row>
     <row r="1296" spans="1:3">
       <c r="A1296" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1296" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1296" s="5"/>
     </row>
     <row r="1297" spans="1:3">
       <c r="A1297" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1297" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1297" s="5"/>
     </row>
     <row r="1298" spans="1:3">
       <c r="A1298" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B1298" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C1298" s="5"/>
     </row>
     <row r="1299" spans="1:3">
       <c r="A1299" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1299" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1299" s="5"/>
     </row>
     <row r="1300" spans="1:3">
       <c r="A1300" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1300" s="5" t="s">
-        <v>3183</v>
+        <v>124</v>
       </c>
       <c r="C1300" s="5"/>
     </row>
     <row r="1301" spans="1:3">
       <c r="A1301" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1301" s="5" t="s">
-        <v>126</v>
+        <v>3183</v>
       </c>
       <c r="C1301" s="5"/>
     </row>
     <row r="1302" spans="1:3">
       <c r="A1302" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B1302" s="5" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C1302" s="5"/>
     </row>
     <row r="1303" spans="1:3">
       <c r="A1303" s="1" t="s">
-        <v>3007</v>
-      </c>
-      <c r="B1303" s="2" t="s">
-        <v>3008</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B1303" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1303" s="5"/>
     </row>
     <row r="1304" spans="1:3">
       <c r="A1304" s="1" t="s">
-        <v>3545</v>
+        <v>3007</v>
       </c>
       <c r="B1304" s="2" t="s">
-        <v>3546</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
       <c r="A1305" s="1" t="s">
-        <v>4854</v>
+        <v>3545</v>
       </c>
       <c r="B1305" s="2" t="s">
-        <v>4855</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
       <c r="A1306" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B1306" s="5" t="s">
-        <v>1572</v>
+        <v>4854</v>
+      </c>
+      <c r="B1306" s="2" t="s">
+        <v>4855</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
       <c r="A1307" s="1" t="s">
-        <v>1542</v>
+        <v>1571</v>
       </c>
       <c r="B1307" s="5" t="s">
-        <v>839</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
       <c r="A1308" s="1" t="s">
-        <v>1574</v>
+        <v>1542</v>
       </c>
       <c r="B1308" s="5" t="s">
-        <v>886</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
       <c r="A1309" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B1309" s="5" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
       <c r="A1310" s="1" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="B1310" s="5" t="s">
-        <v>453</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
       <c r="A1311" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B1311" s="5" t="s">
-        <v>895</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
       <c r="A1312" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B1312" s="5" t="s">
-        <v>453</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="1" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B1313" s="5" t="s">
-        <v>901</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="1" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B1314" s="5" t="s">
-        <v>154</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B1315" s="5" t="s">
-        <v>899</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B1316" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="1" t="s">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="B1317" s="5" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B1318" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B1319" s="5" t="s">
-        <v>854</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B1320" s="5" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="1" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="B1321" s="5" t="s">
-        <v>905</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B1322" s="5" t="s">
-        <v>154</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B1323" s="5" t="s">
-        <v>914</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1324" s="5" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="1" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B1325" s="5" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B1326" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="1" t="s">
-        <v>1606</v>
+        <v>1588</v>
       </c>
       <c r="B1327" s="5" t="s">
-        <v>111</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="1" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B1328" s="5" t="s">
-        <v>860</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="1" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="B1329" s="5" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
       <c r="A1330" s="1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B1330" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
       <c r="A1331" s="1" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="B1331" s="5" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="1" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="B1332" s="5" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="1" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B1333" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B1334" s="5" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
       <c r="A1335" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B1335" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
       <c r="A1336" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B1336" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="1" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="B1337" s="5" t="s">
-        <v>115</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338" s="1" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="B1338" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
       <c r="A1339" s="1" t="s">
-        <v>1592</v>
+        <v>1607</v>
       </c>
       <c r="B1339" s="5" t="s">
-        <v>916</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B1340" s="5" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
       <c r="A1341" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1341" s="5" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
       <c r="A1342" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1342" s="5" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="1" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B1343" s="5" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
       <c r="A1344" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1344" s="5" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
       <c r="A1345" s="1" t="s">
-        <v>1449</v>
+        <v>1596</v>
       </c>
       <c r="B1345" s="5" t="s">
-        <v>664</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="1" t="s">
-        <v>1505</v>
+        <v>1449</v>
       </c>
       <c r="B1346" s="5" t="s">
-        <v>771</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
       <c r="A1347" s="1" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B1347" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="1" t="s">
-        <v>1492</v>
+        <v>1502</v>
       </c>
       <c r="B1348" s="5" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
       <c r="A1349" s="1" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="B1349" s="5" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="1" t="s">
-        <v>1472</v>
+        <v>1486</v>
       </c>
       <c r="B1350" s="5" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
       <c r="A1351" s="1" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
       <c r="B1351" s="5" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="1" t="s">
-        <v>1453</v>
+        <v>1491</v>
       </c>
       <c r="B1352" s="5" t="s">
-        <v>671</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
       <c r="A1353" s="1" t="s">
-        <v>1484</v>
+        <v>1453</v>
       </c>
       <c r="B1353" s="5" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1354" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B1354" s="5" t="s">
+      <c r="B1355" s="5" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:2" ht="15">
-      <c r="A1355" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B1355" s="5" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1356" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="B1356" s="5" t="s">
+      <c r="B1357" s="5" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:2" ht="15">
-      <c r="A1357" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B1357" s="5" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
       <c r="A1358" s="1" t="s">
-        <v>1496</v>
+        <v>1513</v>
       </c>
       <c r="B1358" s="5" t="s">
-        <v>2774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
       <c r="A1359" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1359" s="5" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="B1359" s="5" t="s">
+      <c r="B1360" s="5" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:2" ht="15">
-      <c r="A1360" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B1360" s="5" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="1" t="s">
-        <v>1493</v>
+        <v>1464</v>
       </c>
       <c r="B1361" s="5" t="s">
-        <v>748</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="1" t="s">
-        <v>1467</v>
+        <v>1493</v>
       </c>
       <c r="B1362" s="5" t="s">
-        <v>2772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="1" t="s">
-        <v>1512</v>
+        <v>1467</v>
       </c>
       <c r="B1363" s="5" t="s">
-        <v>784</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="1" t="s">
-        <v>1473</v>
+        <v>1512</v>
       </c>
       <c r="B1364" s="5" t="s">
-        <v>2773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="1" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="B1365" s="5" t="s">
-        <v>726</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="1" t="s">
-        <v>1511</v>
+        <v>1482</v>
       </c>
       <c r="B1366" s="5" t="s">
-        <v>782</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1367" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2">
+      <c r="A1368" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B1367" s="5" t="s">
+      <c r="B1368" s="5" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:2" ht="15">
-      <c r="A1368" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B1368" s="5" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="1" t="s">
-        <v>1528</v>
+        <v>1500</v>
       </c>
       <c r="B1369" s="5" t="s">
-        <v>815</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="1" t="s">
-        <v>1497</v>
+        <v>1528</v>
       </c>
       <c r="B1370" s="5" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="1" t="s">
-        <v>1476</v>
+        <v>1497</v>
       </c>
       <c r="B1371" s="5" t="s">
-        <v>714</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="1" t="s">
-        <v>1519</v>
+        <v>1476</v>
       </c>
       <c r="B1372" s="5" t="s">
-        <v>798</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1373" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="1" t="s">
-        <v>1501</v>
+        <v>1518</v>
       </c>
       <c r="B1374" s="5" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="1" t="s">
-        <v>1485</v>
+        <v>1501</v>
       </c>
       <c r="B1375" s="5" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="1" t="s">
-        <v>1514</v>
+        <v>1485</v>
       </c>
       <c r="B1376" s="5" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B1377" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="1" t="s">
-        <v>1465</v>
+        <v>1517</v>
       </c>
       <c r="B1378" s="5" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1379" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="B1379" s="5" t="s">
+      <c r="B1380" s="5" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:2" ht="15">
-      <c r="A1380" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B1380" s="5" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="1" t="s">
-        <v>1451</v>
+        <v>1516</v>
       </c>
       <c r="B1381" s="5" t="s">
-        <v>667</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="1" t="s">
-        <v>1488</v>
+        <v>1451</v>
       </c>
       <c r="B1382" s="5" t="s">
-        <v>738</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="1" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="B1383" s="5" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="1" t="s">
-        <v>1509</v>
+        <v>1475</v>
       </c>
       <c r="B1384" s="5" t="s">
-        <v>778</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="1" t="s">
-        <v>1458</v>
+        <v>1509</v>
       </c>
       <c r="B1385" s="5" t="s">
-        <v>681</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1386" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2">
+      <c r="A1387" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="B1386" s="5" t="s">
+      <c r="B1387" s="5" t="s">
         <v>724</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:2" ht="15">
-      <c r="A1387" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B1387" s="5" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="1" t="s">
-        <v>1508</v>
+        <v>1525</v>
       </c>
       <c r="B1388" s="5" t="s">
-        <v>2775</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="1" t="s">
-        <v>1498</v>
+        <v>1508</v>
       </c>
       <c r="B1389" s="5" t="s">
-        <v>757</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1390" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2">
+      <c r="A1391" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="B1390" s="5" t="s">
+      <c r="B1391" s="5" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="1391" spans="1:2" ht="15">
-      <c r="A1391" s="1" t="s">
+    <row r="1392" spans="1:2">
+      <c r="A1392" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="B1391" s="5" t="s">
+      <c r="B1392" s="5" t="s">
         <v>759</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:2" ht="15">
-      <c r="A1392" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B1392" s="5" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B1393" s="5" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="1" t="s">
-        <v>1457</v>
+        <v>1520</v>
       </c>
       <c r="B1394" s="5" t="s">
-        <v>679</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="1" t="s">
-        <v>1490</v>
+        <v>1457</v>
       </c>
       <c r="B1395" s="5" t="s">
-        <v>742</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="1" t="s">
-        <v>1455</v>
+        <v>1490</v>
       </c>
       <c r="B1396" s="5" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1397" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2">
+      <c r="A1398" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B1397" s="5" t="s">
+      <c r="B1398" s="5" t="s">
         <v>683</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:2" ht="15">
-      <c r="A1398" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B1398" s="5" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="1" t="s">
-        <v>1504</v>
+        <v>1468</v>
       </c>
       <c r="B1399" s="5" t="s">
-        <v>769</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="1" t="s">
-        <v>1489</v>
+        <v>1504</v>
       </c>
       <c r="B1400" s="5" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1401" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="B1401" s="5" t="s">
+      <c r="B1402" s="5" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:2" ht="15">
-      <c r="A1402" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B1402" s="5" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="1" t="s">
-        <v>1483</v>
+        <v>1450</v>
       </c>
       <c r="B1403" s="5" t="s">
-        <v>728</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="1" t="s">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="B1404" s="5" t="s">
-        <v>688</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="1" t="s">
-        <v>1524</v>
+        <v>1462</v>
       </c>
       <c r="B1405" s="5" t="s">
-        <v>808</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="1" t="s">
-        <v>1452</v>
+        <v>1524</v>
       </c>
       <c r="B1406" s="5" t="s">
-        <v>669</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="1" t="s">
-        <v>1523</v>
+        <v>1452</v>
       </c>
       <c r="B1407" s="5" t="s">
-        <v>806</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="1" t="s">
-        <v>1474</v>
+        <v>1523</v>
       </c>
       <c r="B1408" s="5" t="s">
-        <v>710</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="1" t="s">
-        <v>1503</v>
+        <v>1474</v>
       </c>
       <c r="B1409" s="5" t="s">
-        <v>767</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="1" t="s">
-        <v>1478</v>
+        <v>1503</v>
       </c>
       <c r="B1410" s="5" t="s">
-        <v>718</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="1" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
       <c r="B1411" s="5" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1412" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2">
+      <c r="A1413" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="B1412" s="5" t="s">
+      <c r="B1413" s="5" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:2" ht="15">
-      <c r="A1413" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B1413" s="5" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="1" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="B1414" s="5" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1415" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="B1415" s="5" t="s">
+      <c r="B1416" s="5" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="1416" spans="1:2" ht="15">
-      <c r="A1416" s="1" t="s">
+    <row r="1417" spans="1:2">
+      <c r="A1417" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="B1416" s="5" t="s">
+      <c r="B1417" s="5" t="s">
         <v>2771</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:2" ht="15">
-      <c r="A1417" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B1417" s="5" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="1" t="s">
-        <v>1469</v>
+        <v>1487</v>
       </c>
       <c r="B1418" s="5" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1419" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2">
+      <c r="A1420" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="B1419" s="5" t="s">
+      <c r="B1420" s="5" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:2" ht="15">
-      <c r="A1420" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B1420" s="5" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="1" t="s">
-        <v>1495</v>
+        <v>1461</v>
       </c>
       <c r="B1421" s="5" t="s">
-        <v>752</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="1" t="s">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="B1422" s="5" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="1" t="s">
-        <v>1521</v>
+        <v>1479</v>
       </c>
       <c r="B1423" s="5" t="s">
-        <v>802</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="1" t="s">
-        <v>1456</v>
+        <v>1521</v>
       </c>
       <c r="B1424" s="5" t="s">
-        <v>677</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="1" t="s">
-        <v>1529</v>
+        <v>1456</v>
       </c>
       <c r="B1425" s="5" t="s">
-        <v>817</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="1" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B1426" s="5" t="s">
-        <v>154</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="1" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B1427" s="5" t="s">
-        <v>819</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1428" s="5" t="s">
-        <v>311</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="1" t="s">
-        <v>1610</v>
+        <v>1531</v>
       </c>
       <c r="B1429" s="5" t="s">
-        <v>940</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="1" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="B1430" s="5" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B1431" s="5" t="s">
-        <v>154</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B1432" s="5" t="s">
-        <v>959</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B1433" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1434" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2">
+      <c r="A1435" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="B1434" s="5" t="s">
+      <c r="B1435" s="5" t="s">
         <v>963</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:2" ht="15">
-      <c r="A1435" s="1" t="s">
-        <v>3112</v>
-      </c>
-      <c r="B1435" s="2" t="s">
-        <v>3113</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B1436" s="5" t="s">
-        <v>2711</v>
+        <v>3112</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>3113</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="1" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="B1437" s="5" t="s">
-        <v>957</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="1" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="B1438" s="5" t="s">
-        <v>2706</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="1" t="s">
-        <v>1612</v>
+        <v>1621</v>
       </c>
       <c r="B1439" s="5" t="s">
-        <v>154</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1440" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2">
+      <c r="A1441" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="B1440" s="5" t="s">
+      <c r="B1441" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="1441" spans="1:2" ht="15">
-      <c r="A1441" s="1" t="s">
+    <row r="1442" spans="1:2">
+      <c r="A1442" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="B1441" s="5" t="s">
+      <c r="B1442" s="5" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:2" ht="15">
-      <c r="A1442" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B1442" s="5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B1443" s="2" t="s">
-        <v>570</v>
+        <v>1619</v>
+      </c>
+      <c r="B1443" s="5" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="A1445" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="B1444" s="5" t="s">
+      <c r="B1445" s="5" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:2" ht="15">
-      <c r="A1445" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B1445" s="5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="1" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1446" s="5" t="s">
-        <v>308</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1447" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2">
+      <c r="A1448" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="B1447" s="5" t="s">
+      <c r="B1448" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="1448" spans="1:2" ht="15">
-      <c r="A1448" s="1" t="s">
+    <row r="1449" spans="1:2">
+      <c r="A1449" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="B1448" s="5" t="s">
+      <c r="B1449" s="5" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:2" ht="15">
-      <c r="A1449" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B1449" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="1" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="B1450" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="B1451" s="2" t="s">
-        <v>2900</v>
+        <v>1611</v>
+      </c>
+      <c r="B1451" s="5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B1452" s="5" t="s">
-        <v>2706</v>
+        <v>2901</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="1" t="s">
-        <v>1381</v>
+        <v>1390</v>
       </c>
       <c r="B1453" s="5" t="s">
-        <v>154</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1454" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2">
+      <c r="A1455" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B1454" s="5" t="s">
+      <c r="B1455" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="1455" spans="1:2" ht="15">
-      <c r="A1455" s="1" t="s">
+    <row r="1456" spans="1:2">
+      <c r="A1456" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B1455" s="5" t="s">
+      <c r="B1456" s="5" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:2" ht="15">
-      <c r="A1456" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B1456" s="5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1457" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2">
+      <c r="A1458" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="B1457" s="5" t="s">
+      <c r="B1458" s="5" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:2" ht="15">
-      <c r="A1458" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B1458" s="5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="1" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B1459" s="5" t="s">
-        <v>308</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1460" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="A1461" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B1460" s="5" t="s">
+      <c r="B1461" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="1461" spans="1:2" ht="15">
-      <c r="A1461" s="1" t="s">
+    <row r="1462" spans="1:2">
+      <c r="A1462" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B1461" s="5" t="s">
+      <c r="B1462" s="5" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:2" ht="15">
-      <c r="A1462" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B1462" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B1463" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="1" t="s">
-        <v>1539</v>
+        <v>1380</v>
       </c>
       <c r="B1464" s="5" t="s">
-        <v>833</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B1465" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="1" t="s">
-        <v>2854</v>
-      </c>
-      <c r="B1466" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1466" s="5" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="1" t="s">
-        <v>2843</v>
+        <v>2854</v>
       </c>
       <c r="B1467" s="2" t="s">
-        <v>148</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B1468" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B1469" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1470" s="2" t="s">
-        <v>2850</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B1471" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B1472" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
       <c r="A1473" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1473" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="1" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="B1474" s="2" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="1" t="s">
-        <v>2861</v>
+        <v>2855</v>
       </c>
       <c r="B1475" s="2" t="s">
-        <v>2862</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="1" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B1476" s="2" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477" s="1" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="B1477" s="2" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B1478" s="5" t="s">
-        <v>837</v>
+        <v>2857</v>
+      </c>
+      <c r="B1478" s="2" t="s">
+        <v>2858</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1479" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2">
+      <c r="A1480" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="B1479" s="2" t="s">
+      <c r="B1480" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="1480" spans="1:2" ht="15">
-      <c r="A1480" s="1" t="s">
+    <row r="1481" spans="1:2">
+      <c r="A1481" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="B1480" s="2" t="s">
+      <c r="B1481" s="2" t="s">
         <v>2868</v>
       </c>
     </row>
-    <row r="1481" spans="1:2" ht="15">
-      <c r="A1481" s="1" t="s">
+    <row r="1482" spans="1:2">
+      <c r="A1482" s="1" t="s">
         <v>2869</v>
       </c>
-      <c r="B1481" s="2" t="s">
+      <c r="B1482" s="2" t="s">
         <v>2870</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:2" ht="15">
-      <c r="A1482" s="1" t="s">
-        <v>2871</v>
-      </c>
-      <c r="B1482" s="2" t="s">
-        <v>2865</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B1483" s="2" t="s">
-        <v>2874</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="1" t="s">
-        <v>2879</v>
+        <v>2873</v>
       </c>
       <c r="B1484" s="2" t="s">
-        <v>2880</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
       <c r="A1485" s="1" t="s">
-        <v>2885</v>
+        <v>2879</v>
       </c>
       <c r="B1485" s="2" t="s">
-        <v>2886</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486" s="1" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="B1486" s="2" t="s">
-        <v>2881</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="1" t="s">
-        <v>2875</v>
+        <v>2882</v>
       </c>
       <c r="B1487" s="2" t="s">
-        <v>2876</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="1" t="s">
-        <v>2883</v>
+        <v>2875</v>
       </c>
       <c r="B1488" s="2" t="s">
-        <v>2884</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="1" t="s">
-        <v>2877</v>
+        <v>2883</v>
       </c>
       <c r="B1489" s="2" t="s">
-        <v>2878</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B1490" s="2" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2">
+      <c r="A1491" s="1" t="s">
         <v>2867</v>
       </c>
-      <c r="B1490" s="2" t="s">
+      <c r="B1491" s="2" t="s">
         <v>2868</v>
       </c>
     </row>
-    <row r="1491" spans="1:2" ht="15">
-      <c r="A1491" s="1" t="s">
+    <row r="1492" spans="1:2">
+      <c r="A1492" s="1" t="s">
         <v>2866</v>
       </c>
-      <c r="B1491" s="2" t="s">
+      <c r="B1492" s="2" t="s">
         <v>2865</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:2" ht="15">
-      <c r="A1492" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="B1492" s="2" t="s">
-        <v>2864</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B1493" s="5" t="s">
-        <v>616</v>
+        <v>2863</v>
+      </c>
+      <c r="B1493" s="2" t="s">
+        <v>2864</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B1494" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1495" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B1496" s="5" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1497" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B1498" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1499" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="B1499" s="5" t="s">
+      <c r="B1500" s="5" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="1500" spans="1:2" ht="15">
-      <c r="A1500" s="1" t="s">
+    <row r="1501" spans="1:2">
+      <c r="A1501" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="B1500" s="5" t="s">
+      <c r="B1501" s="5" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" ht="15">
-      <c r="A1501" s="1" t="s">
+    <row r="1502" spans="1:2">
+      <c r="A1502" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="B1501" s="5" t="s">
+      <c r="B1502" s="5" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:2" ht="15">
-      <c r="A1502" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B1502" s="5" t="s">
-        <v>2710</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="1" t="s">
-        <v>1551</v>
+        <v>1569</v>
       </c>
       <c r="B1503" s="5" t="s">
-        <v>111</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="1" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B1504" s="5" t="s">
-        <v>860</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="1" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="B1505" s="5" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="B1506" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507" s="1" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="B1507" s="5" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="1" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="B1508" s="5" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B1509" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B1510" s="5" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1511" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B1512" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="1" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="B1513" s="5" t="s">
-        <v>115</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="1" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="B1514" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
       <c r="A1515" s="1" t="s">
-        <v>1415</v>
+        <v>1552</v>
       </c>
       <c r="B1515" s="5" t="s">
-        <v>628</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516" s="1" t="s">
-        <v>1392</v>
+        <v>1415</v>
       </c>
       <c r="B1516" s="5" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1517" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="A1518" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B1517" s="5" t="s">
+      <c r="B1518" s="5" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:2" ht="15">
-      <c r="A1518" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B1518" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
       <c r="A1519" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1519" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2">
+      <c r="A1520" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B1519" s="5" t="s">
+      <c r="B1520" s="5" t="s">
         <v>2707</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:2" ht="15">
-      <c r="A1520" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B1520" s="5" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B1521" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="1" t="s">
-        <v>1630</v>
+        <v>1395</v>
       </c>
       <c r="B1522" s="5" t="s">
-        <v>967</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
       <c r="A1523" s="1" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="B1523" s="5" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1524" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="1" t="s">
-        <v>1636</v>
+        <v>1643</v>
       </c>
       <c r="B1525" s="5" t="s">
-        <v>154</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B1526" s="5" t="s">
-        <v>983</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
       <c r="A1527" s="1" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B1527" s="5" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="1" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="B1528" s="5" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
       <c r="A1529" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B1529" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
       <c r="A1530" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B1530" s="5" t="s">
-        <v>581</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B1531" s="5" t="s">
-        <v>985</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532" s="1" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="B1532" s="5" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
       <c r="A1533" s="1" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="B1533" s="5" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="1" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="B1534" s="5" t="s">
-        <v>154</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B1535" s="5" t="s">
-        <v>995</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B1536" s="5" t="s">
-        <v>581</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
       <c r="A1537" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1537" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2">
+      <c r="A1538" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="B1537" s="5" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:2" ht="15">
-      <c r="A1538" s="1" t="s">
-        <v>3108</v>
-      </c>
-      <c r="B1538" s="2" t="s">
+      <c r="B1538" s="5" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
       <c r="A1539" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B1539" s="5" t="s">
-        <v>985</v>
+        <v>3108</v>
+      </c>
+      <c r="B1539" s="2" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
       <c r="A1540" s="1" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B1540" s="2" t="s">
-        <v>3111</v>
+        <v>1648</v>
+      </c>
+      <c r="B1540" s="5" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="1" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B1541" s="2" t="s">
-        <v>995</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B1542" s="5" t="s">
-        <v>967</v>
+        <v>3109</v>
+      </c>
+      <c r="B1542" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
       <c r="A1543" s="1" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="B1543" s="5" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="1" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B1544" s="5" t="s">
-        <v>970</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1545" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B1546" s="6" t="s">
-        <v>1782</v>
+        <v>1633</v>
+      </c>
+      <c r="B1546" s="5" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B1547" s="5" t="s">
-        <v>630</v>
+        <v>1417</v>
+      </c>
+      <c r="B1547" s="6" t="s">
+        <v>1782</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B1548" s="5" t="s">
-        <v>94</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
       <c r="A1549" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1549" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="1" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="B1550" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="1" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="B1551" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1552" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
       <c r="A1553" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1553" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1554" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
       <c r="A1555" s="1" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="B1555" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
       <c r="A1556" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1556" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1557" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1558" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B1559" s="2" t="s">
-        <v>2811</v>
+        <v>1444</v>
+      </c>
+      <c r="B1559" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B1560" s="5" t="s">
-        <v>121</v>
+        <v>2810</v>
+      </c>
+      <c r="B1560" s="2" t="s">
+        <v>2811</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
       <c r="A1561" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B1561" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B1562" s="5" t="s">
-        <v>3183</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B1563" s="5" t="s">
-        <v>126</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B1564" s="2" t="s">
-        <v>2842</v>
+        <v>1440</v>
+      </c>
+      <c r="B1564" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
       <c r="A1565" s="1" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="B1565" s="2" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="1" t="s">
-        <v>2817</v>
+        <v>2839</v>
       </c>
       <c r="B1566" s="2" t="s">
-        <v>2908</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B1567" s="2" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="B1567" s="2" t="s">
+      <c r="B1568" s="2" t="s">
         <v>677</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:2" ht="15">
-      <c r="A1568" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B1568" s="2" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="1" t="s">
-        <v>2824</v>
+        <v>2819</v>
       </c>
       <c r="B1569" s="2" t="s">
-        <v>2825</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1570" s="2" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2">
+      <c r="A1571" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="B1570" s="2" t="s">
+      <c r="B1571" s="2" t="s">
         <v>2831</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:2" ht="15">
-      <c r="A1571" s="1" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B1571" s="2" t="s">
-        <v>2815</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="1" t="s">
-        <v>2829</v>
+        <v>2814</v>
       </c>
       <c r="B1572" s="2" t="s">
-        <v>2828</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
       <c r="A1573" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B1573" s="2" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2">
+      <c r="A1574" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="B1573" s="2" t="s">
+      <c r="B1574" s="2" t="s">
         <v>2835</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:2" ht="15">
-      <c r="A1574" s="1" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B1574" s="2" t="s">
-        <v>2837</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1575" s="2" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="B1575" s="2" t="s">
+      <c r="B1576" s="2" t="s">
         <v>2833</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:2" ht="15">
-      <c r="A1576" s="1" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B1576" s="2" t="s">
-        <v>2823</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
       <c r="A1577" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1577" s="2" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="B1577" s="2" t="s">
+      <c r="B1578" s="2" t="s">
         <v>2827</v>
       </c>
     </row>
-    <row r="1578" spans="1:2" ht="15">
-      <c r="A1578" s="1" t="s">
+    <row r="1579" spans="1:2">
+      <c r="A1579" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="B1578" s="2" t="s">
+      <c r="B1579" s="2" t="s">
         <v>2812</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:2" ht="15">
-      <c r="A1579" s="1" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B1579" s="2" t="s">
-        <v>2821</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B1580" s="5" t="s">
-        <v>96</v>
+        <v>2820</v>
+      </c>
+      <c r="B1580" s="2" t="s">
+        <v>2821</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
       <c r="A1581" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B1581" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
       <c r="A1582" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1582" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
       <c r="A1583" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1583" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
       <c r="A1584" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1584" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
       <c r="A1585" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1585" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
       <c r="A1586" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1586" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587" s="1" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="B1587" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
       <c r="A1588" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1588" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
       <c r="A1589" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1589" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
       <c r="A1590" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1590" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
       <c r="A1591" s="1" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
       <c r="B1591" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B1592" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
       <c r="A1593" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B1593" s="5" t="s">
-        <v>3183</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
       <c r="A1594" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B1594" s="5" t="s">
-        <v>126</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
       <c r="A1595" s="1" t="s">
-        <v>1421</v>
+        <v>1431</v>
       </c>
       <c r="B1595" s="5" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
       <c r="A1596" s="1" t="s">
-        <v>1563</v>
+        <v>1421</v>
       </c>
       <c r="B1596" s="5" t="s">
-        <v>870</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
       <c r="A1597" s="1" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="B1597" s="5" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
       <c r="A1598" s="1" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="B1598" s="5" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
       <c r="A1599" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B1599" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
       <c r="A1600" s="1" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="B1600" s="5" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
       <c r="A1601" s="1" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="B1601" s="5" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
       <c r="A1602" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="B1602" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
       <c r="A1603" s="1" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B1603" s="5" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
       <c r="A1604" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B1604" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
       <c r="A1605" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B1605" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
       <c r="A1606" s="1" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="B1606" s="5" t="s">
-        <v>115</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
       <c r="A1607" s="1" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="B1607" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
       <c r="A1608" s="1" t="s">
-        <v>1405</v>
+        <v>1564</v>
       </c>
       <c r="B1608" s="5" t="s">
-        <v>610</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
       <c r="A1609" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B1609" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
       <c r="A1610" s="1" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="B1610" s="5" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
       <c r="A1611" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B1611" s="5" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
       <c r="A1612" s="1" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
       <c r="B1612" s="5" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
       <c r="A1613" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B1613" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B1614" s="5" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
       <c r="A1615" s="1" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="B1615" s="5" t="s">
-        <v>3184</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" s="1" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="B1616" s="5" t="s">
-        <v>3544</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
       <c r="A1617" s="1" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="B1617" s="5" t="s">
-        <v>598</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
       <c r="A1618" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B1618" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
       <c r="A1619" s="1" t="s">
-        <v>1533</v>
+        <v>1400</v>
       </c>
       <c r="B1619" s="5" t="s">
-        <v>823</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
       <c r="A1620" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B1620" s="5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B1621" s="5" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1622" s="5" t="s">
-        <v>568</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
       <c r="A1623" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="B1623" s="5" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1624" s="5" t="s">
-        <v>830</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
       <c r="A1625" s="1" t="s">
-        <v>4646</v>
-      </c>
-      <c r="B1625" s="2" t="s">
-        <v>35</v>
+        <v>1537</v>
+      </c>
+      <c r="B1625" s="5" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
       <c r="A1626" s="1" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="B1626" s="2" t="s">
-        <v>1342</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
       <c r="A1627" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B1627" s="2" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2">
+      <c r="A1628" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="B1627" s="2" t="s">
+      <c r="B1628" s="2" t="s">
         <v>4649</v>
       </c>
     </row>
@@ -38006,12 +38020,12 @@
   <sortState ref="A2:C1621">
     <sortCondition ref="A2:A1621"/>
   </sortState>
-  <conditionalFormatting sqref="B35:B52 B987:B1216 B1538:B1556 B1558:B1048576">
+  <conditionalFormatting sqref="B35:B52 B987:B1216 B1539:B1557 B1559:B1048576">
     <cfRule type="expression" dxfId="38" priority="35">
       <formula>AND($B35 = "", $C35 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A987 A35:A52 A990:A1216 A1538:A1556 A1558:A1048576">
+  <conditionalFormatting sqref="A987 A35:A52 A990:A1216 A1539:A1557 A1559:A1048576">
     <cfRule type="expression" dxfId="37" priority="33">
       <formula>AND( $A35 = "", OR( $B35 &lt;&gt; "", $C35 &lt;&gt; "" ) )</formula>
     </cfRule>
@@ -38086,7 +38100,7 @@
       <formula>AND( $A937 = "", OR( $B937 &lt;&gt; "", $C937 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1216 C1538:C1556 C1558:C1048576">
+  <conditionalFormatting sqref="C1:C1216 C1539:C1557 C1559:C1048576">
     <cfRule type="expression" dxfId="22" priority="13">
       <formula>AND($B1 &lt;&gt; "", $C1 = "")</formula>
     </cfRule>
@@ -38101,54 +38115,54 @@
       <formula>AND( $A988 = "", OR( $B988 &lt;&gt; "", $C988 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1217:B1343">
+  <conditionalFormatting sqref="B1217:B1344">
     <cfRule type="expression" dxfId="19" priority="10">
       <formula>AND($B1217 = "", $C1217 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1217:A1343">
+  <conditionalFormatting sqref="A1217:A1344">
     <cfRule type="expression" dxfId="18" priority="9">
       <formula>AND( $A1217 = "", OR( $B1217 &lt;&gt; "", $C1217 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1344:B1376">
+  <conditionalFormatting sqref="B1345:B1377">
     <cfRule type="expression" dxfId="17" priority="8">
-      <formula>AND($B1344 = "", $C1344 &lt;&gt; "")</formula>
+      <formula>AND($B1345 = "", $C1345 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1344:A1376">
+  <conditionalFormatting sqref="A1345:A1377">
     <cfRule type="expression" dxfId="16" priority="7">
-      <formula>AND( $A1344 = "", OR( $B1344 &lt;&gt; "", $C1344 &lt;&gt; "" ) )</formula>
+      <formula>AND( $A1345 = "", OR( $B1345 &lt;&gt; "", $C1345 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1377:B1537">
+  <conditionalFormatting sqref="B1378:B1538">
     <cfRule type="expression" dxfId="15" priority="6">
-      <formula>AND($B1377 = "", $C1377 &lt;&gt; "")</formula>
+      <formula>AND($B1378 = "", $C1378 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1377:A1537">
+  <conditionalFormatting sqref="A1378:A1538">
     <cfRule type="expression" dxfId="14" priority="5">
-      <formula>AND( $A1377 = "", OR( $B1377 &lt;&gt; "", $C1377 &lt;&gt; "" ) )</formula>
+      <formula>AND( $A1378 = "", OR( $B1378 &lt;&gt; "", $C1378 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1217:C1537">
+  <conditionalFormatting sqref="C1217:C1538">
     <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND($B1217 &lt;&gt; "", $C1217 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1557">
+  <conditionalFormatting sqref="B1558">
     <cfRule type="expression" dxfId="12" priority="3">
-      <formula>AND($B1557 = "", $C1557 &lt;&gt; "")</formula>
+      <formula>AND($B1558 = "", $C1558 &lt;&gt; "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1557">
+  <conditionalFormatting sqref="A1558">
     <cfRule type="expression" dxfId="11" priority="2">
-      <formula>AND( $A1557 = "", OR( $B1557 &lt;&gt; "", $C1557 &lt;&gt; "" ) )</formula>
+      <formula>AND( $A1558 = "", OR( $B1558 &lt;&gt; "", $C1558 &lt;&gt; "" ) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1557">
+  <conditionalFormatting sqref="C1558">
     <cfRule type="expression" dxfId="10" priority="1">
-      <formula>AND($B1557 &lt;&gt; "", $C1557 = "")</formula>
+      <formula>AND($B1558 &lt;&gt; "", $C1558 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46631,7 +46645,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1801</v>
       </c>
@@ -47041,7 +47055,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1801</v>
       </c>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10050" uniqueCount="5733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10076" uniqueCount="5755">
   <si>
     <t>fi</t>
   </si>
@@ -17256,6 +17256,72 @@
   </si>
   <si>
     <t xml:space="preserve">Hei! Sinut on kutsuttu osallistumaan lupahakemuksen tekemiseen Lupapisteessä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tervetuloa Lupapisteeseen!</t>
+  </si>
+  <si>
+    <t>applications.no-match.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hakemuksia ei löydy </t>
+  </si>
+  <si>
+    <t>applications.no-match.desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Annetuilla hakuehdoilla ei löydy yhtään hakemusta. </t>
+  </si>
+  <si>
+    <t>applications.filter.desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Työjono</t>
+  </si>
+  <si>
+    <t>applications.filter.user.all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaikki</t>
+  </si>
+  <si>
+    <t>applications.filter.own</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vain omat</t>
+  </si>
+  <si>
+    <t>applications.filter.state-desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Näytä</t>
+  </si>
+  <si>
+    <t>applications.filter.pre-verdict</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ei päätöstä</t>
+  </si>
+  <si>
+    <t>applications.filter.all</t>
+  </si>
+  <si>
+    <t>applications.filter.canceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peruutetut</t>
+  </si>
+  <si>
+    <t>admin.applicant-users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hakija-käyttäjät</t>
+  </si>
+  <si>
+    <t>admin.addApplicantUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lisää Hakija-käyttäjä </t>
   </si>
 </sst>
 </file>
@@ -18144,10 +18210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C649"/>
+  <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A650" sqref="A650"/>
+    <sheetView tabSelected="1" topLeftCell="A620" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A661" sqref="A661:XFD661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24780,6 +24846,110 @@
         <v>5732</v>
       </c>
     </row>
+    <row r="650" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B650" t="s">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B651" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>5734</v>
+      </c>
+      <c r="B652" t="s">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>5736</v>
+      </c>
+      <c r="B653" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>5738</v>
+      </c>
+      <c r="B654" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>5740</v>
+      </c>
+      <c r="B655" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>5742</v>
+      </c>
+      <c r="B656" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B657" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>5746</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>5748</v>
+      </c>
+      <c r="B659" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B660" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B661" t="s">
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B662" t="s">
+        <v>5754</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A588"/>
   <sortState ref="A2:C581">
@@ -24790,7 +24960,7 @@
       <formula>AND($B1 &lt;&gt; "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A59 A61:A334 A1312:A1048576">
+  <conditionalFormatting sqref="A2:A59 A61:A334 A1311:A1048576">
     <cfRule type="expression" dxfId="12" priority="36">
       <formula>AND( $A2 = "", OR( $B2 &lt;&gt; "", #REF! &lt;&gt; "" ) )</formula>
     </cfRule>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10074" uniqueCount="5750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10076" uniqueCount="5751">
   <si>
     <t>fi</t>
   </si>
@@ -17307,6 +17307,9 @@
   </si>
   <si>
     <t>Lupapiste on uudenlainen sähköinen palvelu, jossa kansalaiset, yritykset ja yhteisöt hoitavat lupa- ja ilmoitusasiansa vuorovaikutuksessa viranomaisten ja muiden osapuolten kanssa. Lupapiste toimii yhteisenä työtilana koko hankkeesi ajan. Alkaen luvantarpeen selvityksistä ja ensimmäisistä luonnoksista aina hankkeesi valmistumiseen asti.</t>
+  </si>
+  <si>
+    <t>admin.applicant-users</t>
   </si>
 </sst>
 </file>
@@ -17862,7 +17865,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17870,7 +17873,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mime-types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18195,10 +18198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C661"/>
+  <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A660" sqref="A660"/>
+    <sheetView tabSelected="1" topLeftCell="A650" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B664" sqref="B664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -18207,7 +18210,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -18694,7 +18697,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="174">
+    <row r="46" spans="1:3" ht="151">
       <c r="A46" s="1" t="s">
         <v>4638</v>
       </c>
@@ -24359,7 +24362,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="15.75">
+    <row r="591" spans="1:3" ht="15">
       <c r="A591" t="s">
         <v>5650</v>
       </c>
@@ -24367,7 +24370,7 @@
         <v>5651</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="15.75">
+    <row r="592" spans="1:3" ht="15">
       <c r="A592" t="s">
         <v>5652</v>
       </c>
@@ -24375,7 +24378,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15.75">
+    <row r="593" spans="1:2" ht="15">
       <c r="A593" t="s">
         <v>5654</v>
       </c>
@@ -24383,7 +24386,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15.75">
+    <row r="594" spans="1:2" ht="15">
       <c r="A594" t="s">
         <v>5656</v>
       </c>
@@ -24391,7 +24394,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15.75">
+    <row r="595" spans="1:2" ht="15">
       <c r="A595" t="s">
         <v>5658</v>
       </c>
@@ -24399,7 +24402,7 @@
         <v>5659</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15.75">
+    <row r="596" spans="1:2" ht="15">
       <c r="A596" t="s">
         <v>5660</v>
       </c>
@@ -24407,7 +24410,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15.75">
+    <row r="597" spans="1:2" ht="15">
       <c r="A597" t="s">
         <v>5662</v>
       </c>
@@ -24415,7 +24418,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15.75">
+    <row r="598" spans="1:2" ht="15">
       <c r="A598" t="s">
         <v>5664</v>
       </c>
@@ -24423,7 +24426,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15.75">
+    <row r="599" spans="1:2" ht="15">
       <c r="A599" t="s">
         <v>5666</v>
       </c>
@@ -24431,7 +24434,7 @@
         <v>5667</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15.75">
+    <row r="600" spans="1:2" ht="15">
       <c r="A600" t="s">
         <v>5668</v>
       </c>
@@ -24439,7 +24442,7 @@
         <v>5669</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15.75">
+    <row r="601" spans="1:2" ht="15">
       <c r="A601" t="s">
         <v>5670</v>
       </c>
@@ -24447,7 +24450,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15.75">
+    <row r="602" spans="1:2" ht="15">
       <c r="A602" t="s">
         <v>5672</v>
       </c>
@@ -24455,7 +24458,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15.75">
+    <row r="603" spans="1:2" ht="15">
       <c r="A603" t="s">
         <v>5673</v>
       </c>
@@ -24463,7 +24466,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15.75">
+    <row r="604" spans="1:2" ht="15">
       <c r="A604" t="s">
         <v>5674</v>
       </c>
@@ -24471,7 +24474,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15.75">
+    <row r="605" spans="1:2" ht="15">
       <c r="A605" t="s">
         <v>5675</v>
       </c>
@@ -24479,7 +24482,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15.75">
+    <row r="606" spans="1:2" ht="15">
       <c r="A606" t="s">
         <v>5677</v>
       </c>
@@ -24487,7 +24490,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15.75">
+    <row r="607" spans="1:2" ht="15">
       <c r="A607" t="s">
         <v>5678</v>
       </c>
@@ -24495,7 +24498,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15.75">
+    <row r="608" spans="1:2" ht="15">
       <c r="A608" t="s">
         <v>5679</v>
       </c>
@@ -24503,7 +24506,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15.75">
+    <row r="609" spans="1:2" ht="15">
       <c r="A609" t="s">
         <v>5680</v>
       </c>
@@ -24511,7 +24514,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15.75">
+    <row r="610" spans="1:2" ht="15">
       <c r="A610" t="s">
         <v>5682</v>
       </c>
@@ -24519,7 +24522,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15.75">
+    <row r="611" spans="1:2" ht="15">
       <c r="A611" t="s">
         <v>5683</v>
       </c>
@@ -24527,7 +24530,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15.75">
+    <row r="612" spans="1:2" ht="15">
       <c r="A612" t="s">
         <v>5684</v>
       </c>
@@ -24535,7 +24538,7 @@
         <v>5681</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15.75">
+    <row r="613" spans="1:2" ht="15">
       <c r="A613" t="s">
         <v>5685</v>
       </c>
@@ -24543,7 +24546,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15.75">
+    <row r="614" spans="1:2" ht="15">
       <c r="A614" t="s">
         <v>5687</v>
       </c>
@@ -24551,7 +24554,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15.75">
+    <row r="615" spans="1:2" ht="15">
       <c r="A615" t="s">
         <v>5688</v>
       </c>
@@ -24559,7 +24562,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15.75">
+    <row r="616" spans="1:2" ht="15">
       <c r="A616" t="s">
         <v>5689</v>
       </c>
@@ -24567,7 +24570,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15.75">
+    <row r="617" spans="1:2" ht="15">
       <c r="A617" t="s">
         <v>5690</v>
       </c>
@@ -24575,7 +24578,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15.75">
+    <row r="618" spans="1:2" ht="15">
       <c r="A618" t="s">
         <v>5692</v>
       </c>
@@ -24583,7 +24586,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15.75">
+    <row r="619" spans="1:2" ht="15">
       <c r="A619" t="s">
         <v>5693</v>
       </c>
@@ -24591,7 +24594,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15.75">
+    <row r="620" spans="1:2" ht="15">
       <c r="A620" t="s">
         <v>5694</v>
       </c>
@@ -24599,7 +24602,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15.75">
+    <row r="621" spans="1:2" ht="15">
       <c r="A621" t="s">
         <v>5695</v>
       </c>
@@ -24607,7 +24610,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15.75">
+    <row r="622" spans="1:2" ht="15">
       <c r="A622" t="s">
         <v>5697</v>
       </c>
@@ -24615,7 +24618,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15.75">
+    <row r="623" spans="1:2" ht="15">
       <c r="A623" t="s">
         <v>5698</v>
       </c>
@@ -24623,7 +24626,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15.75">
+    <row r="624" spans="1:2" ht="15">
       <c r="A624" t="s">
         <v>5699</v>
       </c>
@@ -24631,7 +24634,7 @@
         <v>5696</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15.75">
+    <row r="625" spans="1:2" ht="15">
       <c r="A625" t="s">
         <v>5700</v>
       </c>
@@ -24639,7 +24642,7 @@
         <v>5701</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15.75">
+    <row r="626" spans="1:2" ht="15">
       <c r="A626" t="s">
         <v>5702</v>
       </c>
@@ -24647,7 +24650,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15.75">
+    <row r="627" spans="1:2" ht="15">
       <c r="A627" t="s">
         <v>5704</v>
       </c>
@@ -24655,7 +24658,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15.75">
+    <row r="628" spans="1:2" ht="15">
       <c r="A628" t="s">
         <v>5705</v>
       </c>
@@ -24663,7 +24666,7 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15.75">
+    <row r="629" spans="1:2" ht="15">
       <c r="A629" t="s">
         <v>5706</v>
       </c>
@@ -24671,7 +24674,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15.75">
+    <row r="630" spans="1:2" ht="15">
       <c r="A630" t="s">
         <v>5708</v>
       </c>
@@ -24679,7 +24682,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15.75">
+    <row r="631" spans="1:2" ht="15">
       <c r="A631" t="s">
         <v>5709</v>
       </c>
@@ -24687,7 +24690,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15.75">
+    <row r="632" spans="1:2" ht="15">
       <c r="A632" t="s">
         <v>5710</v>
       </c>
@@ -24695,7 +24698,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15.75">
+    <row r="633" spans="1:2" ht="15">
       <c r="A633" t="s">
         <v>5711</v>
       </c>
@@ -24703,7 +24706,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15.75">
+    <row r="634" spans="1:2" ht="15">
       <c r="A634" t="s">
         <v>5713</v>
       </c>
@@ -24711,7 +24714,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15.75">
+    <row r="635" spans="1:2" ht="15">
       <c r="A635" t="s">
         <v>5714</v>
       </c>
@@ -24719,7 +24722,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15.75">
+    <row r="636" spans="1:2" ht="15">
       <c r="A636" t="s">
         <v>5715</v>
       </c>
@@ -24727,7 +24730,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15.75">
+    <row r="637" spans="1:2" ht="15">
       <c r="A637" t="s">
         <v>5716</v>
       </c>
@@ -24735,7 +24738,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15.75">
+    <row r="638" spans="1:2" ht="15">
       <c r="A638" t="s">
         <v>5718</v>
       </c>
@@ -24743,7 +24746,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15.75">
+    <row r="639" spans="1:2" ht="15">
       <c r="A639" t="s">
         <v>5719</v>
       </c>
@@ -24751,7 +24754,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15.75">
+    <row r="640" spans="1:2" ht="15">
       <c r="A640" t="s">
         <v>5720</v>
       </c>
@@ -24759,7 +24762,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15.75">
+    <row r="641" spans="1:2" ht="15">
       <c r="A641" t="s">
         <v>5721</v>
       </c>
@@ -24767,7 +24770,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="15.75">
+    <row r="642" spans="1:2" ht="15">
       <c r="A642" t="s">
         <v>5723</v>
       </c>
@@ -24775,7 +24778,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="15.75">
+    <row r="643" spans="1:2" ht="15">
       <c r="A643" t="s">
         <v>5724</v>
       </c>
@@ -24783,7 +24786,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="15.75">
+    <row r="644" spans="1:2" ht="15">
       <c r="A644" t="s">
         <v>5725</v>
       </c>
@@ -24791,7 +24794,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15.75">
+    <row r="645" spans="1:2" ht="15">
       <c r="A645" t="s">
         <v>5726</v>
       </c>
@@ -24799,7 +24802,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15.75">
+    <row r="646" spans="1:2" ht="15">
       <c r="A646" t="s">
         <v>5728</v>
       </c>
@@ -24807,7 +24810,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15.75">
+    <row r="647" spans="1:2" ht="15">
       <c r="A647" t="s">
         <v>5729</v>
       </c>
@@ -24815,7 +24818,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15.75">
+    <row r="648" spans="1:2" ht="15">
       <c r="A648" t="s">
         <v>5730</v>
       </c>
@@ -24823,7 +24826,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15.75">
+    <row r="649" spans="1:2" ht="15">
       <c r="A649" t="s">
         <v>5731</v>
       </c>
@@ -24831,7 +24834,7 @@
         <v>5732</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15.75">
+    <row r="650" spans="1:2" ht="15">
       <c r="A650" t="s">
         <v>3124</v>
       </c>
@@ -24839,7 +24842,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15.75">
+    <row r="651" spans="1:2" ht="15">
       <c r="A651" t="s">
         <v>3126</v>
       </c>
@@ -24847,7 +24850,7 @@
         <v>5749</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15.75">
+    <row r="652" spans="1:2" ht="15">
       <c r="A652" t="s">
         <v>5733</v>
       </c>
@@ -24855,7 +24858,7 @@
         <v>5748</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15.75">
+    <row r="653" spans="1:2" ht="15">
       <c r="A653" t="s">
         <v>5734</v>
       </c>
@@ -24863,7 +24866,7 @@
         <v>5747</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15.75">
+    <row r="654" spans="1:2" ht="15">
       <c r="A654" t="s">
         <v>5735</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15.75">
+    <row r="655" spans="1:2" ht="15">
       <c r="A655" t="s">
         <v>5736</v>
       </c>
@@ -24879,7 +24882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15.75">
+    <row r="656" spans="1:2" ht="15">
       <c r="A656" t="s">
         <v>5737</v>
       </c>
@@ -24887,7 +24890,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15.75">
+    <row r="657" spans="1:2" ht="15">
       <c r="A657" t="s">
         <v>5741</v>
       </c>
@@ -24895,7 +24898,7 @@
         <v>5742</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15.75">
+    <row r="658" spans="1:2" ht="15">
       <c r="A658" t="s">
         <v>5738</v>
       </c>
@@ -24903,7 +24906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15.75">
+    <row r="659" spans="1:2" ht="15">
       <c r="A659" t="s">
         <v>5739</v>
       </c>
@@ -24911,20 +24914,28 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15.75">
+    <row r="660" spans="1:2" ht="15">
       <c r="A660" t="s">
         <v>1278</v>
       </c>
       <c r="B660" t="s">
-        <v>5744</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" ht="15.75">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="15">
       <c r="A661" t="s">
         <v>5740</v>
       </c>
       <c r="B661" t="s">
         <v>5745</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>5744</v>
       </c>
     </row>
   </sheetData>
@@ -24967,7 +24978,7 @@
     <col min="3" max="3" width="30.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1799</v>
       </c>
@@ -28539,7 +28550,7 @@
     <col min="3" max="3" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1799</v>
       </c>
@@ -28979,7 +28990,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>2885</v>
       </c>
@@ -31861,7 +31872,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>747</v>
       </c>
@@ -31883,7 +31894,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>783</v>
       </c>
@@ -31916,7 +31927,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>689</v>
       </c>
@@ -32004,7 +32015,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>758</v>
       </c>
@@ -32136,7 +32147,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>789</v>
       </c>
@@ -32213,7 +32224,7 @@
         <v>5371</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>807</v>
       </c>
@@ -32257,7 +32268,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>756</v>
       </c>
@@ -32268,7 +32279,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>801</v>
       </c>
@@ -32334,7 +32345,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>696</v>
       </c>
@@ -32378,7 +32389,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>663</v>
       </c>
@@ -32499,7 +32510,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>777</v>
       </c>
@@ -32532,7 +32543,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>682</v>
       </c>
@@ -32543,7 +32554,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>733</v>
       </c>
@@ -32576,7 +32587,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>683</v>
       </c>
@@ -32741,7 +32752,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="15">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>3118</v>
       </c>
@@ -32807,7 +32818,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="15">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>950</v>
       </c>
@@ -32818,7 +32829,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>947</v>
       </c>
@@ -32851,7 +32862,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>946</v>
       </c>
@@ -32884,7 +32895,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>945</v>
       </c>
@@ -32895,7 +32906,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>941</v>
       </c>
@@ -32961,7 +32972,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>581</v>
       </c>
@@ -32972,7 +32983,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="15">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>576</v>
       </c>
@@ -32994,7 +33005,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="15">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>574</v>
       </c>
@@ -33027,7 +33038,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="15">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>572</v>
       </c>
@@ -33038,7 +33049,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="15">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>565</v>
       </c>
@@ -33236,7 +33247,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="15">
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>2989</v>
       </c>
@@ -33247,7 +33258,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="15">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>2987</v>
       </c>
@@ -33258,7 +33269,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="15">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>2988</v>
       </c>
@@ -33357,7 +33368,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>2985</v>
       </c>
@@ -33368,7 +33379,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="15">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>2984</v>
       </c>
@@ -33456,7 +33467,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="15">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>877</v>
       </c>
@@ -33467,7 +33478,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="15">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>874</v>
       </c>
@@ -33478,7 +33489,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="15">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>876</v>
       </c>
@@ -33654,7 +33665,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="15">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>587</v>
       </c>
@@ -33676,7 +33687,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="15">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>591</v>
       </c>
@@ -33874,7 +33885,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="15">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>3115</v>
       </c>
@@ -34204,7 +34215,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="15">
+    <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
         <v>2959</v>
       </c>
@@ -34237,7 +34248,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="15">
+    <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
         <v>2957</v>
       </c>
@@ -34270,7 +34281,7 @@
         <v>5480</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="15">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>2968</v>
       </c>
@@ -34292,7 +34303,7 @@
         <v>5482</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="15">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>2961</v>
       </c>
@@ -34314,7 +34325,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="15">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>2956</v>
       </c>
@@ -34325,7 +34336,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="15">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>2960</v>
       </c>
@@ -35359,7 +35370,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="15">
+    <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
         <v>3231</v>
       </c>
@@ -35381,7 +35392,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="15">
+    <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
         <v>3233</v>
       </c>
@@ -35414,7 +35425,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="15">
+    <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
         <v>3236</v>
       </c>
@@ -35502,7 +35513,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="15">
+    <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
         <v>3244</v>
       </c>
@@ -35634,7 +35645,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="15">
+    <row r="646" spans="1:3">
       <c r="A646" s="1" t="s">
         <v>3256</v>
       </c>
@@ -35711,7 +35722,7 @@
         <v>5371</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="15">
+    <row r="653" spans="1:3">
       <c r="A653" s="1" t="s">
         <v>3263</v>
       </c>
@@ -35755,7 +35766,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="15">
+    <row r="657" spans="1:3">
       <c r="A657" s="1" t="s">
         <v>3267</v>
       </c>
@@ -35766,7 +35777,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="15">
+    <row r="658" spans="1:3">
       <c r="A658" s="1" t="s">
         <v>3268</v>
       </c>
@@ -35832,7 +35843,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="15">
+    <row r="664" spans="1:3">
       <c r="A664" s="1" t="s">
         <v>3274</v>
       </c>
@@ -35876,7 +35887,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="15">
+    <row r="668" spans="1:3">
       <c r="A668" s="1" t="s">
         <v>3278</v>
       </c>
@@ -35997,7 +36008,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="15">
+    <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
         <v>3289</v>
       </c>
@@ -36030,7 +36041,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="15">
+    <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
         <v>3292</v>
       </c>
@@ -36041,7 +36052,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="15">
+    <row r="683" spans="1:3">
       <c r="A683" s="1" t="s">
         <v>3293</v>
       </c>
@@ -36074,7 +36085,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="15">
+    <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
         <v>3296</v>
       </c>
@@ -36459,7 +36470,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="15">
+    <row r="721" spans="1:3">
       <c r="A721" s="1" t="s">
         <v>3311</v>
       </c>
@@ -36525,7 +36536,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="15">
+    <row r="727" spans="1:3">
       <c r="A727" s="1" t="s">
         <v>3317</v>
       </c>
@@ -36536,7 +36547,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="15">
+    <row r="728" spans="1:3">
       <c r="A728" s="1" t="s">
         <v>3318</v>
       </c>
@@ -36569,7 +36580,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="15">
+    <row r="731" spans="1:3">
       <c r="A731" s="1" t="s">
         <v>3321</v>
       </c>
@@ -36602,7 +36613,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="15">
+    <row r="734" spans="1:3">
       <c r="A734" s="1" t="s">
         <v>3324</v>
       </c>
@@ -36613,7 +36624,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="15">
+    <row r="735" spans="1:3">
       <c r="A735" s="1" t="s">
         <v>3325</v>
       </c>
@@ -36679,7 +36690,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="15">
+    <row r="741" spans="1:3">
       <c r="A741" s="1" t="s">
         <v>3331</v>
       </c>
@@ -36690,7 +36701,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="15">
+    <row r="742" spans="1:3">
       <c r="A742" s="1" t="s">
         <v>3332</v>
       </c>
@@ -36712,7 +36723,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="15">
+    <row r="744" spans="1:3">
       <c r="A744" s="1" t="s">
         <v>3334</v>
       </c>
@@ -36745,7 +36756,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="15">
+    <row r="747" spans="1:3">
       <c r="A747" s="1" t="s">
         <v>3337</v>
       </c>
@@ -36756,7 +36767,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="15">
+    <row r="748" spans="1:3">
       <c r="A748" s="1" t="s">
         <v>3338</v>
       </c>
@@ -36954,7 +36965,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="15">
+    <row r="766" spans="1:3">
       <c r="A766" s="1" t="s">
         <v>3356</v>
       </c>
@@ -36965,7 +36976,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="15">
+    <row r="767" spans="1:3">
       <c r="A767" s="1" t="s">
         <v>3357</v>
       </c>
@@ -36976,7 +36987,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="15">
+    <row r="768" spans="1:3">
       <c r="A768" s="1" t="s">
         <v>3358</v>
       </c>
@@ -37075,7 +37086,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="15">
+    <row r="777" spans="1:3">
       <c r="A777" s="1" t="s">
         <v>3367</v>
       </c>
@@ -37086,7 +37097,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="15">
+    <row r="778" spans="1:3">
       <c r="A778" s="1" t="s">
         <v>3368</v>
       </c>
@@ -37174,7 +37185,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="15">
+    <row r="786" spans="1:3">
       <c r="A786" s="1" t="s">
         <v>3376</v>
       </c>
@@ -37185,7 +37196,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="15">
+    <row r="787" spans="1:3">
       <c r="A787" s="1" t="s">
         <v>3377</v>
       </c>
@@ -37196,7 +37207,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="15">
+    <row r="788" spans="1:3">
       <c r="A788" s="1" t="s">
         <v>3378</v>
       </c>
@@ -37372,7 +37383,7 @@
         <v>5526</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="15">
+    <row r="804" spans="1:3">
       <c r="A804" s="1" t="s">
         <v>3394</v>
       </c>
@@ -37394,7 +37405,7 @@
         <v>5527</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="15">
+    <row r="806" spans="1:3">
       <c r="A806" s="1" t="s">
         <v>3396</v>
       </c>
@@ -37592,7 +37603,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="15">
+    <row r="824" spans="1:3">
       <c r="A824" s="1" t="s">
         <v>3414</v>
       </c>
@@ -37922,7 +37933,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="15">
+    <row r="854" spans="1:3">
       <c r="A854" s="1" t="s">
         <v>3444</v>
       </c>
@@ -37955,7 +37966,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="15">
+    <row r="857" spans="1:3">
       <c r="A857" s="1" t="s">
         <v>3447</v>
       </c>
@@ -37988,7 +37999,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="15">
+    <row r="860" spans="1:3">
       <c r="A860" s="1" t="s">
         <v>3450</v>
       </c>
@@ -38010,7 +38021,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="15">
+    <row r="862" spans="1:3">
       <c r="A862" s="1" t="s">
         <v>3452</v>
       </c>
@@ -38032,7 +38043,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="15">
+    <row r="864" spans="1:3">
       <c r="A864" s="1" t="s">
         <v>3454</v>
       </c>
@@ -38043,7 +38054,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="15">
+    <row r="865" spans="1:3">
       <c r="A865" s="1" t="s">
         <v>3455</v>
       </c>
@@ -39099,7 +39110,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="15">
+    <row r="961" spans="1:3">
       <c r="A961" s="1" t="s">
         <v>1117</v>
       </c>
@@ -39121,7 +39132,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="15">
+    <row r="963" spans="1:3">
       <c r="A963" s="1" t="s">
         <v>1136</v>
       </c>
@@ -39154,7 +39165,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="15">
+    <row r="966" spans="1:3">
       <c r="A966" s="1" t="s">
         <v>1087</v>
       </c>
@@ -39242,7 +39253,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="974" spans="1:3" ht="15">
+    <row r="974" spans="1:3">
       <c r="A974" s="1" t="s">
         <v>1123</v>
       </c>
@@ -39374,7 +39385,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="986" spans="1:3" ht="15">
+    <row r="986" spans="1:3">
       <c r="A986" s="1" t="s">
         <v>1139</v>
       </c>
@@ -39451,7 +39462,7 @@
         <v>5371</v>
       </c>
     </row>
-    <row r="993" spans="1:3" ht="15">
+    <row r="993" spans="1:3">
       <c r="A993" s="1" t="s">
         <v>1148</v>
       </c>
@@ -39495,7 +39506,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="997" spans="1:3" ht="15">
+    <row r="997" spans="1:3">
       <c r="A997" s="1" t="s">
         <v>1122</v>
       </c>
@@ -39506,7 +39517,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="998" spans="1:3" ht="15">
+    <row r="998" spans="1:3">
       <c r="A998" s="1" t="s">
         <v>1145</v>
       </c>
@@ -39572,7 +39583,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" ht="15">
+    <row r="1004" spans="1:3">
       <c r="A1004" s="1" t="s">
         <v>1091</v>
       </c>
@@ -39616,7 +39627,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" ht="15">
+    <row r="1008" spans="1:3">
       <c r="A1008" s="1" t="s">
         <v>1073</v>
       </c>
@@ -39737,7 +39748,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" ht="15">
+    <row r="1019" spans="1:3">
       <c r="A1019" s="1" t="s">
         <v>1133</v>
       </c>
@@ -39770,7 +39781,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" ht="15">
+    <row r="1022" spans="1:3">
       <c r="A1022" s="1" t="s">
         <v>1083</v>
       </c>
@@ -39781,7 +39792,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" ht="15">
+    <row r="1023" spans="1:3">
       <c r="A1023" s="1" t="s">
         <v>1110</v>
       </c>
@@ -39814,7 +39825,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" ht="15">
+    <row r="1026" spans="1:3">
       <c r="A1026" s="1" t="s">
         <v>1084</v>
       </c>
@@ -39979,7 +39990,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" ht="15">
+    <row r="1041" spans="1:3">
       <c r="A1041" s="1" t="s">
         <v>3114</v>
       </c>
@@ -40045,7 +40056,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="1047" spans="1:3" ht="15">
+    <row r="1047" spans="1:3">
       <c r="A1047" s="1" t="s">
         <v>1245</v>
       </c>
@@ -40056,7 +40067,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="1048" spans="1:3" ht="15">
+    <row r="1048" spans="1:3">
       <c r="A1048" s="1" t="s">
         <v>1242</v>
       </c>
@@ -40089,7 +40100,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" ht="15">
+    <row r="1051" spans="1:3">
       <c r="A1051" s="1" t="s">
         <v>1241</v>
       </c>
@@ -40122,7 +40133,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" ht="15">
+    <row r="1054" spans="1:3">
       <c r="A1054" s="1" t="s">
         <v>1240</v>
       </c>
@@ -40133,7 +40144,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="1055" spans="1:3" ht="15">
+    <row r="1055" spans="1:3">
       <c r="A1055" s="1" t="s">
         <v>1236</v>
       </c>
@@ -40199,7 +40210,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="1061" spans="1:3" ht="15">
+    <row r="1061" spans="1:3">
       <c r="A1061" s="1" t="s">
         <v>1012</v>
       </c>
@@ -40210,7 +40221,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="1062" spans="1:3" ht="15">
+    <row r="1062" spans="1:3">
       <c r="A1062" s="1" t="s">
         <v>1009</v>
       </c>
@@ -40232,7 +40243,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="1064" spans="1:3" ht="15">
+    <row r="1064" spans="1:3">
       <c r="A1064" s="1" t="s">
         <v>1008</v>
       </c>
@@ -40265,7 +40276,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="1067" spans="1:3" ht="15">
+    <row r="1067" spans="1:3">
       <c r="A1067" s="1" t="s">
         <v>1007</v>
       </c>
@@ -40276,7 +40287,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" ht="15">
+    <row r="1068" spans="1:3">
       <c r="A1068" s="1" t="s">
         <v>1003</v>
       </c>
@@ -40474,7 +40485,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="1086" spans="1:3" ht="15">
+    <row r="1086" spans="1:3">
       <c r="A1086" s="1" t="s">
         <v>2946</v>
       </c>
@@ -40485,7 +40496,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="1087" spans="1:3" ht="15">
+    <row r="1087" spans="1:3">
       <c r="A1087" s="1" t="s">
         <v>2944</v>
       </c>
@@ -40496,7 +40507,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="1088" spans="1:3" ht="15">
+    <row r="1088" spans="1:3">
       <c r="A1088" s="1" t="s">
         <v>2945</v>
       </c>
@@ -40595,7 +40606,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="1097" spans="1:3" ht="15">
+    <row r="1097" spans="1:3">
       <c r="A1097" s="1" t="s">
         <v>2942</v>
       </c>
@@ -40606,7 +40617,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="1098" spans="1:3" ht="15">
+    <row r="1098" spans="1:3">
       <c r="A1098" s="1" t="s">
         <v>2941</v>
       </c>
@@ -40694,7 +40705,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="1106" spans="1:3" ht="15">
+    <row r="1106" spans="1:3">
       <c r="A1106" s="1" t="s">
         <v>1193</v>
       </c>
@@ -40705,7 +40716,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="1107" spans="1:3" ht="15">
+    <row r="1107" spans="1:3">
       <c r="A1107" s="1" t="s">
         <v>1191</v>
       </c>
@@ -40716,7 +40727,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="1108" spans="1:3" ht="15">
+    <row r="1108" spans="1:3">
       <c r="A1108" s="1" t="s">
         <v>1192</v>
       </c>
@@ -40892,7 +40903,7 @@
         <v>5526</v>
       </c>
     </row>
-    <row r="1124" spans="1:3" ht="15">
+    <row r="1124" spans="1:3">
       <c r="A1124" s="1" t="s">
         <v>1015</v>
       </c>
@@ -40914,7 +40925,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="1126" spans="1:3" ht="15">
+    <row r="1126" spans="1:3">
       <c r="A1126" s="1" t="s">
         <v>1017</v>
       </c>
@@ -41112,7 +41123,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="1144" spans="1:3" ht="15">
+    <row r="1144" spans="1:3">
       <c r="A1144" s="1" t="s">
         <v>3111</v>
       </c>
@@ -41442,7 +41453,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="1174" spans="1:3" ht="15">
+    <row r="1174" spans="1:3">
       <c r="A1174" s="1" t="s">
         <v>2906</v>
       </c>
@@ -41475,7 +41486,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="1177" spans="1:3" ht="15">
+    <row r="1177" spans="1:3">
       <c r="A1177" s="1" t="s">
         <v>2902</v>
       </c>
@@ -41508,7 +41519,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="1180" spans="1:3" ht="15">
+    <row r="1180" spans="1:3">
       <c r="A1180" s="1" t="s">
         <v>2924</v>
       </c>
@@ -41530,7 +41541,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="1182" spans="1:3" ht="15">
+    <row r="1182" spans="1:3">
       <c r="A1182" s="1" t="s">
         <v>2910</v>
       </c>
@@ -41552,7 +41563,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="1184" spans="1:3" ht="15">
+    <row r="1184" spans="1:3">
       <c r="A1184" s="1" t="s">
         <v>2900</v>
       </c>
@@ -41563,7 +41574,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="1185" spans="1:3" ht="15">
+    <row r="1185" spans="1:3">
       <c r="A1185" s="1" t="s">
         <v>2908</v>
       </c>
@@ -42544,7 +42555,7 @@
         <v>5602</v>
       </c>
     </row>
-    <row r="1275" spans="1:3" ht="15">
+    <row r="1275" spans="1:3">
       <c r="A1275" s="1" t="s">
         <v>165</v>
       </c>
@@ -43432,7 +43443,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="1356" spans="1:3" ht="15">
+    <row r="1356" spans="1:3">
       <c r="A1356" s="1" t="s">
         <v>1492</v>
       </c>
@@ -43454,7 +43465,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="1358" spans="1:3" ht="15">
+    <row r="1358" spans="1:3">
       <c r="A1358" s="1" t="s">
         <v>1511</v>
       </c>
@@ -43487,7 +43498,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="1361" spans="1:3" ht="15">
+    <row r="1361" spans="1:3">
       <c r="A1361" s="1" t="s">
         <v>1462</v>
       </c>
@@ -43575,7 +43586,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="1369" spans="1:3" ht="15">
+    <row r="1369" spans="1:3">
       <c r="A1369" s="1" t="s">
         <v>1498</v>
       </c>
@@ -43707,7 +43718,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="1381" spans="1:3" ht="15">
+    <row r="1381" spans="1:3">
       <c r="A1381" s="1" t="s">
         <v>1514</v>
       </c>
@@ -43784,7 +43795,7 @@
         <v>5371</v>
       </c>
     </row>
-    <row r="1388" spans="1:3" ht="15">
+    <row r="1388" spans="1:3">
       <c r="A1388" s="1" t="s">
         <v>1523</v>
       </c>
@@ -43828,7 +43839,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="1392" spans="1:3" ht="15">
+    <row r="1392" spans="1:3">
       <c r="A1392" s="1" t="s">
         <v>1497</v>
       </c>
@@ -43839,7 +43850,7 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="1393" spans="1:3" ht="15">
+    <row r="1393" spans="1:3">
       <c r="A1393" s="1" t="s">
         <v>1520</v>
       </c>
@@ -43905,7 +43916,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="1399" spans="1:3" ht="15">
+    <row r="1399" spans="1:3">
       <c r="A1399" s="1" t="s">
         <v>1466</v>
       </c>
@@ -43949,7 +43960,7 @@
         <v>5386</v>
       </c>
     </row>
-    <row r="1403" spans="1:3" ht="15">
+    <row r="1403" spans="1:3">
       <c r="A1403" s="1" t="s">
         <v>1448</v>
       </c>
@@ -44070,7 +44081,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="1414" spans="1:3" ht="15">
+    <row r="1414" spans="1:3">
       <c r="A1414" s="1" t="s">
         <v>1508</v>
       </c>
@@ -44103,7 +44114,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="1417" spans="1:3" ht="15">
+    <row r="1417" spans="1:3">
       <c r="A1417" s="1" t="s">
         <v>1458</v>
       </c>
@@ -44114,7 +44125,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="1418" spans="1:3" ht="15">
+    <row r="1418" spans="1:3">
       <c r="A1418" s="1" t="s">
         <v>1485</v>
       </c>
@@ -44147,7 +44158,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="1421" spans="1:3" ht="15">
+    <row r="1421" spans="1:3">
       <c r="A1421" s="1" t="s">
         <v>1459</v>
       </c>
@@ -44312,7 +44323,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="1436" spans="1:3" ht="15">
+    <row r="1436" spans="1:3">
       <c r="A1436" s="1" t="s">
         <v>3109</v>
       </c>
@@ -44378,7 +44389,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="1442" spans="1:3" ht="15">
+    <row r="1442" spans="1:3">
       <c r="A1442" s="1" t="s">
         <v>1620</v>
       </c>
@@ -44389,7 +44400,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="1443" spans="1:3" ht="15">
+    <row r="1443" spans="1:3">
       <c r="A1443" s="1" t="s">
         <v>1617</v>
       </c>
@@ -44422,7 +44433,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="1446" spans="1:3" ht="15">
+    <row r="1446" spans="1:3">
       <c r="A1446" s="1" t="s">
         <v>1616</v>
       </c>
@@ -44455,7 +44466,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="1449" spans="1:3" ht="15">
+    <row r="1449" spans="1:3">
       <c r="A1449" s="1" t="s">
         <v>1615</v>
       </c>
@@ -44466,7 +44477,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="1450" spans="1:3" ht="15">
+    <row r="1450" spans="1:3">
       <c r="A1450" s="1" t="s">
         <v>1611</v>
       </c>
@@ -44532,7 +44543,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="1456" spans="1:3" ht="15">
+    <row r="1456" spans="1:3">
       <c r="A1456" s="1" t="s">
         <v>1389</v>
       </c>
@@ -44543,7 +44554,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="1457" spans="1:3" ht="15">
+    <row r="1457" spans="1:3">
       <c r="A1457" s="1" t="s">
         <v>1386</v>
       </c>
@@ -44565,7 +44576,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="1459" spans="1:3" ht="15">
+    <row r="1459" spans="1:3">
       <c r="A1459" s="1" t="s">
         <v>1385</v>
       </c>
@@ -44598,7 +44609,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="1462" spans="1:3" ht="15">
+    <row r="1462" spans="1:3">
       <c r="A1462" s="1" t="s">
         <v>1384</v>
       </c>
@@ -44609,7 +44620,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="1463" spans="1:3" ht="15">
+    <row r="1463" spans="1:3">
       <c r="A1463" s="1" t="s">
         <v>1380</v>
       </c>
@@ -44807,7 +44818,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="1481" spans="1:3" ht="15">
+    <row r="1481" spans="1:3">
       <c r="A1481" s="1" t="s">
         <v>2869</v>
       </c>
@@ -44818,7 +44829,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="1482" spans="1:3" ht="15">
+    <row r="1482" spans="1:3">
       <c r="A1482" s="1" t="s">
         <v>2866</v>
       </c>
@@ -44829,7 +44840,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="1483" spans="1:3" ht="15">
+    <row r="1483" spans="1:3">
       <c r="A1483" s="1" t="s">
         <v>2868</v>
       </c>
@@ -44928,7 +44939,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="1492" spans="1:3" ht="15">
+    <row r="1492" spans="1:3">
       <c r="A1492" s="1" t="s">
         <v>2863</v>
       </c>
@@ -44939,7 +44950,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="1493" spans="1:3" ht="15">
+    <row r="1493" spans="1:3">
       <c r="A1493" s="1" t="s">
         <v>2860</v>
       </c>
@@ -45027,7 +45038,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="1501" spans="1:3" ht="15">
+    <row r="1501" spans="1:3">
       <c r="A1501" s="1" t="s">
         <v>1568</v>
       </c>
@@ -45038,7 +45049,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="1502" spans="1:3" ht="15">
+    <row r="1502" spans="1:3">
       <c r="A1502" s="1" t="s">
         <v>1566</v>
       </c>
@@ -45049,7 +45060,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="1503" spans="1:3" ht="15">
+    <row r="1503" spans="1:3">
       <c r="A1503" s="1" t="s">
         <v>1567</v>
       </c>
@@ -45225,7 +45236,7 @@
         <v>5526</v>
       </c>
     </row>
-    <row r="1519" spans="1:3" ht="15">
+    <row r="1519" spans="1:3">
       <c r="A1519" s="1" t="s">
         <v>1392</v>
       </c>
@@ -45247,7 +45258,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="1521" spans="1:3" ht="15">
+    <row r="1521" spans="1:3">
       <c r="A1521" s="1" t="s">
         <v>1394</v>
       </c>
@@ -45445,7 +45456,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="1539" spans="1:3" ht="15">
+    <row r="1539" spans="1:3">
       <c r="A1539" s="1" t="s">
         <v>3105</v>
       </c>
@@ -45775,7 +45786,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="1569" spans="1:3" ht="15">
+    <row r="1569" spans="1:3">
       <c r="A1569" s="1" t="s">
         <v>2816</v>
       </c>
@@ -45808,7 +45819,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="1572" spans="1:3" ht="15">
+    <row r="1572" spans="1:3">
       <c r="A1572" s="1" t="s">
         <v>2811</v>
       </c>
@@ -45841,7 +45852,7 @@
         <v>5480</v>
       </c>
     </row>
-    <row r="1575" spans="1:3" ht="15">
+    <row r="1575" spans="1:3">
       <c r="A1575" s="1" t="s">
         <v>2833</v>
       </c>
@@ -45863,7 +45874,7 @@
         <v>5482</v>
       </c>
     </row>
-    <row r="1577" spans="1:3" ht="15">
+    <row r="1577" spans="1:3">
       <c r="A1577" s="1" t="s">
         <v>2819</v>
       </c>
@@ -45885,7 +45896,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="1579" spans="1:3" ht="15">
+    <row r="1579" spans="1:3">
       <c r="A1579" s="1" t="s">
         <v>2810</v>
       </c>
@@ -45896,7 +45907,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="1580" spans="1:3" ht="15">
+    <row r="1580" spans="1:3">
       <c r="A1580" s="1" t="s">
         <v>2817</v>
       </c>
@@ -54935,7 +54946,7 @@
     <col min="3" max="3" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1799</v>
       </c>
@@ -55454,7 +55465,7 @@
     <col min="2" max="3" width="50.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="3" t="s">
         <v>1799</v>
       </c>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="29040" windowHeight="14625" tabRatio="500"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10804" uniqueCount="6463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10815" uniqueCount="6473">
   <si>
     <t>fi</t>
   </si>
@@ -19448,6 +19448,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Alareunasta</t>
+  </si>
+  <si>
+    <t>session-dead.title</t>
+  </si>
+  <si>
+    <t>Istunto vanhentunut</t>
+  </si>
+  <si>
+    <t>session-dead.message</t>
+  </si>
+  <si>
+    <t>Istunto on vanhentunut ja sinun tulee kirjautua järjestelmään uudelleen.</t>
+  </si>
+  <si>
+    <t>session-dead.logout</t>
+  </si>
+  <si>
+    <t>Kirjaudu</t>
+  </si>
+  <si>
+    <t>connection.offline</t>
+  </si>
+  <si>
+    <t>Yhteys palvelimeen on katkennut.&lt;br/&gt;Yhteyttä yritetään muodostaa uudelleen...</t>
+  </si>
+  <si>
+    <t>application.filter.search</t>
+  </si>
+  <si>
+    <t>etsi:</t>
   </si>
 </sst>
 </file>
@@ -20366,10 +20396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C664"/>
+  <dimension ref="A1:C670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection activeCell="B561" sqref="B561"/>
+    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="B670" sqref="B670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27120,6 +27150,51 @@
       </c>
       <c r="C664" s="5" t="s">
         <v>1794</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" s="1" t="s">
+        <v>6463</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" s="1" t="s">
+        <v>6465</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" s="1" t="s">
+        <v>6467</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" s="1" t="s">
+        <v>6469</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" s="1" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" s="1" t="s">
+        <v>6471</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>6472</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -16876,9 +16876,6 @@
     <t>för X personer</t>
   </si>
   <si>
-    <t>Balong eller terass</t>
-  </si>
-  <si>
     <t>Källarens areal</t>
   </si>
   <si>
@@ -19475,6 +19472,9 @@
   </si>
   <si>
     <t>Hakemukseen ei liity lausuntopyyntöjä</t>
+  </si>
+  <si>
+    <t>Balkong eller terass</t>
   </si>
 </sst>
 </file>
@@ -20395,7 +20395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="59" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="59" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -20465,10 +20465,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="B7" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -20489,10 +20489,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -20513,10 +20513,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5649</v>
+      </c>
+      <c r="B13" t="s">
         <v>5650</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5651</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -20529,10 +20529,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>5651</v>
+      </c>
+      <c r="B15" t="s">
         <v>5652</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5653</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -20845,7 +20845,7 @@
         <v>433</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>4882</v>
@@ -21108,7 +21108,7 @@
         <v>4782</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>6471</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -21400,7 +21400,7 @@
         <v>3126</v>
       </c>
       <c r="B98" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -21468,15 +21468,15 @@
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>5737</v>
+      </c>
+      <c r="B105" t="s">
         <v>5738</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5739</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -21484,23 +21484,23 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
       <c r="B107" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
       <c r="B108" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="B109" t="s">
         <v>190</v>
@@ -21508,7 +21508,7 @@
     </row>
     <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -21560,18 +21560,18 @@
     </row>
     <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="B115" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="B116" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -23523,10 +23523,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>5859</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>5860</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -23682,10 +23682,10 @@
     </row>
     <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>5653</v>
+      </c>
+      <c r="B312" t="s">
         <v>5654</v>
-      </c>
-      <c r="B312" t="s">
-        <v>5655</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -23786,10 +23786,10 @@
     </row>
     <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>5655</v>
+      </c>
+      <c r="B322" t="s">
         <v>5656</v>
-      </c>
-      <c r="B322" t="s">
-        <v>5657</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -23923,10 +23923,10 @@
     </row>
     <row r="335" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>5662</v>
+      </c>
+      <c r="B335" t="s">
         <v>5663</v>
-      </c>
-      <c r="B335" t="s">
-        <v>5664</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -24170,10 +24170,10 @@
     </row>
     <row r="358" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>5727</v>
+      </c>
+      <c r="B358" t="s">
         <v>5728</v>
-      </c>
-      <c r="B358" t="s">
-        <v>5729</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -24838,10 +24838,10 @@
     </row>
     <row r="419" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B419" t="s">
         <v>5648</v>
-      </c>
-      <c r="B419" t="s">
-        <v>5649</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -24945,98 +24945,98 @@
     </row>
     <row r="429" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="B429" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>5671</v>
+      </c>
+      <c r="B430" t="s">
         <v>5672</v>
-      </c>
-      <c r="B430" t="s">
-        <v>5673</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>5666</v>
+      </c>
+      <c r="B431" t="s">
         <v>5667</v>
-      </c>
-      <c r="B431" t="s">
-        <v>5668</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>5712</v>
+      </c>
+      <c r="B432" t="s">
         <v>5713</v>
-      </c>
-      <c r="B432" t="s">
-        <v>5714</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>5717</v>
+      </c>
+      <c r="B433" t="s">
         <v>5718</v>
-      </c>
-      <c r="B433" t="s">
-        <v>5719</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>5696</v>
+      </c>
+      <c r="B434" t="s">
         <v>5697</v>
-      </c>
-      <c r="B434" t="s">
-        <v>5698</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>5681</v>
+      </c>
+      <c r="B435" t="s">
         <v>5682</v>
-      </c>
-      <c r="B435" t="s">
-        <v>5683</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>5691</v>
+      </c>
+      <c r="B436" t="s">
         <v>5692</v>
-      </c>
-      <c r="B436" t="s">
-        <v>5693</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>5686</v>
+      </c>
+      <c r="B437" t="s">
         <v>5687</v>
-      </c>
-      <c r="B437" t="s">
-        <v>5688</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="B438" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
       <c r="B439" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
       <c r="B440" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -25052,170 +25052,170 @@
     </row>
     <row r="442" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>5722</v>
+      </c>
+      <c r="B442" t="s">
         <v>5723</v>
-      </c>
-      <c r="B442" t="s">
-        <v>5724</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>5674</v>
+        <v>5673</v>
       </c>
       <c r="B443" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="B444" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
       <c r="B445" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="B446" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
       <c r="B447" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
       <c r="B448" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="B449" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B450" t="s">
         <v>5677</v>
-      </c>
-      <c r="B450" t="s">
-        <v>5678</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>5707</v>
+      </c>
+      <c r="B451" t="s">
         <v>5708</v>
-      </c>
-      <c r="B451" t="s">
-        <v>5709</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B452" t="s">
         <v>5703</v>
-      </c>
-      <c r="B452" t="s">
-        <v>5704</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="B453" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
       <c r="B454" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
       <c r="B455" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
       <c r="B456" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="B457" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>5698</v>
+      </c>
+      <c r="B458" t="s">
         <v>5699</v>
-      </c>
-      <c r="B458" t="s">
-        <v>5700</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="B459" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="B460" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
       <c r="B461" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="B462" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -25231,34 +25231,34 @@
     </row>
     <row r="464" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="B464" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
       <c r="B465" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="B466" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>5664</v>
+      </c>
+      <c r="B467" t="s">
         <v>5665</v>
-      </c>
-      <c r="B467" t="s">
-        <v>5666</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -26125,10 +26125,10 @@
     </row>
     <row r="548" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>5657</v>
+      </c>
+      <c r="B548" t="s">
         <v>5658</v>
-      </c>
-      <c r="B548" t="s">
-        <v>5659</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
@@ -26213,18 +26213,18 @@
     </row>
     <row r="559" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>5659</v>
+      </c>
+      <c r="B559" t="s">
         <v>5660</v>
-      </c>
-      <c r="B559" t="s">
-        <v>5661</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
       <c r="B560" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
@@ -26589,98 +26589,98 @@
     </row>
     <row r="597" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="B597" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
       <c r="B598" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="B599" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="B600" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="B601" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="B602" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="B603" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
       <c r="B604" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="B605" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="B606" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
       <c r="B607" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
       <c r="B608" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -27151,34 +27151,34 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
+        <v>6460</v>
+      </c>
+      <c r="B665" s="5" t="s">
         <v>6461</v>
-      </c>
-      <c r="B665" s="5" t="s">
-        <v>6462</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
+        <v>6462</v>
+      </c>
+      <c r="B666" s="5" t="s">
         <v>6463</v>
-      </c>
-      <c r="B666" s="5" t="s">
-        <v>6464</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
+        <v>6464</v>
+      </c>
+      <c r="B667" s="5" t="s">
         <v>6465</v>
-      </c>
-      <c r="B667" s="5" t="s">
-        <v>6466</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
+        <v>6466</v>
+      </c>
+      <c r="B668" s="5" t="s">
         <v>6467</v>
-      </c>
-      <c r="B668" s="5" t="s">
-        <v>6468</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -27188,10 +27188,10 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
+        <v>6468</v>
+      </c>
+      <c r="B670" s="5" t="s">
         <v>6469</v>
-      </c>
-      <c r="B670" s="5" t="s">
-        <v>6470</v>
       </c>
     </row>
   </sheetData>
@@ -30819,25 +30819,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>5861</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>5862</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>5863</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>5864</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>3652</v>
@@ -30846,241 +30846,241 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>5866</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>5867</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>5867</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>5868</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>5869</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>5870</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>5871</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>5871</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>5872</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>5873</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>5873</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>5874</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>5875</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>5876</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>5877</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>5877</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>5878</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>5879</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>5879</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>5880</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>5881</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>5881</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>5882</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>5883</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>5884</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>5885</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>5886</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>5887</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>5888</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>5889</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>5890</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>5891</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>5892</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>5893</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>5894</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>5895</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
+        <v>5895</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>5896</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>5897</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>5898</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>5899</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>5900</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>5901</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>5901</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>5902</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>5903</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>5903</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>5904</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>5905</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>5905</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>5906</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>5907</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>5908</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>5909</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>5909</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>5910</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>5911</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>5912</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>5913</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
+        <v>5913</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>5914</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>5915</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
+        <v>5915</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5916</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>5917</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>5918</v>
+        <v>5917</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>3717</v>
@@ -31089,106 +31089,106 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
+        <v>5918</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>5919</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>5920</v>
       </c>
       <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>5920</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>5921</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>5922</v>
       </c>
       <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>5922</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>5923</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>5924</v>
       </c>
       <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
+        <v>5924</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>5925</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>5926</v>
       </c>
       <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
+        <v>5926</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>5927</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>5928</v>
       </c>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
+        <v>5928</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>5929</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>5930</v>
       </c>
       <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>5930</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>5931</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>5932</v>
       </c>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>5932</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>5933</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>5934</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>5934</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>5935</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>5936</v>
       </c>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
+        <v>5936</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>5937</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>5938</v>
       </c>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
+        <v>5938</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>5939</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>5940</v>
       </c>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>5941</v>
+        <v>5940</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>3729</v>
@@ -31197,304 +31197,304 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
+        <v>5941</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>5942</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>5943</v>
       </c>
       <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
+        <v>5943</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>5944</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>5945</v>
       </c>
       <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
+        <v>5945</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>5946</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>5947</v>
       </c>
       <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
+        <v>5947</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>5948</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>5949</v>
       </c>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
+        <v>5949</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>5950</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>5951</v>
       </c>
       <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
+        <v>5951</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>5952</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>5953</v>
       </c>
       <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
+        <v>5953</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>5954</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>5955</v>
       </c>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
+        <v>5955</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>5956</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>5957</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>5958</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>5959</v>
       </c>
       <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>5959</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>5960</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>5961</v>
       </c>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>5962</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>5963</v>
       </c>
       <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
+        <v>5963</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>5964</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>5965</v>
       </c>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
+        <v>5965</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>5966</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>5967</v>
       </c>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
+        <v>5967</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>5968</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>5969</v>
       </c>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
+        <v>5969</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>5970</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>5971</v>
       </c>
       <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
+        <v>5971</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>5972</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>5973</v>
       </c>
       <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>5973</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>5974</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>5975</v>
       </c>
       <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
+        <v>5975</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>5976</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>5977</v>
       </c>
       <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
+        <v>5977</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>5978</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>5979</v>
       </c>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
+        <v>5979</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>5980</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>5981</v>
       </c>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>5982</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>5983</v>
       </c>
       <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
+        <v>5983</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>5984</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>5985</v>
       </c>
       <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
+        <v>5985</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>5986</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>5987</v>
       </c>
       <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
+        <v>5987</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>5988</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>5989</v>
       </c>
       <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
+        <v>5989</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>5990</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>5991</v>
       </c>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
+        <v>5991</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>5992</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>5993</v>
       </c>
       <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
+        <v>5993</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>5994</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>5995</v>
       </c>
       <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>5995</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>5996</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>5997</v>
       </c>
       <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
+        <v>5997</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>5998</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>5999</v>
       </c>
       <c r="C72" s="13"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>5999</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>6000</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>6001</v>
       </c>
       <c r="C73" s="13"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>6001</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>6002</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>6003</v>
       </c>
       <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>6004</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>6005</v>
       </c>
       <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
+        <v>6005</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>6006</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>6007</v>
       </c>
       <c r="C76" s="13"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>3950</v>
@@ -31503,781 +31503,781 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>6009</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>6010</v>
       </c>
       <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>6011</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>6012</v>
       </c>
       <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
+        <v>6012</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>6013</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>6014</v>
       </c>
       <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
+        <v>6014</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>6015</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>6016</v>
       </c>
       <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
+        <v>6016</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>6017</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>6018</v>
       </c>
       <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
+        <v>6018</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>6019</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>6020</v>
       </c>
       <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
+        <v>6020</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>6021</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>6022</v>
       </c>
       <c r="C84" s="13"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>6022</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>6023</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>6024</v>
       </c>
       <c r="C85" s="13"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>6025</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>6026</v>
       </c>
       <c r="C86" s="13"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
+        <v>6026</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>6027</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>6028</v>
       </c>
       <c r="C87" s="13"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>6029</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>6030</v>
       </c>
       <c r="C88" s="13"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
+        <v>6030</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>6031</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>6032</v>
       </c>
       <c r="C89" s="13"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>6033</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>6034</v>
       </c>
       <c r="C90" s="13"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
+        <v>6034</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>6035</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>6036</v>
       </c>
       <c r="C91" s="13"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>6036</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>6037</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>6038</v>
       </c>
       <c r="C92" s="13"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
+        <v>6038</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>6039</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>6040</v>
       </c>
       <c r="C93" s="13"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>6040</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>6041</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>6042</v>
       </c>
       <c r="C94" s="13"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>6042</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>6043</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>6044</v>
       </c>
       <c r="C95" s="13"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>6045</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>6046</v>
       </c>
       <c r="C96" s="13"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>6046</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>6047</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>6048</v>
       </c>
       <c r="C97" s="13"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>6049</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>6050</v>
       </c>
       <c r="C98" s="13"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
+        <v>6050</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>6051</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>6052</v>
       </c>
       <c r="C99" s="13"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
+        <v>6052</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>6053</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>6054</v>
       </c>
       <c r="C100" s="13"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
+        <v>6054</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>6055</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>6056</v>
       </c>
       <c r="C101" s="13"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>6056</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>6057</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>6058</v>
       </c>
       <c r="C102" s="13"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
+        <v>6058</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>6059</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>6060</v>
       </c>
       <c r="C103" s="13"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
+        <v>6060</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>6061</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>6062</v>
       </c>
       <c r="C104" s="13"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
+        <v>6062</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>6063</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>6064</v>
       </c>
       <c r="C105" s="13"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
+        <v>6064</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>6065</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>6066</v>
       </c>
       <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
+        <v>6066</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>6067</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>6068</v>
       </c>
       <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>6069</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>6070</v>
       </c>
       <c r="C108" s="13"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>6071</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>6072</v>
       </c>
       <c r="C109" s="13"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>6073</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>6074</v>
       </c>
       <c r="C110" s="13"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>6075</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>6076</v>
       </c>
       <c r="C111" s="13"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
+        <v>6076</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>6077</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>6078</v>
       </c>
       <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>6079</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>6080</v>
       </c>
       <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
+        <v>6080</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>6081</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>6082</v>
       </c>
       <c r="C114" s="13"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
+        <v>6082</v>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>6083</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>6084</v>
       </c>
       <c r="C115" s="13"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
+        <v>6084</v>
+      </c>
+      <c r="B116" s="13" t="s">
         <v>6085</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>6086</v>
       </c>
       <c r="C116" s="13"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>6087</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>6088</v>
       </c>
       <c r="C117" s="13"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
+        <v>6088</v>
+      </c>
+      <c r="B118" s="13" t="s">
         <v>6089</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>6090</v>
       </c>
       <c r="C118" s="13"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>6090</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>6091</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>6092</v>
       </c>
       <c r="C119" s="13"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>6093</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>6094</v>
       </c>
       <c r="C120" s="13"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
+        <v>6094</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>6095</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>6096</v>
       </c>
       <c r="C121" s="13"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>6096</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>6097</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>6098</v>
       </c>
       <c r="C122" s="13"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
+        <v>6098</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>6099</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>6100</v>
       </c>
       <c r="C123" s="13"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
+        <v>6100</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>6101</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>6102</v>
       </c>
       <c r="C124" s="13"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
+        <v>6102</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>6103</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>6104</v>
       </c>
       <c r="C125" s="13"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>6105</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>6106</v>
       </c>
       <c r="C126" s="13"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
+        <v>6106</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>6107</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>6108</v>
       </c>
       <c r="C127" s="13"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>6109</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>6110</v>
       </c>
       <c r="C128" s="13"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B129" s="13" t="s">
         <v>6111</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>6112</v>
       </c>
       <c r="C129" s="13"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
+        <v>6112</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>6113</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>6114</v>
       </c>
       <c r="C130" s="13"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
+        <v>6114</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>6115</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>6116</v>
       </c>
       <c r="C131" s="13"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
+        <v>6116</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>6117</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>6118</v>
       </c>
       <c r="C132" s="13"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B133" s="13" t="s">
         <v>6119</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>6120</v>
       </c>
       <c r="C133" s="13"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
+        <v>6120</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>6121</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>6122</v>
       </c>
       <c r="C134" s="13"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
+        <v>6122</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>6123</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>6124</v>
       </c>
       <c r="C135" s="13"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
+        <v>6124</v>
+      </c>
+      <c r="B136" s="13" t="s">
         <v>6125</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>6126</v>
       </c>
       <c r="C136" s="13"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
+        <v>6126</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>6127</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>6128</v>
       </c>
       <c r="C137" s="13"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>6129</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>6130</v>
       </c>
       <c r="C138" s="13"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>6131</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>6132</v>
       </c>
       <c r="C139" s="13"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>6133</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>6134</v>
       </c>
       <c r="C140" s="13"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B141" s="13" t="s">
         <v>6135</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>6136</v>
       </c>
       <c r="C141" s="13"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
+        <v>6136</v>
+      </c>
+      <c r="B142" s="13" t="s">
         <v>6137</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>6138</v>
       </c>
       <c r="C142" s="13"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
+        <v>6138</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>6139</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>6140</v>
       </c>
       <c r="C143" s="13"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
+        <v>6140</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>6141</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>6142</v>
       </c>
       <c r="C144" s="13"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
+        <v>6142</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>6143</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>6144</v>
       </c>
       <c r="C145" s="13"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
+        <v>6144</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>6145</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>6146</v>
       </c>
       <c r="C146" s="13"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
+        <v>6146</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>6147</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>6148</v>
       </c>
       <c r="C147" s="13"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
+        <v>6148</v>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>6149</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>6150</v>
       </c>
       <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
+        <v>6150</v>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>6151</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>6152</v>
       </c>
       <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
+        <v>6152</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>6153</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>6154</v>
       </c>
       <c r="C150" s="13"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
+        <v>6154</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>6155</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>6156</v>
       </c>
       <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
+        <v>6156</v>
+      </c>
+      <c r="B152" s="13" t="s">
         <v>6157</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>6158</v>
       </c>
       <c r="C152" s="13"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
+        <v>6158</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>6159</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>6160</v>
       </c>
       <c r="C153" s="13"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
+        <v>6160</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>6161</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>6162</v>
       </c>
       <c r="C154" s="13"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
+        <v>6162</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>6163</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>6164</v>
       </c>
       <c r="C155" s="13"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
+        <v>6164</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>6165</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>6166</v>
       </c>
       <c r="C156" s="13"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
+        <v>6166</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>6167</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>6168</v>
       </c>
       <c r="C157" s="13"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
+        <v>6168</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>6169</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>6170</v>
       </c>
       <c r="C158" s="13"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>6171</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>6172</v>
       </c>
       <c r="C159" s="13"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
+        <v>6172</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>6173</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>6174</v>
       </c>
       <c r="C160" s="13"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
+        <v>6174</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>6175</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>6176</v>
       </c>
       <c r="C161" s="13"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B162" s="13" t="s">
         <v>6177</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>6178</v>
       </c>
       <c r="C162" s="13"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
+        <v>6178</v>
+      </c>
+      <c r="B163" s="13" t="s">
         <v>6179</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>6180</v>
       </c>
       <c r="C163" s="13"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>6181</v>
+        <v>6180</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>4037</v>
@@ -32286,178 +32286,178 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
+        <v>6181</v>
+      </c>
+      <c r="B165" s="13" t="s">
         <v>6182</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>6183</v>
       </c>
       <c r="C165" s="13"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
+        <v>6183</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>6184</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>6185</v>
       </c>
       <c r="C166" s="13"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
+        <v>6185</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>6186</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>6187</v>
       </c>
       <c r="C167" s="13"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
+        <v>6187</v>
+      </c>
+      <c r="B168" s="13" t="s">
         <v>6188</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>6189</v>
       </c>
       <c r="C168" s="13"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
+        <v>6189</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>6190</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>6191</v>
       </c>
       <c r="C169" s="13"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B170" s="13" t="s">
         <v>6192</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>6193</v>
       </c>
       <c r="C170" s="13"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
+        <v>6193</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>6194</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>6195</v>
       </c>
       <c r="C171" s="13"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
+        <v>6195</v>
+      </c>
+      <c r="B172" s="13" t="s">
         <v>6196</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>6197</v>
       </c>
       <c r="C172" s="13"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
+        <v>6197</v>
+      </c>
+      <c r="B173" s="13" t="s">
         <v>6198</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>6199</v>
       </c>
       <c r="C173" s="13"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
+        <v>6199</v>
+      </c>
+      <c r="B174" s="13" t="s">
         <v>6200</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>6201</v>
       </c>
       <c r="C174" s="13"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
+        <v>6201</v>
+      </c>
+      <c r="B175" s="13" t="s">
         <v>6202</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>6203</v>
       </c>
       <c r="C175" s="13"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
+        <v>6203</v>
+      </c>
+      <c r="B176" s="13" t="s">
         <v>6204</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>6205</v>
       </c>
       <c r="C176" s="13"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
+        <v>6205</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>6206</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>6207</v>
       </c>
       <c r="C177" s="13"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
+        <v>6207</v>
+      </c>
+      <c r="B178" s="13" t="s">
         <v>6208</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>6209</v>
       </c>
       <c r="C178" s="13"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
+        <v>6209</v>
+      </c>
+      <c r="B179" s="13" t="s">
         <v>6210</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>6211</v>
       </c>
       <c r="C179" s="13"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>6212</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>6213</v>
       </c>
       <c r="C180" s="13"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
+        <v>6213</v>
+      </c>
+      <c r="B181" s="13" t="s">
         <v>6214</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>6215</v>
       </c>
       <c r="C181" s="13"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
+        <v>6215</v>
+      </c>
+      <c r="B182" s="13" t="s">
         <v>6216</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>6217</v>
       </c>
       <c r="C182" s="13"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>6218</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>6219</v>
       </c>
       <c r="C183" s="13"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>6220</v>
+        <v>6219</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>2748</v>
@@ -32466,1069 +32466,1069 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
+        <v>6220</v>
+      </c>
+      <c r="B185" s="13" t="s">
         <v>6221</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>6222</v>
       </c>
       <c r="C185" s="13"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B186" s="13" t="s">
         <v>6223</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>6224</v>
       </c>
       <c r="C186" s="13"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
+        <v>6224</v>
+      </c>
+      <c r="B187" s="13" t="s">
         <v>6225</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>6226</v>
       </c>
       <c r="C187" s="13"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
+        <v>6226</v>
+      </c>
+      <c r="B188" s="13" t="s">
         <v>6227</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>6228</v>
       </c>
       <c r="C188" s="13"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
+        <v>6228</v>
+      </c>
+      <c r="B189" s="13" t="s">
         <v>6229</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>6230</v>
       </c>
       <c r="C189" s="13"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
+        <v>6230</v>
+      </c>
+      <c r="B190" s="13" t="s">
         <v>6231</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>6232</v>
       </c>
       <c r="C190" s="13"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
+        <v>6232</v>
+      </c>
+      <c r="B191" s="13" t="s">
         <v>6233</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>6234</v>
       </c>
       <c r="C191" s="13"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
+        <v>6234</v>
+      </c>
+      <c r="B192" s="13" t="s">
         <v>6235</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>6236</v>
       </c>
       <c r="C192" s="13"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
+        <v>6236</v>
+      </c>
+      <c r="B193" s="13" t="s">
         <v>6237</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>6238</v>
       </c>
       <c r="C193" s="13"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
+        <v>6238</v>
+      </c>
+      <c r="B194" s="13" t="s">
         <v>6239</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>6240</v>
       </c>
       <c r="C194" s="13"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
+        <v>6240</v>
+      </c>
+      <c r="B195" s="13" t="s">
         <v>6241</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>6242</v>
       </c>
       <c r="C195" s="13"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
+        <v>6242</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>6243</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>6244</v>
       </c>
       <c r="C196" s="13"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
+        <v>6244</v>
+      </c>
+      <c r="B197" s="13" t="s">
         <v>6245</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>6246</v>
       </c>
       <c r="C197" s="13"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B198" s="13" t="s">
         <v>6247</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>6248</v>
       </c>
       <c r="C198" s="13"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
+        <v>6248</v>
+      </c>
+      <c r="B199" s="13" t="s">
         <v>6249</v>
-      </c>
-      <c r="B199" s="13" t="s">
-        <v>6250</v>
       </c>
       <c r="C199" s="13"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
+        <v>6250</v>
+      </c>
+      <c r="B200" s="13" t="s">
         <v>6251</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>6252</v>
       </c>
       <c r="C200" s="13"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
+        <v>6252</v>
+      </c>
+      <c r="B201" s="13" t="s">
         <v>6253</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>6254</v>
       </c>
       <c r="C201" s="13"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
+        <v>6254</v>
+      </c>
+      <c r="B202" s="13" t="s">
         <v>6255</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>6256</v>
       </c>
       <c r="C202" s="13"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
+        <v>6256</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>6257</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>6258</v>
       </c>
       <c r="C203" s="13"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
+        <v>6258</v>
+      </c>
+      <c r="B204" s="13" t="s">
         <v>6259</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>6260</v>
       </c>
       <c r="C204" s="13"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
+        <v>6260</v>
+      </c>
+      <c r="B205" s="13" t="s">
         <v>6261</v>
-      </c>
-      <c r="B205" s="13" t="s">
-        <v>6262</v>
       </c>
       <c r="C205" s="13"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B206" s="13" t="s">
         <v>6263</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>6264</v>
       </c>
       <c r="C206" s="13"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
+        <v>6264</v>
+      </c>
+      <c r="B207" s="13" t="s">
         <v>6265</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>6266</v>
       </c>
       <c r="C207" s="13"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
+        <v>6266</v>
+      </c>
+      <c r="B208" s="13" t="s">
         <v>6267</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>6268</v>
       </c>
       <c r="C208" s="13"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
+        <v>6268</v>
+      </c>
+      <c r="B209" s="13" t="s">
         <v>6269</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>6270</v>
       </c>
       <c r="C209" s="13"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>6271</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>6272</v>
       </c>
       <c r="C210" s="13"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
+        <v>6272</v>
+      </c>
+      <c r="B211" s="13" t="s">
         <v>6273</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>6274</v>
       </c>
       <c r="C211" s="13"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B212" s="13" t="s">
         <v>6275</v>
-      </c>
-      <c r="B212" s="13" t="s">
-        <v>6276</v>
       </c>
       <c r="C212" s="13"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B213" s="13" t="s">
         <v>6277</v>
-      </c>
-      <c r="B213" s="13" t="s">
-        <v>6278</v>
       </c>
       <c r="C213" s="13"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
+        <v>6278</v>
+      </c>
+      <c r="B214" s="13" t="s">
         <v>6279</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>6280</v>
       </c>
       <c r="C214" s="13"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
+        <v>6280</v>
+      </c>
+      <c r="B215" s="13" t="s">
         <v>6281</v>
-      </c>
-      <c r="B215" s="13" t="s">
-        <v>6282</v>
       </c>
       <c r="C215" s="13"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
+        <v>6282</v>
+      </c>
+      <c r="B216" s="13" t="s">
         <v>6283</v>
-      </c>
-      <c r="B216" s="13" t="s">
-        <v>6284</v>
       </c>
       <c r="C216" s="13"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
+        <v>6284</v>
+      </c>
+      <c r="B217" s="13" t="s">
         <v>6285</v>
-      </c>
-      <c r="B217" s="13" t="s">
-        <v>6286</v>
       </c>
       <c r="C217" s="13"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
+        <v>6286</v>
+      </c>
+      <c r="B218" s="13" t="s">
         <v>6287</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>6288</v>
       </c>
       <c r="C218" s="13"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
+        <v>6288</v>
+      </c>
+      <c r="B219" s="13" t="s">
         <v>6289</v>
-      </c>
-      <c r="B219" s="13" t="s">
-        <v>6290</v>
       </c>
       <c r="C219" s="13"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
+        <v>6290</v>
+      </c>
+      <c r="B220" s="13" t="s">
         <v>6291</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>6292</v>
       </c>
       <c r="C220" s="13"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>6293</v>
-      </c>
-      <c r="B221" s="13" t="s">
-        <v>6294</v>
       </c>
       <c r="C221" s="13"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>6295</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>6296</v>
       </c>
       <c r="C222" s="13"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B223" s="13" t="s">
         <v>6297</v>
-      </c>
-      <c r="B223" s="13" t="s">
-        <v>6298</v>
       </c>
       <c r="C223" s="13"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
+        <v>6298</v>
+      </c>
+      <c r="B224" s="13" t="s">
         <v>6299</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>6300</v>
       </c>
       <c r="C224" s="13"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B225" s="13" t="s">
         <v>6301</v>
-      </c>
-      <c r="B225" s="13" t="s">
-        <v>6302</v>
       </c>
       <c r="C225" s="13"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B226" s="13" t="s">
         <v>6303</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>6304</v>
       </c>
       <c r="C226" s="13"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
+        <v>6304</v>
+      </c>
+      <c r="B227" s="13" t="s">
         <v>6305</v>
-      </c>
-      <c r="B227" s="13" t="s">
-        <v>6306</v>
       </c>
       <c r="C227" s="13"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B228" s="13" t="s">
         <v>6307</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>6308</v>
       </c>
       <c r="C228" s="13"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B229" s="13" t="s">
         <v>6309</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>6310</v>
       </c>
       <c r="C229" s="13"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
+        <v>6310</v>
+      </c>
+      <c r="B230" s="13" t="s">
         <v>6311</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>6312</v>
       </c>
       <c r="C230" s="13"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
+        <v>6312</v>
+      </c>
+      <c r="B231" s="13" t="s">
         <v>6313</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>6314</v>
       </c>
       <c r="C231" s="13"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
+        <v>6314</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>6315</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>6316</v>
       </c>
       <c r="C232" s="13"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B233" s="13" t="s">
         <v>6317</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>6318</v>
       </c>
       <c r="C233" s="13"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
+        <v>6318</v>
+      </c>
+      <c r="B234" s="13" t="s">
         <v>6319</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>6320</v>
       </c>
       <c r="C234" s="13"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B235" s="13" t="s">
         <v>6321</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>6322</v>
       </c>
       <c r="C235" s="13"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
+        <v>6322</v>
+      </c>
+      <c r="B236" s="13" t="s">
         <v>6323</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>6324</v>
       </c>
       <c r="C236" s="13"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
+        <v>6324</v>
+      </c>
+      <c r="B237" s="13" t="s">
         <v>6325</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>6326</v>
       </c>
       <c r="C237" s="13"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
+        <v>6326</v>
+      </c>
+      <c r="B238" s="13" t="s">
         <v>6327</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>6328</v>
       </c>
       <c r="C238" s="13"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
+        <v>6328</v>
+      </c>
+      <c r="B239" s="13" t="s">
         <v>6329</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>6330</v>
       </c>
       <c r="C239" s="13"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
+        <v>6330</v>
+      </c>
+      <c r="B240" s="13" t="s">
         <v>6331</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>6332</v>
       </c>
       <c r="C240" s="13"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
+        <v>6332</v>
+      </c>
+      <c r="B241" s="13" t="s">
         <v>6333</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>6334</v>
       </c>
       <c r="C241" s="13"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B242" s="13" t="s">
         <v>6335</v>
-      </c>
-      <c r="B242" s="13" t="s">
-        <v>6336</v>
       </c>
       <c r="C242" s="13"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
+        <v>6336</v>
+      </c>
+      <c r="B243" s="13" t="s">
         <v>6337</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>6338</v>
       </c>
       <c r="C243" s="13"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
+        <v>6338</v>
+      </c>
+      <c r="B244" s="13" t="s">
         <v>6339</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>6340</v>
       </c>
       <c r="C244" s="13"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
+        <v>6340</v>
+      </c>
+      <c r="B245" s="13" t="s">
         <v>6341</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>6342</v>
       </c>
       <c r="C245" s="13"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
+        <v>6342</v>
+      </c>
+      <c r="B246" s="13" t="s">
         <v>6343</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>6344</v>
       </c>
       <c r="C246" s="13"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
+        <v>6344</v>
+      </c>
+      <c r="B247" s="13" t="s">
         <v>6345</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>6346</v>
       </c>
       <c r="C247" s="13"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B248" s="13" t="s">
         <v>6347</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>6348</v>
       </c>
       <c r="C248" s="13"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
+        <v>6348</v>
+      </c>
+      <c r="B249" s="13" t="s">
         <v>6349</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>6350</v>
       </c>
       <c r="C249" s="13"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
+        <v>6350</v>
+      </c>
+      <c r="B250" s="13" t="s">
         <v>6351</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>6352</v>
       </c>
       <c r="C250" s="13"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
+        <v>6352</v>
+      </c>
+      <c r="B251" s="13" t="s">
         <v>6353</v>
-      </c>
-      <c r="B251" s="13" t="s">
-        <v>6354</v>
       </c>
       <c r="C251" s="13"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B252" s="13" t="s">
         <v>6355</v>
-      </c>
-      <c r="B252" s="13" t="s">
-        <v>6356</v>
       </c>
       <c r="C252" s="13"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
+        <v>6356</v>
+      </c>
+      <c r="B253" s="13" t="s">
         <v>6357</v>
-      </c>
-      <c r="B253" s="13" t="s">
-        <v>6358</v>
       </c>
       <c r="C253" s="13"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
+        <v>6358</v>
+      </c>
+      <c r="B254" s="13" t="s">
         <v>6359</v>
-      </c>
-      <c r="B254" s="13" t="s">
-        <v>6360</v>
       </c>
       <c r="C254" s="13"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
+        <v>6360</v>
+      </c>
+      <c r="B255" s="13" t="s">
         <v>6361</v>
-      </c>
-      <c r="B255" s="13" t="s">
-        <v>6362</v>
       </c>
       <c r="C255" s="13"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
+        <v>6362</v>
+      </c>
+      <c r="B256" s="13" t="s">
         <v>6363</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>6364</v>
       </c>
       <c r="C256" s="13"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B257" s="13" t="s">
         <v>6365</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>6366</v>
       </c>
       <c r="C257" s="13"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
+        <v>6366</v>
+      </c>
+      <c r="B258" s="13" t="s">
         <v>6367</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>6368</v>
       </c>
       <c r="C258" s="13"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
+        <v>6368</v>
+      </c>
+      <c r="B259" s="13" t="s">
         <v>6369</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>6370</v>
       </c>
       <c r="C259" s="13"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
+        <v>6370</v>
+      </c>
+      <c r="B260" s="13" t="s">
         <v>6371</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>6372</v>
       </c>
       <c r="C260" s="13"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
+        <v>6372</v>
+      </c>
+      <c r="B261" s="13" t="s">
         <v>6373</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>6374</v>
       </c>
       <c r="C261" s="13"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
+        <v>6374</v>
+      </c>
+      <c r="B262" s="13" t="s">
         <v>6375</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>6376</v>
       </c>
       <c r="C262" s="13"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B263" s="13" t="s">
         <v>6377</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>6378</v>
       </c>
       <c r="C263" s="13"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
+        <v>6378</v>
+      </c>
+      <c r="B264" s="13" t="s">
         <v>6379</v>
-      </c>
-      <c r="B264" s="13" t="s">
-        <v>6380</v>
       </c>
       <c r="C264" s="13"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B265" s="13" t="s">
         <v>6381</v>
-      </c>
-      <c r="B265" s="13" t="s">
-        <v>6382</v>
       </c>
       <c r="C265" s="13"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
+        <v>6382</v>
+      </c>
+      <c r="B266" s="13" t="s">
         <v>6383</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>6384</v>
       </c>
       <c r="C266" s="13"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B267" s="13" t="s">
         <v>6385</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>6386</v>
       </c>
       <c r="C267" s="13"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
+        <v>6386</v>
+      </c>
+      <c r="B268" s="13" t="s">
         <v>6387</v>
-      </c>
-      <c r="B268" s="13" t="s">
-        <v>6388</v>
       </c>
       <c r="C268" s="13"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
+        <v>6388</v>
+      </c>
+      <c r="B269" s="13" t="s">
         <v>6389</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>6390</v>
       </c>
       <c r="C269" s="13"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B270" s="13" t="s">
         <v>6391</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>6392</v>
       </c>
       <c r="C270" s="13"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
+        <v>6392</v>
+      </c>
+      <c r="B271" s="13" t="s">
         <v>6393</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>6394</v>
       </c>
       <c r="C271" s="13"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
+        <v>6394</v>
+      </c>
+      <c r="B272" s="13" t="s">
         <v>6395</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>6396</v>
       </c>
       <c r="C272" s="13"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
+        <v>6396</v>
+      </c>
+      <c r="B273" s="13" t="s">
         <v>6397</v>
-      </c>
-      <c r="B273" s="13" t="s">
-        <v>6398</v>
       </c>
       <c r="C273" s="13"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
+        <v>6398</v>
+      </c>
+      <c r="B274" s="13" t="s">
         <v>6399</v>
-      </c>
-      <c r="B274" s="13" t="s">
-        <v>6400</v>
       </c>
       <c r="C274" s="13"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
+        <v>6400</v>
+      </c>
+      <c r="B275" s="13" t="s">
         <v>6401</v>
-      </c>
-      <c r="B275" s="13" t="s">
-        <v>6402</v>
       </c>
       <c r="C275" s="13"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
+        <v>6402</v>
+      </c>
+      <c r="B276" s="13" t="s">
         <v>6403</v>
-      </c>
-      <c r="B276" s="13" t="s">
-        <v>6404</v>
       </c>
       <c r="C276" s="13"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
+        <v>6404</v>
+      </c>
+      <c r="B277" s="13" t="s">
         <v>6405</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>6406</v>
       </c>
       <c r="C277" s="13"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B278" s="13" t="s">
         <v>6407</v>
-      </c>
-      <c r="B278" s="13" t="s">
-        <v>6408</v>
       </c>
       <c r="C278" s="13"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
+        <v>6408</v>
+      </c>
+      <c r="B279" s="13" t="s">
         <v>6409</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>6410</v>
       </c>
       <c r="C279" s="13"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
+        <v>6410</v>
+      </c>
+      <c r="B280" s="13" t="s">
         <v>6411</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>6412</v>
       </c>
       <c r="C280" s="13"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
+        <v>6412</v>
+      </c>
+      <c r="B281" s="13" t="s">
         <v>6413</v>
-      </c>
-      <c r="B281" s="13" t="s">
-        <v>6414</v>
       </c>
       <c r="C281" s="13"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
+        <v>6414</v>
+      </c>
+      <c r="B282" s="13" t="s">
         <v>6415</v>
-      </c>
-      <c r="B282" s="13" t="s">
-        <v>6416</v>
       </c>
       <c r="C282" s="13"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
+        <v>6416</v>
+      </c>
+      <c r="B283" s="13" t="s">
         <v>6417</v>
-      </c>
-      <c r="B283" s="13" t="s">
-        <v>6418</v>
       </c>
       <c r="C283" s="13"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B284" s="13" t="s">
         <v>6419</v>
-      </c>
-      <c r="B284" s="13" t="s">
-        <v>6420</v>
       </c>
       <c r="C284" s="13"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
+        <v>6420</v>
+      </c>
+      <c r="B285" s="13" t="s">
         <v>6421</v>
-      </c>
-      <c r="B285" s="13" t="s">
-        <v>6422</v>
       </c>
       <c r="C285" s="13"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
+        <v>6422</v>
+      </c>
+      <c r="B286" s="13" t="s">
         <v>6423</v>
-      </c>
-      <c r="B286" s="13" t="s">
-        <v>6424</v>
       </c>
       <c r="C286" s="13"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
+        <v>6424</v>
+      </c>
+      <c r="B287" s="13" t="s">
         <v>6425</v>
-      </c>
-      <c r="B287" s="13" t="s">
-        <v>6426</v>
       </c>
       <c r="C287" s="13"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
+        <v>6426</v>
+      </c>
+      <c r="B288" s="13" t="s">
         <v>6427</v>
-      </c>
-      <c r="B288" s="13" t="s">
-        <v>6428</v>
       </c>
       <c r="C288" s="13"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
+        <v>6428</v>
+      </c>
+      <c r="B289" s="13" t="s">
         <v>6429</v>
-      </c>
-      <c r="B289" s="13" t="s">
-        <v>6430</v>
       </c>
       <c r="C289" s="13"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
+        <v>6430</v>
+      </c>
+      <c r="B290" s="13" t="s">
         <v>6431</v>
-      </c>
-      <c r="B290" s="13" t="s">
-        <v>6432</v>
       </c>
       <c r="C290" s="13"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
+        <v>6432</v>
+      </c>
+      <c r="B291" s="13" t="s">
         <v>6433</v>
-      </c>
-      <c r="B291" s="13" t="s">
-        <v>6434</v>
       </c>
       <c r="C291" s="13"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
+        <v>6434</v>
+      </c>
+      <c r="B292" s="13" t="s">
         <v>6435</v>
-      </c>
-      <c r="B292" s="13" t="s">
-        <v>6436</v>
       </c>
       <c r="C292" s="13"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
+        <v>6436</v>
+      </c>
+      <c r="B293" s="13" t="s">
         <v>6437</v>
-      </c>
-      <c r="B293" s="13" t="s">
-        <v>6438</v>
       </c>
       <c r="C293" s="13"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B294" s="13" t="s">
         <v>6439</v>
-      </c>
-      <c r="B294" s="13" t="s">
-        <v>6440</v>
       </c>
       <c r="C294" s="13"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
+        <v>6440</v>
+      </c>
+      <c r="B295" s="13" t="s">
         <v>6441</v>
-      </c>
-      <c r="B295" s="13" t="s">
-        <v>6442</v>
       </c>
       <c r="C295" s="13"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
+        <v>6442</v>
+      </c>
+      <c r="B296" s="13" t="s">
         <v>6443</v>
-      </c>
-      <c r="B296" s="13" t="s">
-        <v>6444</v>
       </c>
       <c r="C296" s="13"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
+        <v>6444</v>
+      </c>
+      <c r="B297" s="13" t="s">
         <v>6445</v>
-      </c>
-      <c r="B297" s="13" t="s">
-        <v>6446</v>
       </c>
       <c r="C297" s="13"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
+        <v>6446</v>
+      </c>
+      <c r="B298" s="13" t="s">
         <v>6447</v>
-      </c>
-      <c r="B298" s="13" t="s">
-        <v>6448</v>
       </c>
       <c r="C298" s="13"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
+        <v>6448</v>
+      </c>
+      <c r="B299" s="13" t="s">
         <v>6449</v>
-      </c>
-      <c r="B299" s="13" t="s">
-        <v>6450</v>
       </c>
       <c r="C299" s="13"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
+        <v>6450</v>
+      </c>
+      <c r="B300" s="13" t="s">
         <v>6451</v>
-      </c>
-      <c r="B300" s="13" t="s">
-        <v>6452</v>
       </c>
       <c r="C300" s="13"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
+        <v>6452</v>
+      </c>
+      <c r="B301" s="13" t="s">
         <v>6453</v>
-      </c>
-      <c r="B301" s="13" t="s">
-        <v>6454</v>
       </c>
       <c r="C301" s="13"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
+        <v>6454</v>
+      </c>
+      <c r="B302" s="13" t="s">
         <v>6455</v>
-      </c>
-      <c r="B302" s="13" t="s">
-        <v>6456</v>
       </c>
       <c r="C302" s="13"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="B303" s="13" t="s">
         <v>4172</v>
@@ -33537,10 +33537,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
+        <v>6457</v>
+      </c>
+      <c r="B304" s="13" t="s">
         <v>6458</v>
-      </c>
-      <c r="B304" s="13" t="s">
-        <v>6459</v>
       </c>
       <c r="C304" s="13"/>
     </row>
@@ -33558,8 +33558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1628"/>
   <sheetViews>
-    <sheetView topLeftCell="A1575" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C1628" sqref="C1628"/>
+    <sheetView tabSelected="1" topLeftCell="A1329" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C1343" sqref="C1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48327,7 +48327,7 @@
         <v>916</v>
       </c>
       <c r="C1343" t="s">
-        <v>5605</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.3">
@@ -49999,7 +49999,7 @@
         <v>622</v>
       </c>
       <c r="C1495" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="1496" spans="1:3" x14ac:dyDescent="0.3">
@@ -50010,7 +50010,7 @@
         <v>624</v>
       </c>
       <c r="C1496" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.3">
@@ -50813,7 +50813,7 @@
         <v>2815</v>
       </c>
       <c r="C1569" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="1570" spans="1:3" x14ac:dyDescent="0.3">
@@ -50857,7 +50857,7 @@
         <v>2825</v>
       </c>
       <c r="C1573" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="1574" spans="1:3" x14ac:dyDescent="0.3">
@@ -50879,7 +50879,7 @@
         <v>2834</v>
       </c>
       <c r="C1575" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="1576" spans="1:3" x14ac:dyDescent="0.3">
@@ -50901,7 +50901,7 @@
         <v>2820</v>
       </c>
       <c r="C1577" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="1578" spans="1:3" x14ac:dyDescent="0.3">
@@ -50912,7 +50912,7 @@
         <v>2824</v>
       </c>
       <c r="C1578" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="1579" spans="1:3" x14ac:dyDescent="0.3">
@@ -50934,7 +50934,7 @@
         <v>2818</v>
       </c>
       <c r="C1580" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="1581" spans="1:3" x14ac:dyDescent="0.3">
@@ -51462,7 +51462,7 @@
         <v>4646</v>
       </c>
       <c r="C1628" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
     </row>
   </sheetData>
@@ -59984,7 +59984,7 @@
         <v>2584</v>
       </c>
       <c r="C2" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -60006,7 +60006,7 @@
         <v>2609</v>
       </c>
       <c r="C4" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -60017,7 +60017,7 @@
         <v>2607</v>
       </c>
       <c r="C5" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -60061,7 +60061,7 @@
         <v>2587</v>
       </c>
       <c r="C9" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -60072,7 +60072,7 @@
         <v>2656</v>
       </c>
       <c r="C10" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -60083,7 +60083,7 @@
         <v>2589</v>
       </c>
       <c r="C11" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -60094,7 +60094,7 @@
         <v>2713</v>
       </c>
       <c r="C12" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -60105,7 +60105,7 @@
         <v>2592</v>
       </c>
       <c r="C13" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -60116,7 +60116,7 @@
         <v>2714</v>
       </c>
       <c r="C14" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -60127,7 +60127,7 @@
         <v>2593</v>
       </c>
       <c r="C15" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -60138,7 +60138,7 @@
         <v>2597</v>
       </c>
       <c r="C16" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -60149,7 +60149,7 @@
         <v>2598</v>
       </c>
       <c r="C17" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -60160,7 +60160,7 @@
         <v>2600</v>
       </c>
       <c r="C18" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -60171,7 +60171,7 @@
         <v>2602</v>
       </c>
       <c r="C19" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -60182,7 +60182,7 @@
         <v>2604</v>
       </c>
       <c r="C20" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -60204,7 +60204,7 @@
         <v>2654</v>
       </c>
       <c r="C22" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -60215,7 +60215,7 @@
         <v>2612</v>
       </c>
       <c r="C23" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -60248,7 +60248,7 @@
         <v>2619</v>
       </c>
       <c r="C26" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -60259,7 +60259,7 @@
         <v>2621</v>
       </c>
       <c r="C27" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -60281,7 +60281,7 @@
         <v>2625</v>
       </c>
       <c r="C29" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -60292,7 +60292,7 @@
         <v>2627</v>
       </c>
       <c r="C30" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -60303,7 +60303,7 @@
         <v>2629</v>
       </c>
       <c r="C31" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -60325,7 +60325,7 @@
         <v>2632</v>
       </c>
       <c r="C33" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -60336,7 +60336,7 @@
         <v>2634</v>
       </c>
       <c r="C34" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -60347,7 +60347,7 @@
         <v>618</v>
       </c>
       <c r="C35" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -60358,7 +60358,7 @@
         <v>2637</v>
       </c>
       <c r="C36" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -60369,7 +60369,7 @@
         <v>2639</v>
       </c>
       <c r="C37" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -60402,7 +60402,7 @@
         <v>2646</v>
       </c>
       <c r="C40" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -60413,7 +60413,7 @@
         <v>2647</v>
       </c>
       <c r="C41" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -60424,7 +60424,7 @@
         <v>2650</v>
       </c>
       <c r="C42" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -60435,7 +60435,7 @@
         <v>2643</v>
       </c>
       <c r="C43" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -60446,7 +60446,7 @@
         <v>2653</v>
       </c>
       <c r="C44" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
     </row>
   </sheetData>
@@ -60558,450 +60558,450 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B2" t="s">
         <v>5748</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5749</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B3" t="s">
         <v>5750</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5751</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
       <c r="B4" t="s">
-        <v>5752</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B5" t="s">
         <v>5754</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5755</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5755</v>
+      </c>
+      <c r="B6" t="s">
         <v>5756</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5757</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5757</v>
+      </c>
+      <c r="B7" t="s">
         <v>5758</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5759</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5759</v>
+      </c>
+      <c r="B8" t="s">
         <v>5760</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5761</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B9" t="s">
         <v>5762</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5763</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5763</v>
+      </c>
+      <c r="B10" t="s">
         <v>5764</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5765</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5765</v>
+      </c>
+      <c r="B11" t="s">
         <v>5766</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5767</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5767</v>
+      </c>
+      <c r="B12" t="s">
         <v>5768</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5769</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5769</v>
+      </c>
+      <c r="B13" t="s">
         <v>5770</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5771</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B14" t="s">
         <v>5772</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5773</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>5773</v>
+      </c>
+      <c r="B15" t="s">
         <v>5774</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5775</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>5775</v>
+      </c>
+      <c r="B16" t="s">
         <v>5776</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5777</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B17" t="s">
         <v>5778</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5779</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>5779</v>
+      </c>
+      <c r="B18" t="s">
         <v>5780</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5781</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B19" t="s">
         <v>5782</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5783</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>5783</v>
+      </c>
+      <c r="B20" t="s">
         <v>5784</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5785</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>5785</v>
+      </c>
+      <c r="B21" t="s">
         <v>5786</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5787</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="B22" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5845</v>
+        <v>5844</v>
       </c>
       <c r="B23" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5846</v>
+        <v>5845</v>
       </c>
       <c r="B24" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5847</v>
+        <v>5846</v>
       </c>
       <c r="B25" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="B26" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="B27" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5851</v>
+        <v>5850</v>
       </c>
       <c r="B28" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B29" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5852</v>
+        <v>5851</v>
       </c>
       <c r="B30" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5853</v>
+        <v>5852</v>
       </c>
       <c r="B31" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="B32" t="s">
-        <v>5798</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5855</v>
+        <v>5854</v>
       </c>
       <c r="B33" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5856</v>
+        <v>5855</v>
       </c>
       <c r="B34" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5857</v>
+        <v>5856</v>
       </c>
       <c r="B35" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5858</v>
+        <v>5857</v>
       </c>
       <c r="B36" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5843</v>
+        <v>5842</v>
       </c>
       <c r="B37" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="B38" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
       <c r="B39" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
       <c r="B40" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="B41" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5838</v>
+        <v>5837</v>
       </c>
       <c r="B42" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="B43" t="s">
-        <v>5808</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5836</v>
+        <v>5835</v>
       </c>
       <c r="B44" t="s">
-        <v>5809</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
       <c r="B45" t="s">
-        <v>5810</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5834</v>
+        <v>5833</v>
       </c>
       <c r="B46" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5833</v>
+        <v>5832</v>
       </c>
       <c r="B47" t="s">
-        <v>5812</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5832</v>
+        <v>5831</v>
       </c>
       <c r="B48" t="s">
-        <v>5813</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="B49" t="s">
-        <v>5814</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="B50" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5829</v>
+        <v>5828</v>
       </c>
       <c r="B51" t="s">
-        <v>5816</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="B52" t="s">
-        <v>5817</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="B53" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5826</v>
+        <v>5825</v>
       </c>
       <c r="B54" t="s">
-        <v>5819</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5825</v>
+        <v>5824</v>
       </c>
       <c r="B55" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5824</v>
+        <v>5823</v>
       </c>
       <c r="B56" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5823</v>
+        <v>5822</v>
       </c>
       <c r="B57" t="s">
-        <v>5822</v>
+        <v>5821</v>
       </c>
     </row>
   </sheetData>

--- a/resources/i18n.xlsx
+++ b/resources/i18n.xlsx
@@ -17,7 +17,7 @@
     <sheet name="poi" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$1:$A$588</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$1:$A$589</definedName>
     <definedName name="mime_types" localSheetId="4">'mime-types'!$A$2:$A$766</definedName>
     <definedName name="mime_types_1" localSheetId="4">'mime-types'!$B$2:$B$766</definedName>
     <definedName name="mime_types_2" localSheetId="4">'mime-types'!$C$2:$C$766</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10935" uniqueCount="6576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10942" uniqueCount="6578">
   <si>
     <t>fi</t>
   </si>
@@ -19787,6 +19787,12 @@
   </si>
   <si>
     <t>applications.attachmentsRequiringAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>applications.indicators</t>
   </si>
 </sst>
 </file>
@@ -20220,17 +20226,7 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20715,10 +20711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21682,6 +21678,12 @@
       <c r="A95" s="1" t="s">
         <v>6575</v>
       </c>
+      <c r="B95" s="5" t="s">
+        <v>6576</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>6576</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -21857,23 +21859,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>17</v>
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6577</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6576</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>4912</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>4912</v>
@@ -21881,303 +21883,309 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>1797</v>
+        <v>4</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>2764</v>
+        <v>5</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>4916</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>4917</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>5723</v>
-      </c>
-      <c r="B118" t="s">
-        <v>5736</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>5723</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>5722</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>5737</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>2623</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>4918</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>1798</v>
+        <v>3123</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>2721</v>
+        <v>2623</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>4919</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>2761</v>
+        <v>1798</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>2762</v>
+        <v>2721</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>54</v>
+        <v>2761</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>55</v>
+        <v>2762</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>4866</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>2798</v>
+        <v>48</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>2799</v>
+        <v>49</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>4922</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>2798</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>46</v>
+        <v>2799</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>4867</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>6574</v>
+        <v>56</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>4867</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>58</v>
+        <v>6574</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>59</v>
+        <v>6576</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>4924</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>2765</v>
+        <v>59</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>4925</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>1274</v>
+        <v>41</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1275</v>
+        <v>2765</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>4926</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>1803</v>
+        <v>1274</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>533</v>
+        <v>1275</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B134" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>4928</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
         <v>2663</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>2662</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>4929</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>4930</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>76</v>
+        <v>3140</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>4907</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>4932</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>4933</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>3136</v>
+        <v>60</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>3138</v>
+        <v>61</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>3138</v>
@@ -22188,252 +22196,258 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>6465</v>
+        <v>3138</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>6467</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>80</v>
+        <v>3141</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>81</v>
+        <v>6466</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>4938</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>2577</v>
+        <v>81</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>85</v>
+        <v>2577</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>4862</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>4940</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>2805</v>
+        <v>88</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>2804</v>
+        <v>89</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>64</v>
+        <v>2805</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>65</v>
+        <v>2804</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>4874</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>3557</v>
+        <v>64</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>3558</v>
+        <v>65</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>4944</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>4747</v>
+        <v>3557</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>4682</v>
+        <v>3558</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>4944</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>78</v>
+        <v>4748</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>4945</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>3165</v>
+        <v>82</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>3166</v>
+        <v>83</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>478</v>
+        <v>3169</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>479</v>
+        <v>3170</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>479</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>313</v>
+        <v>479</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>313</v>
+        <v>479</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>484</v>
+        <v>313</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>484</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>257</v>
+        <v>483</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>258</v>
+        <v>484</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>258</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>4530</v>
-      </c>
-      <c r="C167" s="5">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>4530</v>
       </c>
+      <c r="C168" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
@@ -22442,1147 +22456,1144 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>4950</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>3176</v>
+        <v>1760</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>2774</v>
+        <v>3176</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1767</v>
+        <v>2774</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>1649</v>
+        <v>1761</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>35</v>
+        <v>1762</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>4854</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1653</v>
+        <v>35</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>4956</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>4957</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>1735</v>
+        <v>1654</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1736</v>
+        <v>1655</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>1753</v>
+        <v>1731</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1754</v>
+        <v>1732</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>1715</v>
+        <v>1753</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1716</v>
+        <v>1754</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>1749</v>
+        <v>1715</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1750</v>
+        <v>1716</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1744</v>
+        <v>1750</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>1719</v>
+        <v>1743</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1720</v>
+        <v>1744</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>1707</v>
+        <v>1719</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1708</v>
+        <v>1720</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>4966</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>1733</v>
+        <v>1707</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1734</v>
+        <v>1708</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>4967</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>1717</v>
+        <v>1733</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>1699</v>
+        <v>1717</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1700</v>
+        <v>1718</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>4969</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>1741</v>
+        <v>1699</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1742</v>
+        <v>1700</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>1697</v>
+        <v>1741</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1698</v>
+        <v>1742</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>1723</v>
+        <v>1697</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1724</v>
+        <v>1698</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>1751</v>
+        <v>1723</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1752</v>
+        <v>1724</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>1695</v>
+        <v>1751</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>1696</v>
+        <v>1752</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>4974</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>1739</v>
+        <v>1695</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1740</v>
+        <v>1696</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>1737</v>
+        <v>1713</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1738</v>
+        <v>1714</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>1693</v>
+        <v>1737</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1694</v>
+        <v>1738</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>4985</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>1745</v>
+        <v>1705</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1746</v>
+        <v>1706</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>1701</v>
+        <v>1757</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>1702</v>
+        <v>1758</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>1656</v>
+        <v>1725</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1657</v>
+        <v>1726</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>448</v>
+        <v>1675</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1688</v>
+        <v>448</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>301</v>
+        <v>1683</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>302</v>
+        <v>1684</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>4930</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>5011</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>4789</v>
+        <v>279</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>4648</v>
+        <v>280</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>5012</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>285</v>
+        <v>4789</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>5013</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>4625</v>
+        <v>281</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>4618</v>
+        <v>282</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>20</v>
+        <v>4619</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>2623</v>
+        <v>20</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>4918</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>292</v>
+        <v>4626</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>293</v>
+        <v>2623</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>5026</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>4790</v>
+        <v>265</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>4647</v>
+        <v>266</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>5029</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>4788</v>
+        <v>4792</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>4649</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>277</v>
+        <v>4788</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>5030</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>2700</v>
+        <v>277</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>2701</v>
+        <v>278</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>271</v>
+        <v>2700</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>272</v>
+        <v>2701</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>5030</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B264" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C264" s="5" t="s">
         <v>5034</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="9" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
         <v>2676</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B265" s="5" t="s">
         <v>2675</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C265" s="5" t="s">
         <v>5035</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>2720</v>
+        <v>198</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>5036</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>480</v>
+        <v>381</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>481</v>
+        <v>2720</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>33</v>
+        <v>481</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>1302</v>
+        <v>32</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>539</v>
+        <v>33</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1788</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B271" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C271" s="5" t="s">
         <v>5039</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>1278</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>1279</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>1776</v>
+        <v>999</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1777</v>
+        <v>1000</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>5040</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>3173</v>
+        <v>1776</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>3174</v>
+        <v>1777</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>6459</v>
+        <v>3173</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>6460</v>
+        <v>3174</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>5041</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -23595,46 +23606,43 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>1280</v>
+        <v>6459</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>5042</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>195</v>
+        <v>1280</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>196</v>
+        <v>1281</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1792</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>3542</v>
+        <v>195</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>3543</v>
+        <v>196</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>5043</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>4492</v>
+        <v>3542</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>4493</v>
+        <v>3543</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -23644,861 +23652,864 @@
       <c r="B281" s="5" t="s">
         <v>4493</v>
       </c>
+      <c r="C281" s="5" t="s">
+        <v>5044</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>3155</v>
+        <v>4492</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>3156</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>5045</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>554</v>
+        <v>3153</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>352</v>
+        <v>3154</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>547</v>
+        <v>364</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>356</v>
+        <v>547</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>553</v>
+        <v>372</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>370</v>
+        <v>553</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>4892</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>549</v>
+        <v>358</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>5055</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>314</v>
+        <v>550</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>315</v>
+        <v>551</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1795</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>1373</v>
+        <v>209</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1374</v>
+        <v>210</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>5058</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>13</v>
+        <v>1373</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>1374</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>262</v>
+        <v>12</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>3569</v>
+        <v>261</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>3570</v>
+        <v>262</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>3562</v>
+        <v>3569</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>3563</v>
+        <v>3570</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>4777</v>
+        <v>3565</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>4658</v>
+        <v>3566</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>5063</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>3567</v>
+        <v>4777</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>3568</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>5064</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>5851</v>
+        <v>3567</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>5852</v>
+        <v>3568</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>5064</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>229</v>
+        <v>5851</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>5065</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>4826</v>
+        <v>229</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>4827</v>
+        <v>230</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>5065</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>223</v>
+        <v>4826</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>5066</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>4499</v>
+        <v>248</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>4498</v>
+        <v>249</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>246</v>
+        <v>4499</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>247</v>
+        <v>4498</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>4495</v>
+        <v>246</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>4496</v>
+        <v>247</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>252</v>
+        <v>4494</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>253</v>
+        <v>4497</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>216</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>5074</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>6512</v>
+        <v>231</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>6513</v>
+        <v>232</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>5074</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>6490</v>
+        <v>6512</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>6491</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>242</v>
+        <v>6490</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>5075</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>6507</v>
+        <v>242</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>6508</v>
+        <v>243</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>5075</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>6486</v>
+        <v>6507</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>6487</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>6502</v>
+        <v>6486</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>6503</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>6500</v>
+        <v>6502</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>6501</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>6498</v>
+        <v>6500</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>6499</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>6496</v>
+        <v>6498</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>6497</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>6509</v>
+        <v>6496</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>6510</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>6511</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>6494</v>
+        <v>6509</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>6495</v>
+        <v>6510</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>6511</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>6506</v>
+        <v>6494</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>6489</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>6492</v>
+        <v>6506</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>6493</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>6482</v>
+        <v>6492</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>6483</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>6480</v>
+        <v>6482</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>6481</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>6470</v>
+        <v>6480</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>6471</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>6472</v>
+        <v>6470</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>6473</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>6478</v>
+        <v>6472</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>6479</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>6563</v>
+        <v>6478</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>6564</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>6484</v>
+        <v>6563</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>6485</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>6474</v>
+        <v>6484</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>6475</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>6476</v>
+        <v>6474</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>6477</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>6565</v>
+        <v>6476</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>6566</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>6504</v>
+        <v>6565</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>6505</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>6504</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B343" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C343" s="5" t="s">
         <v>5076</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="344" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>5646</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>5647</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>5077</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>4786</v>
+        <v>235</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>4651</v>
+        <v>236</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>5082</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>219</v>
+        <v>4786</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>5083</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
         <v>4528</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B353" s="5" t="s">
         <v>4529</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C353" s="5" t="s">
         <v>5084</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="354" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>5648</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>5649</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>5085</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>4746</v>
+        <v>254</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>75</v>
+        <v>255</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>5085</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>239</v>
+        <v>4746</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>4488</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>5086</v>
+        <v>75</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>226</v>
+        <v>4488</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>6488</v>
+        <v>225</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>6489</v>
+        <v>226</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>5087</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>217</v>
+        <v>6488</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>5088</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>6557</v>
+        <v>217</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>6558</v>
+        <v>218</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>5088</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>6555</v>
+        <v>6557</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>6556</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>6569</v>
+        <v>6555</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>6570</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>6571</v>
+        <v>6569</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>6572</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>6530</v>
+        <v>6571</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>6531</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>6532</v>
+        <v>6530</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>6533</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>6534</v>
+        <v>6532</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>6535</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>6536</v>
+        <v>6534</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>6537</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>6538</v>
+        <v>6536</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>6539</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>6540</v>
+        <v>6538</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>6541</v>
+        <v>6539</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>6542</v>
+        <v>6540</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>6543</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -24506,802 +24517,799 @@
         <v>6542</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>6522</v>
+        <v>6542</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>6523</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>6520</v>
+        <v>6522</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>6521</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>6559</v>
+        <v>6520</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>6560</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>6524</v>
+        <v>6559</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>6525</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>6528</v>
+        <v>6524</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>6529</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>6526</v>
+        <v>6528</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>6527</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>6567</v>
+        <v>6526</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>6568</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>6549</v>
+        <v>6567</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>6550</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>6553</v>
+        <v>6549</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>6554</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>6551</v>
+        <v>6553</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>6552</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>6547</v>
+        <v>6551</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>6548</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>6561</v>
+        <v>6547</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>6562</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>6545</v>
+        <v>6561</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>6546</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>6514</v>
+        <v>6545</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>6515</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>6516</v>
+        <v>6514</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>6517</v>
+        <v>6515</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>6518</v>
+        <v>6516</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>6519</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>4521</v>
+        <v>6518</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>4525</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>5089</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>4526</v>
+        <v>4524</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>2786</v>
+        <v>4522</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>2787</v>
+        <v>4526</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>193</v>
+        <v>2786</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>194</v>
+        <v>2787</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B395" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C395" s="5" t="s">
         <v>5095</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+    <row r="396" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
         <v>5655</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B396" t="s">
         <v>5656</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B396" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>5096</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>4876</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>1790</v>
+        <v>30</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1791</v>
+        <v>31</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1791</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>1769</v>
+        <v>1790</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1770</v>
+        <v>1791</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1770</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>4825</v>
+        <v>1769</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>214</v>
+        <v>1770</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>2719</v>
-      </c>
-      <c r="C401" s="5" t="s">
-        <v>5097</v>
+        <v>4825</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>2719</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>5025</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>5098</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>2575</v>
+        <v>28</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>2576</v>
+        <v>29</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>21</v>
+        <v>2575</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>22</v>
+        <v>2576</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>2717</v>
+        <v>26</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>4504</v>
+        <v>2717</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>24</v>
+        <v>4504</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>1305</v>
+        <v>23</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1306</v>
+        <v>24</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>4853</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>8</v>
+        <v>1305</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>9</v>
+        <v>1306</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>5105</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>5059</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>5106</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>4489</v>
+        <v>213</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1304</v>
+        <v>214</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>4921</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>482</v>
+        <v>4489</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>5</v>
+        <v>1304</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>4912</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>3545</v>
+        <v>482</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>4575</v>
+        <v>5</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>5107</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
         <v>3561</v>
       </c>
-      <c r="B417" s="5" t="s">
+      <c r="B418" s="5" t="s">
         <v>3564</v>
       </c>
-      <c r="C417" s="5" t="s">
+      <c r="C418" s="5" t="s">
         <v>5108</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="419" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
         <v>5720</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B419" t="s">
         <v>5721</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
         <v>3559</v>
       </c>
-      <c r="B419" s="5" t="s">
+      <c r="B420" s="5" t="s">
         <v>3560</v>
       </c>
-      <c r="C419" s="5" t="s">
+      <c r="C420" s="5" t="s">
         <v>5109</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="9" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>2658</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>5110</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>2671</v>
+        <v>2660</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>2692</v>
+        <v>2658</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
-        <v>2680</v>
+        <v>2671</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>309</v>
+        <v>2692</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
-        <v>2688</v>
+        <v>2680</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>2699</v>
+        <v>309</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
-        <v>2670</v>
+        <v>2688</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>2691</v>
+        <v>2699</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="9" t="s">
         <v>2685</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B426" s="5" t="s">
         <v>2698</v>
       </c>
-      <c r="C425" s="5" t="s">
+      <c r="C426" s="5" t="s">
         <v>5115</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
         <v>6573</v>
       </c>
-      <c r="B426" s="5" t="s">
+      <c r="B427" s="5" t="s">
         <v>2641</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="9" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>2775</v>
-      </c>
-      <c r="C427" s="5" t="s">
-        <v>5116</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
-        <v>2669</v>
+        <v>2687</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>2690</v>
+        <v>2775</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="9" t="s">
         <v>2667</v>
       </c>
-      <c r="B429" s="5" t="s">
+      <c r="B430" s="5" t="s">
         <v>2668</v>
       </c>
-      <c r="C429" s="5" t="s">
+      <c r="C430" s="5" t="s">
         <v>5118</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>5119</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>4531</v>
+        <v>185</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>4532</v>
+        <v>186</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="B434" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C433" s="5" t="s">
+      <c r="C434" s="5" t="s">
         <v>1786</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="9" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B434" s="5" t="s">
-        <v>2766</v>
-      </c>
-      <c r="C434" s="5" t="s">
-        <v>5122</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>2686</v>
+        <v>2678</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>2775</v>
+        <v>2766</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>5116</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
-        <v>2672</v>
+        <v>2686</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>2702</v>
+        <v>2775</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>5123</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="9" t="s">
         <v>2677</v>
       </c>
-      <c r="B437" s="5" t="s">
+      <c r="B438" s="5" t="s">
         <v>2694</v>
       </c>
-      <c r="C437" s="5" t="s">
+      <c r="C438" s="5" t="s">
         <v>5124</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
-        <v>4616</v>
-      </c>
-      <c r="B438" s="5" t="s">
-        <v>4617</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>5125</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>1332</v>
+        <v>4616</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1333</v>
+        <v>4617</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>3549</v>
+        <v>1332</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>3550</v>
+        <v>1333</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>1334</v>
+        <v>3549</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1335</v>
+        <v>3550</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
         <v>3546</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B444" s="5" t="s">
         <v>3547</v>
       </c>
-      <c r="C443" s="5" t="s">
+      <c r="C444" s="5" t="s">
         <v>5130</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="9" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B444" s="5" t="s">
-        <v>2696</v>
-      </c>
-      <c r="C444" s="5" t="s">
-        <v>5131</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>2684</v>
+        <v>2679</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>2715</v>
+        <v>2696</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="9" t="s">
         <v>2681</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="B447" s="5" t="s">
         <v>2697</v>
       </c>
-      <c r="C446" s="5" t="s">
+      <c r="C447" s="5" t="s">
         <v>5133</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B447" s="5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C447" s="5" t="s">
-        <v>5134</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>1782</v>
+        <v>1312</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>1313</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>1782</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B449" s="5" t="s">
-        <v>2806</v>
+      <c r="B449" s="6" t="s">
+        <v>1782</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>1782</v>
@@ -25309,1219 +25317,1219 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1311</v>
+        <v>2806</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>5135</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>1307</v>
+        <v>1316</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>5142</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>3157</v>
+        <v>1307</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>3158</v>
+        <v>1308</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>4922</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>555</v>
+        <v>3157</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>556</v>
+        <v>3158</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>5143</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>363</v>
+        <v>555</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>364</v>
+        <v>556</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>5049</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>2578</v>
+        <v>363</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>2712</v>
+        <v>364</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>5144</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>371</v>
+        <v>2578</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>2754</v>
+        <v>2712</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>356</v>
+        <v>2754</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>5051</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>5146</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>4503</v>
+        <v>366</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>362</v>
+        <v>4503</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>5054</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>5150</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>4892</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>5152</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>2803</v>
+        <v>367</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>2657</v>
+        <v>368</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>2757</v>
-      </c>
-      <c r="B474" s="4" t="s">
-        <v>2758</v>
+        <v>2803</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>2657</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>2760</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>14</v>
+        <v>2757</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>15</v>
+        <v>2758</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>1784</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B476" s="5" t="s">
-        <v>558</v>
+        <v>14</v>
